--- a/2016年销售日记账.xlsx
+++ b/2016年销售日记账.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197">
   <si>
     <t>2016年销售日记账</t>
   </si>
@@ -603,6 +603,12 @@
   </si>
   <si>
     <t>2016.5.6</t>
+  </si>
+  <si>
+    <t>2016.5.8</t>
+  </si>
+  <si>
+    <t>2016.5.9</t>
   </si>
 </sst>
 </file>
@@ -610,10 +616,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -631,69 +637,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -709,7 +654,68 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -730,10 +736,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -752,17 +758,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -783,19 +789,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -813,13 +831,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -831,13 +897,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -849,31 +945,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -885,79 +963,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1056,6 +1062,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1088,42 +1112,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1145,11 +1138,24 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1158,88 +1164,88 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1248,69 +1254,69 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1335,6 +1341,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1676,14 +1688,14 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="9.74814814814815" customWidth="1"/>
-    <col min="2" max="2" width="10.6222222222222" style="2" customWidth="1"/>
-    <col min="3" max="6" width="9" style="2"/>
-    <col min="7" max="7" width="9.37777777777778" style="2"/>
-    <col min="8" max="8" width="9" style="2"/>
+    <col min="2" max="2" width="10.6222222222222" style="1" customWidth="1"/>
+    <col min="3" max="6" width="9" style="1"/>
+    <col min="7" max="7" width="9.37777777777778" style="1"/>
+    <col min="8" max="8" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
@@ -2826,7 +2838,7 @@
       <c r="H52" s="9"/>
     </row>
     <row r="53" spans="1:8">
-      <c r="A53" s="13" t="s">
+      <c r="A53" s="15" t="s">
         <v>57</v>
       </c>
       <c r="B53" s="5" t="s">
@@ -2848,7 +2860,7 @@
       <c r="H53" s="6"/>
     </row>
     <row r="54" spans="1:8">
-      <c r="A54" s="15" t="s">
+      <c r="A54" s="17" t="s">
         <v>57</v>
       </c>
       <c r="B54" s="5" t="s">
@@ -2870,7 +2882,7 @@
       <c r="H54" s="6"/>
     </row>
     <row r="55" spans="1:8">
-      <c r="A55" s="13" t="s">
+      <c r="A55" s="15" t="s">
         <v>57</v>
       </c>
       <c r="B55" s="5" t="s">
@@ -2892,7 +2904,7 @@
       <c r="H55" s="6"/>
     </row>
     <row r="56" spans="1:8">
-      <c r="A56" s="13" t="s">
+      <c r="A56" s="15" t="s">
         <v>57</v>
       </c>
       <c r="B56" s="5" t="s">
@@ -2916,7 +2928,7 @@
       <c r="H56" s="6"/>
     </row>
     <row r="57" spans="1:8">
-      <c r="A57" s="13" t="s">
+      <c r="A57" s="15" t="s">
         <v>57</v>
       </c>
       <c r="B57" s="5" t="s">
@@ -2938,7 +2950,7 @@
       <c r="H57" s="6"/>
     </row>
     <row r="58" spans="1:8">
-      <c r="A58" s="13" t="s">
+      <c r="A58" s="15" t="s">
         <v>57</v>
       </c>
       <c r="B58" s="6" t="s">
@@ -2962,7 +2974,7 @@
       <c r="H58" s="6"/>
     </row>
     <row r="59" spans="1:8">
-      <c r="A59" s="13" t="s">
+      <c r="A59" s="15" t="s">
         <v>58</v>
       </c>
       <c r="B59" s="5" t="s">
@@ -2984,7 +2996,7 @@
       <c r="H59" s="6"/>
     </row>
     <row r="60" spans="1:8">
-      <c r="A60" s="13" t="s">
+      <c r="A60" s="15" t="s">
         <v>58</v>
       </c>
       <c r="B60" s="5" t="s">
@@ -3008,7 +3020,7 @@
       <c r="H60" s="6"/>
     </row>
     <row r="61" spans="1:8">
-      <c r="A61" s="13" t="s">
+      <c r="A61" s="15" t="s">
         <v>60</v>
       </c>
       <c r="B61" s="6" t="s">
@@ -3032,7 +3044,7 @@
       <c r="H61" s="6"/>
     </row>
     <row r="62" spans="1:8">
-      <c r="A62" s="13" t="s">
+      <c r="A62" s="15" t="s">
         <v>60</v>
       </c>
       <c r="B62" s="5" t="s">
@@ -3056,7 +3068,7 @@
       <c r="H62" s="6"/>
     </row>
     <row r="63" spans="1:8">
-      <c r="A63" s="13" t="s">
+      <c r="A63" s="15" t="s">
         <v>60</v>
       </c>
       <c r="B63" s="5" t="s">
@@ -3078,7 +3090,7 @@
       <c r="H63" s="6"/>
     </row>
     <row r="64" spans="1:8">
-      <c r="A64" s="13" t="s">
+      <c r="A64" s="15" t="s">
         <v>61</v>
       </c>
       <c r="B64" s="5" t="s">
@@ -3100,7 +3112,7 @@
       <c r="H64" s="6"/>
     </row>
     <row r="65" spans="1:8">
-      <c r="A65" s="13" t="s">
+      <c r="A65" s="15" t="s">
         <v>61</v>
       </c>
       <c r="B65" s="5" t="s">
@@ -3116,7 +3128,7 @@
       <c r="H65" s="6"/>
     </row>
     <row r="66" spans="1:8">
-      <c r="A66" s="13" t="s">
+      <c r="A66" s="15" t="s">
         <v>61</v>
       </c>
       <c r="B66" s="6" t="s">
@@ -3132,7 +3144,7 @@
       <c r="H66" s="6"/>
     </row>
     <row r="67" spans="1:8">
-      <c r="A67" s="13" t="s">
+      <c r="A67" s="15" t="s">
         <v>62</v>
       </c>
       <c r="B67" s="6" t="s">
@@ -3148,7 +3160,7 @@
       <c r="H67" s="6"/>
     </row>
     <row r="68" spans="1:8">
-      <c r="A68" s="13" t="s">
+      <c r="A68" s="15" t="s">
         <v>62</v>
       </c>
       <c r="B68" s="5" t="s">
@@ -3170,7 +3182,7 @@
       <c r="H68" s="6"/>
     </row>
     <row r="69" spans="1:8">
-      <c r="A69" s="13" t="s">
+      <c r="A69" s="15" t="s">
         <v>62</v>
       </c>
       <c r="B69" s="5" t="s">
@@ -3192,7 +3204,7 @@
       <c r="H69" s="6"/>
     </row>
     <row r="70" spans="1:8">
-      <c r="A70" s="13" t="s">
+      <c r="A70" s="15" t="s">
         <v>62</v>
       </c>
       <c r="B70" s="5" t="s">
@@ -3214,7 +3226,7 @@
       <c r="H70" s="6"/>
     </row>
     <row r="71" spans="1:8">
-      <c r="A71" s="13" t="s">
+      <c r="A71" s="15" t="s">
         <v>62</v>
       </c>
       <c r="B71" s="6" t="s">
@@ -3238,7 +3250,7 @@
       <c r="H71" s="6"/>
     </row>
     <row r="72" spans="1:8">
-      <c r="A72" s="13" t="s">
+      <c r="A72" s="15" t="s">
         <v>62</v>
       </c>
       <c r="B72" s="5" t="s">
@@ -3262,7 +3274,7 @@
       <c r="H72" s="6"/>
     </row>
     <row r="73" spans="1:8">
-      <c r="A73" s="13" t="s">
+      <c r="A73" s="15" t="s">
         <v>62</v>
       </c>
       <c r="B73" s="5" t="s">
@@ -3286,7 +3298,7 @@
       </c>
     </row>
     <row r="74" spans="1:8">
-      <c r="A74" s="13" t="s">
+      <c r="A74" s="15" t="s">
         <v>62</v>
       </c>
       <c r="B74" s="5" t="s">
@@ -3308,7 +3320,7 @@
       <c r="H74" s="6"/>
     </row>
     <row r="75" spans="1:8">
-      <c r="A75" s="13" t="s">
+      <c r="A75" s="15" t="s">
         <v>62</v>
       </c>
       <c r="B75" s="5" t="s">
@@ -3330,7 +3342,7 @@
       <c r="H75" s="6"/>
     </row>
     <row r="76" spans="1:8">
-      <c r="A76" s="13" t="s">
+      <c r="A76" s="15" t="s">
         <v>62</v>
       </c>
       <c r="B76" s="5" t="s">
@@ -3352,7 +3364,7 @@
       <c r="H76" s="6"/>
     </row>
     <row r="77" spans="1:8">
-      <c r="A77" s="13" t="s">
+      <c r="A77" s="15" t="s">
         <v>62</v>
       </c>
       <c r="B77" s="5" t="s">
@@ -3378,7 +3390,7 @@
       </c>
     </row>
     <row r="78" spans="1:8">
-      <c r="A78" s="13" t="s">
+      <c r="A78" s="15" t="s">
         <v>62</v>
       </c>
       <c r="B78" s="5" t="s">
@@ -3404,7 +3416,7 @@
       </c>
     </row>
     <row r="79" spans="1:8">
-      <c r="A79" s="13" t="s">
+      <c r="A79" s="15" t="s">
         <v>64</v>
       </c>
       <c r="B79" s="5" t="s">
@@ -3430,7 +3442,7 @@
       </c>
     </row>
     <row r="80" spans="1:8">
-      <c r="A80" s="13" t="s">
+      <c r="A80" s="15" t="s">
         <v>64</v>
       </c>
       <c r="B80" s="5" t="s">
@@ -3448,7 +3460,7 @@
       </c>
     </row>
     <row r="81" spans="1:8">
-      <c r="A81" s="13" t="s">
+      <c r="A81" s="15" t="s">
         <v>64</v>
       </c>
       <c r="B81" s="6" t="s">
@@ -3472,7 +3484,7 @@
       <c r="H81" s="6"/>
     </row>
     <row r="82" spans="1:8">
-      <c r="A82" s="13" t="s">
+      <c r="A82" s="15" t="s">
         <v>64</v>
       </c>
       <c r="B82" s="5" t="s">
@@ -3494,7 +3506,7 @@
       <c r="H82" s="6"/>
     </row>
     <row r="83" spans="1:8">
-      <c r="A83" s="13" t="s">
+      <c r="A83" s="15" t="s">
         <v>64</v>
       </c>
       <c r="B83" s="5" t="s">
@@ -3516,7 +3528,7 @@
       <c r="H83" s="6"/>
     </row>
     <row r="84" spans="1:8">
-      <c r="A84" s="13" t="s">
+      <c r="A84" s="15" t="s">
         <v>64</v>
       </c>
       <c r="B84" s="5" t="s">
@@ -3538,7 +3550,7 @@
       <c r="H84" s="6"/>
     </row>
     <row r="85" spans="1:8">
-      <c r="A85" s="13" t="s">
+      <c r="A85" s="15" t="s">
         <v>64</v>
       </c>
       <c r="B85" s="5" t="s">
@@ -3560,7 +3572,7 @@
       <c r="H85" s="6"/>
     </row>
     <row r="86" spans="1:8">
-      <c r="A86" s="13" t="s">
+      <c r="A86" s="15" t="s">
         <v>66</v>
       </c>
       <c r="B86" s="6" t="s">
@@ -3582,7 +3594,7 @@
       <c r="H86" s="6"/>
     </row>
     <row r="87" spans="1:8">
-      <c r="A87" s="13" t="s">
+      <c r="A87" s="15" t="s">
         <v>66</v>
       </c>
       <c r="B87" s="5" t="s">
@@ -3604,7 +3616,7 @@
       <c r="H87" s="6"/>
     </row>
     <row r="88" spans="1:8">
-      <c r="A88" s="13" t="s">
+      <c r="A88" s="15" t="s">
         <v>66</v>
       </c>
       <c r="B88" s="5" t="s">
@@ -3626,7 +3638,7 @@
       <c r="H88" s="6"/>
     </row>
     <row r="89" spans="1:8">
-      <c r="A89" s="13" t="s">
+      <c r="A89" s="15" t="s">
         <v>67</v>
       </c>
       <c r="B89" s="5" t="s">
@@ -3650,7 +3662,7 @@
       </c>
     </row>
     <row r="90" spans="1:8">
-      <c r="A90" s="13" t="s">
+      <c r="A90" s="15" t="s">
         <v>67</v>
       </c>
       <c r="B90" s="5" t="s">
@@ -3672,7 +3684,7 @@
       <c r="H90" s="6"/>
     </row>
     <row r="91" spans="1:8">
-      <c r="A91" s="13" t="s">
+      <c r="A91" s="15" t="s">
         <v>67</v>
       </c>
       <c r="B91" s="5" t="s">
@@ -3694,7 +3706,7 @@
       <c r="H91" s="6"/>
     </row>
     <row r="92" spans="1:8">
-      <c r="A92" s="13" t="s">
+      <c r="A92" s="15" t="s">
         <v>67</v>
       </c>
       <c r="B92" s="5" t="s">
@@ -3716,7 +3728,7 @@
       <c r="H92" s="6"/>
     </row>
     <row r="93" spans="1:8">
-      <c r="A93" s="13" t="s">
+      <c r="A93" s="15" t="s">
         <v>67</v>
       </c>
       <c r="B93" s="5" t="s">
@@ -3738,7 +3750,7 @@
       <c r="H93" s="6"/>
     </row>
     <row r="94" spans="1:8">
-      <c r="A94" s="13" t="s">
+      <c r="A94" s="15" t="s">
         <v>67</v>
       </c>
       <c r="B94" s="5" t="s">
@@ -3760,7 +3772,7 @@
       <c r="H94" s="6"/>
     </row>
     <row r="95" spans="1:8">
-      <c r="A95" s="13" t="s">
+      <c r="A95" s="15" t="s">
         <v>67</v>
       </c>
       <c r="B95" s="5" t="s">
@@ -3782,7 +3794,7 @@
       <c r="H95" s="6"/>
     </row>
     <row r="96" spans="1:8">
-      <c r="A96" s="13" t="s">
+      <c r="A96" s="15" t="s">
         <v>70</v>
       </c>
       <c r="B96" s="6" t="s">
@@ -3806,7 +3818,7 @@
       <c r="H96" s="6"/>
     </row>
     <row r="97" spans="1:8">
-      <c r="A97" s="13" t="s">
+      <c r="A97" s="15" t="s">
         <v>70</v>
       </c>
       <c r="B97" s="5" t="s">
@@ -3830,7 +3842,7 @@
       <c r="H97" s="6"/>
     </row>
     <row r="98" spans="1:8">
-      <c r="A98" s="13" t="s">
+      <c r="A98" s="15" t="s">
         <v>70</v>
       </c>
       <c r="B98" s="5" t="s">
@@ -3852,7 +3864,7 @@
       <c r="H98" s="6"/>
     </row>
     <row r="99" spans="1:8">
-      <c r="A99" s="13" t="s">
+      <c r="A99" s="15" t="s">
         <v>70</v>
       </c>
       <c r="B99" s="5" t="s">
@@ -3876,7 +3888,7 @@
       </c>
     </row>
     <row r="100" spans="1:8">
-      <c r="A100" s="13" t="s">
+      <c r="A100" s="15" t="s">
         <v>70</v>
       </c>
       <c r="B100" s="5" t="s">
@@ -3900,7 +3912,7 @@
       </c>
     </row>
     <row r="101" spans="1:8">
-      <c r="A101" s="13" t="s">
+      <c r="A101" s="15" t="s">
         <v>70</v>
       </c>
       <c r="B101" s="5" t="s">
@@ -3924,7 +3936,7 @@
       </c>
     </row>
     <row r="102" spans="1:8">
-      <c r="A102" s="13" t="s">
+      <c r="A102" s="15" t="s">
         <v>70</v>
       </c>
       <c r="B102" s="5" t="s">
@@ -3946,7 +3958,7 @@
       <c r="H102" s="6"/>
     </row>
     <row r="103" spans="1:8">
-      <c r="A103" s="13" t="s">
+      <c r="A103" s="15" t="s">
         <v>70</v>
       </c>
       <c r="B103" s="5" t="s">
@@ -3970,7 +3982,7 @@
       </c>
     </row>
     <row r="104" spans="1:8">
-      <c r="A104" s="13" t="s">
+      <c r="A104" s="15" t="s">
         <v>70</v>
       </c>
       <c r="B104" s="5" t="s">
@@ -3994,7 +4006,7 @@
       </c>
     </row>
     <row r="105" spans="1:8">
-      <c r="A105" s="13" t="s">
+      <c r="A105" s="15" t="s">
         <v>70</v>
       </c>
       <c r="B105" s="5" t="s">
@@ -4020,7 +4032,7 @@
       </c>
     </row>
     <row r="106" spans="1:8">
-      <c r="A106" s="13" t="s">
+      <c r="A106" s="15" t="s">
         <v>70</v>
       </c>
       <c r="B106" s="5" t="s">
@@ -4044,7 +4056,7 @@
       </c>
     </row>
     <row r="107" spans="1:8">
-      <c r="A107" s="13" t="s">
+      <c r="A107" s="15" t="s">
         <v>70</v>
       </c>
       <c r="B107" s="5" t="s">
@@ -4068,7 +4080,7 @@
       </c>
     </row>
     <row r="108" spans="1:8">
-      <c r="A108" s="13" t="s">
+      <c r="A108" s="15" t="s">
         <v>70</v>
       </c>
       <c r="B108" s="5" t="s">
@@ -4092,7 +4104,7 @@
       </c>
     </row>
     <row r="109" spans="1:8">
-      <c r="A109" s="13" t="s">
+      <c r="A109" s="15" t="s">
         <v>70</v>
       </c>
       <c r="B109" s="5" t="s">
@@ -4118,7 +4130,7 @@
       </c>
     </row>
     <row r="110" spans="1:8">
-      <c r="A110" s="13" t="s">
+      <c r="A110" s="15" t="s">
         <v>70</v>
       </c>
       <c r="B110" s="5" t="s">
@@ -4142,7 +4154,7 @@
       </c>
     </row>
     <row r="111" spans="1:8">
-      <c r="A111" s="13" t="s">
+      <c r="A111" s="15" t="s">
         <v>70</v>
       </c>
       <c r="B111" s="5" t="s">
@@ -4166,7 +4178,7 @@
       </c>
     </row>
     <row r="112" spans="1:8">
-      <c r="A112" s="13" t="s">
+      <c r="A112" s="15" t="s">
         <v>70</v>
       </c>
       <c r="B112" s="5" t="s">
@@ -4190,7 +4202,7 @@
       </c>
     </row>
     <row r="113" spans="1:8">
-      <c r="A113" s="13" t="s">
+      <c r="A113" s="15" t="s">
         <v>70</v>
       </c>
       <c r="B113" s="5" t="s">
@@ -4214,7 +4226,7 @@
       </c>
     </row>
     <row r="114" spans="1:8">
-      <c r="A114" s="13" t="s">
+      <c r="A114" s="15" t="s">
         <v>70</v>
       </c>
       <c r="B114" s="5" t="s">
@@ -4236,7 +4248,7 @@
       <c r="H114" s="6"/>
     </row>
     <row r="115" spans="1:8">
-      <c r="A115" s="13" t="s">
+      <c r="A115" s="15" t="s">
         <v>70</v>
       </c>
       <c r="B115" s="5" t="s">
@@ -4262,7 +4274,7 @@
       </c>
     </row>
     <row r="116" spans="1:8">
-      <c r="A116" s="13" t="s">
+      <c r="A116" s="15" t="s">
         <v>70</v>
       </c>
       <c r="B116" s="5" t="s">
@@ -4288,7 +4300,7 @@
       </c>
     </row>
     <row r="117" spans="1:8">
-      <c r="A117" s="13" t="s">
+      <c r="A117" s="15" t="s">
         <v>80</v>
       </c>
       <c r="B117" s="5" t="s">
@@ -4312,7 +4324,7 @@
       </c>
     </row>
     <row r="118" spans="1:8">
-      <c r="A118" s="13" t="s">
+      <c r="A118" s="15" t="s">
         <v>82</v>
       </c>
       <c r="B118" s="6" t="s">
@@ -4336,7 +4348,7 @@
       </c>
     </row>
     <row r="119" spans="1:8">
-      <c r="A119" s="13" t="s">
+      <c r="A119" s="15" t="s">
         <v>82</v>
       </c>
       <c r="B119" s="5" t="s">
@@ -4360,7 +4372,7 @@
       </c>
     </row>
     <row r="120" spans="1:8">
-      <c r="A120" s="13" t="s">
+      <c r="A120" s="15" t="s">
         <v>82</v>
       </c>
       <c r="B120" s="5" t="s">
@@ -4382,7 +4394,7 @@
       <c r="H120" s="6"/>
     </row>
     <row r="121" spans="1:8">
-      <c r="A121" s="13" t="s">
+      <c r="A121" s="15" t="s">
         <v>82</v>
       </c>
       <c r="B121" s="5" t="s">
@@ -4404,7 +4416,7 @@
       <c r="H121" s="6"/>
     </row>
     <row r="122" spans="1:8">
-      <c r="A122" s="13" t="s">
+      <c r="A122" s="15" t="s">
         <v>82</v>
       </c>
       <c r="B122" s="5" t="s">
@@ -4426,7 +4438,7 @@
       <c r="H122" s="6"/>
     </row>
     <row r="123" spans="1:8">
-      <c r="A123" s="13" t="s">
+      <c r="A123" s="15" t="s">
         <v>82</v>
       </c>
       <c r="B123" s="6" t="s">
@@ -4448,7 +4460,7 @@
       <c r="H123" s="6"/>
     </row>
     <row r="124" spans="1:8">
-      <c r="A124" s="13" t="s">
+      <c r="A124" s="15" t="s">
         <v>85</v>
       </c>
       <c r="B124" s="5" t="s">
@@ -4472,7 +4484,7 @@
       <c r="H124" s="6"/>
     </row>
     <row r="125" spans="1:8">
-      <c r="A125" s="13" t="s">
+      <c r="A125" s="15" t="s">
         <v>85</v>
       </c>
       <c r="B125" s="6" t="s">
@@ -4496,7 +4508,7 @@
       <c r="H125" s="6"/>
     </row>
     <row r="126" spans="1:8">
-      <c r="A126" s="13" t="s">
+      <c r="A126" s="15" t="s">
         <v>85</v>
       </c>
       <c r="B126" s="5" t="s">
@@ -4520,7 +4532,7 @@
       <c r="H126" s="6"/>
     </row>
     <row r="127" spans="1:8">
-      <c r="A127" s="13" t="s">
+      <c r="A127" s="15" t="s">
         <v>85</v>
       </c>
       <c r="B127" s="5" t="s">
@@ -4544,7 +4556,7 @@
       <c r="H127" s="6"/>
     </row>
     <row r="128" spans="1:8">
-      <c r="A128" s="13" t="s">
+      <c r="A128" s="15" t="s">
         <v>85</v>
       </c>
       <c r="B128" s="5" t="s">
@@ -4568,7 +4580,7 @@
       <c r="H128" s="6"/>
     </row>
     <row r="129" spans="1:8">
-      <c r="A129" s="13" t="s">
+      <c r="A129" s="15" t="s">
         <v>86</v>
       </c>
       <c r="B129" s="6" t="s">
@@ -4584,7 +4596,7 @@
       <c r="H129" s="6"/>
     </row>
     <row r="130" spans="1:8">
-      <c r="A130" s="13" t="s">
+      <c r="A130" s="15" t="s">
         <v>86</v>
       </c>
       <c r="B130" s="5" t="s">
@@ -4608,7 +4620,7 @@
       <c r="H130" s="6"/>
     </row>
     <row r="131" spans="1:8">
-      <c r="A131" s="13" t="s">
+      <c r="A131" s="15" t="s">
         <v>86</v>
       </c>
       <c r="B131" s="5" t="s">
@@ -4634,7 +4646,7 @@
       </c>
     </row>
     <row r="132" spans="1:8">
-      <c r="A132" s="13" t="s">
+      <c r="A132" s="15" t="s">
         <v>86</v>
       </c>
       <c r="B132" s="5" t="s">
@@ -4656,7 +4668,7 @@
       <c r="H132" s="6"/>
     </row>
     <row r="133" spans="1:8">
-      <c r="A133" s="13" t="s">
+      <c r="A133" s="15" t="s">
         <v>86</v>
       </c>
       <c r="B133" s="5" t="s">
@@ -4680,7 +4692,7 @@
       </c>
     </row>
     <row r="134" spans="1:8">
-      <c r="A134" s="13" t="s">
+      <c r="A134" s="15" t="s">
         <v>86</v>
       </c>
       <c r="B134" s="5" t="s">
@@ -4702,7 +4714,7 @@
       <c r="H134" s="6"/>
     </row>
     <row r="135" spans="1:8">
-      <c r="A135" s="13" t="s">
+      <c r="A135" s="15" t="s">
         <v>86</v>
       </c>
       <c r="B135" s="5" t="s">
@@ -4724,7 +4736,7 @@
       <c r="H135" s="6"/>
     </row>
     <row r="136" spans="1:8">
-      <c r="A136" s="13" t="s">
+      <c r="A136" s="15" t="s">
         <v>86</v>
       </c>
       <c r="B136" s="5" t="s">
@@ -4746,7 +4758,7 @@
       <c r="H136" s="6"/>
     </row>
     <row r="137" spans="1:8">
-      <c r="A137" s="13" t="s">
+      <c r="A137" s="15" t="s">
         <v>86</v>
       </c>
       <c r="B137" s="5" t="s">
@@ -4770,7 +4782,7 @@
       </c>
     </row>
     <row r="138" spans="1:8">
-      <c r="A138" s="13" t="s">
+      <c r="A138" s="15" t="s">
         <v>86</v>
       </c>
       <c r="B138" s="5" t="s">
@@ -4792,7 +4804,7 @@
       <c r="H138" s="6"/>
     </row>
     <row r="139" spans="1:8">
-      <c r="A139" s="13" t="s">
+      <c r="A139" s="15" t="s">
         <v>89</v>
       </c>
       <c r="B139" s="5" t="s">
@@ -4814,7 +4826,7 @@
       <c r="H139" s="6"/>
     </row>
     <row r="140" spans="1:8">
-      <c r="A140" s="13" t="s">
+      <c r="A140" s="15" t="s">
         <v>89</v>
       </c>
       <c r="B140" s="6" t="s">
@@ -4838,7 +4850,7 @@
       <c r="H140" s="6"/>
     </row>
     <row r="141" spans="1:8">
-      <c r="A141" s="13" t="s">
+      <c r="A141" s="15" t="s">
         <v>89</v>
       </c>
       <c r="B141" s="5" t="s">
@@ -4862,7 +4874,7 @@
       </c>
     </row>
     <row r="142" spans="1:8">
-      <c r="A142" s="13" t="s">
+      <c r="A142" s="15" t="s">
         <v>89</v>
       </c>
       <c r="B142" s="5" t="s">
@@ -4884,7 +4896,7 @@
       <c r="H142" s="6"/>
     </row>
     <row r="143" spans="1:8">
-      <c r="A143" s="13" t="s">
+      <c r="A143" s="15" t="s">
         <v>89</v>
       </c>
       <c r="B143" s="5" t="s">
@@ -4906,7 +4918,7 @@
       <c r="H143" s="6"/>
     </row>
     <row r="144" spans="1:8">
-      <c r="A144" s="13" t="s">
+      <c r="A144" s="15" t="s">
         <v>89</v>
       </c>
       <c r="B144" s="5" t="s">
@@ -4928,7 +4940,7 @@
       <c r="H144" s="6"/>
     </row>
     <row r="145" spans="1:8">
-      <c r="A145" s="13" t="s">
+      <c r="A145" s="15" t="s">
         <v>89</v>
       </c>
       <c r="B145" s="5" t="s">
@@ -4950,7 +4962,7 @@
       <c r="H145" s="6"/>
     </row>
     <row r="146" spans="1:8">
-      <c r="A146" s="13" t="s">
+      <c r="A146" s="15" t="s">
         <v>89</v>
       </c>
       <c r="B146" s="5" t="s">
@@ -4972,7 +4984,7 @@
       <c r="H146" s="6"/>
     </row>
     <row r="147" spans="1:8">
-      <c r="A147" s="13" t="s">
+      <c r="A147" s="15" t="s">
         <v>89</v>
       </c>
       <c r="B147" s="5" t="s">
@@ -4994,7 +5006,7 @@
       <c r="H147" s="6"/>
     </row>
     <row r="148" spans="1:8">
-      <c r="A148" s="13" t="s">
+      <c r="A148" s="15" t="s">
         <v>89</v>
       </c>
       <c r="B148" s="5" t="s">
@@ -5016,7 +5028,7 @@
       <c r="H148" s="6"/>
     </row>
     <row r="149" spans="1:8">
-      <c r="A149" s="13" t="s">
+      <c r="A149" s="15" t="s">
         <v>89</v>
       </c>
       <c r="B149" s="5" t="s">
@@ -5038,7 +5050,7 @@
       <c r="H149" s="6"/>
     </row>
     <row r="150" spans="1:8">
-      <c r="A150" s="13" t="s">
+      <c r="A150" s="15" t="s">
         <v>89</v>
       </c>
       <c r="B150" s="5" t="s">
@@ -5062,7 +5074,7 @@
       </c>
     </row>
     <row r="151" spans="1:8">
-      <c r="A151" s="13" t="s">
+      <c r="A151" s="15" t="s">
         <v>90</v>
       </c>
       <c r="B151" s="6" t="s">
@@ -5080,7 +5092,7 @@
       </c>
     </row>
     <row r="152" spans="1:8">
-      <c r="A152" s="13" t="s">
+      <c r="A152" s="15" t="s">
         <v>90</v>
       </c>
       <c r="B152" s="5" t="s">
@@ -5102,7 +5114,7 @@
       <c r="H152" s="6"/>
     </row>
     <row r="153" spans="1:8">
-      <c r="A153" s="13" t="s">
+      <c r="A153" s="15" t="s">
         <v>90</v>
       </c>
       <c r="B153" s="6" t="s">
@@ -5126,7 +5138,7 @@
       <c r="H153" s="6"/>
     </row>
     <row r="154" spans="1:8">
-      <c r="A154" s="13" t="s">
+      <c r="A154" s="15" t="s">
         <v>90</v>
       </c>
       <c r="B154" s="5" t="s">
@@ -5148,7 +5160,7 @@
       <c r="H154" s="6"/>
     </row>
     <row r="155" spans="1:8">
-      <c r="A155" s="13" t="s">
+      <c r="A155" s="15" t="s">
         <v>90</v>
       </c>
       <c r="B155" s="9" t="s">
@@ -5170,7 +5182,7 @@
       <c r="H155" s="9"/>
     </row>
     <row r="156" spans="1:8">
-      <c r="A156" s="13" t="s">
+      <c r="A156" s="15" t="s">
         <v>90</v>
       </c>
       <c r="B156" s="5" t="s">
@@ -5192,7 +5204,7 @@
       <c r="H156" s="6"/>
     </row>
     <row r="157" spans="1:8">
-      <c r="A157" s="13" t="s">
+      <c r="A157" s="15" t="s">
         <v>90</v>
       </c>
       <c r="B157" s="5" t="s">
@@ -5214,7 +5226,7 @@
       <c r="H157" s="6"/>
     </row>
     <row r="158" spans="1:8">
-      <c r="A158" s="13" t="s">
+      <c r="A158" s="15" t="s">
         <v>90</v>
       </c>
       <c r="B158" s="5" t="s">
@@ -5236,7 +5248,7 @@
       <c r="H158" s="6"/>
     </row>
     <row r="159" spans="1:8">
-      <c r="A159" s="15" t="s">
+      <c r="A159" s="17" t="s">
         <v>90</v>
       </c>
       <c r="B159" s="8" t="s">
@@ -6204,11 +6216,11 @@
       <c r="H201" s="6"/>
     </row>
     <row r="202" spans="7:8">
-      <c r="G202" s="2">
+      <c r="G202" s="1">
         <f>SUM(G3:G201)</f>
         <v>128741.9</v>
       </c>
-      <c r="H202" s="2">
+      <c r="H202" s="1">
         <f>SUM(H3:H201)</f>
         <v>1319</v>
       </c>
@@ -6234,12 +6246,12 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.6222222222222" customWidth="1"/>
-    <col min="2" max="2" width="11.6222222222222" style="2" customWidth="1"/>
-    <col min="3" max="8" width="9" style="2"/>
+    <col min="2" max="2" width="11.6222222222222" style="1" customWidth="1"/>
+    <col min="3" max="8" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
@@ -7331,11 +7343,11 @@
       </c>
     </row>
     <row r="47" spans="7:8">
-      <c r="G47" s="2">
+      <c r="G47" s="1">
         <f>SUM(G3:G46)</f>
         <v>30845</v>
       </c>
-      <c r="H47" s="2">
+      <c r="H47" s="1">
         <f>SUM(H3:H46)</f>
         <v>1834</v>
       </c>
@@ -7361,12 +7373,12 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="9.62222222222222" customWidth="1"/>
-    <col min="2" max="2" width="12" style="2" customWidth="1"/>
-    <col min="3" max="8" width="9" style="2"/>
+    <col min="2" max="2" width="12" style="1" customWidth="1"/>
+    <col min="3" max="8" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
@@ -8995,16 +9007,16 @@
       </c>
     </row>
     <row r="70" spans="1:8">
-      <c r="A70" s="12" t="s">
+      <c r="A70" s="14" t="s">
         <v>138</v>
       </c>
-      <c r="B70" s="12" t="s">
+      <c r="B70" s="14" t="s">
         <v>40</v>
       </c>
       <c r="C70" s="3">
         <v>15</v>
       </c>
-      <c r="D70" s="12" t="s">
+      <c r="D70" s="14" t="s">
         <v>11</v>
       </c>
       <c r="E70" s="3"/>
@@ -9511,7 +9523,7 @@
       <c r="H92" s="9"/>
     </row>
     <row r="93" spans="1:8">
-      <c r="A93" s="13" t="s">
+      <c r="A93" s="15" t="s">
         <v>145</v>
       </c>
       <c r="B93" s="6" t="s">
@@ -9533,7 +9545,7 @@
       <c r="H93" s="6"/>
     </row>
     <row r="94" spans="1:8">
-      <c r="A94" s="13" t="s">
+      <c r="A94" s="15" t="s">
         <v>145</v>
       </c>
       <c r="B94" s="6" t="s">
@@ -9560,13 +9572,13 @@
       <c r="A95" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="B95" s="12" t="s">
+      <c r="B95" s="14" t="s">
         <v>40</v>
       </c>
       <c r="C95" s="3">
         <v>15</v>
       </c>
-      <c r="D95" s="12" t="s">
+      <c r="D95" s="14" t="s">
         <v>11</v>
       </c>
       <c r="E95" s="3"/>
@@ -9701,10 +9713,10 @@
       <c r="H100" s="6"/>
     </row>
     <row r="101" spans="4:4">
-      <c r="D101" s="14"/>
+      <c r="D101" s="16"/>
     </row>
     <row r="102" spans="4:4">
-      <c r="D102" s="14"/>
+      <c r="D102" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -9727,16 +9739,16 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.37777777777778" customWidth="1"/>
-    <col min="2" max="2" width="10.7481481481481" style="2" customWidth="1"/>
-    <col min="3" max="8" width="9" style="2"/>
-    <col min="9" max="9" width="13.1259259259259" style="11" customWidth="1"/>
+    <col min="2" max="2" width="10.7481481481481" style="1" customWidth="1"/>
+    <col min="3" max="8" width="9" style="1"/>
+    <col min="9" max="9" width="13.1259259259259" style="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="21" customHeight="1" spans="1:9">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="2"/>
+      <c r="I1" s="1"/>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="3" t="s">
@@ -12602,19 +12614,19 @@
       <c r="A122" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="B122" s="2" t="s">
+      <c r="B122" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C122" s="2">
+      <c r="C122" s="1">
         <v>10</v>
       </c>
-      <c r="D122" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F122" s="2">
+      <c r="D122" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F122" s="1">
         <v>8</v>
       </c>
-      <c r="G122" s="2">
+      <c r="G122" s="1">
         <v>80</v>
       </c>
     </row>
@@ -12622,19 +12634,19 @@
       <c r="A123" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="B123" s="2" t="s">
+      <c r="B123" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C123" s="2">
+      <c r="C123" s="1">
         <v>1</v>
       </c>
-      <c r="D123" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F123" s="2">
+      <c r="D123" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F123" s="1">
         <v>8</v>
       </c>
-      <c r="G123" s="2">
+      <c r="G123" s="1">
         <v>8</v>
       </c>
     </row>
@@ -12642,19 +12654,19 @@
       <c r="A124" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="B124" s="2" t="s">
+      <c r="B124" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C124" s="2">
+      <c r="C124" s="1">
         <v>30</v>
       </c>
-      <c r="D124" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F124" s="2">
+      <c r="D124" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F124" s="1">
         <v>12</v>
       </c>
-      <c r="G124" s="2">
+      <c r="G124" s="1">
         <v>360</v>
       </c>
     </row>
@@ -12662,19 +12674,19 @@
       <c r="A125" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="B125" s="2" t="s">
+      <c r="B125" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C125" s="2">
+      <c r="C125" s="1">
         <v>5</v>
       </c>
-      <c r="D125" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F125" s="2">
+      <c r="D125" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F125" s="1">
         <v>8</v>
       </c>
-      <c r="G125" s="2">
+      <c r="G125" s="1">
         <v>40</v>
       </c>
     </row>
@@ -12690,26 +12702,21 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:I41"/>
+  <dimension ref="A1:I70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="L38" sqref="L38"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="A66" sqref="A66:I70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="9" width="8.88888888888889" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:1">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="3" t="s">
@@ -13600,27 +13607,27 @@
       <c r="I39" s="6"/>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="5" t="s">
+      <c r="A40" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="B40" s="6" t="s">
+      <c r="B40" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="C40" s="6">
+      <c r="C40" s="9">
         <v>0.5</v>
       </c>
-      <c r="D40" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E40" s="6"/>
-      <c r="F40" s="6">
+      <c r="D40" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E40" s="9"/>
+      <c r="F40" s="9">
         <v>57</v>
       </c>
-      <c r="G40" s="6">
+      <c r="G40" s="9">
         <v>28</v>
       </c>
-      <c r="H40" s="6"/>
-      <c r="I40" s="6"/>
+      <c r="H40" s="9"/>
+      <c r="I40" s="9"/>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" s="5" t="s">
@@ -13644,6 +13651,631 @@
       </c>
       <c r="H41" s="6"/>
       <c r="I41" s="6"/>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C42" s="6">
+        <v>3</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E42" s="6"/>
+      <c r="F42" s="6">
+        <v>6</v>
+      </c>
+      <c r="G42" s="6">
+        <v>18</v>
+      </c>
+      <c r="H42" s="6"/>
+      <c r="I42" s="6"/>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C43" s="6">
+        <v>5</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E43" s="6"/>
+      <c r="F43" s="6">
+        <v>6</v>
+      </c>
+      <c r="G43" s="6">
+        <v>30</v>
+      </c>
+      <c r="H43" s="6"/>
+      <c r="I43" s="6"/>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="C44" s="6">
+        <v>5</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E44" s="6"/>
+      <c r="F44" s="6">
+        <v>8</v>
+      </c>
+      <c r="G44" s="6">
+        <v>40</v>
+      </c>
+      <c r="H44" s="6"/>
+      <c r="I44" s="6"/>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C45" s="6">
+        <v>1</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E45" s="6"/>
+      <c r="F45" s="6">
+        <v>8</v>
+      </c>
+      <c r="G45" s="6">
+        <v>8</v>
+      </c>
+      <c r="H45" s="6"/>
+      <c r="I45" s="6"/>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C46" s="6">
+        <v>1</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E46" s="6"/>
+      <c r="F46" s="6">
+        <v>36</v>
+      </c>
+      <c r="G46" s="6">
+        <v>36</v>
+      </c>
+      <c r="H46" s="6"/>
+      <c r="I46" s="6"/>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C47" s="6">
+        <v>1</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E47" s="6"/>
+      <c r="F47" s="6">
+        <v>12</v>
+      </c>
+      <c r="G47" s="6">
+        <v>12</v>
+      </c>
+      <c r="H47" s="6"/>
+      <c r="I47" s="6"/>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C48" s="6">
+        <v>2</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E48" s="6"/>
+      <c r="F48" s="6">
+        <v>40</v>
+      </c>
+      <c r="G48" s="6">
+        <v>80</v>
+      </c>
+      <c r="H48" s="6"/>
+      <c r="I48" s="6"/>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C49" s="6">
+        <v>1</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E49" s="6"/>
+      <c r="F49" s="6">
+        <v>12</v>
+      </c>
+      <c r="G49" s="6">
+        <v>12</v>
+      </c>
+      <c r="H49" s="6"/>
+      <c r="I49" s="6"/>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C50" s="6">
+        <v>1</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E50" s="6"/>
+      <c r="F50" s="6">
+        <v>10</v>
+      </c>
+      <c r="G50" s="6">
+        <v>10</v>
+      </c>
+      <c r="H50" s="6"/>
+      <c r="I50" s="6"/>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="A51" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C51" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E51" s="6"/>
+      <c r="F51" s="6">
+        <v>35</v>
+      </c>
+      <c r="G51" s="6">
+        <v>17.5</v>
+      </c>
+      <c r="H51" s="6"/>
+      <c r="I51" s="6"/>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="A52" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="B52" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="C52" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="D52" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E52" s="9"/>
+      <c r="F52" s="9">
+        <v>10</v>
+      </c>
+      <c r="G52" s="9">
+        <v>5</v>
+      </c>
+      <c r="H52" s="9"/>
+      <c r="I52" s="9"/>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C53" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E53" s="6"/>
+      <c r="F53" s="6">
+        <v>12</v>
+      </c>
+      <c r="G53" s="6">
+        <v>6</v>
+      </c>
+      <c r="H53" s="6"/>
+      <c r="I53" s="6"/>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="A54" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C54" s="6">
+        <v>2</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E54" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F54" s="6">
+        <v>510</v>
+      </c>
+      <c r="G54" s="6">
+        <v>1020</v>
+      </c>
+      <c r="H54" s="6"/>
+      <c r="I54" s="6"/>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="A55" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C55" s="6">
+        <v>10</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E55" s="6"/>
+      <c r="F55" s="6">
+        <v>20</v>
+      </c>
+      <c r="G55" s="6">
+        <v>200</v>
+      </c>
+      <c r="H55" s="6"/>
+      <c r="I55" s="6"/>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="A56" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C56" s="6">
+        <v>1</v>
+      </c>
+      <c r="D56" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E56" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F56" s="6">
+        <v>490</v>
+      </c>
+      <c r="G56" s="6">
+        <v>490</v>
+      </c>
+      <c r="H56" s="6"/>
+      <c r="I56" s="6"/>
+    </row>
+    <row r="57" spans="1:9">
+      <c r="A57" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C57" s="6">
+        <v>1</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E57" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F57" s="6">
+        <v>725</v>
+      </c>
+      <c r="G57" s="6">
+        <v>725</v>
+      </c>
+      <c r="H57" s="6"/>
+      <c r="I57" s="6"/>
+    </row>
+    <row r="58" spans="1:9">
+      <c r="A58" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C58" s="6">
+        <v>1</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E58" s="6"/>
+      <c r="F58" s="6">
+        <v>8</v>
+      </c>
+      <c r="G58" s="6">
+        <v>8</v>
+      </c>
+      <c r="H58" s="6"/>
+      <c r="I58" s="6"/>
+    </row>
+    <row r="59" spans="1:9">
+      <c r="A59" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="B59" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="C59" s="9">
+        <v>50</v>
+      </c>
+      <c r="D59" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E59" s="9"/>
+      <c r="F59" s="9">
+        <v>48</v>
+      </c>
+      <c r="G59" s="9">
+        <v>2400</v>
+      </c>
+      <c r="H59" s="9"/>
+      <c r="I59" s="9"/>
+    </row>
+    <row r="60" spans="1:9">
+      <c r="A60" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C60" s="6">
+        <v>93.3</v>
+      </c>
+      <c r="D60" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E60" s="6"/>
+      <c r="F60" s="6">
+        <v>10.2</v>
+      </c>
+      <c r="G60" s="6">
+        <v>476</v>
+      </c>
+      <c r="H60" s="6"/>
+      <c r="I60" s="6"/>
+    </row>
+    <row r="61" spans="1:9">
+      <c r="A61" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="B61" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="C61" s="6">
+        <v>2</v>
+      </c>
+      <c r="D61" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E61" s="6"/>
+      <c r="F61" s="6">
+        <v>19</v>
+      </c>
+      <c r="G61" s="6">
+        <v>38</v>
+      </c>
+      <c r="H61" s="6"/>
+      <c r="I61" s="6"/>
+    </row>
+    <row r="62" spans="1:9">
+      <c r="A62" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="B62" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="C62" s="11">
+        <v>2</v>
+      </c>
+      <c r="D62" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E62" s="11"/>
+      <c r="F62" s="11">
+        <v>13.5</v>
+      </c>
+      <c r="G62" s="11">
+        <v>27</v>
+      </c>
+      <c r="H62" s="11"/>
+      <c r="I62" s="11"/>
+    </row>
+    <row r="63" spans="1:9">
+      <c r="A63" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="B63" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C63" s="12">
+        <v>42</v>
+      </c>
+      <c r="D63" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E63" s="12"/>
+      <c r="F63" s="12">
+        <v>44</v>
+      </c>
+      <c r="G63" s="12">
+        <v>1848</v>
+      </c>
+      <c r="H63" s="12"/>
+      <c r="I63" s="12"/>
+    </row>
+    <row r="64" spans="1:9">
+      <c r="A64" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="B64" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="C64" s="11">
+        <v>2</v>
+      </c>
+      <c r="D64" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E64" s="11"/>
+      <c r="F64" s="11">
+        <v>10</v>
+      </c>
+      <c r="G64" s="11">
+        <v>20</v>
+      </c>
+      <c r="H64" s="11"/>
+      <c r="I64" s="11"/>
+    </row>
+    <row r="65" spans="1:9">
+      <c r="A65" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="B65" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C65" s="12">
+        <v>2</v>
+      </c>
+      <c r="D65" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E65" s="12"/>
+      <c r="F65" s="12">
+        <v>12</v>
+      </c>
+      <c r="G65" s="12">
+        <v>24</v>
+      </c>
+      <c r="H65" s="12"/>
+      <c r="I65" s="12"/>
+    </row>
+    <row r="66" spans="1:9">
+      <c r="A66" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="B66" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="C66" s="11">
+        <v>2</v>
+      </c>
+      <c r="D66" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E66" s="11"/>
+      <c r="F66" s="11">
+        <v>7</v>
+      </c>
+      <c r="G66" s="11">
+        <v>14</v>
+      </c>
+      <c r="H66" s="11"/>
+      <c r="I66" s="11"/>
+    </row>
+    <row r="67" spans="1:9">
+      <c r="A67" s="11"/>
+      <c r="B67" s="11"/>
+      <c r="C67" s="11"/>
+      <c r="D67" s="11"/>
+      <c r="E67" s="11"/>
+      <c r="F67" s="11"/>
+      <c r="G67" s="11"/>
+      <c r="H67" s="11"/>
+      <c r="I67" s="11"/>
+    </row>
+    <row r="68" spans="1:9">
+      <c r="A68" s="11"/>
+      <c r="B68" s="11"/>
+      <c r="C68" s="11"/>
+      <c r="D68" s="11"/>
+      <c r="E68" s="11"/>
+      <c r="F68" s="11"/>
+      <c r="G68" s="11"/>
+      <c r="H68" s="11"/>
+      <c r="I68" s="11"/>
+    </row>
+    <row r="69" spans="1:9">
+      <c r="A69" s="11"/>
+      <c r="B69" s="11"/>
+      <c r="C69" s="11"/>
+      <c r="D69" s="11"/>
+      <c r="E69" s="11"/>
+      <c r="F69" s="11"/>
+      <c r="G69" s="11"/>
+      <c r="H69" s="11"/>
+      <c r="I69" s="11"/>
+    </row>
+    <row r="70" spans="1:9">
+      <c r="A70" s="11"/>
+      <c r="B70" s="11"/>
+      <c r="C70" s="11"/>
+      <c r="D70" s="11"/>
+      <c r="E70" s="11"/>
+      <c r="F70" s="11"/>
+      <c r="G70" s="11"/>
+      <c r="H70" s="11"/>
+      <c r="I70" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/2016年销售日记账.xlsx
+++ b/2016年销售日记账.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204">
   <si>
     <t>2016年销售日记账</t>
   </si>
@@ -609,6 +609,27 @@
   </si>
   <si>
     <t>2016.5.9</t>
+  </si>
+  <si>
+    <t>2016.5.10</t>
+  </si>
+  <si>
+    <t>蓝田王宝</t>
+  </si>
+  <si>
+    <t>小陈调货</t>
+  </si>
+  <si>
+    <t>阿朗龙虾总店</t>
+  </si>
+  <si>
+    <t>爱尚龙虾</t>
+  </si>
+  <si>
+    <t>花椒毛</t>
+  </si>
+  <si>
+    <t>2016.5.11</t>
   </si>
 </sst>
 </file>
@@ -616,10 +637,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -631,14 +652,68 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -654,14 +729,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -670,52 +738,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -735,6 +757,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -745,7 +774,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -753,22 +790,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -783,13 +804,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -801,31 +816,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -843,7 +852,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -855,13 +870,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -873,7 +882,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -885,7 +906,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -897,73 +978,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1062,11 +1083,35 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1081,16 +1126,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1121,30 +1166,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1164,88 +1185,88 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1254,58 +1275,58 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1346,7 +1367,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -7366,8 +7387,8 @@
   <sheetPr/>
   <dimension ref="A1:H102"/>
   <sheetViews>
-    <sheetView topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="C97" sqref="C97"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="7"/>
@@ -9732,8 +9753,8 @@
   <sheetPr/>
   <dimension ref="A1:I125"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="B70" sqref="B70:I74"/>
+    <sheetView topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="B125" sqref="B125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -12567,29 +12588,29 @@
       <c r="I119" s="6"/>
     </row>
     <row r="120" spans="1:9">
-      <c r="A120" s="6" t="s">
+      <c r="A120" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="B120" s="6" t="s">
+      <c r="B120" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C120" s="6">
+      <c r="C120" s="9">
         <v>5</v>
       </c>
-      <c r="D120" s="6" t="s">
+      <c r="D120" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E120" s="6" t="s">
+      <c r="E120" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="F120" s="6">
+      <c r="F120" s="9">
         <v>500</v>
       </c>
-      <c r="G120" s="6">
+      <c r="G120" s="9">
         <v>2500</v>
       </c>
-      <c r="H120" s="6"/>
-      <c r="I120" s="6" t="s">
+      <c r="H120" s="9"/>
+      <c r="I120" s="9" t="s">
         <v>187</v>
       </c>
     </row>
@@ -12610,85 +12631,97 @@
       <c r="H121" s="6"/>
       <c r="I121" s="6"/>
     </row>
-    <row r="122" spans="1:7">
+    <row r="122" spans="1:9">
       <c r="A122" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="B122" s="1" t="s">
+      <c r="B122" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="C122" s="1">
+      <c r="C122" s="6">
         <v>10</v>
       </c>
-      <c r="D122" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F122" s="1">
+      <c r="D122" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E122" s="6"/>
+      <c r="F122" s="6">
         <v>8</v>
       </c>
-      <c r="G122" s="1">
+      <c r="G122" s="6">
         <v>80</v>
       </c>
-    </row>
-    <row r="123" spans="1:7">
+      <c r="H122" s="6"/>
+      <c r="I122" s="6"/>
+    </row>
+    <row r="123" spans="1:9">
       <c r="A123" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="B123" s="1" t="s">
+      <c r="B123" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C123" s="1">
+      <c r="C123" s="6">
         <v>1</v>
       </c>
-      <c r="D123" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F123" s="1">
+      <c r="D123" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E123" s="6"/>
+      <c r="F123" s="6">
         <v>8</v>
       </c>
-      <c r="G123" s="1">
+      <c r="G123" s="6">
         <v>8</v>
       </c>
-    </row>
-    <row r="124" spans="1:7">
+      <c r="H123" s="6"/>
+      <c r="I123" s="6"/>
+    </row>
+    <row r="124" spans="1:9">
       <c r="A124" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="B124" s="1" t="s">
+      <c r="B124" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C124" s="1">
+      <c r="C124" s="6">
         <v>30</v>
       </c>
-      <c r="D124" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F124" s="1">
+      <c r="D124" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E124" s="6"/>
+      <c r="F124" s="6">
         <v>12</v>
       </c>
-      <c r="G124" s="1">
+      <c r="G124" s="6">
         <v>360</v>
       </c>
-    </row>
-    <row r="125" spans="1:7">
+      <c r="H124" s="6"/>
+      <c r="I124" s="6"/>
+    </row>
+    <row r="125" spans="1:9">
       <c r="A125" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="B125" s="1" t="s">
+      <c r="B125" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C125" s="1">
+      <c r="C125" s="6">
         <v>5</v>
       </c>
-      <c r="D125" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F125" s="1">
+      <c r="D125" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E125" s="6"/>
+      <c r="F125" s="6">
         <v>8</v>
       </c>
-      <c r="G125" s="1">
+      <c r="G125" s="6">
         <v>40</v>
       </c>
+      <c r="H125" s="6"/>
+      <c r="I125" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -12702,15 +12735,16 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:I70"/>
+  <dimension ref="A1:I76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="A66" sqref="A66:I70"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="H76" sqref="H76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="9" width="8.88888888888889" style="1"/>
+    <col min="1" max="8" width="8.88888888888889" style="1"/>
+    <col min="9" max="9" width="11.1111111111111" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -14122,160 +14156,354 @@
       <c r="A62" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="B62" s="11" t="s">
+      <c r="B62" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="C62" s="11">
+      <c r="C62" s="6">
         <v>2</v>
       </c>
-      <c r="D62" s="11" t="s">
+      <c r="D62" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E62" s="11"/>
-      <c r="F62" s="11">
+      <c r="E62" s="6"/>
+      <c r="F62" s="6">
         <v>13.5</v>
       </c>
-      <c r="G62" s="11">
+      <c r="G62" s="6">
         <v>27</v>
       </c>
-      <c r="H62" s="11"/>
-      <c r="I62" s="11"/>
+      <c r="H62" s="6"/>
+      <c r="I62" s="6"/>
     </row>
     <row r="63" spans="1:9">
       <c r="A63" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="B63" s="12" t="s">
+      <c r="B63" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="C63" s="12">
+      <c r="C63" s="9">
         <v>42</v>
       </c>
-      <c r="D63" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E63" s="12"/>
-      <c r="F63" s="12">
+      <c r="D63" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E63" s="9"/>
+      <c r="F63" s="9">
         <v>44</v>
       </c>
-      <c r="G63" s="12">
+      <c r="G63" s="9">
         <v>1848</v>
       </c>
-      <c r="H63" s="12"/>
-      <c r="I63" s="12"/>
+      <c r="H63" s="9"/>
+      <c r="I63" s="9"/>
     </row>
     <row r="64" spans="1:9">
-      <c r="A64" s="5" t="s">
+      <c r="A64" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="B64" s="11" t="s">
+      <c r="B64" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="C64" s="11">
+      <c r="C64" s="9">
         <v>2</v>
       </c>
-      <c r="D64" s="11" t="s">
+      <c r="D64" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="E64" s="11"/>
-      <c r="F64" s="11">
+      <c r="E64" s="9"/>
+      <c r="F64" s="9">
         <v>10</v>
       </c>
-      <c r="G64" s="11">
+      <c r="G64" s="9">
         <v>20</v>
       </c>
-      <c r="H64" s="11"/>
-      <c r="I64" s="11"/>
+      <c r="H64" s="9"/>
+      <c r="I64" s="9"/>
     </row>
     <row r="65" spans="1:9">
       <c r="A65" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="B65" s="12" t="s">
+      <c r="B65" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C65" s="12">
+      <c r="C65" s="9">
         <v>2</v>
       </c>
-      <c r="D65" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E65" s="12"/>
-      <c r="F65" s="12">
+      <c r="D65" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E65" s="9"/>
+      <c r="F65" s="9">
         <v>12</v>
       </c>
-      <c r="G65" s="12">
+      <c r="G65" s="9">
         <v>24</v>
       </c>
-      <c r="H65" s="12"/>
-      <c r="I65" s="12"/>
+      <c r="H65" s="9"/>
+      <c r="I65" s="9"/>
     </row>
     <row r="66" spans="1:9">
       <c r="A66" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="B66" s="11" t="s">
+      <c r="B66" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="C66" s="11">
+      <c r="C66" s="6">
         <v>2</v>
       </c>
-      <c r="D66" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E66" s="11"/>
-      <c r="F66" s="11">
+      <c r="D66" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E66" s="6"/>
+      <c r="F66" s="6">
         <v>7</v>
       </c>
-      <c r="G66" s="11">
+      <c r="G66" s="6">
         <v>14</v>
       </c>
-      <c r="H66" s="11"/>
-      <c r="I66" s="11"/>
+      <c r="H66" s="6"/>
+      <c r="I66" s="6"/>
     </row>
     <row r="67" spans="1:9">
-      <c r="A67" s="11"/>
-      <c r="B67" s="11"/>
-      <c r="C67" s="11"/>
-      <c r="D67" s="11"/>
-      <c r="E67" s="11"/>
-      <c r="F67" s="11"/>
-      <c r="G67" s="11"/>
-      <c r="H67" s="11"/>
-      <c r="I67" s="11"/>
+      <c r="A67" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="B67" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C67" s="6"/>
+      <c r="D67" s="6"/>
+      <c r="E67" s="6"/>
+      <c r="F67" s="6"/>
+      <c r="G67" s="6">
+        <v>700</v>
+      </c>
+      <c r="H67" s="6"/>
+      <c r="I67" s="6" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="68" spans="1:9">
-      <c r="A68" s="11"/>
-      <c r="B68" s="11"/>
-      <c r="C68" s="11"/>
-      <c r="D68" s="11"/>
-      <c r="E68" s="11"/>
-      <c r="F68" s="11"/>
-      <c r="G68" s="11"/>
-      <c r="H68" s="11"/>
-      <c r="I68" s="11"/>
+      <c r="A68" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="B68" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C68" s="6"/>
+      <c r="D68" s="6"/>
+      <c r="E68" s="6"/>
+      <c r="F68" s="6"/>
+      <c r="G68" s="6">
+        <v>512</v>
+      </c>
+      <c r="H68" s="6"/>
+      <c r="I68" s="6" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="69" spans="1:9">
-      <c r="A69" s="11"/>
-      <c r="B69" s="11"/>
-      <c r="C69" s="11"/>
-      <c r="D69" s="11"/>
-      <c r="E69" s="11"/>
-      <c r="F69" s="11"/>
-      <c r="G69" s="11"/>
-      <c r="H69" s="11"/>
-      <c r="I69" s="11"/>
+      <c r="A69" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="B69" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C69" s="6">
+        <v>50</v>
+      </c>
+      <c r="D69" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E69" s="6"/>
+      <c r="F69" s="6">
+        <v>55</v>
+      </c>
+      <c r="G69" s="6">
+        <v>2750</v>
+      </c>
+      <c r="H69" s="6"/>
+      <c r="I69" s="6" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="70" spans="1:9">
-      <c r="A70" s="11"/>
-      <c r="B70" s="11"/>
-      <c r="C70" s="11"/>
-      <c r="D70" s="11"/>
-      <c r="E70" s="11"/>
-      <c r="F70" s="11"/>
-      <c r="G70" s="11"/>
-      <c r="H70" s="11"/>
-      <c r="I70" s="11"/>
+      <c r="A70" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="B70" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="C70" s="6">
+        <v>30</v>
+      </c>
+      <c r="D70" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E70" s="6"/>
+      <c r="F70" s="6">
+        <v>52</v>
+      </c>
+      <c r="G70" s="6">
+        <v>1560</v>
+      </c>
+      <c r="H70" s="6"/>
+      <c r="I70" s="12" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
+      <c r="A71" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="B71" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="C71" s="6">
+        <v>30</v>
+      </c>
+      <c r="D71" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E71" s="6"/>
+      <c r="F71" s="6">
+        <v>52</v>
+      </c>
+      <c r="G71" s="6">
+        <v>1560</v>
+      </c>
+      <c r="H71" s="6"/>
+      <c r="I71" s="12" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
+      <c r="A72" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="B72" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C72" s="6">
+        <v>20</v>
+      </c>
+      <c r="D72" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E72" s="6"/>
+      <c r="F72" s="6">
+        <v>12</v>
+      </c>
+      <c r="G72" s="6">
+        <v>240</v>
+      </c>
+      <c r="H72" s="6"/>
+      <c r="I72" s="12" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
+      <c r="A73" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="B73" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C73" s="11">
+        <v>4</v>
+      </c>
+      <c r="D73" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E73" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="F73" s="11">
+        <v>275</v>
+      </c>
+      <c r="G73" s="11">
+        <v>1100</v>
+      </c>
+      <c r="H73" s="11"/>
+      <c r="I73" s="11"/>
+    </row>
+    <row r="74" spans="1:9">
+      <c r="A74" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="B74" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="C74" s="11">
+        <v>15</v>
+      </c>
+      <c r="D74" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E74" s="11"/>
+      <c r="F74" s="11">
+        <v>36</v>
+      </c>
+      <c r="G74" s="11">
+        <v>540</v>
+      </c>
+      <c r="H74" s="11">
+        <v>15</v>
+      </c>
+      <c r="I74" s="11"/>
+    </row>
+    <row r="75" spans="1:9">
+      <c r="A75" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="B75" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C75" s="11">
+        <v>15</v>
+      </c>
+      <c r="D75" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E75" s="11"/>
+      <c r="F75" s="11">
+        <v>8</v>
+      </c>
+      <c r="G75" s="11">
+        <v>120</v>
+      </c>
+      <c r="H75" s="11">
+        <v>1</v>
+      </c>
+      <c r="I75" s="11"/>
+    </row>
+    <row r="76" spans="1:9">
+      <c r="A76" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="B76" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="C76" s="11">
+        <v>2</v>
+      </c>
+      <c r="D76" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E76" s="11"/>
+      <c r="F76" s="11">
+        <v>52</v>
+      </c>
+      <c r="G76" s="11">
+        <v>104</v>
+      </c>
+      <c r="H76" s="11">
+        <v>16</v>
+      </c>
+      <c r="I76" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/2016年销售日记账.xlsx
+++ b/2016年销售日记账.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205">
   <si>
     <t>2016年销售日记账</t>
   </si>
@@ -630,6 +630,9 @@
   </si>
   <si>
     <t>2016.5.11</t>
+  </si>
+  <si>
+    <t>2016.5.12</t>
   </si>
 </sst>
 </file>
@@ -637,10 +640,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -652,22 +655,36 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -683,6 +700,29 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -697,39 +737,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -744,14 +761,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -774,22 +792,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -804,7 +807,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -816,25 +849,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -852,7 +873,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -864,115 +975,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1084,16 +1087,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1103,6 +1106,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1118,9 +1136,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1141,42 +1161,25 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1185,88 +1188,88 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1275,58 +1278,58 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -12735,10 +12738,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:I76"/>
+  <dimension ref="A1:I81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="H76" sqref="H76"/>
+    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
+      <selection activeCell="A81" sqref="A81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15"/>
@@ -14409,101 +14412,218 @@
       <c r="A73" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="B73" s="11" t="s">
+      <c r="B73" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C73" s="11">
+      <c r="C73" s="6">
         <v>4</v>
       </c>
-      <c r="D73" s="11" t="s">
+      <c r="D73" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E73" s="11" t="s">
+      <c r="E73" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="F73" s="11">
+      <c r="F73" s="6">
         <v>275</v>
       </c>
-      <c r="G73" s="11">
+      <c r="G73" s="6">
         <v>1100</v>
       </c>
-      <c r="H73" s="11"/>
-      <c r="I73" s="11"/>
+      <c r="H73" s="6"/>
+      <c r="I73" s="6"/>
     </row>
     <row r="74" spans="1:9">
       <c r="A74" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="B74" s="11" t="s">
+      <c r="B74" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="C74" s="11">
+      <c r="C74" s="6">
         <v>15</v>
       </c>
-      <c r="D74" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E74" s="11"/>
-      <c r="F74" s="11">
+      <c r="D74" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E74" s="6"/>
+      <c r="F74" s="6">
         <v>36</v>
       </c>
-      <c r="G74" s="11">
+      <c r="G74" s="6">
         <v>540</v>
       </c>
-      <c r="H74" s="11">
+      <c r="H74" s="6">
         <v>15</v>
       </c>
-      <c r="I74" s="11"/>
+      <c r="I74" s="6"/>
     </row>
     <row r="75" spans="1:9">
-      <c r="A75" s="5" t="s">
+      <c r="A75" s="8" t="s">
         <v>197</v>
       </c>
-      <c r="B75" s="11" t="s">
+      <c r="B75" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="C75" s="11">
+      <c r="C75" s="9">
         <v>15</v>
       </c>
-      <c r="D75" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E75" s="11"/>
-      <c r="F75" s="11">
+      <c r="D75" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E75" s="9"/>
+      <c r="F75" s="9">
         <v>8</v>
       </c>
-      <c r="G75" s="11">
+      <c r="G75" s="9">
         <v>120</v>
       </c>
-      <c r="H75" s="11">
+      <c r="H75" s="9">
         <v>1</v>
       </c>
-      <c r="I75" s="11"/>
+      <c r="I75" s="9"/>
     </row>
     <row r="76" spans="1:9">
       <c r="A76" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="B76" s="11" t="s">
+      <c r="B76" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="C76" s="11">
+      <c r="C76" s="6">
         <v>2</v>
       </c>
-      <c r="D76" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E76" s="11"/>
-      <c r="F76" s="11">
+      <c r="D76" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E76" s="6"/>
+      <c r="F76" s="6">
         <v>52</v>
       </c>
-      <c r="G76" s="11">
+      <c r="G76" s="6">
         <v>104</v>
       </c>
-      <c r="H76" s="11">
+      <c r="H76" s="6">
         <v>16</v>
       </c>
-      <c r="I76" s="11"/>
+      <c r="I76" s="6"/>
+    </row>
+    <row r="77" spans="1:9">
+      <c r="A77" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="B77" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C77" s="11">
+        <v>2</v>
+      </c>
+      <c r="D77" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E77" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="F77" s="11">
+        <v>510</v>
+      </c>
+      <c r="G77" s="11">
+        <v>1020</v>
+      </c>
+      <c r="H77" s="11"/>
+      <c r="I77" s="11"/>
+    </row>
+    <row r="78" spans="1:9">
+      <c r="A78" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="B78" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C78" s="11">
+        <v>10</v>
+      </c>
+      <c r="D78" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E78" s="11"/>
+      <c r="F78" s="11">
+        <v>14.25</v>
+      </c>
+      <c r="G78" s="11">
+        <v>142.5</v>
+      </c>
+      <c r="H78" s="11"/>
+      <c r="I78" s="11"/>
+    </row>
+    <row r="79" spans="1:9">
+      <c r="A79" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="B79" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C79" s="11">
+        <v>1</v>
+      </c>
+      <c r="D79" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E79" s="11"/>
+      <c r="F79" s="11">
+        <v>60</v>
+      </c>
+      <c r="G79" s="11">
+        <v>60</v>
+      </c>
+      <c r="H79" s="11"/>
+      <c r="I79" s="11"/>
+    </row>
+    <row r="80" spans="1:9">
+      <c r="A80" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="B80" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C80" s="11">
+        <v>10</v>
+      </c>
+      <c r="D80" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E80" s="11"/>
+      <c r="F80" s="11">
+        <v>10.2</v>
+      </c>
+      <c r="G80" s="11">
+        <v>102</v>
+      </c>
+      <c r="H80" s="11"/>
+      <c r="I80" s="11"/>
+    </row>
+    <row r="81" spans="1:9">
+      <c r="A81" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="B81" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C81" s="11">
+        <v>3.3</v>
+      </c>
+      <c r="D81" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E81" s="11"/>
+      <c r="F81" s="11">
+        <v>12</v>
+      </c>
+      <c r="G81" s="11">
+        <v>40</v>
+      </c>
+      <c r="H81" s="11"/>
+      <c r="I81" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/2016年销售日记账.xlsx
+++ b/2016年销售日记账.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209">
   <si>
     <t>2016年销售日记账</t>
   </si>
@@ -633,6 +633,18 @@
   </si>
   <si>
     <t>2016.5.12</t>
+  </si>
+  <si>
+    <t>2016.5.13</t>
+  </si>
+  <si>
+    <t>2016.5.14</t>
+  </si>
+  <si>
+    <t>2016.5.15</t>
+  </si>
+  <si>
+    <t>2016.5.16</t>
   </si>
 </sst>
 </file>
@@ -642,10 +654,17 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -661,8 +680,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -683,13 +717,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -699,24 +726,23 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -729,24 +755,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -768,22 +786,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -792,7 +795,23 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -813,7 +832,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -825,169 +1006,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1086,17 +1105,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1110,17 +1138,32 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1145,41 +1188,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1188,88 +1207,88 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1278,62 +1297,62 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1367,7 +1386,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2862,7 +2890,7 @@
       <c r="H52" s="9"/>
     </row>
     <row r="53" spans="1:8">
-      <c r="A53" s="15" t="s">
+      <c r="A53" s="18" t="s">
         <v>57</v>
       </c>
       <c r="B53" s="5" t="s">
@@ -2884,7 +2912,7 @@
       <c r="H53" s="6"/>
     </row>
     <row r="54" spans="1:8">
-      <c r="A54" s="17" t="s">
+      <c r="A54" s="20" t="s">
         <v>57</v>
       </c>
       <c r="B54" s="5" t="s">
@@ -2906,7 +2934,7 @@
       <c r="H54" s="6"/>
     </row>
     <row r="55" spans="1:8">
-      <c r="A55" s="15" t="s">
+      <c r="A55" s="18" t="s">
         <v>57</v>
       </c>
       <c r="B55" s="5" t="s">
@@ -2928,7 +2956,7 @@
       <c r="H55" s="6"/>
     </row>
     <row r="56" spans="1:8">
-      <c r="A56" s="15" t="s">
+      <c r="A56" s="18" t="s">
         <v>57</v>
       </c>
       <c r="B56" s="5" t="s">
@@ -2952,7 +2980,7 @@
       <c r="H56" s="6"/>
     </row>
     <row r="57" spans="1:8">
-      <c r="A57" s="15" t="s">
+      <c r="A57" s="18" t="s">
         <v>57</v>
       </c>
       <c r="B57" s="5" t="s">
@@ -2974,7 +3002,7 @@
       <c r="H57" s="6"/>
     </row>
     <row r="58" spans="1:8">
-      <c r="A58" s="15" t="s">
+      <c r="A58" s="18" t="s">
         <v>57</v>
       </c>
       <c r="B58" s="6" t="s">
@@ -2998,7 +3026,7 @@
       <c r="H58" s="6"/>
     </row>
     <row r="59" spans="1:8">
-      <c r="A59" s="15" t="s">
+      <c r="A59" s="18" t="s">
         <v>58</v>
       </c>
       <c r="B59" s="5" t="s">
@@ -3020,7 +3048,7 @@
       <c r="H59" s="6"/>
     </row>
     <row r="60" spans="1:8">
-      <c r="A60" s="15" t="s">
+      <c r="A60" s="18" t="s">
         <v>58</v>
       </c>
       <c r="B60" s="5" t="s">
@@ -3044,7 +3072,7 @@
       <c r="H60" s="6"/>
     </row>
     <row r="61" spans="1:8">
-      <c r="A61" s="15" t="s">
+      <c r="A61" s="18" t="s">
         <v>60</v>
       </c>
       <c r="B61" s="6" t="s">
@@ -3068,7 +3096,7 @@
       <c r="H61" s="6"/>
     </row>
     <row r="62" spans="1:8">
-      <c r="A62" s="15" t="s">
+      <c r="A62" s="18" t="s">
         <v>60</v>
       </c>
       <c r="B62" s="5" t="s">
@@ -3092,7 +3120,7 @@
       <c r="H62" s="6"/>
     </row>
     <row r="63" spans="1:8">
-      <c r="A63" s="15" t="s">
+      <c r="A63" s="18" t="s">
         <v>60</v>
       </c>
       <c r="B63" s="5" t="s">
@@ -3114,7 +3142,7 @@
       <c r="H63" s="6"/>
     </row>
     <row r="64" spans="1:8">
-      <c r="A64" s="15" t="s">
+      <c r="A64" s="18" t="s">
         <v>61</v>
       </c>
       <c r="B64" s="5" t="s">
@@ -3136,7 +3164,7 @@
       <c r="H64" s="6"/>
     </row>
     <row r="65" spans="1:8">
-      <c r="A65" s="15" t="s">
+      <c r="A65" s="18" t="s">
         <v>61</v>
       </c>
       <c r="B65" s="5" t="s">
@@ -3152,7 +3180,7 @@
       <c r="H65" s="6"/>
     </row>
     <row r="66" spans="1:8">
-      <c r="A66" s="15" t="s">
+      <c r="A66" s="18" t="s">
         <v>61</v>
       </c>
       <c r="B66" s="6" t="s">
@@ -3168,7 +3196,7 @@
       <c r="H66" s="6"/>
     </row>
     <row r="67" spans="1:8">
-      <c r="A67" s="15" t="s">
+      <c r="A67" s="18" t="s">
         <v>62</v>
       </c>
       <c r="B67" s="6" t="s">
@@ -3184,7 +3212,7 @@
       <c r="H67" s="6"/>
     </row>
     <row r="68" spans="1:8">
-      <c r="A68" s="15" t="s">
+      <c r="A68" s="18" t="s">
         <v>62</v>
       </c>
       <c r="B68" s="5" t="s">
@@ -3206,7 +3234,7 @@
       <c r="H68" s="6"/>
     </row>
     <row r="69" spans="1:8">
-      <c r="A69" s="15" t="s">
+      <c r="A69" s="18" t="s">
         <v>62</v>
       </c>
       <c r="B69" s="5" t="s">
@@ -3228,7 +3256,7 @@
       <c r="H69" s="6"/>
     </row>
     <row r="70" spans="1:8">
-      <c r="A70" s="15" t="s">
+      <c r="A70" s="18" t="s">
         <v>62</v>
       </c>
       <c r="B70" s="5" t="s">
@@ -3250,7 +3278,7 @@
       <c r="H70" s="6"/>
     </row>
     <row r="71" spans="1:8">
-      <c r="A71" s="15" t="s">
+      <c r="A71" s="18" t="s">
         <v>62</v>
       </c>
       <c r="B71" s="6" t="s">
@@ -3274,7 +3302,7 @@
       <c r="H71" s="6"/>
     </row>
     <row r="72" spans="1:8">
-      <c r="A72" s="15" t="s">
+      <c r="A72" s="18" t="s">
         <v>62</v>
       </c>
       <c r="B72" s="5" t="s">
@@ -3298,7 +3326,7 @@
       <c r="H72" s="6"/>
     </row>
     <row r="73" spans="1:8">
-      <c r="A73" s="15" t="s">
+      <c r="A73" s="18" t="s">
         <v>62</v>
       </c>
       <c r="B73" s="5" t="s">
@@ -3322,7 +3350,7 @@
       </c>
     </row>
     <row r="74" spans="1:8">
-      <c r="A74" s="15" t="s">
+      <c r="A74" s="18" t="s">
         <v>62</v>
       </c>
       <c r="B74" s="5" t="s">
@@ -3344,7 +3372,7 @@
       <c r="H74" s="6"/>
     </row>
     <row r="75" spans="1:8">
-      <c r="A75" s="15" t="s">
+      <c r="A75" s="18" t="s">
         <v>62</v>
       </c>
       <c r="B75" s="5" t="s">
@@ -3366,7 +3394,7 @@
       <c r="H75" s="6"/>
     </row>
     <row r="76" spans="1:8">
-      <c r="A76" s="15" t="s">
+      <c r="A76" s="18" t="s">
         <v>62</v>
       </c>
       <c r="B76" s="5" t="s">
@@ -3388,7 +3416,7 @@
       <c r="H76" s="6"/>
     </row>
     <row r="77" spans="1:8">
-      <c r="A77" s="15" t="s">
+      <c r="A77" s="18" t="s">
         <v>62</v>
       </c>
       <c r="B77" s="5" t="s">
@@ -3414,7 +3442,7 @@
       </c>
     </row>
     <row r="78" spans="1:8">
-      <c r="A78" s="15" t="s">
+      <c r="A78" s="18" t="s">
         <v>62</v>
       </c>
       <c r="B78" s="5" t="s">
@@ -3440,7 +3468,7 @@
       </c>
     </row>
     <row r="79" spans="1:8">
-      <c r="A79" s="15" t="s">
+      <c r="A79" s="18" t="s">
         <v>64</v>
       </c>
       <c r="B79" s="5" t="s">
@@ -3466,7 +3494,7 @@
       </c>
     </row>
     <row r="80" spans="1:8">
-      <c r="A80" s="15" t="s">
+      <c r="A80" s="18" t="s">
         <v>64</v>
       </c>
       <c r="B80" s="5" t="s">
@@ -3484,7 +3512,7 @@
       </c>
     </row>
     <row r="81" spans="1:8">
-      <c r="A81" s="15" t="s">
+      <c r="A81" s="18" t="s">
         <v>64</v>
       </c>
       <c r="B81" s="6" t="s">
@@ -3508,7 +3536,7 @@
       <c r="H81" s="6"/>
     </row>
     <row r="82" spans="1:8">
-      <c r="A82" s="15" t="s">
+      <c r="A82" s="18" t="s">
         <v>64</v>
       </c>
       <c r="B82" s="5" t="s">
@@ -3530,7 +3558,7 @@
       <c r="H82" s="6"/>
     </row>
     <row r="83" spans="1:8">
-      <c r="A83" s="15" t="s">
+      <c r="A83" s="18" t="s">
         <v>64</v>
       </c>
       <c r="B83" s="5" t="s">
@@ -3552,7 +3580,7 @@
       <c r="H83" s="6"/>
     </row>
     <row r="84" spans="1:8">
-      <c r="A84" s="15" t="s">
+      <c r="A84" s="18" t="s">
         <v>64</v>
       </c>
       <c r="B84" s="5" t="s">
@@ -3574,7 +3602,7 @@
       <c r="H84" s="6"/>
     </row>
     <row r="85" spans="1:8">
-      <c r="A85" s="15" t="s">
+      <c r="A85" s="18" t="s">
         <v>64</v>
       </c>
       <c r="B85" s="5" t="s">
@@ -3596,7 +3624,7 @@
       <c r="H85" s="6"/>
     </row>
     <row r="86" spans="1:8">
-      <c r="A86" s="15" t="s">
+      <c r="A86" s="18" t="s">
         <v>66</v>
       </c>
       <c r="B86" s="6" t="s">
@@ -3618,7 +3646,7 @@
       <c r="H86" s="6"/>
     </row>
     <row r="87" spans="1:8">
-      <c r="A87" s="15" t="s">
+      <c r="A87" s="18" t="s">
         <v>66</v>
       </c>
       <c r="B87" s="5" t="s">
@@ -3640,7 +3668,7 @@
       <c r="H87" s="6"/>
     </row>
     <row r="88" spans="1:8">
-      <c r="A88" s="15" t="s">
+      <c r="A88" s="18" t="s">
         <v>66</v>
       </c>
       <c r="B88" s="5" t="s">
@@ -3662,7 +3690,7 @@
       <c r="H88" s="6"/>
     </row>
     <row r="89" spans="1:8">
-      <c r="A89" s="15" t="s">
+      <c r="A89" s="18" t="s">
         <v>67</v>
       </c>
       <c r="B89" s="5" t="s">
@@ -3686,7 +3714,7 @@
       </c>
     </row>
     <row r="90" spans="1:8">
-      <c r="A90" s="15" t="s">
+      <c r="A90" s="18" t="s">
         <v>67</v>
       </c>
       <c r="B90" s="5" t="s">
@@ -3708,7 +3736,7 @@
       <c r="H90" s="6"/>
     </row>
     <row r="91" spans="1:8">
-      <c r="A91" s="15" t="s">
+      <c r="A91" s="18" t="s">
         <v>67</v>
       </c>
       <c r="B91" s="5" t="s">
@@ -3730,7 +3758,7 @@
       <c r="H91" s="6"/>
     </row>
     <row r="92" spans="1:8">
-      <c r="A92" s="15" t="s">
+      <c r="A92" s="18" t="s">
         <v>67</v>
       </c>
       <c r="B92" s="5" t="s">
@@ -3752,7 +3780,7 @@
       <c r="H92" s="6"/>
     </row>
     <row r="93" spans="1:8">
-      <c r="A93" s="15" t="s">
+      <c r="A93" s="18" t="s">
         <v>67</v>
       </c>
       <c r="B93" s="5" t="s">
@@ -3774,7 +3802,7 @@
       <c r="H93" s="6"/>
     </row>
     <row r="94" spans="1:8">
-      <c r="A94" s="15" t="s">
+      <c r="A94" s="18" t="s">
         <v>67</v>
       </c>
       <c r="B94" s="5" t="s">
@@ -3796,7 +3824,7 @@
       <c r="H94" s="6"/>
     </row>
     <row r="95" spans="1:8">
-      <c r="A95" s="15" t="s">
+      <c r="A95" s="18" t="s">
         <v>67</v>
       </c>
       <c r="B95" s="5" t="s">
@@ -3818,7 +3846,7 @@
       <c r="H95" s="6"/>
     </row>
     <row r="96" spans="1:8">
-      <c r="A96" s="15" t="s">
+      <c r="A96" s="18" t="s">
         <v>70</v>
       </c>
       <c r="B96" s="6" t="s">
@@ -3842,7 +3870,7 @@
       <c r="H96" s="6"/>
     </row>
     <row r="97" spans="1:8">
-      <c r="A97" s="15" t="s">
+      <c r="A97" s="18" t="s">
         <v>70</v>
       </c>
       <c r="B97" s="5" t="s">
@@ -3866,7 +3894,7 @@
       <c r="H97" s="6"/>
     </row>
     <row r="98" spans="1:8">
-      <c r="A98" s="15" t="s">
+      <c r="A98" s="18" t="s">
         <v>70</v>
       </c>
       <c r="B98" s="5" t="s">
@@ -3888,7 +3916,7 @@
       <c r="H98" s="6"/>
     </row>
     <row r="99" spans="1:8">
-      <c r="A99" s="15" t="s">
+      <c r="A99" s="18" t="s">
         <v>70</v>
       </c>
       <c r="B99" s="5" t="s">
@@ -3912,7 +3940,7 @@
       </c>
     </row>
     <row r="100" spans="1:8">
-      <c r="A100" s="15" t="s">
+      <c r="A100" s="18" t="s">
         <v>70</v>
       </c>
       <c r="B100" s="5" t="s">
@@ -3936,7 +3964,7 @@
       </c>
     </row>
     <row r="101" spans="1:8">
-      <c r="A101" s="15" t="s">
+      <c r="A101" s="18" t="s">
         <v>70</v>
       </c>
       <c r="B101" s="5" t="s">
@@ -3960,7 +3988,7 @@
       </c>
     </row>
     <row r="102" spans="1:8">
-      <c r="A102" s="15" t="s">
+      <c r="A102" s="18" t="s">
         <v>70</v>
       </c>
       <c r="B102" s="5" t="s">
@@ -3982,7 +4010,7 @@
       <c r="H102" s="6"/>
     </row>
     <row r="103" spans="1:8">
-      <c r="A103" s="15" t="s">
+      <c r="A103" s="18" t="s">
         <v>70</v>
       </c>
       <c r="B103" s="5" t="s">
@@ -4006,7 +4034,7 @@
       </c>
     </row>
     <row r="104" spans="1:8">
-      <c r="A104" s="15" t="s">
+      <c r="A104" s="18" t="s">
         <v>70</v>
       </c>
       <c r="B104" s="5" t="s">
@@ -4030,7 +4058,7 @@
       </c>
     </row>
     <row r="105" spans="1:8">
-      <c r="A105" s="15" t="s">
+      <c r="A105" s="18" t="s">
         <v>70</v>
       </c>
       <c r="B105" s="5" t="s">
@@ -4056,7 +4084,7 @@
       </c>
     </row>
     <row r="106" spans="1:8">
-      <c r="A106" s="15" t="s">
+      <c r="A106" s="18" t="s">
         <v>70</v>
       </c>
       <c r="B106" s="5" t="s">
@@ -4080,7 +4108,7 @@
       </c>
     </row>
     <row r="107" spans="1:8">
-      <c r="A107" s="15" t="s">
+      <c r="A107" s="18" t="s">
         <v>70</v>
       </c>
       <c r="B107" s="5" t="s">
@@ -4104,7 +4132,7 @@
       </c>
     </row>
     <row r="108" spans="1:8">
-      <c r="A108" s="15" t="s">
+      <c r="A108" s="18" t="s">
         <v>70</v>
       </c>
       <c r="B108" s="5" t="s">
@@ -4128,7 +4156,7 @@
       </c>
     </row>
     <row r="109" spans="1:8">
-      <c r="A109" s="15" t="s">
+      <c r="A109" s="18" t="s">
         <v>70</v>
       </c>
       <c r="B109" s="5" t="s">
@@ -4154,7 +4182,7 @@
       </c>
     </row>
     <row r="110" spans="1:8">
-      <c r="A110" s="15" t="s">
+      <c r="A110" s="18" t="s">
         <v>70</v>
       </c>
       <c r="B110" s="5" t="s">
@@ -4178,7 +4206,7 @@
       </c>
     </row>
     <row r="111" spans="1:8">
-      <c r="A111" s="15" t="s">
+      <c r="A111" s="18" t="s">
         <v>70</v>
       </c>
       <c r="B111" s="5" t="s">
@@ -4202,7 +4230,7 @@
       </c>
     </row>
     <row r="112" spans="1:8">
-      <c r="A112" s="15" t="s">
+      <c r="A112" s="18" t="s">
         <v>70</v>
       </c>
       <c r="B112" s="5" t="s">
@@ -4226,7 +4254,7 @@
       </c>
     </row>
     <row r="113" spans="1:8">
-      <c r="A113" s="15" t="s">
+      <c r="A113" s="18" t="s">
         <v>70</v>
       </c>
       <c r="B113" s="5" t="s">
@@ -4250,7 +4278,7 @@
       </c>
     </row>
     <row r="114" spans="1:8">
-      <c r="A114" s="15" t="s">
+      <c r="A114" s="18" t="s">
         <v>70</v>
       </c>
       <c r="B114" s="5" t="s">
@@ -4272,7 +4300,7 @@
       <c r="H114" s="6"/>
     </row>
     <row r="115" spans="1:8">
-      <c r="A115" s="15" t="s">
+      <c r="A115" s="18" t="s">
         <v>70</v>
       </c>
       <c r="B115" s="5" t="s">
@@ -4298,7 +4326,7 @@
       </c>
     </row>
     <row r="116" spans="1:8">
-      <c r="A116" s="15" t="s">
+      <c r="A116" s="18" t="s">
         <v>70</v>
       </c>
       <c r="B116" s="5" t="s">
@@ -4324,7 +4352,7 @@
       </c>
     </row>
     <row r="117" spans="1:8">
-      <c r="A117" s="15" t="s">
+      <c r="A117" s="18" t="s">
         <v>80</v>
       </c>
       <c r="B117" s="5" t="s">
@@ -4348,7 +4376,7 @@
       </c>
     </row>
     <row r="118" spans="1:8">
-      <c r="A118" s="15" t="s">
+      <c r="A118" s="18" t="s">
         <v>82</v>
       </c>
       <c r="B118" s="6" t="s">
@@ -4372,7 +4400,7 @@
       </c>
     </row>
     <row r="119" spans="1:8">
-      <c r="A119" s="15" t="s">
+      <c r="A119" s="18" t="s">
         <v>82</v>
       </c>
       <c r="B119" s="5" t="s">
@@ -4396,7 +4424,7 @@
       </c>
     </row>
     <row r="120" spans="1:8">
-      <c r="A120" s="15" t="s">
+      <c r="A120" s="18" t="s">
         <v>82</v>
       </c>
       <c r="B120" s="5" t="s">
@@ -4418,7 +4446,7 @@
       <c r="H120" s="6"/>
     </row>
     <row r="121" spans="1:8">
-      <c r="A121" s="15" t="s">
+      <c r="A121" s="18" t="s">
         <v>82</v>
       </c>
       <c r="B121" s="5" t="s">
@@ -4440,7 +4468,7 @@
       <c r="H121" s="6"/>
     </row>
     <row r="122" spans="1:8">
-      <c r="A122" s="15" t="s">
+      <c r="A122" s="18" t="s">
         <v>82</v>
       </c>
       <c r="B122" s="5" t="s">
@@ -4462,7 +4490,7 @@
       <c r="H122" s="6"/>
     </row>
     <row r="123" spans="1:8">
-      <c r="A123" s="15" t="s">
+      <c r="A123" s="18" t="s">
         <v>82</v>
       </c>
       <c r="B123" s="6" t="s">
@@ -4484,7 +4512,7 @@
       <c r="H123" s="6"/>
     </row>
     <row r="124" spans="1:8">
-      <c r="A124" s="15" t="s">
+      <c r="A124" s="18" t="s">
         <v>85</v>
       </c>
       <c r="B124" s="5" t="s">
@@ -4508,7 +4536,7 @@
       <c r="H124" s="6"/>
     </row>
     <row r="125" spans="1:8">
-      <c r="A125" s="15" t="s">
+      <c r="A125" s="18" t="s">
         <v>85</v>
       </c>
       <c r="B125" s="6" t="s">
@@ -4532,7 +4560,7 @@
       <c r="H125" s="6"/>
     </row>
     <row r="126" spans="1:8">
-      <c r="A126" s="15" t="s">
+      <c r="A126" s="18" t="s">
         <v>85</v>
       </c>
       <c r="B126" s="5" t="s">
@@ -4556,7 +4584,7 @@
       <c r="H126" s="6"/>
     </row>
     <row r="127" spans="1:8">
-      <c r="A127" s="15" t="s">
+      <c r="A127" s="18" t="s">
         <v>85</v>
       </c>
       <c r="B127" s="5" t="s">
@@ -4580,7 +4608,7 @@
       <c r="H127" s="6"/>
     </row>
     <row r="128" spans="1:8">
-      <c r="A128" s="15" t="s">
+      <c r="A128" s="18" t="s">
         <v>85</v>
       </c>
       <c r="B128" s="5" t="s">
@@ -4604,7 +4632,7 @@
       <c r="H128" s="6"/>
     </row>
     <row r="129" spans="1:8">
-      <c r="A129" s="15" t="s">
+      <c r="A129" s="18" t="s">
         <v>86</v>
       </c>
       <c r="B129" s="6" t="s">
@@ -4620,7 +4648,7 @@
       <c r="H129" s="6"/>
     </row>
     <row r="130" spans="1:8">
-      <c r="A130" s="15" t="s">
+      <c r="A130" s="18" t="s">
         <v>86</v>
       </c>
       <c r="B130" s="5" t="s">
@@ -4644,7 +4672,7 @@
       <c r="H130" s="6"/>
     </row>
     <row r="131" spans="1:8">
-      <c r="A131" s="15" t="s">
+      <c r="A131" s="18" t="s">
         <v>86</v>
       </c>
       <c r="B131" s="5" t="s">
@@ -4670,7 +4698,7 @@
       </c>
     </row>
     <row r="132" spans="1:8">
-      <c r="A132" s="15" t="s">
+      <c r="A132" s="18" t="s">
         <v>86</v>
       </c>
       <c r="B132" s="5" t="s">
@@ -4692,7 +4720,7 @@
       <c r="H132" s="6"/>
     </row>
     <row r="133" spans="1:8">
-      <c r="A133" s="15" t="s">
+      <c r="A133" s="18" t="s">
         <v>86</v>
       </c>
       <c r="B133" s="5" t="s">
@@ -4716,7 +4744,7 @@
       </c>
     </row>
     <row r="134" spans="1:8">
-      <c r="A134" s="15" t="s">
+      <c r="A134" s="18" t="s">
         <v>86</v>
       </c>
       <c r="B134" s="5" t="s">
@@ -4738,7 +4766,7 @@
       <c r="H134" s="6"/>
     </row>
     <row r="135" spans="1:8">
-      <c r="A135" s="15" t="s">
+      <c r="A135" s="18" t="s">
         <v>86</v>
       </c>
       <c r="B135" s="5" t="s">
@@ -4760,7 +4788,7 @@
       <c r="H135" s="6"/>
     </row>
     <row r="136" spans="1:8">
-      <c r="A136" s="15" t="s">
+      <c r="A136" s="18" t="s">
         <v>86</v>
       </c>
       <c r="B136" s="5" t="s">
@@ -4782,7 +4810,7 @@
       <c r="H136" s="6"/>
     </row>
     <row r="137" spans="1:8">
-      <c r="A137" s="15" t="s">
+      <c r="A137" s="18" t="s">
         <v>86</v>
       </c>
       <c r="B137" s="5" t="s">
@@ -4806,7 +4834,7 @@
       </c>
     </row>
     <row r="138" spans="1:8">
-      <c r="A138" s="15" t="s">
+      <c r="A138" s="18" t="s">
         <v>86</v>
       </c>
       <c r="B138" s="5" t="s">
@@ -4828,7 +4856,7 @@
       <c r="H138" s="6"/>
     </row>
     <row r="139" spans="1:8">
-      <c r="A139" s="15" t="s">
+      <c r="A139" s="18" t="s">
         <v>89</v>
       </c>
       <c r="B139" s="5" t="s">
@@ -4850,7 +4878,7 @@
       <c r="H139" s="6"/>
     </row>
     <row r="140" spans="1:8">
-      <c r="A140" s="15" t="s">
+      <c r="A140" s="18" t="s">
         <v>89</v>
       </c>
       <c r="B140" s="6" t="s">
@@ -4874,7 +4902,7 @@
       <c r="H140" s="6"/>
     </row>
     <row r="141" spans="1:8">
-      <c r="A141" s="15" t="s">
+      <c r="A141" s="18" t="s">
         <v>89</v>
       </c>
       <c r="B141" s="5" t="s">
@@ -4898,7 +4926,7 @@
       </c>
     </row>
     <row r="142" spans="1:8">
-      <c r="A142" s="15" t="s">
+      <c r="A142" s="18" t="s">
         <v>89</v>
       </c>
       <c r="B142" s="5" t="s">
@@ -4920,7 +4948,7 @@
       <c r="H142" s="6"/>
     </row>
     <row r="143" spans="1:8">
-      <c r="A143" s="15" t="s">
+      <c r="A143" s="18" t="s">
         <v>89</v>
       </c>
       <c r="B143" s="5" t="s">
@@ -4942,7 +4970,7 @@
       <c r="H143" s="6"/>
     </row>
     <row r="144" spans="1:8">
-      <c r="A144" s="15" t="s">
+      <c r="A144" s="18" t="s">
         <v>89</v>
       </c>
       <c r="B144" s="5" t="s">
@@ -4964,7 +4992,7 @@
       <c r="H144" s="6"/>
     </row>
     <row r="145" spans="1:8">
-      <c r="A145" s="15" t="s">
+      <c r="A145" s="18" t="s">
         <v>89</v>
       </c>
       <c r="B145" s="5" t="s">
@@ -4986,7 +5014,7 @@
       <c r="H145" s="6"/>
     </row>
     <row r="146" spans="1:8">
-      <c r="A146" s="15" t="s">
+      <c r="A146" s="18" t="s">
         <v>89</v>
       </c>
       <c r="B146" s="5" t="s">
@@ -5008,7 +5036,7 @@
       <c r="H146" s="6"/>
     </row>
     <row r="147" spans="1:8">
-      <c r="A147" s="15" t="s">
+      <c r="A147" s="18" t="s">
         <v>89</v>
       </c>
       <c r="B147" s="5" t="s">
@@ -5030,7 +5058,7 @@
       <c r="H147" s="6"/>
     </row>
     <row r="148" spans="1:8">
-      <c r="A148" s="15" t="s">
+      <c r="A148" s="18" t="s">
         <v>89</v>
       </c>
       <c r="B148" s="5" t="s">
@@ -5052,7 +5080,7 @@
       <c r="H148" s="6"/>
     </row>
     <row r="149" spans="1:8">
-      <c r="A149" s="15" t="s">
+      <c r="A149" s="18" t="s">
         <v>89</v>
       </c>
       <c r="B149" s="5" t="s">
@@ -5074,7 +5102,7 @@
       <c r="H149" s="6"/>
     </row>
     <row r="150" spans="1:8">
-      <c r="A150" s="15" t="s">
+      <c r="A150" s="18" t="s">
         <v>89</v>
       </c>
       <c r="B150" s="5" t="s">
@@ -5098,7 +5126,7 @@
       </c>
     </row>
     <row r="151" spans="1:8">
-      <c r="A151" s="15" t="s">
+      <c r="A151" s="18" t="s">
         <v>90</v>
       </c>
       <c r="B151" s="6" t="s">
@@ -5116,7 +5144,7 @@
       </c>
     </row>
     <row r="152" spans="1:8">
-      <c r="A152" s="15" t="s">
+      <c r="A152" s="18" t="s">
         <v>90</v>
       </c>
       <c r="B152" s="5" t="s">
@@ -5138,7 +5166,7 @@
       <c r="H152" s="6"/>
     </row>
     <row r="153" spans="1:8">
-      <c r="A153" s="15" t="s">
+      <c r="A153" s="18" t="s">
         <v>90</v>
       </c>
       <c r="B153" s="6" t="s">
@@ -5162,7 +5190,7 @@
       <c r="H153" s="6"/>
     </row>
     <row r="154" spans="1:8">
-      <c r="A154" s="15" t="s">
+      <c r="A154" s="18" t="s">
         <v>90</v>
       </c>
       <c r="B154" s="5" t="s">
@@ -5184,7 +5212,7 @@
       <c r="H154" s="6"/>
     </row>
     <row r="155" spans="1:8">
-      <c r="A155" s="15" t="s">
+      <c r="A155" s="18" t="s">
         <v>90</v>
       </c>
       <c r="B155" s="9" t="s">
@@ -5206,7 +5234,7 @@
       <c r="H155" s="9"/>
     </row>
     <row r="156" spans="1:8">
-      <c r="A156" s="15" t="s">
+      <c r="A156" s="18" t="s">
         <v>90</v>
       </c>
       <c r="B156" s="5" t="s">
@@ -5228,7 +5256,7 @@
       <c r="H156" s="6"/>
     </row>
     <row r="157" spans="1:8">
-      <c r="A157" s="15" t="s">
+      <c r="A157" s="18" t="s">
         <v>90</v>
       </c>
       <c r="B157" s="5" t="s">
@@ -5250,7 +5278,7 @@
       <c r="H157" s="6"/>
     </row>
     <row r="158" spans="1:8">
-      <c r="A158" s="15" t="s">
+      <c r="A158" s="18" t="s">
         <v>90</v>
       </c>
       <c r="B158" s="5" t="s">
@@ -5272,7 +5300,7 @@
       <c r="H158" s="6"/>
     </row>
     <row r="159" spans="1:8">
-      <c r="A159" s="17" t="s">
+      <c r="A159" s="20" t="s">
         <v>90</v>
       </c>
       <c r="B159" s="8" t="s">
@@ -9031,16 +9059,16 @@
       </c>
     </row>
     <row r="70" spans="1:8">
-      <c r="A70" s="14" t="s">
+      <c r="A70" s="17" t="s">
         <v>138</v>
       </c>
-      <c r="B70" s="14" t="s">
+      <c r="B70" s="17" t="s">
         <v>40</v>
       </c>
       <c r="C70" s="3">
         <v>15</v>
       </c>
-      <c r="D70" s="14" t="s">
+      <c r="D70" s="17" t="s">
         <v>11</v>
       </c>
       <c r="E70" s="3"/>
@@ -9547,7 +9575,7 @@
       <c r="H92" s="9"/>
     </row>
     <row r="93" spans="1:8">
-      <c r="A93" s="15" t="s">
+      <c r="A93" s="18" t="s">
         <v>145</v>
       </c>
       <c r="B93" s="6" t="s">
@@ -9569,7 +9597,7 @@
       <c r="H93" s="6"/>
     </row>
     <row r="94" spans="1:8">
-      <c r="A94" s="15" t="s">
+      <c r="A94" s="18" t="s">
         <v>145</v>
       </c>
       <c r="B94" s="6" t="s">
@@ -9596,13 +9624,13 @@
       <c r="A95" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="B95" s="14" t="s">
+      <c r="B95" s="17" t="s">
         <v>40</v>
       </c>
       <c r="C95" s="3">
         <v>15</v>
       </c>
-      <c r="D95" s="14" t="s">
+      <c r="D95" s="17" t="s">
         <v>11</v>
       </c>
       <c r="E95" s="3"/>
@@ -9737,10 +9765,10 @@
       <c r="H100" s="6"/>
     </row>
     <row r="101" spans="4:4">
-      <c r="D101" s="16"/>
+      <c r="D101" s="19"/>
     </row>
     <row r="102" spans="4:4">
-      <c r="D102" s="16"/>
+      <c r="D102" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -9765,7 +9793,7 @@
     <col min="1" max="1" width="9.37777777777778" customWidth="1"/>
     <col min="2" max="2" width="10.7481481481481" style="1" customWidth="1"/>
     <col min="3" max="8" width="9" style="1"/>
-    <col min="9" max="9" width="13.1259259259259" style="13" customWidth="1"/>
+    <col min="9" max="9" width="13.1259259259259" style="16" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="21" customHeight="1" spans="1:9">
@@ -12738,15 +12766,17 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:I81"/>
+  <dimension ref="A1:I99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
-      <selection activeCell="A81" sqref="A81"/>
+    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
+      <selection activeCell="E101" sqref="E101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="8" width="8.88888888888889" style="1"/>
+    <col min="1" max="1" width="8.88888888888889" style="1"/>
+    <col min="2" max="2" width="9.88888888888889" style="1" customWidth="1"/>
+    <col min="3" max="8" width="8.88888888888889" style="1"/>
     <col min="9" max="9" width="11.1111111111111" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -14354,7 +14384,7 @@
         <v>1560</v>
       </c>
       <c r="H70" s="6"/>
-      <c r="I70" s="12" t="s">
+      <c r="I70" s="15" t="s">
         <v>200</v>
       </c>
     </row>
@@ -14379,7 +14409,7 @@
         <v>1560</v>
       </c>
       <c r="H71" s="6"/>
-      <c r="I71" s="12" t="s">
+      <c r="I71" s="15" t="s">
         <v>201</v>
       </c>
     </row>
@@ -14404,7 +14434,7 @@
         <v>240</v>
       </c>
       <c r="H72" s="6"/>
-      <c r="I72" s="12" t="s">
+      <c r="I72" s="15" t="s">
         <v>201</v>
       </c>
     </row>
@@ -14512,118 +14542,548 @@
       <c r="A77" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="B77" s="11" t="s">
+      <c r="B77" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C77" s="11">
+      <c r="C77" s="6">
         <v>2</v>
       </c>
-      <c r="D77" s="11" t="s">
+      <c r="D77" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E77" s="11" t="s">
+      <c r="E77" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="F77" s="11">
+      <c r="F77" s="6">
         <v>510</v>
       </c>
-      <c r="G77" s="11">
+      <c r="G77" s="6">
         <v>1020</v>
       </c>
-      <c r="H77" s="11"/>
-      <c r="I77" s="11"/>
+      <c r="H77" s="6"/>
+      <c r="I77" s="6"/>
     </row>
     <row r="78" spans="1:9">
       <c r="A78" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="B78" s="11" t="s">
+      <c r="B78" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C78" s="11">
+      <c r="C78" s="6">
         <v>10</v>
       </c>
-      <c r="D78" s="11" t="s">
+      <c r="D78" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E78" s="11"/>
-      <c r="F78" s="11">
+      <c r="E78" s="6"/>
+      <c r="F78" s="6">
         <v>14.25</v>
       </c>
-      <c r="G78" s="11">
+      <c r="G78" s="6">
         <v>142.5</v>
       </c>
-      <c r="H78" s="11"/>
-      <c r="I78" s="11"/>
+      <c r="H78" s="6"/>
+      <c r="I78" s="6"/>
     </row>
     <row r="79" spans="1:9">
       <c r="A79" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="B79" s="11" t="s">
+      <c r="B79" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C79" s="11">
+      <c r="C79" s="6">
         <v>1</v>
       </c>
-      <c r="D79" s="11" t="s">
+      <c r="D79" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E79" s="11"/>
-      <c r="F79" s="11">
+      <c r="E79" s="6"/>
+      <c r="F79" s="6">
         <v>60</v>
       </c>
-      <c r="G79" s="11">
+      <c r="G79" s="6">
         <v>60</v>
       </c>
-      <c r="H79" s="11"/>
-      <c r="I79" s="11"/>
+      <c r="H79" s="6"/>
+      <c r="I79" s="6"/>
     </row>
     <row r="80" spans="1:9">
       <c r="A80" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="B80" s="11" t="s">
+      <c r="B80" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C80" s="11">
+      <c r="C80" s="6">
         <v>10</v>
       </c>
-      <c r="D80" s="11" t="s">
+      <c r="D80" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E80" s="11"/>
-      <c r="F80" s="11">
+      <c r="E80" s="6"/>
+      <c r="F80" s="6">
         <v>10.2</v>
       </c>
-      <c r="G80" s="11">
+      <c r="G80" s="6">
         <v>102</v>
       </c>
-      <c r="H80" s="11"/>
-      <c r="I80" s="11"/>
+      <c r="H80" s="6"/>
+      <c r="I80" s="6"/>
     </row>
     <row r="81" spans="1:9">
       <c r="A81" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="B81" s="11" t="s">
+      <c r="B81" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C81" s="11">
+      <c r="C81" s="6">
         <v>3.3</v>
       </c>
-      <c r="D81" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E81" s="11"/>
-      <c r="F81" s="11">
+      <c r="D81" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E81" s="6"/>
+      <c r="F81" s="6">
         <v>12</v>
       </c>
-      <c r="G81" s="11">
+      <c r="G81" s="6">
         <v>40</v>
       </c>
-      <c r="H81" s="11"/>
-      <c r="I81" s="11"/>
+      <c r="H81" s="6"/>
+      <c r="I81" s="6"/>
+    </row>
+    <row r="82" spans="1:7">
+      <c r="A82" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C82" s="1">
+        <v>2</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F82" s="1">
+        <v>275</v>
+      </c>
+      <c r="G82" s="1">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
+      <c r="A83" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="B83" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="C83" s="11">
+        <v>15</v>
+      </c>
+      <c r="D83" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E83" s="11"/>
+      <c r="F83" s="11">
+        <v>50</v>
+      </c>
+      <c r="G83" s="11">
+        <v>750</v>
+      </c>
+      <c r="H83" s="11"/>
+      <c r="I83" s="11" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
+      <c r="A84" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="B84" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C84" s="12">
+        <v>20</v>
+      </c>
+      <c r="D84" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E84" s="12"/>
+      <c r="F84" s="12">
+        <v>10</v>
+      </c>
+      <c r="G84" s="12">
+        <v>200</v>
+      </c>
+      <c r="H84" s="12"/>
+      <c r="I84" s="12" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
+      <c r="A85" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="B85" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C85" s="11">
+        <v>20</v>
+      </c>
+      <c r="D85" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E85" s="11"/>
+      <c r="F85" s="11">
+        <v>7</v>
+      </c>
+      <c r="G85" s="11">
+        <v>140</v>
+      </c>
+      <c r="H85" s="11"/>
+      <c r="I85" s="11" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
+      <c r="A86" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="B86" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C86" s="11">
+        <v>20</v>
+      </c>
+      <c r="D86" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E86" s="11"/>
+      <c r="F86" s="11">
+        <v>8.5</v>
+      </c>
+      <c r="G86" s="11">
+        <v>170</v>
+      </c>
+      <c r="H86" s="11"/>
+      <c r="I86" s="11" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
+      <c r="A87" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="B87" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C87" s="11">
+        <v>2</v>
+      </c>
+      <c r="D87" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E87" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="F87" s="11">
+        <v>275</v>
+      </c>
+      <c r="G87" s="11">
+        <v>550</v>
+      </c>
+      <c r="H87" s="11"/>
+      <c r="I87" s="11" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
+      <c r="A88" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="B88" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C88" s="13">
+        <v>10</v>
+      </c>
+      <c r="D88" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E88" s="13"/>
+      <c r="F88" s="13">
+        <v>45</v>
+      </c>
+      <c r="G88" s="13">
+        <v>450</v>
+      </c>
+      <c r="H88" s="13">
+        <v>20</v>
+      </c>
+      <c r="I88" s="13"/>
+    </row>
+    <row r="89" spans="1:9">
+      <c r="A89" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="B89" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C89" s="13">
+        <v>7</v>
+      </c>
+      <c r="D89" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E89" s="13"/>
+      <c r="F89" s="13">
+        <v>10</v>
+      </c>
+      <c r="G89" s="13">
+        <v>70</v>
+      </c>
+      <c r="H89" s="13"/>
+      <c r="I89" s="13"/>
+    </row>
+    <row r="90" spans="1:9">
+      <c r="A90" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="B90" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="C90" s="14">
+        <v>2</v>
+      </c>
+      <c r="D90" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E90" s="14"/>
+      <c r="F90" s="14">
+        <v>58</v>
+      </c>
+      <c r="G90" s="14">
+        <v>116</v>
+      </c>
+      <c r="H90" s="14"/>
+      <c r="I90" s="14"/>
+    </row>
+    <row r="91" spans="1:9">
+      <c r="A91" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="B91" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="C91" s="13">
+        <v>1</v>
+      </c>
+      <c r="D91" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E91" s="13"/>
+      <c r="F91" s="13">
+        <v>56</v>
+      </c>
+      <c r="G91" s="13">
+        <v>56</v>
+      </c>
+      <c r="H91" s="13"/>
+      <c r="I91" s="13"/>
+    </row>
+    <row r="92" spans="1:9">
+      <c r="A92" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="B92" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C92" s="13">
+        <v>2</v>
+      </c>
+      <c r="D92" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E92" s="13"/>
+      <c r="F92" s="13">
+        <v>8</v>
+      </c>
+      <c r="G92" s="13">
+        <v>16</v>
+      </c>
+      <c r="H92" s="13"/>
+      <c r="I92" s="13"/>
+    </row>
+    <row r="93" spans="1:9">
+      <c r="A93" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="B93" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C93" s="14">
+        <v>1</v>
+      </c>
+      <c r="D93" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E93" s="14"/>
+      <c r="F93" s="14">
+        <v>10</v>
+      </c>
+      <c r="G93" s="14">
+        <v>10</v>
+      </c>
+      <c r="H93" s="14"/>
+      <c r="I93" s="14"/>
+    </row>
+    <row r="94" spans="1:9">
+      <c r="A94" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="B94" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C94" s="13">
+        <v>2</v>
+      </c>
+      <c r="D94" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E94" s="13"/>
+      <c r="F94" s="13">
+        <v>9</v>
+      </c>
+      <c r="G94" s="13">
+        <v>18</v>
+      </c>
+      <c r="H94" s="13"/>
+      <c r="I94" s="13"/>
+    </row>
+    <row r="95" spans="1:9">
+      <c r="A95" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="B95" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C95" s="13">
+        <v>1</v>
+      </c>
+      <c r="D95" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E95" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="F95" s="13">
+        <v>725</v>
+      </c>
+      <c r="G95" s="13">
+        <v>725</v>
+      </c>
+      <c r="H95" s="13"/>
+      <c r="I95" s="13"/>
+    </row>
+    <row r="96" spans="1:9">
+      <c r="A96" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="B96" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C96" s="13">
+        <v>10</v>
+      </c>
+      <c r="D96" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E96" s="13"/>
+      <c r="F96" s="13">
+        <v>16</v>
+      </c>
+      <c r="G96" s="13">
+        <v>160</v>
+      </c>
+      <c r="H96" s="13"/>
+      <c r="I96" s="13"/>
+    </row>
+    <row r="97" spans="1:9">
+      <c r="A97" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="B97" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C97" s="13">
+        <v>15</v>
+      </c>
+      <c r="D97" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E97" s="13"/>
+      <c r="F97" s="13">
+        <v>90</v>
+      </c>
+      <c r="G97" s="13">
+        <v>1350</v>
+      </c>
+      <c r="H97" s="13"/>
+      <c r="I97" s="13"/>
+    </row>
+    <row r="98" spans="1:9">
+      <c r="A98" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="B98" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C98" s="13">
+        <v>15</v>
+      </c>
+      <c r="D98" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E98" s="13"/>
+      <c r="F98" s="13">
+        <v>10.7</v>
+      </c>
+      <c r="G98" s="13">
+        <v>160.5</v>
+      </c>
+      <c r="H98" s="13"/>
+      <c r="I98" s="13"/>
+    </row>
+    <row r="99" spans="1:9">
+      <c r="A99" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="B99" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C99" s="13">
+        <v>10</v>
+      </c>
+      <c r="D99" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E99" s="13"/>
+      <c r="F99" s="13">
+        <v>56</v>
+      </c>
+      <c r="G99" s="13">
+        <v>560</v>
+      </c>
+      <c r="H99" s="13"/>
+      <c r="I99" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/2016年销售日记账.xlsx
+++ b/2016年销售日记账.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211">
   <si>
     <t>2016年销售日记账</t>
   </si>
@@ -645,6 +645,12 @@
   </si>
   <si>
     <t>2016.5.16</t>
+  </si>
+  <si>
+    <t>2016.5.17</t>
+  </si>
+  <si>
+    <t>2016.5.18</t>
   </si>
 </sst>
 </file>
@@ -652,10 +658,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -674,22 +680,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -697,6 +711,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -726,7 +747,23 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -748,8 +785,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -770,9 +808,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -780,38 +818,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -826,13 +832,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -844,7 +850,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -856,19 +940,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -880,133 +1006,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1105,15 +1111,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1132,7 +1129,27 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1153,6 +1170,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1167,128 +1208,93 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1297,62 +1303,62 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1386,16 +1392,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1407,13 +1416,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1733,8 +1736,8 @@
   <sheetPr/>
   <dimension ref="A1:H202"/>
   <sheetViews>
-    <sheetView topLeftCell="A145" workbookViewId="0">
-      <selection activeCell="G202" sqref="G202"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C57" sqref="C57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="7"/>
@@ -2890,7 +2893,7 @@
       <c r="H52" s="9"/>
     </row>
     <row r="53" spans="1:8">
-      <c r="A53" s="18" t="s">
+      <c r="A53" s="11" t="s">
         <v>57</v>
       </c>
       <c r="B53" s="5" t="s">
@@ -2912,7 +2915,7 @@
       <c r="H53" s="6"/>
     </row>
     <row r="54" spans="1:8">
-      <c r="A54" s="20" t="s">
+      <c r="A54" s="14" t="s">
         <v>57</v>
       </c>
       <c r="B54" s="5" t="s">
@@ -2934,7 +2937,7 @@
       <c r="H54" s="6"/>
     </row>
     <row r="55" spans="1:8">
-      <c r="A55" s="18" t="s">
+      <c r="A55" s="11" t="s">
         <v>57</v>
       </c>
       <c r="B55" s="5" t="s">
@@ -2956,7 +2959,7 @@
       <c r="H55" s="6"/>
     </row>
     <row r="56" spans="1:8">
-      <c r="A56" s="18" t="s">
+      <c r="A56" s="11" t="s">
         <v>57</v>
       </c>
       <c r="B56" s="5" t="s">
@@ -2980,7 +2983,7 @@
       <c r="H56" s="6"/>
     </row>
     <row r="57" spans="1:8">
-      <c r="A57" s="18" t="s">
+      <c r="A57" s="11" t="s">
         <v>57</v>
       </c>
       <c r="B57" s="5" t="s">
@@ -3002,7 +3005,7 @@
       <c r="H57" s="6"/>
     </row>
     <row r="58" spans="1:8">
-      <c r="A58" s="18" t="s">
+      <c r="A58" s="11" t="s">
         <v>57</v>
       </c>
       <c r="B58" s="6" t="s">
@@ -3026,7 +3029,7 @@
       <c r="H58" s="6"/>
     </row>
     <row r="59" spans="1:8">
-      <c r="A59" s="18" t="s">
+      <c r="A59" s="11" t="s">
         <v>58</v>
       </c>
       <c r="B59" s="5" t="s">
@@ -3048,7 +3051,7 @@
       <c r="H59" s="6"/>
     </row>
     <row r="60" spans="1:8">
-      <c r="A60" s="18" t="s">
+      <c r="A60" s="11" t="s">
         <v>58</v>
       </c>
       <c r="B60" s="5" t="s">
@@ -3072,7 +3075,7 @@
       <c r="H60" s="6"/>
     </row>
     <row r="61" spans="1:8">
-      <c r="A61" s="18" t="s">
+      <c r="A61" s="11" t="s">
         <v>60</v>
       </c>
       <c r="B61" s="6" t="s">
@@ -3096,7 +3099,7 @@
       <c r="H61" s="6"/>
     </row>
     <row r="62" spans="1:8">
-      <c r="A62" s="18" t="s">
+      <c r="A62" s="11" t="s">
         <v>60</v>
       </c>
       <c r="B62" s="5" t="s">
@@ -3120,7 +3123,7 @@
       <c r="H62" s="6"/>
     </row>
     <row r="63" spans="1:8">
-      <c r="A63" s="18" t="s">
+      <c r="A63" s="11" t="s">
         <v>60</v>
       </c>
       <c r="B63" s="5" t="s">
@@ -3142,7 +3145,7 @@
       <c r="H63" s="6"/>
     </row>
     <row r="64" spans="1:8">
-      <c r="A64" s="18" t="s">
+      <c r="A64" s="11" t="s">
         <v>61</v>
       </c>
       <c r="B64" s="5" t="s">
@@ -3164,7 +3167,7 @@
       <c r="H64" s="6"/>
     </row>
     <row r="65" spans="1:8">
-      <c r="A65" s="18" t="s">
+      <c r="A65" s="11" t="s">
         <v>61</v>
       </c>
       <c r="B65" s="5" t="s">
@@ -3180,7 +3183,7 @@
       <c r="H65" s="6"/>
     </row>
     <row r="66" spans="1:8">
-      <c r="A66" s="18" t="s">
+      <c r="A66" s="11" t="s">
         <v>61</v>
       </c>
       <c r="B66" s="6" t="s">
@@ -3196,7 +3199,7 @@
       <c r="H66" s="6"/>
     </row>
     <row r="67" spans="1:8">
-      <c r="A67" s="18" t="s">
+      <c r="A67" s="11" t="s">
         <v>62</v>
       </c>
       <c r="B67" s="6" t="s">
@@ -3212,7 +3215,7 @@
       <c r="H67" s="6"/>
     </row>
     <row r="68" spans="1:8">
-      <c r="A68" s="18" t="s">
+      <c r="A68" s="11" t="s">
         <v>62</v>
       </c>
       <c r="B68" s="5" t="s">
@@ -3234,7 +3237,7 @@
       <c r="H68" s="6"/>
     </row>
     <row r="69" spans="1:8">
-      <c r="A69" s="18" t="s">
+      <c r="A69" s="11" t="s">
         <v>62</v>
       </c>
       <c r="B69" s="5" t="s">
@@ -3256,7 +3259,7 @@
       <c r="H69" s="6"/>
     </row>
     <row r="70" spans="1:8">
-      <c r="A70" s="18" t="s">
+      <c r="A70" s="11" t="s">
         <v>62</v>
       </c>
       <c r="B70" s="5" t="s">
@@ -3278,7 +3281,7 @@
       <c r="H70" s="6"/>
     </row>
     <row r="71" spans="1:8">
-      <c r="A71" s="18" t="s">
+      <c r="A71" s="11" t="s">
         <v>62</v>
       </c>
       <c r="B71" s="6" t="s">
@@ -3302,7 +3305,7 @@
       <c r="H71" s="6"/>
     </row>
     <row r="72" spans="1:8">
-      <c r="A72" s="18" t="s">
+      <c r="A72" s="11" t="s">
         <v>62</v>
       </c>
       <c r="B72" s="5" t="s">
@@ -3326,7 +3329,7 @@
       <c r="H72" s="6"/>
     </row>
     <row r="73" spans="1:8">
-      <c r="A73" s="18" t="s">
+      <c r="A73" s="11" t="s">
         <v>62</v>
       </c>
       <c r="B73" s="5" t="s">
@@ -3350,7 +3353,7 @@
       </c>
     </row>
     <row r="74" spans="1:8">
-      <c r="A74" s="18" t="s">
+      <c r="A74" s="11" t="s">
         <v>62</v>
       </c>
       <c r="B74" s="5" t="s">
@@ -3372,7 +3375,7 @@
       <c r="H74" s="6"/>
     </row>
     <row r="75" spans="1:8">
-      <c r="A75" s="18" t="s">
+      <c r="A75" s="11" t="s">
         <v>62</v>
       </c>
       <c r="B75" s="5" t="s">
@@ -3394,7 +3397,7 @@
       <c r="H75" s="6"/>
     </row>
     <row r="76" spans="1:8">
-      <c r="A76" s="18" t="s">
+      <c r="A76" s="11" t="s">
         <v>62</v>
       </c>
       <c r="B76" s="5" t="s">
@@ -3416,7 +3419,7 @@
       <c r="H76" s="6"/>
     </row>
     <row r="77" spans="1:8">
-      <c r="A77" s="18" t="s">
+      <c r="A77" s="11" t="s">
         <v>62</v>
       </c>
       <c r="B77" s="5" t="s">
@@ -3442,7 +3445,7 @@
       </c>
     </row>
     <row r="78" spans="1:8">
-      <c r="A78" s="18" t="s">
+      <c r="A78" s="11" t="s">
         <v>62</v>
       </c>
       <c r="B78" s="5" t="s">
@@ -3468,7 +3471,7 @@
       </c>
     </row>
     <row r="79" spans="1:8">
-      <c r="A79" s="18" t="s">
+      <c r="A79" s="11" t="s">
         <v>64</v>
       </c>
       <c r="B79" s="5" t="s">
@@ -3494,7 +3497,7 @@
       </c>
     </row>
     <row r="80" spans="1:8">
-      <c r="A80" s="18" t="s">
+      <c r="A80" s="11" t="s">
         <v>64</v>
       </c>
       <c r="B80" s="5" t="s">
@@ -3512,7 +3515,7 @@
       </c>
     </row>
     <row r="81" spans="1:8">
-      <c r="A81" s="18" t="s">
+      <c r="A81" s="11" t="s">
         <v>64</v>
       </c>
       <c r="B81" s="6" t="s">
@@ -3536,7 +3539,7 @@
       <c r="H81" s="6"/>
     </row>
     <row r="82" spans="1:8">
-      <c r="A82" s="18" t="s">
+      <c r="A82" s="11" t="s">
         <v>64</v>
       </c>
       <c r="B82" s="5" t="s">
@@ -3558,7 +3561,7 @@
       <c r="H82" s="6"/>
     </row>
     <row r="83" spans="1:8">
-      <c r="A83" s="18" t="s">
+      <c r="A83" s="11" t="s">
         <v>64</v>
       </c>
       <c r="B83" s="5" t="s">
@@ -3580,7 +3583,7 @@
       <c r="H83" s="6"/>
     </row>
     <row r="84" spans="1:8">
-      <c r="A84" s="18" t="s">
+      <c r="A84" s="11" t="s">
         <v>64</v>
       </c>
       <c r="B84" s="5" t="s">
@@ -3602,7 +3605,7 @@
       <c r="H84" s="6"/>
     </row>
     <row r="85" spans="1:8">
-      <c r="A85" s="18" t="s">
+      <c r="A85" s="11" t="s">
         <v>64</v>
       </c>
       <c r="B85" s="5" t="s">
@@ -3624,7 +3627,7 @@
       <c r="H85" s="6"/>
     </row>
     <row r="86" spans="1:8">
-      <c r="A86" s="18" t="s">
+      <c r="A86" s="11" t="s">
         <v>66</v>
       </c>
       <c r="B86" s="6" t="s">
@@ -3646,7 +3649,7 @@
       <c r="H86" s="6"/>
     </row>
     <row r="87" spans="1:8">
-      <c r="A87" s="18" t="s">
+      <c r="A87" s="11" t="s">
         <v>66</v>
       </c>
       <c r="B87" s="5" t="s">
@@ -3668,7 +3671,7 @@
       <c r="H87" s="6"/>
     </row>
     <row r="88" spans="1:8">
-      <c r="A88" s="18" t="s">
+      <c r="A88" s="11" t="s">
         <v>66</v>
       </c>
       <c r="B88" s="5" t="s">
@@ -3690,7 +3693,7 @@
       <c r="H88" s="6"/>
     </row>
     <row r="89" spans="1:8">
-      <c r="A89" s="18" t="s">
+      <c r="A89" s="11" t="s">
         <v>67</v>
       </c>
       <c r="B89" s="5" t="s">
@@ -3714,7 +3717,7 @@
       </c>
     </row>
     <row r="90" spans="1:8">
-      <c r="A90" s="18" t="s">
+      <c r="A90" s="11" t="s">
         <v>67</v>
       </c>
       <c r="B90" s="5" t="s">
@@ -3736,7 +3739,7 @@
       <c r="H90" s="6"/>
     </row>
     <row r="91" spans="1:8">
-      <c r="A91" s="18" t="s">
+      <c r="A91" s="11" t="s">
         <v>67</v>
       </c>
       <c r="B91" s="5" t="s">
@@ -3758,7 +3761,7 @@
       <c r="H91" s="6"/>
     </row>
     <row r="92" spans="1:8">
-      <c r="A92" s="18" t="s">
+      <c r="A92" s="11" t="s">
         <v>67</v>
       </c>
       <c r="B92" s="5" t="s">
@@ -3780,7 +3783,7 @@
       <c r="H92" s="6"/>
     </row>
     <row r="93" spans="1:8">
-      <c r="A93" s="18" t="s">
+      <c r="A93" s="11" t="s">
         <v>67</v>
       </c>
       <c r="B93" s="5" t="s">
@@ -3802,7 +3805,7 @@
       <c r="H93" s="6"/>
     </row>
     <row r="94" spans="1:8">
-      <c r="A94" s="18" t="s">
+      <c r="A94" s="11" t="s">
         <v>67</v>
       </c>
       <c r="B94" s="5" t="s">
@@ -3824,7 +3827,7 @@
       <c r="H94" s="6"/>
     </row>
     <row r="95" spans="1:8">
-      <c r="A95" s="18" t="s">
+      <c r="A95" s="11" t="s">
         <v>67</v>
       </c>
       <c r="B95" s="5" t="s">
@@ -3846,7 +3849,7 @@
       <c r="H95" s="6"/>
     </row>
     <row r="96" spans="1:8">
-      <c r="A96" s="18" t="s">
+      <c r="A96" s="11" t="s">
         <v>70</v>
       </c>
       <c r="B96" s="6" t="s">
@@ -3870,7 +3873,7 @@
       <c r="H96" s="6"/>
     </row>
     <row r="97" spans="1:8">
-      <c r="A97" s="18" t="s">
+      <c r="A97" s="11" t="s">
         <v>70</v>
       </c>
       <c r="B97" s="5" t="s">
@@ -3894,7 +3897,7 @@
       <c r="H97" s="6"/>
     </row>
     <row r="98" spans="1:8">
-      <c r="A98" s="18" t="s">
+      <c r="A98" s="11" t="s">
         <v>70</v>
       </c>
       <c r="B98" s="5" t="s">
@@ -3916,7 +3919,7 @@
       <c r="H98" s="6"/>
     </row>
     <row r="99" spans="1:8">
-      <c r="A99" s="18" t="s">
+      <c r="A99" s="11" t="s">
         <v>70</v>
       </c>
       <c r="B99" s="5" t="s">
@@ -3940,7 +3943,7 @@
       </c>
     </row>
     <row r="100" spans="1:8">
-      <c r="A100" s="18" t="s">
+      <c r="A100" s="11" t="s">
         <v>70</v>
       </c>
       <c r="B100" s="5" t="s">
@@ -3964,7 +3967,7 @@
       </c>
     </row>
     <row r="101" spans="1:8">
-      <c r="A101" s="18" t="s">
+      <c r="A101" s="11" t="s">
         <v>70</v>
       </c>
       <c r="B101" s="5" t="s">
@@ -3988,7 +3991,7 @@
       </c>
     </row>
     <row r="102" spans="1:8">
-      <c r="A102" s="18" t="s">
+      <c r="A102" s="11" t="s">
         <v>70</v>
       </c>
       <c r="B102" s="5" t="s">
@@ -4010,7 +4013,7 @@
       <c r="H102" s="6"/>
     </row>
     <row r="103" spans="1:8">
-      <c r="A103" s="18" t="s">
+      <c r="A103" s="11" t="s">
         <v>70</v>
       </c>
       <c r="B103" s="5" t="s">
@@ -4034,7 +4037,7 @@
       </c>
     </row>
     <row r="104" spans="1:8">
-      <c r="A104" s="18" t="s">
+      <c r="A104" s="11" t="s">
         <v>70</v>
       </c>
       <c r="B104" s="5" t="s">
@@ -4058,7 +4061,7 @@
       </c>
     </row>
     <row r="105" spans="1:8">
-      <c r="A105" s="18" t="s">
+      <c r="A105" s="11" t="s">
         <v>70</v>
       </c>
       <c r="B105" s="5" t="s">
@@ -4084,7 +4087,7 @@
       </c>
     </row>
     <row r="106" spans="1:8">
-      <c r="A106" s="18" t="s">
+      <c r="A106" s="11" t="s">
         <v>70</v>
       </c>
       <c r="B106" s="5" t="s">
@@ -4108,7 +4111,7 @@
       </c>
     </row>
     <row r="107" spans="1:8">
-      <c r="A107" s="18" t="s">
+      <c r="A107" s="11" t="s">
         <v>70</v>
       </c>
       <c r="B107" s="5" t="s">
@@ -4132,7 +4135,7 @@
       </c>
     </row>
     <row r="108" spans="1:8">
-      <c r="A108" s="18" t="s">
+      <c r="A108" s="11" t="s">
         <v>70</v>
       </c>
       <c r="B108" s="5" t="s">
@@ -4156,7 +4159,7 @@
       </c>
     </row>
     <row r="109" spans="1:8">
-      <c r="A109" s="18" t="s">
+      <c r="A109" s="11" t="s">
         <v>70</v>
       </c>
       <c r="B109" s="5" t="s">
@@ -4182,7 +4185,7 @@
       </c>
     </row>
     <row r="110" spans="1:8">
-      <c r="A110" s="18" t="s">
+      <c r="A110" s="11" t="s">
         <v>70</v>
       </c>
       <c r="B110" s="5" t="s">
@@ -4206,7 +4209,7 @@
       </c>
     </row>
     <row r="111" spans="1:8">
-      <c r="A111" s="18" t="s">
+      <c r="A111" s="11" t="s">
         <v>70</v>
       </c>
       <c r="B111" s="5" t="s">
@@ -4230,7 +4233,7 @@
       </c>
     </row>
     <row r="112" spans="1:8">
-      <c r="A112" s="18" t="s">
+      <c r="A112" s="11" t="s">
         <v>70</v>
       </c>
       <c r="B112" s="5" t="s">
@@ -4254,7 +4257,7 @@
       </c>
     </row>
     <row r="113" spans="1:8">
-      <c r="A113" s="18" t="s">
+      <c r="A113" s="11" t="s">
         <v>70</v>
       </c>
       <c r="B113" s="5" t="s">
@@ -4278,7 +4281,7 @@
       </c>
     </row>
     <row r="114" spans="1:8">
-      <c r="A114" s="18" t="s">
+      <c r="A114" s="11" t="s">
         <v>70</v>
       </c>
       <c r="B114" s="5" t="s">
@@ -4300,7 +4303,7 @@
       <c r="H114" s="6"/>
     </row>
     <row r="115" spans="1:8">
-      <c r="A115" s="18" t="s">
+      <c r="A115" s="11" t="s">
         <v>70</v>
       </c>
       <c r="B115" s="5" t="s">
@@ -4326,7 +4329,7 @@
       </c>
     </row>
     <row r="116" spans="1:8">
-      <c r="A116" s="18" t="s">
+      <c r="A116" s="11" t="s">
         <v>70</v>
       </c>
       <c r="B116" s="5" t="s">
@@ -4352,7 +4355,7 @@
       </c>
     </row>
     <row r="117" spans="1:8">
-      <c r="A117" s="18" t="s">
+      <c r="A117" s="11" t="s">
         <v>80</v>
       </c>
       <c r="B117" s="5" t="s">
@@ -4376,7 +4379,7 @@
       </c>
     </row>
     <row r="118" spans="1:8">
-      <c r="A118" s="18" t="s">
+      <c r="A118" s="11" t="s">
         <v>82</v>
       </c>
       <c r="B118" s="6" t="s">
@@ -4400,7 +4403,7 @@
       </c>
     </row>
     <row r="119" spans="1:8">
-      <c r="A119" s="18" t="s">
+      <c r="A119" s="11" t="s">
         <v>82</v>
       </c>
       <c r="B119" s="5" t="s">
@@ -4424,7 +4427,7 @@
       </c>
     </row>
     <row r="120" spans="1:8">
-      <c r="A120" s="18" t="s">
+      <c r="A120" s="11" t="s">
         <v>82</v>
       </c>
       <c r="B120" s="5" t="s">
@@ -4446,7 +4449,7 @@
       <c r="H120" s="6"/>
     </row>
     <row r="121" spans="1:8">
-      <c r="A121" s="18" t="s">
+      <c r="A121" s="11" t="s">
         <v>82</v>
       </c>
       <c r="B121" s="5" t="s">
@@ -4468,7 +4471,7 @@
       <c r="H121" s="6"/>
     </row>
     <row r="122" spans="1:8">
-      <c r="A122" s="18" t="s">
+      <c r="A122" s="11" t="s">
         <v>82</v>
       </c>
       <c r="B122" s="5" t="s">
@@ -4490,7 +4493,7 @@
       <c r="H122" s="6"/>
     </row>
     <row r="123" spans="1:8">
-      <c r="A123" s="18" t="s">
+      <c r="A123" s="11" t="s">
         <v>82</v>
       </c>
       <c r="B123" s="6" t="s">
@@ -4512,7 +4515,7 @@
       <c r="H123" s="6"/>
     </row>
     <row r="124" spans="1:8">
-      <c r="A124" s="18" t="s">
+      <c r="A124" s="11" t="s">
         <v>85</v>
       </c>
       <c r="B124" s="5" t="s">
@@ -4536,7 +4539,7 @@
       <c r="H124" s="6"/>
     </row>
     <row r="125" spans="1:8">
-      <c r="A125" s="18" t="s">
+      <c r="A125" s="11" t="s">
         <v>85</v>
       </c>
       <c r="B125" s="6" t="s">
@@ -4560,7 +4563,7 @@
       <c r="H125" s="6"/>
     </row>
     <row r="126" spans="1:8">
-      <c r="A126" s="18" t="s">
+      <c r="A126" s="11" t="s">
         <v>85</v>
       </c>
       <c r="B126" s="5" t="s">
@@ -4584,7 +4587,7 @@
       <c r="H126" s="6"/>
     </row>
     <row r="127" spans="1:8">
-      <c r="A127" s="18" t="s">
+      <c r="A127" s="11" t="s">
         <v>85</v>
       </c>
       <c r="B127" s="5" t="s">
@@ -4608,7 +4611,7 @@
       <c r="H127" s="6"/>
     </row>
     <row r="128" spans="1:8">
-      <c r="A128" s="18" t="s">
+      <c r="A128" s="11" t="s">
         <v>85</v>
       </c>
       <c r="B128" s="5" t="s">
@@ -4632,7 +4635,7 @@
       <c r="H128" s="6"/>
     </row>
     <row r="129" spans="1:8">
-      <c r="A129" s="18" t="s">
+      <c r="A129" s="11" t="s">
         <v>86</v>
       </c>
       <c r="B129" s="6" t="s">
@@ -4648,7 +4651,7 @@
       <c r="H129" s="6"/>
     </row>
     <row r="130" spans="1:8">
-      <c r="A130" s="18" t="s">
+      <c r="A130" s="11" t="s">
         <v>86</v>
       </c>
       <c r="B130" s="5" t="s">
@@ -4672,7 +4675,7 @@
       <c r="H130" s="6"/>
     </row>
     <row r="131" spans="1:8">
-      <c r="A131" s="18" t="s">
+      <c r="A131" s="11" t="s">
         <v>86</v>
       </c>
       <c r="B131" s="5" t="s">
@@ -4698,7 +4701,7 @@
       </c>
     </row>
     <row r="132" spans="1:8">
-      <c r="A132" s="18" t="s">
+      <c r="A132" s="11" t="s">
         <v>86</v>
       </c>
       <c r="B132" s="5" t="s">
@@ -4720,7 +4723,7 @@
       <c r="H132" s="6"/>
     </row>
     <row r="133" spans="1:8">
-      <c r="A133" s="18" t="s">
+      <c r="A133" s="11" t="s">
         <v>86</v>
       </c>
       <c r="B133" s="5" t="s">
@@ -4744,7 +4747,7 @@
       </c>
     </row>
     <row r="134" spans="1:8">
-      <c r="A134" s="18" t="s">
+      <c r="A134" s="11" t="s">
         <v>86</v>
       </c>
       <c r="B134" s="5" t="s">
@@ -4766,7 +4769,7 @@
       <c r="H134" s="6"/>
     </row>
     <row r="135" spans="1:8">
-      <c r="A135" s="18" t="s">
+      <c r="A135" s="11" t="s">
         <v>86</v>
       </c>
       <c r="B135" s="5" t="s">
@@ -4788,7 +4791,7 @@
       <c r="H135" s="6"/>
     </row>
     <row r="136" spans="1:8">
-      <c r="A136" s="18" t="s">
+      <c r="A136" s="11" t="s">
         <v>86</v>
       </c>
       <c r="B136" s="5" t="s">
@@ -4810,7 +4813,7 @@
       <c r="H136" s="6"/>
     </row>
     <row r="137" spans="1:8">
-      <c r="A137" s="18" t="s">
+      <c r="A137" s="11" t="s">
         <v>86</v>
       </c>
       <c r="B137" s="5" t="s">
@@ -4834,7 +4837,7 @@
       </c>
     </row>
     <row r="138" spans="1:8">
-      <c r="A138" s="18" t="s">
+      <c r="A138" s="11" t="s">
         <v>86</v>
       </c>
       <c r="B138" s="5" t="s">
@@ -4856,7 +4859,7 @@
       <c r="H138" s="6"/>
     </row>
     <row r="139" spans="1:8">
-      <c r="A139" s="18" t="s">
+      <c r="A139" s="11" t="s">
         <v>89</v>
       </c>
       <c r="B139" s="5" t="s">
@@ -4878,7 +4881,7 @@
       <c r="H139" s="6"/>
     </row>
     <row r="140" spans="1:8">
-      <c r="A140" s="18" t="s">
+      <c r="A140" s="11" t="s">
         <v>89</v>
       </c>
       <c r="B140" s="6" t="s">
@@ -4902,7 +4905,7 @@
       <c r="H140" s="6"/>
     </row>
     <row r="141" spans="1:8">
-      <c r="A141" s="18" t="s">
+      <c r="A141" s="11" t="s">
         <v>89</v>
       </c>
       <c r="B141" s="5" t="s">
@@ -4926,7 +4929,7 @@
       </c>
     </row>
     <row r="142" spans="1:8">
-      <c r="A142" s="18" t="s">
+      <c r="A142" s="11" t="s">
         <v>89</v>
       </c>
       <c r="B142" s="5" t="s">
@@ -4948,7 +4951,7 @@
       <c r="H142" s="6"/>
     </row>
     <row r="143" spans="1:8">
-      <c r="A143" s="18" t="s">
+      <c r="A143" s="11" t="s">
         <v>89</v>
       </c>
       <c r="B143" s="5" t="s">
@@ -4970,7 +4973,7 @@
       <c r="H143" s="6"/>
     </row>
     <row r="144" spans="1:8">
-      <c r="A144" s="18" t="s">
+      <c r="A144" s="11" t="s">
         <v>89</v>
       </c>
       <c r="B144" s="5" t="s">
@@ -4992,7 +4995,7 @@
       <c r="H144" s="6"/>
     </row>
     <row r="145" spans="1:8">
-      <c r="A145" s="18" t="s">
+      <c r="A145" s="11" t="s">
         <v>89</v>
       </c>
       <c r="B145" s="5" t="s">
@@ -5014,7 +5017,7 @@
       <c r="H145" s="6"/>
     </row>
     <row r="146" spans="1:8">
-      <c r="A146" s="18" t="s">
+      <c r="A146" s="11" t="s">
         <v>89</v>
       </c>
       <c r="B146" s="5" t="s">
@@ -5036,7 +5039,7 @@
       <c r="H146" s="6"/>
     </row>
     <row r="147" spans="1:8">
-      <c r="A147" s="18" t="s">
+      <c r="A147" s="11" t="s">
         <v>89</v>
       </c>
       <c r="B147" s="5" t="s">
@@ -5058,7 +5061,7 @@
       <c r="H147" s="6"/>
     </row>
     <row r="148" spans="1:8">
-      <c r="A148" s="18" t="s">
+      <c r="A148" s="11" t="s">
         <v>89</v>
       </c>
       <c r="B148" s="5" t="s">
@@ -5080,7 +5083,7 @@
       <c r="H148" s="6"/>
     </row>
     <row r="149" spans="1:8">
-      <c r="A149" s="18" t="s">
+      <c r="A149" s="11" t="s">
         <v>89</v>
       </c>
       <c r="B149" s="5" t="s">
@@ -5102,7 +5105,7 @@
       <c r="H149" s="6"/>
     </row>
     <row r="150" spans="1:8">
-      <c r="A150" s="18" t="s">
+      <c r="A150" s="11" t="s">
         <v>89</v>
       </c>
       <c r="B150" s="5" t="s">
@@ -5126,7 +5129,7 @@
       </c>
     </row>
     <row r="151" spans="1:8">
-      <c r="A151" s="18" t="s">
+      <c r="A151" s="11" t="s">
         <v>90</v>
       </c>
       <c r="B151" s="6" t="s">
@@ -5144,7 +5147,7 @@
       </c>
     </row>
     <row r="152" spans="1:8">
-      <c r="A152" s="18" t="s">
+      <c r="A152" s="11" t="s">
         <v>90</v>
       </c>
       <c r="B152" s="5" t="s">
@@ -5166,7 +5169,7 @@
       <c r="H152" s="6"/>
     </row>
     <row r="153" spans="1:8">
-      <c r="A153" s="18" t="s">
+      <c r="A153" s="11" t="s">
         <v>90</v>
       </c>
       <c r="B153" s="6" t="s">
@@ -5190,7 +5193,7 @@
       <c r="H153" s="6"/>
     </row>
     <row r="154" spans="1:8">
-      <c r="A154" s="18" t="s">
+      <c r="A154" s="11" t="s">
         <v>90</v>
       </c>
       <c r="B154" s="5" t="s">
@@ -5212,7 +5215,7 @@
       <c r="H154" s="6"/>
     </row>
     <row r="155" spans="1:8">
-      <c r="A155" s="18" t="s">
+      <c r="A155" s="11" t="s">
         <v>90</v>
       </c>
       <c r="B155" s="9" t="s">
@@ -5234,7 +5237,7 @@
       <c r="H155" s="9"/>
     </row>
     <row r="156" spans="1:8">
-      <c r="A156" s="18" t="s">
+      <c r="A156" s="11" t="s">
         <v>90</v>
       </c>
       <c r="B156" s="5" t="s">
@@ -5256,7 +5259,7 @@
       <c r="H156" s="6"/>
     </row>
     <row r="157" spans="1:8">
-      <c r="A157" s="18" t="s">
+      <c r="A157" s="11" t="s">
         <v>90</v>
       </c>
       <c r="B157" s="5" t="s">
@@ -5278,7 +5281,7 @@
       <c r="H157" s="6"/>
     </row>
     <row r="158" spans="1:8">
-      <c r="A158" s="18" t="s">
+      <c r="A158" s="11" t="s">
         <v>90</v>
       </c>
       <c r="B158" s="5" t="s">
@@ -5300,7 +5303,7 @@
       <c r="H158" s="6"/>
     </row>
     <row r="159" spans="1:8">
-      <c r="A159" s="20" t="s">
+      <c r="A159" s="14" t="s">
         <v>90</v>
       </c>
       <c r="B159" s="8" t="s">
@@ -6291,8 +6294,8 @@
   <sheetPr/>
   <dimension ref="A1:I47"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="I45" sqref="I45"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -7418,8 +7421,8 @@
   <sheetPr/>
   <dimension ref="A1:H102"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="7"/>
@@ -9059,16 +9062,16 @@
       </c>
     </row>
     <row r="70" spans="1:8">
-      <c r="A70" s="17" t="s">
+      <c r="A70" s="18" t="s">
         <v>138</v>
       </c>
-      <c r="B70" s="17" t="s">
+      <c r="B70" s="18" t="s">
         <v>40</v>
       </c>
       <c r="C70" s="3">
         <v>15</v>
       </c>
-      <c r="D70" s="17" t="s">
+      <c r="D70" s="18" t="s">
         <v>11</v>
       </c>
       <c r="E70" s="3"/>
@@ -9575,7 +9578,7 @@
       <c r="H92" s="9"/>
     </row>
     <row r="93" spans="1:8">
-      <c r="A93" s="18" t="s">
+      <c r="A93" s="11" t="s">
         <v>145</v>
       </c>
       <c r="B93" s="6" t="s">
@@ -9597,7 +9600,7 @@
       <c r="H93" s="6"/>
     </row>
     <row r="94" spans="1:8">
-      <c r="A94" s="18" t="s">
+      <c r="A94" s="11" t="s">
         <v>145</v>
       </c>
       <c r="B94" s="6" t="s">
@@ -9624,13 +9627,13 @@
       <c r="A95" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="B95" s="17" t="s">
+      <c r="B95" s="18" t="s">
         <v>40</v>
       </c>
       <c r="C95" s="3">
         <v>15</v>
       </c>
-      <c r="D95" s="17" t="s">
+      <c r="D95" s="18" t="s">
         <v>11</v>
       </c>
       <c r="E95" s="3"/>
@@ -9784,8 +9787,8 @@
   <sheetPr/>
   <dimension ref="A1:I125"/>
   <sheetViews>
-    <sheetView topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="B125" sqref="B125"/>
+    <sheetView topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43:I46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -9793,7 +9796,7 @@
     <col min="1" max="1" width="9.37777777777778" customWidth="1"/>
     <col min="2" max="2" width="10.7481481481481" style="1" customWidth="1"/>
     <col min="3" max="8" width="9" style="1"/>
-    <col min="9" max="9" width="13.1259259259259" style="16" customWidth="1"/>
+    <col min="9" max="9" width="13.1259259259259" style="17" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="21" customHeight="1" spans="1:9">
@@ -12766,10 +12769,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:I99"/>
+  <dimension ref="A1:I109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
-      <selection activeCell="E101" sqref="E101"/>
+    <sheetView tabSelected="1" topLeftCell="A87" workbookViewId="0">
+      <selection activeCell="C93" sqref="C93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15"/>
@@ -14384,7 +14387,7 @@
         <v>1560</v>
       </c>
       <c r="H70" s="6"/>
-      <c r="I70" s="15" t="s">
+      <c r="I70" s="16" t="s">
         <v>200</v>
       </c>
     </row>
@@ -14409,7 +14412,7 @@
         <v>1560</v>
       </c>
       <c r="H71" s="6"/>
-      <c r="I71" s="15" t="s">
+      <c r="I71" s="16" t="s">
         <v>201</v>
       </c>
     </row>
@@ -14434,7 +14437,7 @@
         <v>240</v>
       </c>
       <c r="H72" s="6"/>
-      <c r="I72" s="15" t="s">
+      <c r="I72" s="16" t="s">
         <v>201</v>
       </c>
     </row>
@@ -14682,24 +14685,24 @@
       <c r="A83" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="B83" s="11" t="s">
+      <c r="B83" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="C83" s="11">
+      <c r="C83" s="6">
         <v>15</v>
       </c>
-      <c r="D83" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E83" s="11"/>
-      <c r="F83" s="11">
+      <c r="D83" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E83" s="6"/>
+      <c r="F83" s="6">
         <v>50</v>
       </c>
-      <c r="G83" s="11">
+      <c r="G83" s="6">
         <v>750</v>
       </c>
-      <c r="H83" s="11"/>
-      <c r="I83" s="11" t="s">
+      <c r="H83" s="6"/>
+      <c r="I83" s="6" t="s">
         <v>161</v>
       </c>
     </row>
@@ -14707,24 +14710,24 @@
       <c r="A84" s="8" t="s">
         <v>206</v>
       </c>
-      <c r="B84" s="12" t="s">
+      <c r="B84" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C84" s="12">
+      <c r="C84" s="9">
         <v>20</v>
       </c>
-      <c r="D84" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E84" s="12"/>
-      <c r="F84" s="12">
+      <c r="D84" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E84" s="9"/>
+      <c r="F84" s="9">
         <v>10</v>
       </c>
-      <c r="G84" s="12">
+      <c r="G84" s="9">
         <v>200</v>
       </c>
-      <c r="H84" s="12"/>
-      <c r="I84" s="12" t="s">
+      <c r="H84" s="9"/>
+      <c r="I84" s="9" t="s">
         <v>161</v>
       </c>
     </row>
@@ -14732,24 +14735,24 @@
       <c r="A85" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="B85" s="11" t="s">
+      <c r="B85" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C85" s="11">
+      <c r="C85" s="6">
         <v>20</v>
       </c>
-      <c r="D85" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E85" s="11"/>
-      <c r="F85" s="11">
+      <c r="D85" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E85" s="6"/>
+      <c r="F85" s="6">
         <v>7</v>
       </c>
-      <c r="G85" s="11">
+      <c r="G85" s="6">
         <v>140</v>
       </c>
-      <c r="H85" s="11"/>
-      <c r="I85" s="11" t="s">
+      <c r="H85" s="6"/>
+      <c r="I85" s="6" t="s">
         <v>161</v>
       </c>
     </row>
@@ -14757,24 +14760,24 @@
       <c r="A86" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="B86" s="11" t="s">
+      <c r="B86" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C86" s="11">
+      <c r="C86" s="6">
         <v>20</v>
       </c>
-      <c r="D86" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E86" s="11"/>
-      <c r="F86" s="11">
+      <c r="D86" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E86" s="6"/>
+      <c r="F86" s="6">
         <v>8.5</v>
       </c>
-      <c r="G86" s="11">
+      <c r="G86" s="6">
         <v>170</v>
       </c>
-      <c r="H86" s="11"/>
-      <c r="I86" s="11" t="s">
+      <c r="H86" s="6"/>
+      <c r="I86" s="6" t="s">
         <v>161</v>
       </c>
     </row>
@@ -14782,26 +14785,26 @@
       <c r="A87" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="B87" s="11" t="s">
+      <c r="B87" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C87" s="11">
+      <c r="C87" s="6">
         <v>2</v>
       </c>
-      <c r="D87" s="11" t="s">
+      <c r="D87" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E87" s="11" t="s">
+      <c r="E87" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="F87" s="11">
+      <c r="F87" s="6">
         <v>275</v>
       </c>
-      <c r="G87" s="11">
+      <c r="G87" s="6">
         <v>550</v>
       </c>
-      <c r="H87" s="11"/>
-      <c r="I87" s="11" t="s">
+      <c r="H87" s="6"/>
+      <c r="I87" s="6" t="s">
         <v>161</v>
       </c>
     </row>
@@ -14809,281 +14812,507 @@
       <c r="A88" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="B88" s="13" t="s">
+      <c r="B88" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C88" s="13">
+      <c r="C88" s="6">
         <v>10</v>
       </c>
-      <c r="D88" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E88" s="13"/>
-      <c r="F88" s="13">
+      <c r="D88" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E88" s="6"/>
+      <c r="F88" s="6">
         <v>45</v>
       </c>
-      <c r="G88" s="13">
+      <c r="G88" s="6">
         <v>450</v>
       </c>
-      <c r="H88" s="13">
+      <c r="H88" s="6">
         <v>20</v>
       </c>
-      <c r="I88" s="13"/>
+      <c r="I88" s="6"/>
     </row>
     <row r="89" spans="1:9">
       <c r="A89" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="B89" s="13" t="s">
+      <c r="B89" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C89" s="13">
+      <c r="C89" s="6">
         <v>7</v>
       </c>
-      <c r="D89" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E89" s="13"/>
-      <c r="F89" s="13">
+      <c r="D89" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E89" s="6"/>
+      <c r="F89" s="6">
         <v>10</v>
       </c>
-      <c r="G89" s="13">
+      <c r="G89" s="6">
         <v>70</v>
       </c>
-      <c r="H89" s="13"/>
-      <c r="I89" s="13"/>
+      <c r="H89" s="6"/>
+      <c r="I89" s="6"/>
     </row>
     <row r="90" spans="1:9">
       <c r="A90" s="8" t="s">
         <v>207</v>
       </c>
-      <c r="B90" s="14" t="s">
+      <c r="B90" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="C90" s="14">
+      <c r="C90" s="9">
         <v>2</v>
       </c>
-      <c r="D90" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="E90" s="14"/>
-      <c r="F90" s="14">
+      <c r="D90" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E90" s="9"/>
+      <c r="F90" s="9">
         <v>58</v>
       </c>
-      <c r="G90" s="14">
+      <c r="G90" s="9">
         <v>116</v>
       </c>
-      <c r="H90" s="14"/>
-      <c r="I90" s="14"/>
+      <c r="H90" s="9"/>
+      <c r="I90" s="9"/>
     </row>
     <row r="91" spans="1:9">
       <c r="A91" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="B91" s="13" t="s">
+      <c r="B91" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C91" s="13">
+      <c r="C91" s="6">
         <v>1</v>
       </c>
-      <c r="D91" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E91" s="13"/>
-      <c r="F91" s="13">
+      <c r="D91" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E91" s="6"/>
+      <c r="F91" s="6">
         <v>56</v>
       </c>
-      <c r="G91" s="13">
+      <c r="G91" s="6">
         <v>56</v>
       </c>
-      <c r="H91" s="13"/>
-      <c r="I91" s="13"/>
+      <c r="H91" s="6"/>
+      <c r="I91" s="6"/>
     </row>
     <row r="92" spans="1:9">
       <c r="A92" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="B92" s="13" t="s">
+      <c r="B92" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C92" s="13">
+      <c r="C92" s="6">
         <v>2</v>
       </c>
-      <c r="D92" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E92" s="13"/>
-      <c r="F92" s="13">
+      <c r="D92" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E92" s="6"/>
+      <c r="F92" s="6">
         <v>8</v>
       </c>
-      <c r="G92" s="13">
+      <c r="G92" s="6">
         <v>16</v>
       </c>
-      <c r="H92" s="13"/>
-      <c r="I92" s="13"/>
+      <c r="H92" s="6"/>
+      <c r="I92" s="6"/>
     </row>
     <row r="93" spans="1:9">
       <c r="A93" s="8" t="s">
         <v>207</v>
       </c>
-      <c r="B93" s="14" t="s">
+      <c r="B93" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="C93" s="14">
+      <c r="C93" s="9">
         <v>1</v>
       </c>
-      <c r="D93" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="E93" s="14"/>
-      <c r="F93" s="14">
+      <c r="D93" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E93" s="9"/>
+      <c r="F93" s="9">
         <v>10</v>
       </c>
-      <c r="G93" s="14">
+      <c r="G93" s="9">
         <v>10</v>
       </c>
-      <c r="H93" s="14"/>
-      <c r="I93" s="14"/>
+      <c r="H93" s="9"/>
+      <c r="I93" s="9"/>
     </row>
     <row r="94" spans="1:9">
       <c r="A94" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="B94" s="13" t="s">
+      <c r="B94" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C94" s="13">
+      <c r="C94" s="6">
         <v>2</v>
       </c>
-      <c r="D94" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E94" s="13"/>
-      <c r="F94" s="13">
+      <c r="D94" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E94" s="6"/>
+      <c r="F94" s="6">
         <v>9</v>
       </c>
-      <c r="G94" s="13">
+      <c r="G94" s="6">
         <v>18</v>
       </c>
-      <c r="H94" s="13"/>
-      <c r="I94" s="13"/>
+      <c r="H94" s="6"/>
+      <c r="I94" s="6"/>
     </row>
     <row r="95" spans="1:9">
       <c r="A95" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="B95" s="13" t="s">
+      <c r="B95" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C95" s="13">
+      <c r="C95" s="6">
         <v>1</v>
       </c>
-      <c r="D95" s="13" t="s">
+      <c r="D95" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E95" s="13" t="s">
+      <c r="E95" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="F95" s="13">
+      <c r="F95" s="6">
         <v>725</v>
       </c>
-      <c r="G95" s="13">
+      <c r="G95" s="6">
         <v>725</v>
       </c>
-      <c r="H95" s="13"/>
-      <c r="I95" s="13"/>
+      <c r="H95" s="6"/>
+      <c r="I95" s="6"/>
     </row>
     <row r="96" spans="1:9">
       <c r="A96" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="B96" s="13" t="s">
+      <c r="B96" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C96" s="13">
+      <c r="C96" s="6">
         <v>10</v>
       </c>
-      <c r="D96" s="13" t="s">
+      <c r="D96" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E96" s="13"/>
-      <c r="F96" s="13">
+      <c r="E96" s="6"/>
+      <c r="F96" s="6">
         <v>16</v>
       </c>
-      <c r="G96" s="13">
+      <c r="G96" s="6">
         <v>160</v>
       </c>
-      <c r="H96" s="13"/>
-      <c r="I96" s="13"/>
+      <c r="H96" s="6"/>
+      <c r="I96" s="6"/>
     </row>
     <row r="97" spans="1:9">
       <c r="A97" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="B97" s="13" t="s">
+      <c r="B97" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C97" s="13">
+      <c r="C97" s="6">
         <v>15</v>
       </c>
-      <c r="D97" s="13" t="s">
+      <c r="D97" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E97" s="13"/>
-      <c r="F97" s="13">
+      <c r="E97" s="6"/>
+      <c r="F97" s="6">
         <v>90</v>
       </c>
-      <c r="G97" s="13">
+      <c r="G97" s="6">
         <v>1350</v>
       </c>
-      <c r="H97" s="13"/>
-      <c r="I97" s="13"/>
+      <c r="H97" s="6"/>
+      <c r="I97" s="6"/>
     </row>
     <row r="98" spans="1:9">
       <c r="A98" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="B98" s="13" t="s">
+      <c r="B98" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C98" s="13">
+      <c r="C98" s="9">
         <v>15</v>
       </c>
-      <c r="D98" s="13" t="s">
+      <c r="D98" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="E98" s="13"/>
-      <c r="F98" s="13">
+      <c r="E98" s="9"/>
+      <c r="F98" s="9">
         <v>10.7</v>
       </c>
-      <c r="G98" s="13">
+      <c r="G98" s="9">
         <v>160.5</v>
       </c>
-      <c r="H98" s="13"/>
-      <c r="I98" s="13"/>
+      <c r="H98" s="9"/>
+      <c r="I98" s="9"/>
     </row>
     <row r="99" spans="1:9">
-      <c r="A99" s="5" t="s">
+      <c r="A99" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="B99" s="13" t="s">
+      <c r="B99" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="C99" s="13">
+      <c r="C99" s="6">
         <v>10</v>
       </c>
-      <c r="D99" s="13" t="s">
+      <c r="D99" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E99" s="13"/>
-      <c r="F99" s="13">
+      <c r="E99" s="6"/>
+      <c r="F99" s="6">
         <v>56</v>
       </c>
-      <c r="G99" s="13">
+      <c r="G99" s="6">
         <v>560</v>
       </c>
-      <c r="H99" s="13"/>
-      <c r="I99" s="13"/>
+      <c r="H99" s="6"/>
+      <c r="I99" s="6"/>
+    </row>
+    <row r="100" spans="1:9">
+      <c r="A100" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="B100" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C100" s="12"/>
+      <c r="D100" s="12"/>
+      <c r="E100" s="12"/>
+      <c r="F100" s="12"/>
+      <c r="G100" s="12">
+        <v>670</v>
+      </c>
+      <c r="H100" s="12"/>
+      <c r="I100" s="12"/>
+    </row>
+    <row r="101" spans="1:9">
+      <c r="A101" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="B101" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C101" s="12">
+        <v>2</v>
+      </c>
+      <c r="D101" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E101" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="F101" s="12">
+        <v>275</v>
+      </c>
+      <c r="G101" s="12">
+        <v>550</v>
+      </c>
+      <c r="H101" s="12"/>
+      <c r="I101" s="12"/>
+    </row>
+    <row r="102" spans="1:9">
+      <c r="A102" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="B102" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C102" s="12">
+        <v>1</v>
+      </c>
+      <c r="D102" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E102" s="12"/>
+      <c r="F102" s="12">
+        <v>8</v>
+      </c>
+      <c r="G102" s="12">
+        <v>8</v>
+      </c>
+      <c r="H102" s="12"/>
+      <c r="I102" s="12"/>
+    </row>
+    <row r="103" spans="1:9">
+      <c r="A103" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="B103" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C103" s="12"/>
+      <c r="D103" s="12"/>
+      <c r="E103" s="12"/>
+      <c r="F103" s="12"/>
+      <c r="G103" s="12">
+        <v>700</v>
+      </c>
+      <c r="H103" s="12"/>
+      <c r="I103" s="12"/>
+    </row>
+    <row r="104" spans="1:9">
+      <c r="A104" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="B104" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C104" s="12"/>
+      <c r="D104" s="12"/>
+      <c r="E104" s="12"/>
+      <c r="F104" s="12"/>
+      <c r="G104" s="12">
+        <v>680</v>
+      </c>
+      <c r="H104" s="12"/>
+      <c r="I104" s="12"/>
+    </row>
+    <row r="105" spans="1:9">
+      <c r="A105" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="B105" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C105" s="13">
+        <v>8</v>
+      </c>
+      <c r="D105" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E105" s="13"/>
+      <c r="F105" s="13">
+        <v>14.5</v>
+      </c>
+      <c r="G105" s="13">
+        <v>116</v>
+      </c>
+      <c r="H105" s="13"/>
+      <c r="I105" s="13" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
+      <c r="A106" s="14" t="s">
+        <v>210</v>
+      </c>
+      <c r="B106" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C106" s="15">
+        <v>8</v>
+      </c>
+      <c r="D106" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E106" s="15"/>
+      <c r="F106" s="15">
+        <v>89</v>
+      </c>
+      <c r="G106" s="15">
+        <v>712</v>
+      </c>
+      <c r="H106" s="15"/>
+      <c r="I106" s="15" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
+      <c r="A107" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="B107" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C107" s="13">
+        <v>8</v>
+      </c>
+      <c r="D107" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E107" s="13"/>
+      <c r="F107" s="13">
+        <v>15</v>
+      </c>
+      <c r="G107" s="13">
+        <v>120</v>
+      </c>
+      <c r="H107" s="13"/>
+      <c r="I107" s="13" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
+      <c r="A108" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="B108" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C108" s="13">
+        <v>1</v>
+      </c>
+      <c r="D108" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E108" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F108" s="13">
+        <v>500</v>
+      </c>
+      <c r="G108" s="13">
+        <v>500</v>
+      </c>
+      <c r="H108" s="13">
+        <v>10</v>
+      </c>
+      <c r="I108" s="13" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
+      <c r="A109" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="B109" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C109" s="12">
+        <v>8</v>
+      </c>
+      <c r="D109" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E109" s="12"/>
+      <c r="F109" s="12">
+        <v>11</v>
+      </c>
+      <c r="G109" s="12">
+        <v>88</v>
+      </c>
+      <c r="H109" s="12"/>
+      <c r="I109" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/2016年销售日记账.xlsx
+++ b/2016年销售日记账.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8655" firstSheet="1" activeTab="4"/>
+    <workbookView windowWidth="20385" windowHeight="8655" firstSheet="1" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="2016.1" sheetId="1" r:id="rId1"/>
@@ -1005,10 +1005,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -1020,14 +1020,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1041,11 +1056,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1058,7 +1072,7 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1069,37 +1083,6 @@
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1119,13 +1102,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -1134,17 +1110,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1157,7 +1127,37 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1169,6 +1169,12 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1184,7 +1190,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1196,25 +1202,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1232,7 +1220,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1244,115 +1352,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1466,7 +1466,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1482,15 +1497,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1531,21 +1537,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -1559,93 +1550,102 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1654,62 +1654,62 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1747,9 +1747,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
@@ -6642,10 +6639,10 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:I71"/>
+  <dimension ref="A1:I72"/>
   <sheetViews>
-    <sheetView topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="B71" sqref="B71"/>
+    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="B73" sqref="B73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15"/>
@@ -8399,20 +8396,43 @@
       <c r="A71" s="11" t="s">
         <v>324</v>
       </c>
-      <c r="B71" s="13" t="s">
+      <c r="B71" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C71" s="13"/>
-      <c r="D71" s="13"/>
-      <c r="E71" s="13"/>
-      <c r="F71" s="13"/>
-      <c r="G71" s="13">
+      <c r="C71" s="6"/>
+      <c r="D71" s="6"/>
+      <c r="E71" s="6"/>
+      <c r="F71" s="6"/>
+      <c r="G71" s="6">
         <v>594</v>
       </c>
-      <c r="H71" s="13">
+      <c r="H71" s="6">
         <v>90</v>
       </c>
-      <c r="I71" s="13"/>
+      <c r="I71" s="6"/>
+    </row>
+    <row r="72" spans="1:8">
+      <c r="A72" s="11" t="s">
+        <v>324</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C72" s="1">
+        <v>1</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F72" s="1">
+        <v>16</v>
+      </c>
+      <c r="G72" s="1">
+        <v>16</v>
+      </c>
+      <c r="H72" s="1">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -11198,16 +11218,16 @@
       </c>
     </row>
     <row r="70" spans="1:8">
-      <c r="A70" s="17" t="s">
+      <c r="A70" s="16" t="s">
         <v>138</v>
       </c>
-      <c r="B70" s="17" t="s">
+      <c r="B70" s="16" t="s">
         <v>40</v>
       </c>
       <c r="C70" s="3">
         <v>15</v>
       </c>
-      <c r="D70" s="17" t="s">
+      <c r="D70" s="16" t="s">
         <v>11</v>
       </c>
       <c r="E70" s="3"/>
@@ -11785,13 +11805,13 @@
       <c r="A95" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="B95" s="17" t="s">
+      <c r="B95" s="16" t="s">
         <v>40</v>
       </c>
       <c r="C95" s="3">
         <v>15</v>
       </c>
-      <c r="D95" s="17" t="s">
+      <c r="D95" s="16" t="s">
         <v>11</v>
       </c>
       <c r="E95" s="3"/>
@@ -11930,10 +11950,10 @@
       </c>
     </row>
     <row r="101" spans="4:4">
-      <c r="D101" s="18"/>
+      <c r="D101" s="17"/>
     </row>
     <row r="102" spans="4:4">
-      <c r="D102" s="18"/>
+      <c r="D102" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -11958,7 +11978,7 @@
     <col min="1" max="1" width="9.37777777777778" customWidth="1"/>
     <col min="2" max="2" width="10.7481481481481" style="1" customWidth="1"/>
     <col min="3" max="8" width="9" style="1"/>
-    <col min="9" max="9" width="13.1259259259259" style="16" customWidth="1"/>
+    <col min="9" max="9" width="13.1259259259259" style="15" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="21" customHeight="1" spans="1:9">
@@ -14933,7 +14953,7 @@
   <sheetPr/>
   <dimension ref="A1:I162"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A89" workbookViewId="0">
       <selection activeCell="A1" sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
@@ -16571,7 +16591,7 @@
       <c r="H70" s="6">
         <v>180</v>
       </c>
-      <c r="I70" s="15" t="s">
+      <c r="I70" s="14" t="s">
         <v>200</v>
       </c>
     </row>
@@ -16598,7 +16618,7 @@
       <c r="H71" s="6">
         <v>180</v>
       </c>
-      <c r="I71" s="15" t="s">
+      <c r="I71" s="14" t="s">
         <v>201</v>
       </c>
     </row>
@@ -16625,7 +16645,7 @@
       <c r="H72" s="6">
         <v>20</v>
       </c>
-      <c r="I72" s="15" t="s">
+      <c r="I72" s="14" t="s">
         <v>201</v>
       </c>
     </row>
@@ -18828,31 +18848,31 @@
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="G2" s="13" t="s">
         <v>7</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="14" t="s">
+      <c r="I2" s="13" t="s">
         <v>146</v>
       </c>
     </row>

--- a/2016年销售日记账.xlsx
+++ b/2016年销售日记账.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328">
   <si>
     <t>2016年销售日记账</t>
   </si>
@@ -943,6 +943,9 @@
     <t>2016.8.31</t>
   </si>
   <si>
+    <t>2016.9.1</t>
+  </si>
+  <si>
     <t>2016.10.4</t>
   </si>
   <si>
@@ -998,6 +1001,12 @@
   </si>
   <si>
     <t>2016.10.17</t>
+  </si>
+  <si>
+    <t>2016.10.19</t>
+  </si>
+  <si>
+    <t>2016.10.20</t>
   </si>
 </sst>
 </file>
@@ -1005,12 +1014,19 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1041,13 +1057,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -1057,7 +1066,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1072,46 +1095,15 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1126,8 +1118,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1141,23 +1171,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1190,13 +1206,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1208,7 +1230,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1220,43 +1272,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1268,49 +1296,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1334,13 +1326,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1352,7 +1368,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1501,11 +1517,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1536,17 +1558,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1564,88 +1580,88 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1654,28 +1670,28 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1684,32 +1700,32 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1747,6 +1763,33 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
@@ -6639,10 +6682,10 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:I72"/>
+  <dimension ref="A1:I78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="B73" sqref="B73"/>
+    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="C76" sqref="C76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15"/>
@@ -6688,7 +6731,7 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="5" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>24</v>
@@ -6713,7 +6756,7 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="5" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>13</v>
@@ -6738,7 +6781,7 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="5" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>40</v>
@@ -6763,7 +6806,7 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="5" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>21</v>
@@ -6788,7 +6831,7 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="5" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>45</v>
@@ -6807,7 +6850,7 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="5" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>248</v>
@@ -6832,7 +6875,7 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="10" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>43</v>
@@ -6844,7 +6887,7 @@
         <v>14</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="F9" s="8">
         <v>780</v>
@@ -6859,7 +6902,7 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="5" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>24</v>
@@ -6884,7 +6927,7 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="5" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>36</v>
@@ -6911,7 +6954,7 @@
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="5" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>40</v>
@@ -6936,7 +6979,7 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="5" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>38</v>
@@ -6961,7 +7004,7 @@
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="5" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>13</v>
@@ -6986,7 +7029,7 @@
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="5" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>39</v>
@@ -7011,7 +7054,7 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="5" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>23</v>
@@ -7038,7 +7081,7 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="5" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>38</v>
@@ -7065,7 +7108,7 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="10" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B18" s="8" t="s">
         <v>24</v>
@@ -7092,7 +7135,7 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="5" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>45</v>
@@ -7111,7 +7154,7 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="5" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>13</v>
@@ -7138,7 +7181,7 @@
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="5" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>44</v>
@@ -7163,7 +7206,7 @@
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="5" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B22" s="6" t="s">
         <v>129</v>
@@ -7186,7 +7229,7 @@
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="5" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B23" s="6" t="s">
         <v>191</v>
@@ -7211,7 +7254,7 @@
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="5" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B24" s="6" t="s">
         <v>87</v>
@@ -7236,7 +7279,7 @@
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="5" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B25" s="6" t="s">
         <v>54</v>
@@ -7261,7 +7304,7 @@
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="5" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B26" s="6" t="s">
         <v>19</v>
@@ -7286,10 +7329,10 @@
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="5" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C27" s="6">
         <v>15</v>
@@ -7311,7 +7354,7 @@
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="10" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B28" s="8" t="s">
         <v>63</v>
@@ -7336,7 +7379,7 @@
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="5" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B29" s="6" t="s">
         <v>10</v>
@@ -7361,7 +7404,7 @@
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="5" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B30" s="6" t="s">
         <v>24</v>
@@ -7386,7 +7429,7 @@
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="5" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B31" s="6" t="s">
         <v>13</v>
@@ -7411,7 +7454,7 @@
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="5" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B32" s="6" t="s">
         <v>48</v>
@@ -7436,7 +7479,7 @@
     </row>
     <row r="33" spans="1:9">
       <c r="A33" s="5" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B33" s="6" t="s">
         <v>54</v>
@@ -7461,7 +7504,7 @@
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="5" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B34" s="6" t="s">
         <v>19</v>
@@ -7486,7 +7529,7 @@
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="5" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B35" s="6" t="s">
         <v>10</v>
@@ -7511,7 +7554,7 @@
     </row>
     <row r="36" spans="1:9">
       <c r="A36" s="5" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B36" s="6" t="s">
         <v>24</v>
@@ -7536,7 +7579,7 @@
     </row>
     <row r="37" spans="1:9">
       <c r="A37" s="10" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B37" s="8" t="s">
         <v>44</v>
@@ -7561,7 +7604,7 @@
     </row>
     <row r="38" spans="1:9">
       <c r="A38" s="5" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B38" s="6" t="s">
         <v>45</v>
@@ -7580,7 +7623,7 @@
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="5" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B39" s="6" t="s">
         <v>43</v>
@@ -7605,7 +7648,7 @@
     </row>
     <row r="40" spans="1:9">
       <c r="A40" s="5" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B40" s="6" t="s">
         <v>191</v>
@@ -7630,7 +7673,7 @@
     </row>
     <row r="41" spans="1:9">
       <c r="A41" s="5" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B41" s="6" t="s">
         <v>31</v>
@@ -7655,7 +7698,7 @@
     </row>
     <row r="42" spans="1:9">
       <c r="A42" s="10" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B42" s="8" t="s">
         <v>31</v>
@@ -7680,7 +7723,7 @@
     </row>
     <row r="43" spans="1:9">
       <c r="A43" s="5" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B43" s="6" t="s">
         <v>23</v>
@@ -7705,10 +7748,10 @@
     </row>
     <row r="44" spans="1:9">
       <c r="A44" s="5" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C44" s="6">
         <v>6</v>
@@ -7732,10 +7775,10 @@
     </row>
     <row r="45" spans="1:9">
       <c r="A45" s="5" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C45" s="8">
         <v>1</v>
@@ -7759,10 +7802,10 @@
     </row>
     <row r="46" spans="1:9">
       <c r="A46" s="11" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C46" s="6">
         <v>50</v>
@@ -7784,7 +7827,7 @@
     </row>
     <row r="47" spans="1:9">
       <c r="A47" s="11" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B47" s="6" t="s">
         <v>40</v>
@@ -7809,7 +7852,7 @@
     </row>
     <row r="48" spans="1:9">
       <c r="A48" s="11" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B48" s="6" t="s">
         <v>38</v>
@@ -7834,7 +7877,7 @@
     </row>
     <row r="49" spans="1:9">
       <c r="A49" s="11" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B49" s="6" t="s">
         <v>13</v>
@@ -7859,7 +7902,7 @@
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="12" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B50" s="8" t="s">
         <v>39</v>
@@ -7884,7 +7927,7 @@
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="10" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B51" s="8" t="s">
         <v>79</v>
@@ -7911,7 +7954,7 @@
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="5" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B52" s="6" t="s">
         <v>202</v>
@@ -7934,7 +7977,7 @@
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="10" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B53" s="8" t="s">
         <v>51</v>
@@ -7959,7 +8002,7 @@
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="10" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B54" s="8" t="s">
         <v>36</v>
@@ -7986,7 +8029,7 @@
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="5" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B55" s="6" t="s">
         <v>84</v>
@@ -8013,7 +8056,7 @@
     </row>
     <row r="56" spans="1:9">
       <c r="A56" s="5" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B56" s="6" t="s">
         <v>63</v>
@@ -8038,7 +8081,7 @@
     </row>
     <row r="57" spans="1:9">
       <c r="A57" s="5" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B57" s="6" t="s">
         <v>36</v>
@@ -8065,7 +8108,7 @@
     </row>
     <row r="58" spans="1:9">
       <c r="A58" s="5" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B58" s="6" t="s">
         <v>40</v>
@@ -8090,7 +8133,7 @@
     </row>
     <row r="59" spans="1:9">
       <c r="A59" s="5" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B59" s="6" t="s">
         <v>38</v>
@@ -8115,7 +8158,7 @@
     </row>
     <row r="60" spans="1:9">
       <c r="A60" s="5" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B60" s="6" t="s">
         <v>13</v>
@@ -8140,7 +8183,7 @@
     </row>
     <row r="61" spans="1:9">
       <c r="A61" s="5" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B61" s="6" t="s">
         <v>39</v>
@@ -8165,7 +8208,7 @@
     </row>
     <row r="62" spans="1:9">
       <c r="A62" s="5" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B62" s="6" t="s">
         <v>44</v>
@@ -8190,7 +8233,7 @@
     </row>
     <row r="63" spans="1:9">
       <c r="A63" s="5" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B63" s="6" t="s">
         <v>31</v>
@@ -8215,7 +8258,7 @@
     </row>
     <row r="64" spans="1:9">
       <c r="A64" s="5" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B64" s="6" t="s">
         <v>13</v>
@@ -8240,7 +8283,7 @@
     </row>
     <row r="65" spans="1:9">
       <c r="A65" s="5" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B65" s="6" t="s">
         <v>40</v>
@@ -8267,10 +8310,10 @@
     </row>
     <row r="66" spans="1:9">
       <c r="A66" s="5" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C66" s="6">
         <v>2</v>
@@ -8294,7 +8337,7 @@
     </row>
     <row r="67" spans="1:9">
       <c r="A67" s="5" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B67" s="8" t="s">
         <v>51</v>
@@ -8319,7 +8362,7 @@
     </row>
     <row r="68" spans="1:9">
       <c r="A68" s="11" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B68" s="6" t="s">
         <v>21</v>
@@ -8344,7 +8387,7 @@
     </row>
     <row r="69" spans="1:9">
       <c r="A69" s="11" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B69" s="6" t="s">
         <v>23</v>
@@ -8368,33 +8411,33 @@
       <c r="I69" s="6"/>
     </row>
     <row r="70" spans="1:9">
-      <c r="A70" s="11" t="s">
-        <v>324</v>
-      </c>
-      <c r="B70" s="6" t="s">
+      <c r="A70" s="12" t="s">
+        <v>325</v>
+      </c>
+      <c r="B70" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C70" s="6">
+      <c r="C70" s="8">
         <v>8</v>
       </c>
-      <c r="D70" s="6" t="s">
+      <c r="D70" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="E70" s="6"/>
-      <c r="F70" s="6">
+      <c r="E70" s="8"/>
+      <c r="F70" s="8">
         <v>16</v>
       </c>
-      <c r="G70" s="6">
+      <c r="G70" s="8">
         <v>128</v>
       </c>
-      <c r="H70" s="6">
+      <c r="H70" s="8">
         <v>22.4</v>
       </c>
-      <c r="I70" s="6"/>
+      <c r="I70" s="8"/>
     </row>
     <row r="71" spans="1:9">
-      <c r="A71" s="11" t="s">
-        <v>324</v>
+      <c r="A71" s="5" t="s">
+        <v>325</v>
       </c>
       <c r="B71" s="6" t="s">
         <v>45</v>
@@ -8411,28 +8454,170 @@
       </c>
       <c r="I71" s="6"/>
     </row>
-    <row r="72" spans="1:8">
-      <c r="A72" s="11" t="s">
-        <v>324</v>
-      </c>
-      <c r="B72" s="1" t="s">
+    <row r="72" spans="1:9">
+      <c r="A72" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="B72" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="C72" s="1">
+      <c r="C72" s="13">
         <v>1</v>
       </c>
-      <c r="D72" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F72" s="1">
+      <c r="D72" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E72" s="13"/>
+      <c r="F72" s="13">
         <v>16</v>
       </c>
-      <c r="G72" s="1">
+      <c r="G72" s="13">
         <v>16</v>
       </c>
-      <c r="H72" s="1">
+      <c r="H72" s="13">
         <v>3</v>
       </c>
+      <c r="I72" s="13"/>
+    </row>
+    <row r="73" spans="1:9">
+      <c r="A73" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="B73" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="C73" s="13">
+        <v>10</v>
+      </c>
+      <c r="D73" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E73" s="13"/>
+      <c r="F73" s="13">
+        <v>6.5</v>
+      </c>
+      <c r="G73" s="13">
+        <v>65</v>
+      </c>
+      <c r="H73" s="13">
+        <v>65</v>
+      </c>
+      <c r="I73" s="13"/>
+    </row>
+    <row r="74" spans="1:9">
+      <c r="A74" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="B74" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C74" s="13"/>
+      <c r="D74" s="13"/>
+      <c r="E74" s="13"/>
+      <c r="F74" s="13"/>
+      <c r="G74" s="13">
+        <v>380</v>
+      </c>
+      <c r="H74" s="13">
+        <v>70</v>
+      </c>
+      <c r="I74" s="13"/>
+    </row>
+    <row r="75" spans="1:9">
+      <c r="A75" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="B75" s="13" t="s">
+        <v>317</v>
+      </c>
+      <c r="C75" s="13">
+        <v>1</v>
+      </c>
+      <c r="D75" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E75" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="F75" s="13">
+        <v>300</v>
+      </c>
+      <c r="G75" s="13">
+        <v>300</v>
+      </c>
+      <c r="H75" s="13">
+        <v>15</v>
+      </c>
+      <c r="I75" s="13"/>
+    </row>
+    <row r="76" spans="1:9">
+      <c r="A76" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="B76" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C76" s="13">
+        <v>1</v>
+      </c>
+      <c r="D76" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E76" s="13"/>
+      <c r="F76" s="13">
+        <v>25</v>
+      </c>
+      <c r="G76" s="13">
+        <v>25</v>
+      </c>
+      <c r="H76" s="13">
+        <v>15</v>
+      </c>
+      <c r="I76" s="13"/>
+    </row>
+    <row r="77" spans="1:9">
+      <c r="A77" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="B77" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C77" s="13">
+        <v>2</v>
+      </c>
+      <c r="D77" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E77" s="13"/>
+      <c r="F77" s="13">
+        <v>55</v>
+      </c>
+      <c r="G77" s="13">
+        <v>110</v>
+      </c>
+      <c r="H77" s="13">
+        <v>10</v>
+      </c>
+      <c r="I77" s="13"/>
+    </row>
+    <row r="78" spans="1:9">
+      <c r="A78" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="B78" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C78" s="13"/>
+      <c r="D78" s="13"/>
+      <c r="E78" s="13"/>
+      <c r="F78" s="13"/>
+      <c r="G78" s="13">
+        <v>167</v>
+      </c>
+      <c r="H78" s="13">
+        <v>45</v>
+      </c>
+      <c r="I78" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -11218,16 +11403,16 @@
       </c>
     </row>
     <row r="70" spans="1:8">
-      <c r="A70" s="16" t="s">
+      <c r="A70" s="25" t="s">
         <v>138</v>
       </c>
-      <c r="B70" s="16" t="s">
+      <c r="B70" s="25" t="s">
         <v>40</v>
       </c>
       <c r="C70" s="3">
         <v>15</v>
       </c>
-      <c r="D70" s="16" t="s">
+      <c r="D70" s="25" t="s">
         <v>11</v>
       </c>
       <c r="E70" s="3"/>
@@ -11805,13 +11990,13 @@
       <c r="A95" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="B95" s="16" t="s">
+      <c r="B95" s="25" t="s">
         <v>40</v>
       </c>
       <c r="C95" s="3">
         <v>15</v>
       </c>
-      <c r="D95" s="16" t="s">
+      <c r="D95" s="25" t="s">
         <v>11</v>
       </c>
       <c r="E95" s="3"/>
@@ -11950,10 +12135,10 @@
       </c>
     </row>
     <row r="101" spans="4:4">
-      <c r="D101" s="17"/>
+      <c r="D101" s="26"/>
     </row>
     <row r="102" spans="4:4">
-      <c r="D102" s="17"/>
+      <c r="D102" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -11967,18 +12152,20 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:I125"/>
+  <dimension ref="A1:I126"/>
   <sheetViews>
-    <sheetView topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43:I46"/>
+    <sheetView topLeftCell="A102" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.37777777777778" customWidth="1"/>
     <col min="2" max="2" width="10.7481481481481" style="1" customWidth="1"/>
-    <col min="3" max="8" width="9" style="1"/>
-    <col min="9" max="9" width="13.1259259259259" style="15" customWidth="1"/>
+    <col min="3" max="6" width="9" style="1"/>
+    <col min="7" max="7" width="9.22222222222222" style="1"/>
+    <col min="8" max="8" width="9" style="1"/>
+    <col min="9" max="9" width="13.1259259259259" style="24" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="21" customHeight="1" spans="1:9">
@@ -12036,7 +12223,9 @@
       <c r="G3" s="6">
         <v>630</v>
       </c>
-      <c r="H3" s="7"/>
+      <c r="H3" s="7">
+        <v>7</v>
+      </c>
       <c r="I3" s="6"/>
     </row>
     <row r="4" spans="1:9">
@@ -12053,7 +12242,9 @@
       <c r="G4" s="6">
         <v>392</v>
       </c>
-      <c r="H4" s="7"/>
+      <c r="H4" s="7">
+        <v>98</v>
+      </c>
       <c r="I4" s="6"/>
     </row>
     <row r="5" spans="1:9">
@@ -12076,7 +12267,9 @@
       <c r="G5" s="6">
         <v>30</v>
       </c>
-      <c r="H5" s="7"/>
+      <c r="H5" s="7">
+        <v>12</v>
+      </c>
       <c r="I5" s="6"/>
     </row>
     <row r="6" spans="1:9">
@@ -12099,7 +12292,9 @@
       <c r="G6" s="6">
         <v>16</v>
       </c>
-      <c r="H6" s="7"/>
+      <c r="H6" s="7">
+        <v>6</v>
+      </c>
       <c r="I6" s="6"/>
     </row>
     <row r="7" spans="1:9">
@@ -12122,7 +12317,9 @@
       <c r="G7" s="6">
         <v>12</v>
       </c>
-      <c r="H7" s="7"/>
+      <c r="H7" s="7">
+        <v>1</v>
+      </c>
       <c r="I7" s="6"/>
     </row>
     <row r="8" spans="1:9">
@@ -12145,7 +12342,9 @@
       <c r="G8" s="6">
         <v>40</v>
       </c>
-      <c r="H8" s="7"/>
+      <c r="H8" s="7">
+        <v>2</v>
+      </c>
       <c r="I8" s="6"/>
     </row>
     <row r="9" spans="1:9">
@@ -12168,7 +12367,9 @@
       <c r="G9" s="6">
         <v>2600</v>
       </c>
-      <c r="H9" s="7"/>
+      <c r="H9" s="7">
+        <v>350</v>
+      </c>
       <c r="I9" s="6" t="s">
         <v>148</v>
       </c>
@@ -12193,7 +12394,9 @@
       <c r="G10" s="6">
         <v>360</v>
       </c>
-      <c r="H10" s="7"/>
+      <c r="H10" s="7">
+        <v>60</v>
+      </c>
       <c r="I10" s="6" t="s">
         <v>148</v>
       </c>
@@ -12243,7 +12446,9 @@
       <c r="G12" s="6">
         <v>32</v>
       </c>
-      <c r="H12" s="7"/>
+      <c r="H12" s="7">
+        <v>12</v>
+      </c>
       <c r="I12" s="6"/>
     </row>
     <row r="13" spans="1:9">
@@ -12266,7 +12471,9 @@
       <c r="G13" s="6">
         <v>240</v>
       </c>
-      <c r="H13" s="7"/>
+      <c r="H13" s="7">
+        <v>40</v>
+      </c>
       <c r="I13" s="6"/>
     </row>
     <row r="14" spans="1:9">
@@ -12289,7 +12496,9 @@
       <c r="G14" s="6">
         <v>300</v>
       </c>
-      <c r="H14" s="7"/>
+      <c r="H14" s="7">
+        <v>20</v>
+      </c>
       <c r="I14" s="6"/>
     </row>
     <row r="15" spans="1:9">
@@ -12314,7 +12523,9 @@
       <c r="G15" s="6">
         <v>1100</v>
       </c>
-      <c r="H15" s="7"/>
+      <c r="H15" s="7">
+        <v>100</v>
+      </c>
       <c r="I15" s="6"/>
     </row>
     <row r="16" spans="1:9">
@@ -12337,7 +12548,9 @@
       <c r="G16" s="6">
         <v>105</v>
       </c>
-      <c r="H16" s="7"/>
+      <c r="H16" s="7">
+        <v>30</v>
+      </c>
       <c r="I16" s="6"/>
     </row>
     <row r="17" spans="1:9">
@@ -12360,7 +12573,9 @@
       <c r="G17" s="6">
         <v>450</v>
       </c>
-      <c r="H17" s="7"/>
+      <c r="H17" s="7">
+        <v>5</v>
+      </c>
       <c r="I17" s="6" t="s">
         <v>151</v>
       </c>
@@ -12594,7 +12809,9 @@
       <c r="G27" s="6">
         <v>174</v>
       </c>
-      <c r="H27" s="7"/>
+      <c r="H27" s="7">
+        <v>12</v>
+      </c>
       <c r="I27" s="6"/>
     </row>
     <row r="28" spans="1:9">
@@ -12617,7 +12834,9 @@
       <c r="G28" s="6">
         <v>20</v>
       </c>
-      <c r="H28" s="7"/>
+      <c r="H28" s="7">
+        <v>6</v>
+      </c>
       <c r="I28" s="6"/>
     </row>
     <row r="29" spans="1:9">
@@ -12640,7 +12859,9 @@
       <c r="G29" s="6">
         <v>18</v>
       </c>
-      <c r="H29" s="7"/>
+      <c r="H29" s="7">
+        <v>2</v>
+      </c>
       <c r="I29" s="6"/>
     </row>
     <row r="30" spans="1:9">
@@ -12663,7 +12884,9 @@
       <c r="G30" s="6">
         <v>20</v>
       </c>
-      <c r="H30" s="7"/>
+      <c r="H30" s="7">
+        <v>6</v>
+      </c>
       <c r="I30" s="6"/>
     </row>
     <row r="31" spans="1:9">
@@ -12686,7 +12909,9 @@
       <c r="G31" s="6">
         <v>18</v>
       </c>
-      <c r="H31" s="7"/>
+      <c r="H31" s="7">
+        <v>2</v>
+      </c>
       <c r="I31" s="6"/>
     </row>
     <row r="32" spans="1:9">
@@ -12709,7 +12934,9 @@
       <c r="G32" s="6">
         <v>10</v>
       </c>
-      <c r="H32" s="7"/>
+      <c r="H32" s="7">
+        <v>3</v>
+      </c>
       <c r="I32" s="6"/>
     </row>
     <row r="33" spans="1:9">
@@ -12732,7 +12959,9 @@
       <c r="G33" s="6">
         <v>12</v>
       </c>
-      <c r="H33" s="7"/>
+      <c r="H33" s="7">
+        <v>4</v>
+      </c>
       <c r="I33" s="6"/>
     </row>
     <row r="34" spans="1:9">
@@ -12755,7 +12984,9 @@
       <c r="G34" s="6">
         <v>26</v>
       </c>
-      <c r="H34" s="7"/>
+      <c r="H34" s="7">
+        <v>8</v>
+      </c>
       <c r="I34" s="6"/>
     </row>
     <row r="35" spans="1:9">
@@ -12780,7 +13011,9 @@
       <c r="G35" s="6">
         <v>2550</v>
       </c>
-      <c r="H35" s="7"/>
+      <c r="H35" s="7">
+        <v>100</v>
+      </c>
       <c r="I35" s="6" t="s">
         <v>153</v>
       </c>
@@ -12807,7 +13040,9 @@
       <c r="G36" s="6">
         <v>4750</v>
       </c>
-      <c r="H36" s="7"/>
+      <c r="H36" s="7">
+        <v>550</v>
+      </c>
       <c r="I36" s="6" t="s">
         <v>153</v>
       </c>
@@ -12834,7 +13069,9 @@
       <c r="G37" s="6">
         <v>550</v>
       </c>
-      <c r="H37" s="7"/>
+      <c r="H37" s="7">
+        <v>50</v>
+      </c>
       <c r="I37" s="6" t="s">
         <v>153</v>
       </c>
@@ -12853,7 +13090,9 @@
       <c r="G38" s="6">
         <v>173</v>
       </c>
-      <c r="H38" s="7"/>
+      <c r="H38" s="7">
+        <v>45</v>
+      </c>
       <c r="I38" s="6"/>
     </row>
     <row r="39" spans="1:9">
@@ -12876,7 +13115,9 @@
       <c r="G39" s="6">
         <v>180</v>
       </c>
-      <c r="H39" s="7"/>
+      <c r="H39" s="7">
+        <v>18</v>
+      </c>
       <c r="I39" s="6"/>
     </row>
     <row r="40" spans="1:9">
@@ -12899,7 +13140,9 @@
       <c r="G40" s="6">
         <v>52</v>
       </c>
-      <c r="H40" s="7"/>
+      <c r="H40" s="7">
+        <v>7</v>
+      </c>
       <c r="I40" s="6"/>
     </row>
     <row r="41" spans="1:9">
@@ -12922,7 +13165,9 @@
       <c r="G41" s="6">
         <v>75</v>
       </c>
-      <c r="H41" s="7"/>
+      <c r="H41" s="7">
+        <v>15</v>
+      </c>
       <c r="I41" s="6"/>
     </row>
     <row r="42" spans="1:9">
@@ -12945,7 +13190,9 @@
       <c r="G42" s="6">
         <v>58</v>
       </c>
-      <c r="H42" s="7"/>
+      <c r="H42" s="7">
+        <v>4</v>
+      </c>
       <c r="I42" s="6"/>
     </row>
     <row r="43" spans="1:9">
@@ -12993,7 +13240,9 @@
       <c r="G44" s="6">
         <v>712</v>
       </c>
-      <c r="H44" s="7"/>
+      <c r="H44" s="7">
+        <v>1</v>
+      </c>
       <c r="I44" s="6" t="s">
         <v>156</v>
       </c>
@@ -13018,7 +13267,9 @@
       <c r="G45" s="6">
         <v>120</v>
       </c>
-      <c r="H45" s="7"/>
+      <c r="H45" s="7">
+        <v>16</v>
+      </c>
       <c r="I45" s="6" t="s">
         <v>156</v>
       </c>
@@ -13120,7 +13371,9 @@
       <c r="G49" s="6">
         <v>376</v>
       </c>
-      <c r="H49" s="7"/>
+      <c r="H49" s="7">
+        <v>95</v>
+      </c>
       <c r="I49" s="6" t="s">
         <v>161</v>
       </c>
@@ -13145,7 +13398,9 @@
       <c r="G50" s="6">
         <v>52</v>
       </c>
-      <c r="H50" s="7"/>
+      <c r="H50" s="7">
+        <v>20</v>
+      </c>
       <c r="I50" s="6"/>
     </row>
     <row r="51" spans="1:9">
@@ -13193,7 +13448,9 @@
       <c r="G52" s="6">
         <v>58</v>
       </c>
-      <c r="H52" s="7"/>
+      <c r="H52" s="7">
+        <v>4</v>
+      </c>
       <c r="I52" s="6"/>
     </row>
     <row r="53" spans="1:9">
@@ -13216,7 +13473,9 @@
       <c r="G53" s="6">
         <v>100</v>
       </c>
-      <c r="H53" s="7"/>
+      <c r="H53" s="7">
+        <v>15</v>
+      </c>
       <c r="I53" s="6"/>
     </row>
     <row r="54" spans="1:9">
@@ -13239,7 +13498,9 @@
       <c r="G54" s="6">
         <v>20</v>
       </c>
-      <c r="H54" s="7"/>
+      <c r="H54" s="7">
+        <v>2</v>
+      </c>
       <c r="I54" s="6"/>
     </row>
     <row r="55" spans="1:9">
@@ -13262,7 +13523,9 @@
       <c r="G55" s="6">
         <v>100</v>
       </c>
-      <c r="H55" s="7"/>
+      <c r="H55" s="7">
+        <v>10</v>
+      </c>
       <c r="I55" s="6"/>
     </row>
     <row r="56" spans="1:9">
@@ -13279,7 +13542,9 @@
       <c r="G56" s="6">
         <v>463</v>
       </c>
-      <c r="H56" s="7"/>
+      <c r="H56" s="7">
+        <v>115</v>
+      </c>
       <c r="I56" s="6"/>
     </row>
     <row r="57" spans="1:9">
@@ -13302,7 +13567,9 @@
       <c r="G57" s="6">
         <v>24</v>
       </c>
-      <c r="H57" s="7"/>
+      <c r="H57" s="7">
+        <v>4</v>
+      </c>
       <c r="I57" s="6"/>
     </row>
     <row r="58" spans="1:9">
@@ -13325,7 +13592,9 @@
       <c r="G58" s="6">
         <v>116</v>
       </c>
-      <c r="H58" s="7"/>
+      <c r="H58" s="7">
+        <v>8</v>
+      </c>
       <c r="I58" s="6"/>
     </row>
     <row r="59" spans="1:9">
@@ -13440,7 +13709,9 @@
       <c r="G63" s="6">
         <v>14</v>
       </c>
-      <c r="H63" s="7"/>
+      <c r="H63" s="7">
+        <v>4</v>
+      </c>
       <c r="I63" s="6"/>
     </row>
     <row r="64" spans="1:9">
@@ -13463,7 +13734,9 @@
       <c r="G64" s="6">
         <v>210</v>
       </c>
-      <c r="H64" s="7"/>
+      <c r="H64" s="7">
+        <v>20</v>
+      </c>
       <c r="I64" s="6"/>
     </row>
     <row r="65" spans="1:9">
@@ -13486,7 +13759,9 @@
       <c r="G65" s="6">
         <v>25</v>
       </c>
-      <c r="H65" s="7"/>
+      <c r="H65" s="7">
+        <v>2</v>
+      </c>
       <c r="I65" s="6"/>
     </row>
     <row r="66" spans="1:9">
@@ -13555,7 +13830,9 @@
       <c r="G68" s="6">
         <v>53</v>
       </c>
-      <c r="H68" s="7"/>
+      <c r="H68" s="7">
+        <v>17</v>
+      </c>
       <c r="I68" s="6"/>
     </row>
     <row r="69" spans="1:9">
@@ -13580,7 +13857,9 @@
       <c r="G69" s="6">
         <v>550</v>
       </c>
-      <c r="H69" s="7"/>
+      <c r="H69" s="7">
+        <v>50</v>
+      </c>
       <c r="I69" s="6" t="s">
         <v>161</v>
       </c>
@@ -13605,7 +13884,9 @@
       <c r="G70" s="6">
         <v>750</v>
       </c>
-      <c r="H70" s="7"/>
+      <c r="H70" s="7">
+        <v>170</v>
+      </c>
       <c r="I70" s="6" t="s">
         <v>161</v>
       </c>
@@ -13630,7 +13911,9 @@
       <c r="G71" s="6">
         <v>200</v>
       </c>
-      <c r="H71" s="7"/>
+      <c r="H71" s="7">
+        <v>30</v>
+      </c>
       <c r="I71" s="6" t="s">
         <v>161</v>
       </c>
@@ -13655,7 +13938,9 @@
       <c r="G72" s="6">
         <v>140</v>
       </c>
-      <c r="H72" s="7"/>
+      <c r="H72" s="7">
+        <v>40</v>
+      </c>
       <c r="I72" s="6" t="s">
         <v>161</v>
       </c>
@@ -13707,7 +13992,9 @@
       <c r="G74" s="6">
         <v>550</v>
       </c>
-      <c r="H74" s="7"/>
+      <c r="H74" s="7">
+        <v>50</v>
+      </c>
       <c r="I74" s="6" t="s">
         <v>161</v>
       </c>
@@ -13726,7 +14013,9 @@
       <c r="G75" s="6">
         <v>350</v>
       </c>
-      <c r="H75" s="7"/>
+      <c r="H75" s="7">
+        <v>87</v>
+      </c>
       <c r="I75" s="6"/>
     </row>
     <row r="76" spans="1:9">
@@ -13749,7 +14038,9 @@
       <c r="G76" s="6">
         <v>36</v>
       </c>
-      <c r="H76" s="7"/>
+      <c r="H76" s="7">
+        <v>12</v>
+      </c>
       <c r="I76" s="6"/>
     </row>
     <row r="77" spans="1:9">
@@ -13774,7 +14065,9 @@
       <c r="G77" s="6">
         <v>360</v>
       </c>
-      <c r="H77" s="7"/>
+      <c r="H77" s="7">
+        <v>40</v>
+      </c>
       <c r="I77" s="6" t="s">
         <v>169</v>
       </c>
@@ -13801,7 +14094,9 @@
       <c r="G78" s="6">
         <v>725</v>
       </c>
-      <c r="H78" s="7"/>
+      <c r="H78" s="7">
+        <v>82</v>
+      </c>
       <c r="I78" s="6" t="s">
         <v>169</v>
       </c>
@@ -13828,7 +14123,9 @@
       <c r="G79" s="6">
         <v>580</v>
       </c>
-      <c r="H79" s="7"/>
+      <c r="H79" s="7">
+        <v>60</v>
+      </c>
       <c r="I79" s="6" t="s">
         <v>169</v>
       </c>
@@ -13855,7 +14152,9 @@
       <c r="G80" s="6">
         <v>500</v>
       </c>
-      <c r="H80" s="7"/>
+      <c r="H80" s="7">
+        <v>10</v>
+      </c>
       <c r="I80" s="6" t="s">
         <v>169</v>
       </c>
@@ -13880,7 +14179,9 @@
       <c r="G81" s="6">
         <v>2400</v>
       </c>
-      <c r="H81" s="7"/>
+      <c r="H81" s="7">
+        <v>150</v>
+      </c>
       <c r="I81" s="6" t="s">
         <v>169</v>
       </c>
@@ -13899,7 +14200,9 @@
       <c r="G82" s="6">
         <v>336</v>
       </c>
-      <c r="H82" s="7"/>
+      <c r="H82" s="7">
+        <v>85</v>
+      </c>
       <c r="I82" s="6"/>
     </row>
     <row r="83" spans="1:9">
@@ -13922,7 +14225,9 @@
       <c r="G83" s="8">
         <v>40</v>
       </c>
-      <c r="H83" s="9"/>
+      <c r="H83" s="9">
+        <v>9</v>
+      </c>
       <c r="I83" s="6"/>
     </row>
     <row r="84" spans="1:9">
@@ -13939,7 +14244,9 @@
       <c r="G84" s="6">
         <v>695</v>
       </c>
-      <c r="H84" s="7"/>
+      <c r="H84" s="7">
+        <v>175</v>
+      </c>
       <c r="I84" s="6" t="s">
         <v>171</v>
       </c>
@@ -14018,10 +14325,10 @@
       <c r="G87" s="6">
         <v>2500</v>
       </c>
-      <c r="H87" s="7"/>
-      <c r="I87" s="6" t="s">
-        <v>173</v>
-      </c>
+      <c r="H87" s="7">
+        <v>50</v>
+      </c>
+      <c r="I87" s="6"/>
     </row>
     <row r="88" spans="1:9">
       <c r="A88" s="6" t="s">
@@ -14043,10 +14350,10 @@
       <c r="G88" s="6">
         <v>58</v>
       </c>
-      <c r="H88" s="7"/>
-      <c r="I88" s="6" t="s">
-        <v>173</v>
-      </c>
+      <c r="H88" s="7">
+        <v>4</v>
+      </c>
+      <c r="I88" s="6"/>
     </row>
     <row r="89" spans="1:9">
       <c r="A89" s="6" t="s">
@@ -14068,7 +14375,9 @@
       <c r="G89" s="6">
         <v>120</v>
       </c>
-      <c r="H89" s="7"/>
+      <c r="H89" s="7">
+        <v>20</v>
+      </c>
       <c r="I89" s="6" t="s">
         <v>173</v>
       </c>
@@ -14093,7 +14402,9 @@
       <c r="G90" s="6">
         <v>570</v>
       </c>
-      <c r="H90" s="7"/>
+      <c r="H90" s="7">
+        <v>30</v>
+      </c>
       <c r="I90" s="6" t="s">
         <v>173</v>
       </c>
@@ -14118,7 +14429,9 @@
       <c r="G91" s="6">
         <v>45</v>
       </c>
-      <c r="H91" s="7"/>
+      <c r="H91" s="7">
+        <v>15</v>
+      </c>
       <c r="I91" s="6" t="s">
         <v>173</v>
       </c>
@@ -14143,7 +14456,9 @@
       <c r="G92" s="6">
         <v>2400</v>
       </c>
-      <c r="H92" s="7"/>
+      <c r="H92" s="7">
+        <v>150</v>
+      </c>
       <c r="I92" s="6" t="s">
         <v>169</v>
       </c>
@@ -14197,7 +14512,9 @@
       <c r="G94" s="8">
         <v>275</v>
       </c>
-      <c r="H94" s="8"/>
+      <c r="H94" s="8">
+        <v>25</v>
+      </c>
       <c r="I94" s="8" t="s">
         <v>176</v>
       </c>
@@ -14222,7 +14539,9 @@
       <c r="G95" s="6">
         <v>50</v>
       </c>
-      <c r="H95" s="6"/>
+      <c r="H95" s="6">
+        <v>30</v>
+      </c>
       <c r="I95" s="6"/>
     </row>
     <row r="96" spans="1:9">
@@ -14245,7 +14564,9 @@
       <c r="G96" s="6">
         <v>110</v>
       </c>
-      <c r="H96" s="6"/>
+      <c r="H96" s="6">
+        <v>20</v>
+      </c>
       <c r="I96" s="6"/>
     </row>
     <row r="97" spans="1:9">
@@ -14268,7 +14589,9 @@
       <c r="G97" s="6">
         <v>240</v>
       </c>
-      <c r="H97" s="6"/>
+      <c r="H97" s="6">
+        <v>12</v>
+      </c>
       <c r="I97" s="6"/>
     </row>
     <row r="98" spans="1:9">
@@ -14345,7 +14668,9 @@
       <c r="G100" s="6">
         <v>510</v>
       </c>
-      <c r="H100" s="6"/>
+      <c r="H100" s="6">
+        <v>60</v>
+      </c>
       <c r="I100" s="6"/>
     </row>
     <row r="101" spans="1:9">
@@ -14368,7 +14693,9 @@
       <c r="G101" s="6">
         <v>144</v>
       </c>
-      <c r="H101" s="6"/>
+      <c r="H101" s="6">
+        <v>3</v>
+      </c>
       <c r="I101" s="6"/>
     </row>
     <row r="102" spans="1:9">
@@ -14391,7 +14718,9 @@
       <c r="G102" s="6">
         <v>144</v>
       </c>
-      <c r="H102" s="6"/>
+      <c r="H102" s="6">
+        <v>2</v>
+      </c>
       <c r="I102" s="6"/>
     </row>
     <row r="103" spans="1:9">
@@ -14414,7 +14743,9 @@
       <c r="G103" s="6">
         <v>144</v>
       </c>
-      <c r="H103" s="6"/>
+      <c r="H103" s="6">
+        <v>36</v>
+      </c>
       <c r="I103" s="6"/>
     </row>
     <row r="104" spans="1:9">
@@ -14437,7 +14768,9 @@
       <c r="G104" s="6">
         <v>22</v>
       </c>
-      <c r="H104" s="6"/>
+      <c r="H104" s="6">
+        <v>6</v>
+      </c>
       <c r="I104" s="6"/>
     </row>
     <row r="105" spans="1:9">
@@ -14462,7 +14795,9 @@
       <c r="G105" s="6">
         <v>510</v>
       </c>
-      <c r="H105" s="6"/>
+      <c r="H105" s="6">
+        <v>10</v>
+      </c>
       <c r="I105" s="6"/>
     </row>
     <row r="106" spans="1:9">
@@ -14485,7 +14820,9 @@
       <c r="G106" s="6">
         <v>16</v>
       </c>
-      <c r="H106" s="6"/>
+      <c r="H106" s="6">
+        <v>3</v>
+      </c>
       <c r="I106" s="6"/>
     </row>
     <row r="107" spans="1:9">
@@ -14531,7 +14868,9 @@
       <c r="G108" s="6">
         <v>240</v>
       </c>
-      <c r="H108" s="6"/>
+      <c r="H108" s="6">
+        <v>60</v>
+      </c>
       <c r="I108" s="6"/>
     </row>
     <row r="109" spans="1:9">
@@ -14554,7 +14893,9 @@
       <c r="G109" s="6">
         <v>1560</v>
       </c>
-      <c r="H109" s="6"/>
+      <c r="H109" s="6">
+        <v>210</v>
+      </c>
       <c r="I109" s="6"/>
     </row>
     <row r="110" spans="1:9">
@@ -14577,7 +14918,9 @@
       <c r="G110" s="6">
         <v>30</v>
       </c>
-      <c r="H110" s="6"/>
+      <c r="H110" s="6">
+        <v>2</v>
+      </c>
       <c r="I110" s="6"/>
     </row>
     <row r="111" spans="1:9">
@@ -14627,7 +14970,9 @@
       <c r="G112" s="6">
         <v>140</v>
       </c>
-      <c r="H112" s="6"/>
+      <c r="H112" s="6">
+        <v>40</v>
+      </c>
       <c r="I112" s="6" t="s">
         <v>161</v>
       </c>
@@ -14704,7 +15049,9 @@
       <c r="G115" s="6">
         <v>550</v>
       </c>
-      <c r="H115" s="6"/>
+      <c r="H115" s="6">
+        <v>50</v>
+      </c>
       <c r="I115" s="6" t="s">
         <v>161</v>
       </c>
@@ -14729,7 +15076,9 @@
       <c r="G116" s="8">
         <v>1560</v>
       </c>
-      <c r="H116" s="8"/>
+      <c r="H116" s="8">
+        <v>210</v>
+      </c>
       <c r="I116" s="8"/>
     </row>
     <row r="117" spans="1:9">
@@ -14754,7 +15103,9 @@
       <c r="G117" s="6">
         <v>510</v>
       </c>
-      <c r="H117" s="6"/>
+      <c r="H117" s="6">
+        <v>60</v>
+      </c>
       <c r="I117" s="6"/>
     </row>
     <row r="118" spans="1:9">
@@ -14777,7 +15128,9 @@
       <c r="G118" s="6">
         <v>96</v>
       </c>
-      <c r="H118" s="6"/>
+      <c r="H118" s="6">
+        <v>6</v>
+      </c>
       <c r="I118" s="6"/>
     </row>
     <row r="119" spans="1:9">
@@ -14800,7 +15153,9 @@
       <c r="G119" s="6">
         <v>50</v>
       </c>
-      <c r="H119" s="6"/>
+      <c r="H119" s="6">
+        <v>5</v>
+      </c>
       <c r="I119" s="6"/>
     </row>
     <row r="120" spans="1:9">
@@ -14825,7 +15180,9 @@
       <c r="G120" s="8">
         <v>2500</v>
       </c>
-      <c r="H120" s="8"/>
+      <c r="H120" s="8">
+        <v>50</v>
+      </c>
       <c r="I120" s="8" t="s">
         <v>187</v>
       </c>
@@ -14844,7 +15201,9 @@
       <c r="G121" s="6">
         <v>385</v>
       </c>
-      <c r="H121" s="6"/>
+      <c r="H121" s="6">
+        <v>95</v>
+      </c>
       <c r="I121" s="6"/>
     </row>
     <row r="122" spans="1:9">
@@ -14867,7 +15226,9 @@
       <c r="G122" s="6">
         <v>80</v>
       </c>
-      <c r="H122" s="6"/>
+      <c r="H122" s="6">
+        <v>20</v>
+      </c>
       <c r="I122" s="6"/>
     </row>
     <row r="123" spans="1:9">
@@ -14890,7 +15251,9 @@
       <c r="G123" s="6">
         <v>8</v>
       </c>
-      <c r="H123" s="6"/>
+      <c r="H123" s="6">
+        <v>2</v>
+      </c>
       <c r="I123" s="6"/>
     </row>
     <row r="124" spans="1:9">
@@ -14913,7 +15276,9 @@
       <c r="G124" s="6">
         <v>360</v>
       </c>
-      <c r="H124" s="6"/>
+      <c r="H124" s="6">
+        <v>105</v>
+      </c>
       <c r="I124" s="6"/>
     </row>
     <row r="125" spans="1:9">
@@ -14936,8 +15301,20 @@
       <c r="G125" s="6">
         <v>40</v>
       </c>
-      <c r="H125" s="6"/>
+      <c r="H125" s="6">
+        <v>10</v>
+      </c>
       <c r="I125" s="6"/>
+    </row>
+    <row r="126" spans="7:8">
+      <c r="G126" s="1">
+        <f>SUM(G3:G125)</f>
+        <v>49720.75</v>
+      </c>
+      <c r="H126" s="1">
+        <f>SUM(H3:H125)</f>
+        <v>5449</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -14953,8 +15330,8 @@
   <sheetPr/>
   <dimension ref="A1:I162"/>
   <sheetViews>
-    <sheetView topLeftCell="A89" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:I1"/>
+    <sheetView topLeftCell="A138" workbookViewId="0">
+      <selection activeCell="H158" sqref="H158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15"/>
@@ -15013,7 +15390,9 @@
       <c r="G3" s="6">
         <v>532</v>
       </c>
-      <c r="H3" s="7"/>
+      <c r="H3" s="7">
+        <v>135</v>
+      </c>
       <c r="I3" s="6"/>
     </row>
     <row r="4" spans="1:9">
@@ -15036,7 +15415,9 @@
       <c r="G4" s="6">
         <v>12</v>
       </c>
-      <c r="H4" s="7"/>
+      <c r="H4" s="7">
+        <v>1</v>
+      </c>
       <c r="I4" s="6"/>
     </row>
     <row r="5" spans="1:9">
@@ -15059,7 +15440,9 @@
       <c r="G5" s="6">
         <v>15</v>
       </c>
-      <c r="H5" s="7"/>
+      <c r="H5" s="7">
+        <v>6</v>
+      </c>
       <c r="I5" s="6"/>
     </row>
     <row r="6" spans="1:9">
@@ -15082,7 +15465,9 @@
       <c r="G6" s="8">
         <v>16</v>
       </c>
-      <c r="H6" s="9"/>
+      <c r="H6" s="9">
+        <v>4</v>
+      </c>
       <c r="I6" s="8"/>
     </row>
     <row r="7" spans="1:9">
@@ -15105,7 +15490,9 @@
       <c r="G7" s="6">
         <v>40</v>
       </c>
-      <c r="H7" s="6"/>
+      <c r="H7" s="6">
+        <v>2</v>
+      </c>
       <c r="I7" s="6"/>
     </row>
     <row r="8" spans="1:9">
@@ -15128,7 +15515,9 @@
       <c r="G8" s="6">
         <v>8</v>
       </c>
-      <c r="H8" s="6"/>
+      <c r="H8" s="6">
+        <v>3</v>
+      </c>
       <c r="I8" s="6"/>
     </row>
     <row r="9" spans="1:9">
@@ -15151,7 +15540,9 @@
       <c r="G9" s="6">
         <v>32</v>
       </c>
-      <c r="H9" s="6"/>
+      <c r="H9" s="6">
+        <v>14</v>
+      </c>
       <c r="I9" s="6"/>
     </row>
     <row r="10" spans="1:9">
@@ -15174,7 +15565,9 @@
       <c r="G10" s="6">
         <v>9</v>
       </c>
-      <c r="H10" s="6"/>
+      <c r="H10" s="6">
+        <v>4</v>
+      </c>
       <c r="I10" s="6"/>
     </row>
     <row r="11" spans="1:9">
@@ -15197,7 +15590,9 @@
       <c r="G11" s="6">
         <v>12</v>
       </c>
-      <c r="H11" s="6"/>
+      <c r="H11" s="6">
+        <v>4</v>
+      </c>
       <c r="I11" s="6"/>
     </row>
     <row r="12" spans="1:9">
@@ -15220,7 +15615,9 @@
       <c r="G12" s="6">
         <v>10</v>
       </c>
-      <c r="H12" s="6"/>
+      <c r="H12" s="6">
+        <v>3</v>
+      </c>
       <c r="I12" s="6"/>
     </row>
     <row r="13" spans="1:9">
@@ -15243,7 +15640,9 @@
       <c r="G13" s="6">
         <v>21</v>
       </c>
-      <c r="H13" s="6"/>
+      <c r="H13" s="6">
+        <v>6</v>
+      </c>
       <c r="I13" s="6"/>
     </row>
     <row r="14" spans="1:9">
@@ -15266,7 +15665,9 @@
       <c r="G14" s="6">
         <v>28</v>
       </c>
-      <c r="H14" s="6"/>
+      <c r="H14" s="6">
+        <v>10</v>
+      </c>
       <c r="I14" s="6"/>
     </row>
     <row r="15" spans="1:9">
@@ -15289,7 +15690,9 @@
       <c r="G15" s="6">
         <v>39</v>
       </c>
-      <c r="H15" s="6"/>
+      <c r="H15" s="6">
+        <v>3</v>
+      </c>
       <c r="I15" s="6"/>
     </row>
     <row r="16" spans="1:9">
@@ -15312,7 +15715,9 @@
       <c r="G16" s="6">
         <v>16</v>
       </c>
-      <c r="H16" s="6"/>
+      <c r="H16" s="6">
+        <v>8</v>
+      </c>
       <c r="I16" s="6"/>
     </row>
     <row r="17" spans="1:9">
@@ -15335,7 +15740,9 @@
       <c r="G17" s="6">
         <v>46</v>
       </c>
-      <c r="H17" s="6"/>
+      <c r="H17" s="6">
+        <v>3</v>
+      </c>
       <c r="I17" s="6"/>
     </row>
     <row r="18" spans="1:9">
@@ -15358,7 +15765,9 @@
       <c r="G18" s="6">
         <v>26</v>
       </c>
-      <c r="H18" s="6"/>
+      <c r="H18" s="6">
+        <v>7</v>
+      </c>
       <c r="I18" s="6"/>
     </row>
     <row r="19" spans="1:9">
@@ -15381,7 +15790,9 @@
       <c r="G19" s="6">
         <v>8</v>
       </c>
-      <c r="H19" s="6"/>
+      <c r="H19" s="6">
+        <v>3</v>
+      </c>
       <c r="I19" s="6"/>
     </row>
     <row r="20" spans="1:9">
@@ -15404,7 +15815,9 @@
       <c r="G20" s="6">
         <v>6</v>
       </c>
-      <c r="H20" s="6"/>
+      <c r="H20" s="6">
+        <v>21</v>
+      </c>
       <c r="I20" s="6"/>
     </row>
     <row r="21" spans="1:9">
@@ -15427,7 +15840,9 @@
       <c r="G21" s="6">
         <v>14</v>
       </c>
-      <c r="H21" s="6"/>
+      <c r="H21" s="6">
+        <v>5</v>
+      </c>
       <c r="I21" s="6"/>
     </row>
     <row r="22" spans="1:9">
@@ -15450,7 +15865,9 @@
       <c r="G22" s="6">
         <v>20</v>
       </c>
-      <c r="H22" s="6"/>
+      <c r="H22" s="6">
+        <v>7</v>
+      </c>
       <c r="I22" s="6"/>
     </row>
     <row r="23" spans="1:9">
@@ -15610,7 +16027,9 @@
       <c r="G28" s="6">
         <v>60</v>
       </c>
-      <c r="H28" s="6"/>
+      <c r="H28" s="6">
+        <v>10</v>
+      </c>
       <c r="I28" s="6"/>
     </row>
     <row r="29" spans="1:9">
@@ -15633,7 +16052,9 @@
       <c r="G29" s="6">
         <v>46</v>
       </c>
-      <c r="H29" s="6"/>
+      <c r="H29" s="6">
+        <v>1</v>
+      </c>
       <c r="I29" s="6"/>
     </row>
     <row r="30" spans="1:9">
@@ -15656,7 +16077,9 @@
       <c r="G30" s="6">
         <v>62</v>
       </c>
-      <c r="H30" s="6"/>
+      <c r="H30" s="6">
+        <v>10</v>
+      </c>
       <c r="I30" s="6"/>
     </row>
     <row r="31" spans="1:9">
@@ -15681,7 +16104,9 @@
       <c r="G31" s="8">
         <v>760</v>
       </c>
-      <c r="H31" s="8"/>
+      <c r="H31" s="8">
+        <v>40</v>
+      </c>
       <c r="I31" s="8"/>
     </row>
     <row r="32" spans="1:9">
@@ -15704,7 +16129,9 @@
       <c r="G32" s="6">
         <v>550</v>
       </c>
-      <c r="H32" s="6"/>
+      <c r="H32" s="6">
+        <v>19</v>
+      </c>
       <c r="I32" s="6"/>
     </row>
     <row r="33" spans="1:9">
@@ -15727,7 +16154,9 @@
       <c r="G33" s="6">
         <v>800</v>
       </c>
-      <c r="H33" s="6"/>
+      <c r="H33" s="6">
+        <v>40</v>
+      </c>
       <c r="I33" s="6"/>
     </row>
     <row r="34" spans="1:9">
@@ -15750,7 +16179,9 @@
       <c r="G34" s="6">
         <v>90</v>
       </c>
-      <c r="H34" s="6"/>
+      <c r="H34" s="6">
+        <v>16</v>
+      </c>
       <c r="I34" s="6"/>
     </row>
     <row r="35" spans="1:9">
@@ -15773,7 +16204,9 @@
       <c r="G35" s="6">
         <v>80</v>
       </c>
-      <c r="H35" s="6"/>
+      <c r="H35" s="6">
+        <v>5</v>
+      </c>
       <c r="I35" s="6"/>
     </row>
     <row r="36" spans="1:9">
@@ -15796,7 +16229,9 @@
       <c r="G36" s="6">
         <v>26</v>
       </c>
-      <c r="H36" s="6"/>
+      <c r="H36" s="6">
+        <v>2</v>
+      </c>
       <c r="I36" s="6"/>
     </row>
     <row r="37" spans="1:9">
@@ -15911,7 +16346,9 @@
       <c r="G41" s="6">
         <v>50</v>
       </c>
-      <c r="H41" s="6"/>
+      <c r="H41" s="6">
+        <v>19</v>
+      </c>
       <c r="I41" s="6"/>
     </row>
     <row r="42" spans="1:9">
@@ -15934,7 +16371,9 @@
       <c r="G42" s="6">
         <v>18</v>
       </c>
-      <c r="H42" s="6"/>
+      <c r="H42" s="6">
+        <v>3</v>
+      </c>
       <c r="I42" s="6"/>
     </row>
     <row r="43" spans="1:9">
@@ -15957,7 +16396,9 @@
       <c r="G43" s="6">
         <v>30</v>
       </c>
-      <c r="H43" s="6"/>
+      <c r="H43" s="6">
+        <v>10</v>
+      </c>
       <c r="I43" s="6"/>
     </row>
     <row r="44" spans="1:9">
@@ -15980,7 +16421,9 @@
       <c r="G44" s="6">
         <v>40</v>
       </c>
-      <c r="H44" s="6"/>
+      <c r="H44" s="6">
+        <v>10</v>
+      </c>
       <c r="I44" s="6"/>
     </row>
     <row r="45" spans="1:9">
@@ -16003,7 +16446,9 @@
       <c r="G45" s="6">
         <v>8</v>
       </c>
-      <c r="H45" s="6"/>
+      <c r="H45" s="6">
+        <v>2</v>
+      </c>
       <c r="I45" s="6"/>
     </row>
     <row r="46" spans="1:9">
@@ -16291,7 +16736,9 @@
       <c r="G57" s="6">
         <v>725</v>
       </c>
-      <c r="H57" s="6"/>
+      <c r="H57" s="6">
+        <v>82</v>
+      </c>
       <c r="I57" s="6"/>
     </row>
     <row r="58" spans="1:9">
@@ -16314,7 +16761,9 @@
       <c r="G58" s="6">
         <v>8</v>
       </c>
-      <c r="H58" s="6"/>
+      <c r="H58" s="6">
+        <v>2</v>
+      </c>
       <c r="I58" s="6"/>
     </row>
     <row r="59" spans="1:9">
@@ -16431,7 +16880,9 @@
       <c r="G63" s="8">
         <v>1848</v>
       </c>
-      <c r="H63" s="8"/>
+      <c r="H63" s="8">
+        <v>84</v>
+      </c>
       <c r="I63" s="8"/>
     </row>
     <row r="64" spans="1:9">
@@ -16500,7 +16951,9 @@
       <c r="G66" s="6">
         <v>14</v>
       </c>
-      <c r="H66" s="6"/>
+      <c r="H66" s="6">
+        <v>6</v>
+      </c>
       <c r="I66" s="6"/>
     </row>
     <row r="67" spans="1:9">
@@ -16517,7 +16970,9 @@
       <c r="G67" s="6">
         <v>700</v>
       </c>
-      <c r="H67" s="6"/>
+      <c r="H67" s="6">
+        <v>140</v>
+      </c>
       <c r="I67" s="6" t="s">
         <v>171</v>
       </c>
@@ -16536,7 +16991,9 @@
       <c r="G68" s="6">
         <v>512</v>
       </c>
-      <c r="H68" s="6"/>
+      <c r="H68" s="6">
+        <v>130</v>
+      </c>
       <c r="I68" s="6" t="s">
         <v>198</v>
       </c>
@@ -16591,7 +17048,7 @@
       <c r="H70" s="6">
         <v>180</v>
       </c>
-      <c r="I70" s="14" t="s">
+      <c r="I70" s="23" t="s">
         <v>200</v>
       </c>
     </row>
@@ -16618,7 +17075,7 @@
       <c r="H71" s="6">
         <v>180</v>
       </c>
-      <c r="I71" s="14" t="s">
+      <c r="I71" s="23" t="s">
         <v>201</v>
       </c>
     </row>
@@ -16645,7 +17102,7 @@
       <c r="H72" s="6">
         <v>20</v>
       </c>
-      <c r="I72" s="14" t="s">
+      <c r="I72" s="23" t="s">
         <v>201</v>
       </c>
     </row>
@@ -17100,7 +17557,9 @@
       <c r="G90" s="8">
         <v>116</v>
       </c>
-      <c r="H90" s="8"/>
+      <c r="H90" s="8">
+        <v>8</v>
+      </c>
       <c r="I90" s="8"/>
     </row>
     <row r="91" spans="1:9">
@@ -17123,7 +17582,9 @@
       <c r="G91" s="6">
         <v>56</v>
       </c>
-      <c r="H91" s="6"/>
+      <c r="H91" s="6">
+        <v>2</v>
+      </c>
       <c r="I91" s="6"/>
     </row>
     <row r="92" spans="1:9">
@@ -17146,7 +17607,9 @@
       <c r="G92" s="6">
         <v>16</v>
       </c>
-      <c r="H92" s="6"/>
+      <c r="H92" s="6">
+        <v>4</v>
+      </c>
       <c r="I92" s="6"/>
     </row>
     <row r="93" spans="1:9">
@@ -17169,7 +17632,9 @@
       <c r="G93" s="8">
         <v>10</v>
       </c>
-      <c r="H93" s="8"/>
+      <c r="H93" s="8">
+        <v>2</v>
+      </c>
       <c r="I93" s="8"/>
     </row>
     <row r="94" spans="1:9">
@@ -17217,7 +17682,9 @@
       <c r="G95" s="6">
         <v>725</v>
       </c>
-      <c r="H95" s="6"/>
+      <c r="H95" s="6">
+        <v>82</v>
+      </c>
       <c r="I95" s="6"/>
     </row>
     <row r="96" spans="1:9">
@@ -17263,7 +17730,9 @@
       <c r="G97" s="6">
         <v>1350</v>
       </c>
-      <c r="H97" s="6"/>
+      <c r="H97" s="6">
+        <v>15</v>
+      </c>
       <c r="I97" s="6"/>
     </row>
     <row r="98" spans="1:9">
@@ -17286,7 +17755,9 @@
       <c r="G98" s="8">
         <v>160.5</v>
       </c>
-      <c r="H98" s="8"/>
+      <c r="H98" s="8">
+        <v>10</v>
+      </c>
       <c r="I98" s="8"/>
     </row>
     <row r="99" spans="1:9">
@@ -17572,7 +18043,9 @@
       <c r="G110" s="8">
         <v>60</v>
       </c>
-      <c r="H110" s="8"/>
+      <c r="H110" s="8">
+        <v>10</v>
+      </c>
       <c r="I110" s="8"/>
     </row>
     <row r="111" spans="1:9">
@@ -17595,7 +18068,9 @@
       <c r="G111" s="6">
         <v>60</v>
       </c>
-      <c r="H111" s="6"/>
+      <c r="H111" s="6">
+        <v>20</v>
+      </c>
       <c r="I111" s="6"/>
     </row>
     <row r="112" spans="1:9">
@@ -17618,7 +18093,9 @@
       <c r="G112" s="8">
         <v>8</v>
       </c>
-      <c r="H112" s="8"/>
+      <c r="H112" s="8">
+        <v>2</v>
+      </c>
       <c r="I112" s="8"/>
     </row>
     <row r="113" spans="1:9">
@@ -17764,7 +18241,9 @@
       <c r="G118" s="6">
         <v>40</v>
       </c>
-      <c r="H118" s="6"/>
+      <c r="H118" s="6">
+        <v>10</v>
+      </c>
       <c r="I118" s="6"/>
     </row>
     <row r="119" spans="1:9">
@@ -18344,7 +18823,9 @@
       <c r="G142" s="6">
         <v>70</v>
       </c>
-      <c r="H142" s="6"/>
+      <c r="H142" s="6">
+        <v>2</v>
+      </c>
       <c r="I142" s="6"/>
     </row>
     <row r="143" spans="1:9">
@@ -18616,7 +19097,9 @@
       <c r="B153" s="6" t="s">
         <v>221</v>
       </c>
-      <c r="C153" s="6"/>
+      <c r="C153" s="6">
+        <v>10.8</v>
+      </c>
       <c r="D153" s="6" t="s">
         <v>11</v>
       </c>
@@ -18627,7 +19110,9 @@
       <c r="G153" s="6">
         <v>450</v>
       </c>
-      <c r="H153" s="6"/>
+      <c r="H153" s="6">
+        <v>40</v>
+      </c>
       <c r="I153" s="6"/>
     </row>
     <row r="154" spans="1:9">
@@ -18734,7 +19219,9 @@
       <c r="G158" s="6">
         <v>24</v>
       </c>
-      <c r="H158" s="6"/>
+      <c r="H158" s="6">
+        <v>10</v>
+      </c>
       <c r="I158" s="6"/>
     </row>
     <row r="159" spans="1:9">
@@ -18812,10 +19299,14 @@
       </c>
       <c r="I161" s="6"/>
     </row>
-    <row r="162" spans="7:7">
+    <row r="162" spans="7:8">
       <c r="G162" s="1">
         <f>SUM(G3:G161)</f>
         <v>53948.5</v>
+      </c>
+      <c r="H162" s="1">
+        <f>SUM(H3:H161)</f>
+        <v>5953</v>
       </c>
     </row>
   </sheetData>
@@ -18832,8 +19323,8 @@
   <sheetPr/>
   <dimension ref="A1:I88"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I98" sqref="I98"/>
+    <sheetView topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="H88" sqref="H88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15"/>
@@ -18848,31 +19339,31 @@
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="G2" s="22" t="s">
         <v>7</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="13" t="s">
+      <c r="I2" s="22" t="s">
         <v>146</v>
       </c>
     </row>
@@ -21033,10 +21524,10 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:I125"/>
+  <dimension ref="A1:I126"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView topLeftCell="A102" workbookViewId="0">
+      <selection activeCell="H126" sqref="G126:H126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15"/>
@@ -23318,7 +23809,9 @@
       <c r="G93" s="8">
         <v>15</v>
       </c>
-      <c r="H93" s="8"/>
+      <c r="H93" s="8">
+        <v>2</v>
+      </c>
       <c r="I93" s="8"/>
     </row>
     <row r="94" spans="1:9">
@@ -24116,6 +24609,16 @@
         <v>10</v>
       </c>
       <c r="I125" s="6"/>
+    </row>
+    <row r="126" spans="7:8">
+      <c r="G126" s="1">
+        <f>SUM(G3:G125)</f>
+        <v>66241.5</v>
+      </c>
+      <c r="H126" s="1">
+        <f>SUM(H3:H125)</f>
+        <v>9526</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -24131,8 +24634,8 @@
   <sheetPr/>
   <dimension ref="A1:I108"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F60" sqref="F60"/>
+    <sheetView topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="F47" sqref="F47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15"/>
@@ -25701,7 +26204,9 @@
       <c r="G63" s="6">
         <v>1200</v>
       </c>
-      <c r="H63" s="6"/>
+      <c r="H63" s="6">
+        <v>120</v>
+      </c>
       <c r="I63" s="6"/>
     </row>
     <row r="64" spans="1:9">
@@ -26837,7 +27342,7 @@
       </c>
       <c r="H108" s="1">
         <f>SUM(H3:H107)</f>
-        <v>16898.3</v>
+        <v>17018.3</v>
       </c>
     </row>
   </sheetData>
@@ -26852,14 +27357,151 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="16" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="18"/>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="18"/>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="20"/>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:I1"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>

--- a/2016年销售日记账.xlsx
+++ b/2016年销售日记账.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330">
   <si>
     <t>2016年销售日记账</t>
   </si>
@@ -1007,6 +1007,12 @@
   </si>
   <si>
     <t>2016.10.20</t>
+  </si>
+  <si>
+    <t>2016.10.21</t>
+  </si>
+  <si>
+    <t>2016.10.22</t>
   </si>
 </sst>
 </file>
@@ -1014,19 +1020,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="20">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1057,16 +1056,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1102,55 +1093,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1166,6 +1111,60 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1194,7 +1193,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1206,49 +1337,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1266,12 +1355,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1284,91 +1367,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1517,17 +1516,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1558,11 +1551,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1580,88 +1579,88 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1670,62 +1669,62 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1766,30 +1765,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
@@ -6682,10 +6657,10 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:I78"/>
+  <dimension ref="A1:I82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="C76" sqref="C76"/>
+    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
+      <selection activeCell="D85" sqref="D85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15"/>
@@ -8458,166 +8433,272 @@
       <c r="A72" s="5" t="s">
         <v>325</v>
       </c>
-      <c r="B72" s="13" t="s">
+      <c r="B72" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C72" s="13">
+      <c r="C72" s="6">
         <v>1</v>
       </c>
-      <c r="D72" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E72" s="13"/>
-      <c r="F72" s="13">
+      <c r="D72" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E72" s="6"/>
+      <c r="F72" s="6">
         <v>16</v>
       </c>
-      <c r="G72" s="13">
+      <c r="G72" s="6">
         <v>16</v>
       </c>
-      <c r="H72" s="13">
+      <c r="H72" s="6">
         <v>3</v>
       </c>
-      <c r="I72" s="13"/>
+      <c r="I72" s="6"/>
     </row>
     <row r="73" spans="1:9">
       <c r="A73" s="5" t="s">
         <v>326</v>
       </c>
-      <c r="B73" s="13" t="s">
+      <c r="B73" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="C73" s="13">
+      <c r="C73" s="6">
         <v>10</v>
       </c>
-      <c r="D73" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E73" s="13"/>
-      <c r="F73" s="13">
+      <c r="D73" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E73" s="6"/>
+      <c r="F73" s="6">
         <v>6.5</v>
       </c>
-      <c r="G73" s="13">
+      <c r="G73" s="6">
         <v>65</v>
       </c>
-      <c r="H73" s="13">
+      <c r="H73" s="6">
         <v>65</v>
       </c>
-      <c r="I73" s="13"/>
+      <c r="I73" s="6"/>
     </row>
     <row r="74" spans="1:9">
       <c r="A74" s="5" t="s">
         <v>326</v>
       </c>
-      <c r="B74" s="13" t="s">
+      <c r="B74" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C74" s="13"/>
-      <c r="D74" s="13"/>
-      <c r="E74" s="13"/>
-      <c r="F74" s="13"/>
-      <c r="G74" s="13">
+      <c r="C74" s="6"/>
+      <c r="D74" s="6"/>
+      <c r="E74" s="6"/>
+      <c r="F74" s="6"/>
+      <c r="G74" s="6">
         <v>380</v>
       </c>
-      <c r="H74" s="13">
+      <c r="H74" s="6">
         <v>70</v>
       </c>
-      <c r="I74" s="13"/>
+      <c r="I74" s="6"/>
     </row>
     <row r="75" spans="1:9">
       <c r="A75" s="5" t="s">
         <v>326</v>
       </c>
-      <c r="B75" s="13" t="s">
+      <c r="B75" s="6" t="s">
         <v>317</v>
       </c>
-      <c r="C75" s="13">
+      <c r="C75" s="6">
         <v>1</v>
       </c>
-      <c r="D75" s="13" t="s">
+      <c r="D75" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E75" s="13" t="s">
+      <c r="E75" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="F75" s="13">
+      <c r="F75" s="6">
         <v>300</v>
       </c>
-      <c r="G75" s="13">
+      <c r="G75" s="6">
         <v>300</v>
       </c>
-      <c r="H75" s="13">
+      <c r="H75" s="6">
         <v>15</v>
       </c>
-      <c r="I75" s="13"/>
+      <c r="I75" s="6"/>
     </row>
     <row r="76" spans="1:9">
-      <c r="A76" s="5" t="s">
+      <c r="A76" s="10" t="s">
         <v>327</v>
       </c>
-      <c r="B76" s="13" t="s">
+      <c r="B76" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C76" s="13">
+      <c r="C76" s="8">
         <v>1</v>
       </c>
-      <c r="D76" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E76" s="13"/>
-      <c r="F76" s="13">
+      <c r="D76" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E76" s="8"/>
+      <c r="F76" s="8">
         <v>25</v>
       </c>
-      <c r="G76" s="13">
+      <c r="G76" s="8">
         <v>25</v>
       </c>
-      <c r="H76" s="13">
+      <c r="H76" s="8">
         <v>15</v>
       </c>
-      <c r="I76" s="13"/>
+      <c r="I76" s="8"/>
     </row>
     <row r="77" spans="1:9">
-      <c r="A77" s="5" t="s">
+      <c r="A77" s="10" t="s">
         <v>327</v>
       </c>
-      <c r="B77" s="13" t="s">
+      <c r="B77" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C77" s="13">
+      <c r="C77" s="8">
         <v>2</v>
       </c>
-      <c r="D77" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E77" s="13"/>
-      <c r="F77" s="13">
+      <c r="D77" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E77" s="8"/>
+      <c r="F77" s="8">
         <v>55</v>
       </c>
-      <c r="G77" s="13">
+      <c r="G77" s="8">
         <v>110</v>
       </c>
-      <c r="H77" s="13">
+      <c r="H77" s="8">
         <v>10</v>
       </c>
-      <c r="I77" s="13"/>
+      <c r="I77" s="8"/>
     </row>
     <row r="78" spans="1:9">
       <c r="A78" s="5" t="s">
         <v>327</v>
       </c>
-      <c r="B78" s="13" t="s">
+      <c r="B78" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C78" s="13"/>
-      <c r="D78" s="13"/>
-      <c r="E78" s="13"/>
-      <c r="F78" s="13"/>
-      <c r="G78" s="13">
+      <c r="C78" s="6"/>
+      <c r="D78" s="6"/>
+      <c r="E78" s="6"/>
+      <c r="F78" s="6"/>
+      <c r="G78" s="6">
         <v>167</v>
       </c>
-      <c r="H78" s="13">
+      <c r="H78" s="6">
         <v>45</v>
       </c>
-      <c r="I78" s="13"/>
+      <c r="I78" s="6"/>
+    </row>
+    <row r="79" spans="1:9">
+      <c r="A79" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="B79" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="C79" s="6">
+        <v>10</v>
+      </c>
+      <c r="D79" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E79" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F79" s="6">
+        <v>315</v>
+      </c>
+      <c r="G79" s="6">
+        <v>3150</v>
+      </c>
+      <c r="H79" s="6">
+        <v>200</v>
+      </c>
+      <c r="I79" s="6"/>
+    </row>
+    <row r="80" spans="1:9">
+      <c r="A80" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="B80" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C80" s="13">
+        <v>6</v>
+      </c>
+      <c r="D80" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E80" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="F80" s="13">
+        <v>650</v>
+      </c>
+      <c r="G80" s="13">
+        <v>3900</v>
+      </c>
+      <c r="H80" s="13"/>
+      <c r="I80" s="13"/>
+    </row>
+    <row r="81" spans="1:9">
+      <c r="A81" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="B81" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C81" s="13">
+        <v>1</v>
+      </c>
+      <c r="D81" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E81" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="F81" s="13">
+        <v>880</v>
+      </c>
+      <c r="G81" s="13">
+        <v>880</v>
+      </c>
+      <c r="H81" s="13">
+        <v>80</v>
+      </c>
+      <c r="I81" s="13"/>
+    </row>
+    <row r="82" spans="1:9">
+      <c r="A82" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="B82" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C82" s="13">
+        <v>1</v>
+      </c>
+      <c r="D82" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E82" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F82" s="13">
+        <v>960</v>
+      </c>
+      <c r="G82" s="13">
+        <v>960</v>
+      </c>
+      <c r="H82" s="13">
+        <v>60</v>
+      </c>
+      <c r="I82" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -11403,16 +11484,16 @@
       </c>
     </row>
     <row r="70" spans="1:8">
-      <c r="A70" s="25" t="s">
+      <c r="A70" s="17" t="s">
         <v>138</v>
       </c>
-      <c r="B70" s="25" t="s">
+      <c r="B70" s="17" t="s">
         <v>40</v>
       </c>
       <c r="C70" s="3">
         <v>15</v>
       </c>
-      <c r="D70" s="25" t="s">
+      <c r="D70" s="17" t="s">
         <v>11</v>
       </c>
       <c r="E70" s="3"/>
@@ -11990,13 +12071,13 @@
       <c r="A95" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="B95" s="25" t="s">
+      <c r="B95" s="17" t="s">
         <v>40</v>
       </c>
       <c r="C95" s="3">
         <v>15</v>
       </c>
-      <c r="D95" s="25" t="s">
+      <c r="D95" s="17" t="s">
         <v>11</v>
       </c>
       <c r="E95" s="3"/>
@@ -12135,10 +12216,10 @@
       </c>
     </row>
     <row r="101" spans="4:4">
-      <c r="D101" s="26"/>
+      <c r="D101" s="18"/>
     </row>
     <row r="102" spans="4:4">
-      <c r="D102" s="26"/>
+      <c r="D102" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -12165,7 +12246,7 @@
     <col min="3" max="6" width="9" style="1"/>
     <col min="7" max="7" width="9.22222222222222" style="1"/>
     <col min="8" max="8" width="9" style="1"/>
-    <col min="9" max="9" width="13.1259259259259" style="24" customWidth="1"/>
+    <col min="9" max="9" width="13.1259259259259" style="16" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="21" customHeight="1" spans="1:9">
@@ -17048,7 +17129,7 @@
       <c r="H70" s="6">
         <v>180</v>
       </c>
-      <c r="I70" s="23" t="s">
+      <c r="I70" s="15" t="s">
         <v>200</v>
       </c>
     </row>
@@ -17075,7 +17156,7 @@
       <c r="H71" s="6">
         <v>180</v>
       </c>
-      <c r="I71" s="23" t="s">
+      <c r="I71" s="15" t="s">
         <v>201</v>
       </c>
     </row>
@@ -17102,7 +17183,7 @@
       <c r="H72" s="6">
         <v>20</v>
       </c>
-      <c r="I72" s="23" t="s">
+      <c r="I72" s="15" t="s">
         <v>201</v>
       </c>
     </row>
@@ -19339,31 +19420,31 @@
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="D2" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="22" t="s">
+      <c r="E2" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="22" t="s">
+      <c r="F2" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="22" t="s">
+      <c r="G2" s="14" t="s">
         <v>7</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="22" t="s">
+      <c r="I2" s="14" t="s">
         <v>146</v>
       </c>
     </row>
@@ -27366,44 +27447,44 @@
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="E2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="F2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="16" t="s">
+      <c r="G2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="17" t="s">
+      <c r="H2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="16" t="s">
+      <c r="I2" s="3" t="s">
         <v>146</v>
       </c>
     </row>
@@ -27411,92 +27492,92 @@
       <c r="A3" s="5" t="s">
         <v>306</v>
       </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="18"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="6"/>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="5" t="s">
         <v>306</v>
       </c>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="18"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="6"/>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="5" t="s">
         <v>306</v>
       </c>
-      <c r="B5" s="20"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="20"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="8"/>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="5" t="s">
         <v>306</v>
       </c>
       <c r="B6" s="5"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="5" t="s">
         <v>306</v>
       </c>
-      <c r="B7" s="18"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="18"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="5" t="s">
         <v>306</v>
       </c>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="18"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="5" t="s">
         <v>306</v>
       </c>
-      <c r="B9" s="20"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="20"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/2016年销售日记账.xlsx
+++ b/2016年销售日记账.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8655" firstSheet="1" activeTab="9"/>
+    <workbookView windowWidth="20385" windowHeight="8655" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="2016.1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350">
   <si>
     <t>2016年销售日记账</t>
   </si>
@@ -946,6 +946,54 @@
     <t>2016.9.1</t>
   </si>
   <si>
+    <t>荜拨</t>
+  </si>
+  <si>
+    <t>2016.9.2</t>
+  </si>
+  <si>
+    <t>2016.9.3</t>
+  </si>
+  <si>
+    <t>白蔻</t>
+  </si>
+  <si>
+    <t>2016.9.5</t>
+  </si>
+  <si>
+    <t>2016.9.6</t>
+  </si>
+  <si>
+    <t>2016.9.7</t>
+  </si>
+  <si>
+    <t>45斤</t>
+  </si>
+  <si>
+    <t>2016.9.8</t>
+  </si>
+  <si>
+    <t>2016.9.10</t>
+  </si>
+  <si>
+    <t>2016.9.11</t>
+  </si>
+  <si>
+    <t>2016.9.12</t>
+  </si>
+  <si>
+    <t>2016.9.13</t>
+  </si>
+  <si>
+    <t>2016.9.14</t>
+  </si>
+  <si>
+    <t>2016.9.16</t>
+  </si>
+  <si>
+    <t>2016.9.17</t>
+  </si>
+  <si>
     <t>2016.10.4</t>
   </si>
   <si>
@@ -1013,6 +1061,18 @@
   </si>
   <si>
     <t>2016.10.22</t>
+  </si>
+  <si>
+    <t>2016.10.25</t>
+  </si>
+  <si>
+    <t>2016.10.26</t>
+  </si>
+  <si>
+    <t>2016.10.27</t>
+  </si>
+  <si>
+    <t>2016.10.28</t>
   </si>
 </sst>
 </file>
@@ -1021,9 +1081,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -1041,23 +1101,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1078,24 +1139,8 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1108,19 +1153,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1147,16 +1192,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1171,10 +1209,32 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1193,19 +1253,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1217,25 +1277,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1247,49 +1337,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1307,7 +1367,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1319,55 +1403,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1481,7 +1541,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1502,16 +1562,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1521,6 +1581,15 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1552,25 +1621,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1579,88 +1639,88 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1669,62 +1729,62 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1765,6 +1825,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
@@ -6657,10 +6720,10 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:I82"/>
+  <dimension ref="A1:I100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
-      <selection activeCell="D85" sqref="D85"/>
+    <sheetView topLeftCell="A81" workbookViewId="0">
+      <selection activeCell="H103" sqref="H103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15"/>
@@ -6706,7 +6769,7 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="5" t="s">
-        <v>307</v>
+        <v>323</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>24</v>
@@ -6731,7 +6794,7 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="5" t="s">
-        <v>307</v>
+        <v>323</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>13</v>
@@ -6756,7 +6819,7 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="5" t="s">
-        <v>307</v>
+        <v>323</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>40</v>
@@ -6781,7 +6844,7 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="5" t="s">
-        <v>307</v>
+        <v>323</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>21</v>
@@ -6806,7 +6869,7 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="5" t="s">
-        <v>307</v>
+        <v>323</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>45</v>
@@ -6825,7 +6888,7 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="5" t="s">
-        <v>307</v>
+        <v>323</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>248</v>
@@ -6850,7 +6913,7 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="10" t="s">
-        <v>307</v>
+        <v>323</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>43</v>
@@ -6862,7 +6925,7 @@
         <v>14</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>308</v>
+        <v>324</v>
       </c>
       <c r="F9" s="8">
         <v>780</v>
@@ -6877,7 +6940,7 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="5" t="s">
-        <v>307</v>
+        <v>323</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>24</v>
@@ -6902,7 +6965,7 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="5" t="s">
-        <v>309</v>
+        <v>325</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>36</v>
@@ -6929,7 +6992,7 @@
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="5" t="s">
-        <v>309</v>
+        <v>325</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>40</v>
@@ -6954,7 +7017,7 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="5" t="s">
-        <v>309</v>
+        <v>325</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>38</v>
@@ -6979,7 +7042,7 @@
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="5" t="s">
-        <v>309</v>
+        <v>325</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>13</v>
@@ -7004,7 +7067,7 @@
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="5" t="s">
-        <v>309</v>
+        <v>325</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>39</v>
@@ -7029,7 +7092,7 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="5" t="s">
-        <v>310</v>
+        <v>326</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>23</v>
@@ -7056,7 +7119,7 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="5" t="s">
-        <v>310</v>
+        <v>326</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>38</v>
@@ -7083,7 +7146,7 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="10" t="s">
-        <v>310</v>
+        <v>326</v>
       </c>
       <c r="B18" s="8" t="s">
         <v>24</v>
@@ -7110,7 +7173,7 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="5" t="s">
-        <v>310</v>
+        <v>326</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>45</v>
@@ -7129,7 +7192,7 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="5" t="s">
-        <v>311</v>
+        <v>327</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>13</v>
@@ -7156,7 +7219,7 @@
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="5" t="s">
-        <v>311</v>
+        <v>327</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>44</v>
@@ -7181,7 +7244,7 @@
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="5" t="s">
-        <v>311</v>
+        <v>327</v>
       </c>
       <c r="B22" s="6" t="s">
         <v>129</v>
@@ -7204,7 +7267,7 @@
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="5" t="s">
-        <v>311</v>
+        <v>327</v>
       </c>
       <c r="B23" s="6" t="s">
         <v>191</v>
@@ -7229,7 +7292,7 @@
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="5" t="s">
-        <v>311</v>
+        <v>327</v>
       </c>
       <c r="B24" s="6" t="s">
         <v>87</v>
@@ -7254,7 +7317,7 @@
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="5" t="s">
-        <v>311</v>
+        <v>327</v>
       </c>
       <c r="B25" s="6" t="s">
         <v>54</v>
@@ -7279,7 +7342,7 @@
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="5" t="s">
-        <v>311</v>
+        <v>327</v>
       </c>
       <c r="B26" s="6" t="s">
         <v>19</v>
@@ -7304,10 +7367,10 @@
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="5" t="s">
-        <v>311</v>
+        <v>327</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>312</v>
+        <v>328</v>
       </c>
       <c r="C27" s="6">
         <v>15</v>
@@ -7329,7 +7392,7 @@
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="10" t="s">
-        <v>311</v>
+        <v>327</v>
       </c>
       <c r="B28" s="8" t="s">
         <v>63</v>
@@ -7354,7 +7417,7 @@
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="5" t="s">
-        <v>311</v>
+        <v>327</v>
       </c>
       <c r="B29" s="6" t="s">
         <v>10</v>
@@ -7379,7 +7442,7 @@
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="5" t="s">
-        <v>311</v>
+        <v>327</v>
       </c>
       <c r="B30" s="6" t="s">
         <v>24</v>
@@ -7404,7 +7467,7 @@
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="5" t="s">
-        <v>311</v>
+        <v>327</v>
       </c>
       <c r="B31" s="6" t="s">
         <v>13</v>
@@ -7429,7 +7492,7 @@
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="5" t="s">
-        <v>313</v>
+        <v>329</v>
       </c>
       <c r="B32" s="6" t="s">
         <v>48</v>
@@ -7454,7 +7517,7 @@
     </row>
     <row r="33" spans="1:9">
       <c r="A33" s="5" t="s">
-        <v>313</v>
+        <v>329</v>
       </c>
       <c r="B33" s="6" t="s">
         <v>54</v>
@@ -7479,7 +7542,7 @@
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="5" t="s">
-        <v>313</v>
+        <v>329</v>
       </c>
       <c r="B34" s="6" t="s">
         <v>19</v>
@@ -7504,7 +7567,7 @@
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="5" t="s">
-        <v>313</v>
+        <v>329</v>
       </c>
       <c r="B35" s="6" t="s">
         <v>10</v>
@@ -7529,7 +7592,7 @@
     </row>
     <row r="36" spans="1:9">
       <c r="A36" s="5" t="s">
-        <v>313</v>
+        <v>329</v>
       </c>
       <c r="B36" s="6" t="s">
         <v>24</v>
@@ -7554,7 +7617,7 @@
     </row>
     <row r="37" spans="1:9">
       <c r="A37" s="10" t="s">
-        <v>313</v>
+        <v>329</v>
       </c>
       <c r="B37" s="8" t="s">
         <v>44</v>
@@ -7579,7 +7642,7 @@
     </row>
     <row r="38" spans="1:9">
       <c r="A38" s="5" t="s">
-        <v>313</v>
+        <v>329</v>
       </c>
       <c r="B38" s="6" t="s">
         <v>45</v>
@@ -7598,7 +7661,7 @@
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="5" t="s">
-        <v>314</v>
+        <v>330</v>
       </c>
       <c r="B39" s="6" t="s">
         <v>43</v>
@@ -7623,7 +7686,7 @@
     </row>
     <row r="40" spans="1:9">
       <c r="A40" s="5" t="s">
-        <v>314</v>
+        <v>330</v>
       </c>
       <c r="B40" s="6" t="s">
         <v>191</v>
@@ -7648,7 +7711,7 @@
     </row>
     <row r="41" spans="1:9">
       <c r="A41" s="5" t="s">
-        <v>315</v>
+        <v>331</v>
       </c>
       <c r="B41" s="6" t="s">
         <v>31</v>
@@ -7673,7 +7736,7 @@
     </row>
     <row r="42" spans="1:9">
       <c r="A42" s="10" t="s">
-        <v>315</v>
+        <v>331</v>
       </c>
       <c r="B42" s="8" t="s">
         <v>31</v>
@@ -7698,7 +7761,7 @@
     </row>
     <row r="43" spans="1:9">
       <c r="A43" s="5" t="s">
-        <v>315</v>
+        <v>331</v>
       </c>
       <c r="B43" s="6" t="s">
         <v>23</v>
@@ -7723,10 +7786,10 @@
     </row>
     <row r="44" spans="1:9">
       <c r="A44" s="5" t="s">
-        <v>315</v>
+        <v>331</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>316</v>
+        <v>332</v>
       </c>
       <c r="C44" s="6">
         <v>6</v>
@@ -7750,10 +7813,10 @@
     </row>
     <row r="45" spans="1:9">
       <c r="A45" s="5" t="s">
-        <v>315</v>
+        <v>331</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>317</v>
+        <v>333</v>
       </c>
       <c r="C45" s="8">
         <v>1</v>
@@ -7777,10 +7840,10 @@
     </row>
     <row r="46" spans="1:9">
       <c r="A46" s="11" t="s">
-        <v>318</v>
+        <v>334</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>319</v>
+        <v>335</v>
       </c>
       <c r="C46" s="6">
         <v>50</v>
@@ -7802,7 +7865,7 @@
     </row>
     <row r="47" spans="1:9">
       <c r="A47" s="11" t="s">
-        <v>320</v>
+        <v>336</v>
       </c>
       <c r="B47" s="6" t="s">
         <v>40</v>
@@ -7827,7 +7890,7 @@
     </row>
     <row r="48" spans="1:9">
       <c r="A48" s="11" t="s">
-        <v>320</v>
+        <v>336</v>
       </c>
       <c r="B48" s="6" t="s">
         <v>38</v>
@@ -7852,7 +7915,7 @@
     </row>
     <row r="49" spans="1:9">
       <c r="A49" s="11" t="s">
-        <v>320</v>
+        <v>336</v>
       </c>
       <c r="B49" s="6" t="s">
         <v>13</v>
@@ -7877,7 +7940,7 @@
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="12" t="s">
-        <v>320</v>
+        <v>336</v>
       </c>
       <c r="B50" s="8" t="s">
         <v>39</v>
@@ -7902,7 +7965,7 @@
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="10" t="s">
-        <v>321</v>
+        <v>337</v>
       </c>
       <c r="B51" s="8" t="s">
         <v>79</v>
@@ -7929,7 +7992,7 @@
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="5" t="s">
-        <v>322</v>
+        <v>338</v>
       </c>
       <c r="B52" s="6" t="s">
         <v>202</v>
@@ -7947,12 +8010,14 @@
       <c r="G52" s="6">
         <v>1365</v>
       </c>
-      <c r="H52" s="6"/>
+      <c r="H52" s="6">
+        <v>140</v>
+      </c>
       <c r="I52" s="6"/>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="10" t="s">
-        <v>322</v>
+        <v>338</v>
       </c>
       <c r="B53" s="8" t="s">
         <v>51</v>
@@ -7977,7 +8042,7 @@
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="10" t="s">
-        <v>322</v>
+        <v>338</v>
       </c>
       <c r="B54" s="8" t="s">
         <v>36</v>
@@ -8004,7 +8069,7 @@
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="5" t="s">
-        <v>322</v>
+        <v>338</v>
       </c>
       <c r="B55" s="6" t="s">
         <v>84</v>
@@ -8031,7 +8096,7 @@
     </row>
     <row r="56" spans="1:9">
       <c r="A56" s="5" t="s">
-        <v>323</v>
+        <v>339</v>
       </c>
       <c r="B56" s="6" t="s">
         <v>63</v>
@@ -8056,7 +8121,7 @@
     </row>
     <row r="57" spans="1:9">
       <c r="A57" s="5" t="s">
-        <v>324</v>
+        <v>340</v>
       </c>
       <c r="B57" s="6" t="s">
         <v>36</v>
@@ -8083,7 +8148,7 @@
     </row>
     <row r="58" spans="1:9">
       <c r="A58" s="5" t="s">
-        <v>324</v>
+        <v>340</v>
       </c>
       <c r="B58" s="6" t="s">
         <v>40</v>
@@ -8108,7 +8173,7 @@
     </row>
     <row r="59" spans="1:9">
       <c r="A59" s="5" t="s">
-        <v>324</v>
+        <v>340</v>
       </c>
       <c r="B59" s="6" t="s">
         <v>38</v>
@@ -8133,7 +8198,7 @@
     </row>
     <row r="60" spans="1:9">
       <c r="A60" s="5" t="s">
-        <v>324</v>
+        <v>340</v>
       </c>
       <c r="B60" s="6" t="s">
         <v>13</v>
@@ -8158,7 +8223,7 @@
     </row>
     <row r="61" spans="1:9">
       <c r="A61" s="5" t="s">
-        <v>324</v>
+        <v>340</v>
       </c>
       <c r="B61" s="6" t="s">
         <v>39</v>
@@ -8183,7 +8248,7 @@
     </row>
     <row r="62" spans="1:9">
       <c r="A62" s="5" t="s">
-        <v>324</v>
+        <v>340</v>
       </c>
       <c r="B62" s="6" t="s">
         <v>44</v>
@@ -8208,7 +8273,7 @@
     </row>
     <row r="63" spans="1:9">
       <c r="A63" s="5" t="s">
-        <v>324</v>
+        <v>340</v>
       </c>
       <c r="B63" s="6" t="s">
         <v>31</v>
@@ -8233,7 +8298,7 @@
     </row>
     <row r="64" spans="1:9">
       <c r="A64" s="5" t="s">
-        <v>325</v>
+        <v>341</v>
       </c>
       <c r="B64" s="6" t="s">
         <v>13</v>
@@ -8258,7 +8323,7 @@
     </row>
     <row r="65" spans="1:9">
       <c r="A65" s="5" t="s">
-        <v>325</v>
+        <v>341</v>
       </c>
       <c r="B65" s="6" t="s">
         <v>40</v>
@@ -8285,10 +8350,10 @@
     </row>
     <row r="66" spans="1:9">
       <c r="A66" s="5" t="s">
-        <v>325</v>
+        <v>341</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>317</v>
+        <v>333</v>
       </c>
       <c r="C66" s="6">
         <v>2</v>
@@ -8312,7 +8377,7 @@
     </row>
     <row r="67" spans="1:9">
       <c r="A67" s="5" t="s">
-        <v>325</v>
+        <v>341</v>
       </c>
       <c r="B67" s="8" t="s">
         <v>51</v>
@@ -8337,7 +8402,7 @@
     </row>
     <row r="68" spans="1:9">
       <c r="A68" s="11" t="s">
-        <v>325</v>
+        <v>341</v>
       </c>
       <c r="B68" s="6" t="s">
         <v>21</v>
@@ -8362,7 +8427,7 @@
     </row>
     <row r="69" spans="1:9">
       <c r="A69" s="11" t="s">
-        <v>325</v>
+        <v>341</v>
       </c>
       <c r="B69" s="6" t="s">
         <v>23</v>
@@ -8387,7 +8452,7 @@
     </row>
     <row r="70" spans="1:9">
       <c r="A70" s="12" t="s">
-        <v>325</v>
+        <v>341</v>
       </c>
       <c r="B70" s="8" t="s">
         <v>24</v>
@@ -8412,7 +8477,7 @@
     </row>
     <row r="71" spans="1:9">
       <c r="A71" s="5" t="s">
-        <v>325</v>
+        <v>341</v>
       </c>
       <c r="B71" s="6" t="s">
         <v>45</v>
@@ -8431,7 +8496,7 @@
     </row>
     <row r="72" spans="1:9">
       <c r="A72" s="5" t="s">
-        <v>325</v>
+        <v>341</v>
       </c>
       <c r="B72" s="6" t="s">
         <v>43</v>
@@ -8456,7 +8521,7 @@
     </row>
     <row r="73" spans="1:9">
       <c r="A73" s="5" t="s">
-        <v>326</v>
+        <v>342</v>
       </c>
       <c r="B73" s="6" t="s">
         <v>84</v>
@@ -8481,7 +8546,7 @@
     </row>
     <row r="74" spans="1:9">
       <c r="A74" s="5" t="s">
-        <v>326</v>
+        <v>342</v>
       </c>
       <c r="B74" s="6" t="s">
         <v>45</v>
@@ -8500,10 +8565,10 @@
     </row>
     <row r="75" spans="1:9">
       <c r="A75" s="5" t="s">
-        <v>326</v>
+        <v>342</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>317</v>
+        <v>333</v>
       </c>
       <c r="C75" s="6">
         <v>1</v>
@@ -8527,7 +8592,7 @@
     </row>
     <row r="76" spans="1:9">
       <c r="A76" s="10" t="s">
-        <v>327</v>
+        <v>343</v>
       </c>
       <c r="B76" s="8" t="s">
         <v>31</v>
@@ -8551,33 +8616,33 @@
       <c r="I76" s="8"/>
     </row>
     <row r="77" spans="1:9">
-      <c r="A77" s="10" t="s">
-        <v>327</v>
-      </c>
-      <c r="B77" s="8" t="s">
+      <c r="A77" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="B77" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C77" s="8">
+      <c r="C77" s="6">
         <v>2</v>
       </c>
-      <c r="D77" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E77" s="8"/>
-      <c r="F77" s="8">
+      <c r="D77" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E77" s="6"/>
+      <c r="F77" s="6">
         <v>55</v>
       </c>
-      <c r="G77" s="8">
+      <c r="G77" s="6">
         <v>110</v>
       </c>
-      <c r="H77" s="8">
+      <c r="H77" s="6">
         <v>10</v>
       </c>
-      <c r="I77" s="8"/>
+      <c r="I77" s="6"/>
     </row>
     <row r="78" spans="1:9">
       <c r="A78" s="5" t="s">
-        <v>327</v>
+        <v>343</v>
       </c>
       <c r="B78" s="6" t="s">
         <v>45</v>
@@ -8595,110 +8660,572 @@
       <c r="I78" s="6"/>
     </row>
     <row r="79" spans="1:9">
-      <c r="A79" s="5" t="s">
-        <v>328</v>
-      </c>
-      <c r="B79" s="6" t="s">
-        <v>317</v>
-      </c>
-      <c r="C79" s="6">
+      <c r="A79" s="10" t="s">
+        <v>344</v>
+      </c>
+      <c r="B79" s="8" t="s">
+        <v>333</v>
+      </c>
+      <c r="C79" s="8">
         <v>10</v>
       </c>
-      <c r="D79" s="6" t="s">
+      <c r="D79" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E79" s="6" t="s">
+      <c r="E79" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="F79" s="6">
+      <c r="F79" s="8">
         <v>315</v>
       </c>
-      <c r="G79" s="6">
+      <c r="G79" s="8">
         <v>3150</v>
       </c>
-      <c r="H79" s="6">
+      <c r="H79" s="8">
         <v>200</v>
       </c>
-      <c r="I79" s="6"/>
+      <c r="I79" s="8"/>
     </row>
     <row r="80" spans="1:9">
       <c r="A80" s="5" t="s">
-        <v>329</v>
-      </c>
-      <c r="B80" s="13" t="s">
+        <v>345</v>
+      </c>
+      <c r="B80" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C80" s="13">
+      <c r="C80" s="6">
         <v>6</v>
       </c>
-      <c r="D80" s="13" t="s">
+      <c r="D80" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E80" s="13" t="s">
+      <c r="E80" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="F80" s="13">
+      <c r="F80" s="6">
         <v>650</v>
       </c>
-      <c r="G80" s="13">
+      <c r="G80" s="6">
         <v>3900</v>
       </c>
-      <c r="H80" s="13"/>
-      <c r="I80" s="13"/>
+      <c r="H80" s="6">
+        <v>300</v>
+      </c>
+      <c r="I80" s="6"/>
     </row>
     <row r="81" spans="1:9">
       <c r="A81" s="5" t="s">
-        <v>329</v>
-      </c>
-      <c r="B81" s="13" t="s">
+        <v>345</v>
+      </c>
+      <c r="B81" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C81" s="13">
+      <c r="C81" s="6">
         <v>1</v>
       </c>
-      <c r="D81" s="13" t="s">
+      <c r="D81" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E81" s="13" t="s">
+      <c r="E81" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="F81" s="13">
+      <c r="F81" s="6">
         <v>880</v>
       </c>
-      <c r="G81" s="13">
+      <c r="G81" s="6">
         <v>880</v>
       </c>
-      <c r="H81" s="13">
+      <c r="H81" s="6">
         <v>80</v>
       </c>
-      <c r="I81" s="13"/>
+      <c r="I81" s="6"/>
     </row>
     <row r="82" spans="1:9">
       <c r="A82" s="5" t="s">
-        <v>329</v>
-      </c>
-      <c r="B82" s="13" t="s">
+        <v>345</v>
+      </c>
+      <c r="B82" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C82" s="13">
+      <c r="C82" s="6">
         <v>1</v>
       </c>
-      <c r="D82" s="13" t="s">
+      <c r="D82" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E82" s="13" t="s">
+      <c r="E82" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F82" s="13">
+      <c r="F82" s="6">
         <v>960</v>
       </c>
-      <c r="G82" s="13">
+      <c r="G82" s="6">
         <v>960</v>
       </c>
-      <c r="H82" s="13">
+      <c r="H82" s="6">
         <v>60</v>
       </c>
-      <c r="I82" s="13"/>
+      <c r="I82" s="6"/>
+    </row>
+    <row r="83" spans="1:9">
+      <c r="A83" s="5" t="s">
+        <v>346</v>
+      </c>
+      <c r="B83" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C83" s="6">
+        <v>20</v>
+      </c>
+      <c r="D83" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E83" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F83" s="6">
+        <v>560</v>
+      </c>
+      <c r="G83" s="6">
+        <v>11200</v>
+      </c>
+      <c r="H83" s="6">
+        <v>1500</v>
+      </c>
+      <c r="I83" s="6"/>
+    </row>
+    <row r="84" spans="1:9">
+      <c r="A84" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="B84" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C84" s="6">
+        <v>1</v>
+      </c>
+      <c r="D84" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E84" s="8" t="s">
+        <v>324</v>
+      </c>
+      <c r="F84" s="8">
+        <v>3100</v>
+      </c>
+      <c r="G84" s="8">
+        <v>3100</v>
+      </c>
+      <c r="H84" s="8">
+        <v>100</v>
+      </c>
+      <c r="I84" s="8"/>
+    </row>
+    <row r="85" spans="1:9">
+      <c r="A85" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="B85" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C85" s="7">
+        <v>2</v>
+      </c>
+      <c r="D85" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E85" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F85" s="6">
+        <v>675</v>
+      </c>
+      <c r="G85" s="6">
+        <v>1350</v>
+      </c>
+      <c r="H85" s="6">
+        <v>150</v>
+      </c>
+      <c r="I85" s="6"/>
+    </row>
+    <row r="86" spans="1:9">
+      <c r="A86" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="B86" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C86" s="7">
+        <v>2</v>
+      </c>
+      <c r="D86" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E86" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F86" s="6">
+        <v>1200</v>
+      </c>
+      <c r="G86" s="6">
+        <v>2400</v>
+      </c>
+      <c r="H86" s="6">
+        <v>380</v>
+      </c>
+      <c r="I86" s="6"/>
+    </row>
+    <row r="87" spans="1:9">
+      <c r="A87" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="B87" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="C87" s="7">
+        <v>2</v>
+      </c>
+      <c r="D87" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E87" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F87" s="6">
+        <v>1900</v>
+      </c>
+      <c r="G87" s="6">
+        <v>3800</v>
+      </c>
+      <c r="H87" s="6">
+        <v>300</v>
+      </c>
+      <c r="I87" s="6"/>
+    </row>
+    <row r="88" spans="1:9">
+      <c r="A88" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="B88" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="C88" s="7">
+        <v>10</v>
+      </c>
+      <c r="D88" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E88" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F88" s="6">
+        <v>1900</v>
+      </c>
+      <c r="G88" s="6">
+        <v>19000</v>
+      </c>
+      <c r="H88" s="6">
+        <v>1500</v>
+      </c>
+      <c r="I88" s="6"/>
+    </row>
+    <row r="89" spans="1:9">
+      <c r="A89" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="B89" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C89" s="7">
+        <v>20</v>
+      </c>
+      <c r="D89" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E89" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F89" s="6">
+        <v>695</v>
+      </c>
+      <c r="G89" s="6">
+        <v>13900</v>
+      </c>
+      <c r="H89" s="6">
+        <v>300</v>
+      </c>
+      <c r="I89" s="6"/>
+    </row>
+    <row r="90" spans="1:9">
+      <c r="A90" s="5" t="s">
+        <v>348</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C90" s="1">
+        <v>20</v>
+      </c>
+      <c r="D90" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E90" s="6"/>
+      <c r="F90" s="6">
+        <v>52</v>
+      </c>
+      <c r="G90" s="6">
+        <v>1040</v>
+      </c>
+      <c r="H90" s="6">
+        <v>150</v>
+      </c>
+      <c r="I90" s="6"/>
+    </row>
+    <row r="91" spans="1:9">
+      <c r="A91" s="5" t="s">
+        <v>348</v>
+      </c>
+      <c r="B91" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C91" s="7">
+        <v>2</v>
+      </c>
+      <c r="D91" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E91" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F91" s="6">
+        <v>275</v>
+      </c>
+      <c r="G91" s="6">
+        <v>550</v>
+      </c>
+      <c r="H91" s="6">
+        <v>50</v>
+      </c>
+      <c r="I91" s="6"/>
+    </row>
+    <row r="92" spans="1:9">
+      <c r="A92" s="5" t="s">
+        <v>348</v>
+      </c>
+      <c r="B92" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C92" s="7">
+        <v>17</v>
+      </c>
+      <c r="D92" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E92" s="6"/>
+      <c r="F92" s="6">
+        <v>50</v>
+      </c>
+      <c r="G92" s="6">
+        <v>850</v>
+      </c>
+      <c r="H92" s="6">
+        <v>85</v>
+      </c>
+      <c r="I92" s="6"/>
+    </row>
+    <row r="93" spans="1:9">
+      <c r="A93" s="5" t="s">
+        <v>348</v>
+      </c>
+      <c r="B93" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C93" s="7">
+        <v>23</v>
+      </c>
+      <c r="D93" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E93" s="6"/>
+      <c r="F93" s="6">
+        <v>11.5</v>
+      </c>
+      <c r="G93" s="6">
+        <v>264.5</v>
+      </c>
+      <c r="H93" s="6">
+        <v>30</v>
+      </c>
+      <c r="I93" s="6"/>
+    </row>
+    <row r="94" spans="1:9">
+      <c r="A94" s="10" t="s">
+        <v>348</v>
+      </c>
+      <c r="B94" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C94" s="9">
+        <v>20</v>
+      </c>
+      <c r="D94" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E94" s="6"/>
+      <c r="F94" s="6">
+        <v>7</v>
+      </c>
+      <c r="G94" s="6">
+        <v>140</v>
+      </c>
+      <c r="H94" s="6">
+        <v>3</v>
+      </c>
+      <c r="I94" s="6"/>
+    </row>
+    <row r="95" spans="1:9">
+      <c r="A95" s="5" t="s">
+        <v>348</v>
+      </c>
+      <c r="B95" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C95" s="7">
+        <v>20</v>
+      </c>
+      <c r="D95" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E95" s="6"/>
+      <c r="F95" s="6">
+        <v>19</v>
+      </c>
+      <c r="G95" s="6">
+        <v>380</v>
+      </c>
+      <c r="H95" s="6">
+        <v>20</v>
+      </c>
+      <c r="I95" s="6"/>
+    </row>
+    <row r="96" spans="1:9">
+      <c r="A96" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="B96" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C96" s="7"/>
+      <c r="D96" s="6"/>
+      <c r="E96" s="6"/>
+      <c r="F96" s="6"/>
+      <c r="G96" s="6">
+        <v>180</v>
+      </c>
+      <c r="H96" s="6">
+        <v>60</v>
+      </c>
+      <c r="I96" s="6"/>
+    </row>
+    <row r="97" spans="1:9">
+      <c r="A97" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="B97" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="C97" s="7">
+        <v>5</v>
+      </c>
+      <c r="D97" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E97" s="6"/>
+      <c r="F97" s="6">
+        <v>92</v>
+      </c>
+      <c r="G97" s="6">
+        <v>460</v>
+      </c>
+      <c r="H97" s="6">
+        <v>10</v>
+      </c>
+      <c r="I97" s="6"/>
+    </row>
+    <row r="98" spans="1:9">
+      <c r="A98" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="B98" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C98" s="7">
+        <v>5</v>
+      </c>
+      <c r="D98" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E98" s="6"/>
+      <c r="F98" s="6">
+        <v>88</v>
+      </c>
+      <c r="G98" s="6">
+        <v>440</v>
+      </c>
+      <c r="H98" s="6">
+        <v>-5</v>
+      </c>
+      <c r="I98" s="6"/>
+    </row>
+    <row r="99" spans="1:9">
+      <c r="A99" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="B99" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C99" s="7">
+        <v>3</v>
+      </c>
+      <c r="D99" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E99" s="6"/>
+      <c r="F99" s="6">
+        <v>58</v>
+      </c>
+      <c r="G99" s="6">
+        <v>174</v>
+      </c>
+      <c r="H99" s="6">
+        <v>24</v>
+      </c>
+      <c r="I99" s="6"/>
+    </row>
+    <row r="100" spans="1:9">
+      <c r="A100" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="B100" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C100" s="7">
+        <v>5</v>
+      </c>
+      <c r="D100" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E100" s="6"/>
+      <c r="F100" s="6">
+        <v>35</v>
+      </c>
+      <c r="G100" s="6">
+        <v>175</v>
+      </c>
+      <c r="H100" s="6">
+        <v>100</v>
+      </c>
+      <c r="I100" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -11484,16 +12011,16 @@
       </c>
     </row>
     <row r="70" spans="1:8">
-      <c r="A70" s="17" t="s">
+      <c r="A70" s="18" t="s">
         <v>138</v>
       </c>
-      <c r="B70" s="17" t="s">
+      <c r="B70" s="18" t="s">
         <v>40</v>
       </c>
       <c r="C70" s="3">
         <v>15</v>
       </c>
-      <c r="D70" s="17" t="s">
+      <c r="D70" s="18" t="s">
         <v>11</v>
       </c>
       <c r="E70" s="3"/>
@@ -12071,13 +12598,13 @@
       <c r="A95" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="B95" s="17" t="s">
+      <c r="B95" s="18" t="s">
         <v>40</v>
       </c>
       <c r="C95" s="3">
         <v>15</v>
       </c>
-      <c r="D95" s="17" t="s">
+      <c r="D95" s="18" t="s">
         <v>11</v>
       </c>
       <c r="E95" s="3"/>
@@ -12216,10 +12743,10 @@
       </c>
     </row>
     <row r="101" spans="4:4">
-      <c r="D101" s="18"/>
+      <c r="D101" s="19"/>
     </row>
     <row r="102" spans="4:4">
-      <c r="D102" s="18"/>
+      <c r="D102" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -12246,7 +12773,7 @@
     <col min="3" max="6" width="9" style="1"/>
     <col min="7" max="7" width="9.22222222222222" style="1"/>
     <col min="8" max="8" width="9" style="1"/>
-    <col min="9" max="9" width="13.1259259259259" style="16" customWidth="1"/>
+    <col min="9" max="9" width="13.1259259259259" style="17" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="21" customHeight="1" spans="1:9">
@@ -17129,7 +17656,7 @@
       <c r="H70" s="6">
         <v>180</v>
       </c>
-      <c r="I70" s="15" t="s">
+      <c r="I70" s="16" t="s">
         <v>200</v>
       </c>
     </row>
@@ -17156,7 +17683,7 @@
       <c r="H71" s="6">
         <v>180</v>
       </c>
-      <c r="I71" s="15" t="s">
+      <c r="I71" s="16" t="s">
         <v>201</v>
       </c>
     </row>
@@ -17183,7 +17710,7 @@
       <c r="H72" s="6">
         <v>20</v>
       </c>
-      <c r="I72" s="15" t="s">
+      <c r="I72" s="16" t="s">
         <v>201</v>
       </c>
     </row>
@@ -19420,31 +19947,31 @@
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="G2" s="15" t="s">
         <v>7</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="14" t="s">
+      <c r="I2" s="15" t="s">
         <v>146</v>
       </c>
     </row>
@@ -24715,8 +25242,8 @@
   <sheetPr/>
   <dimension ref="A1:I108"/>
   <sheetViews>
-    <sheetView topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="F47" sqref="F47"/>
+    <sheetView topLeftCell="A74" workbookViewId="0">
+      <selection activeCell="H60" sqref="H60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15"/>
@@ -27438,26 +27965,21 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I111"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="A92" workbookViewId="0">
+      <selection activeCell="A106" sqref="A106:I111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="9" width="8.88888888888889" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="3" t="s">
@@ -27492,92 +28014,2708 @@
       <c r="A3" s="5" t="s">
         <v>306</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="7"/>
+      <c r="B3" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="6">
+        <v>2</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" s="6">
+        <v>275</v>
+      </c>
+      <c r="G3" s="6">
+        <v>550</v>
+      </c>
+      <c r="H3" s="7">
+        <v>50</v>
+      </c>
       <c r="I3" s="6"/>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="5" t="s">
         <v>306</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
+      <c r="B4" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="6">
+        <v>15</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>11</v>
+      </c>
       <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="7"/>
+      <c r="F4" s="6">
+        <v>50</v>
+      </c>
+      <c r="G4" s="6">
+        <v>750</v>
+      </c>
+      <c r="H4" s="7">
+        <v>110</v>
+      </c>
       <c r="I4" s="6"/>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="5" t="s">
         <v>306</v>
       </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
+      <c r="B5" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="8">
+        <v>20</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>11</v>
+      </c>
       <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="9"/>
+      <c r="F5" s="8">
+        <v>12</v>
+      </c>
+      <c r="G5" s="8">
+        <v>240</v>
+      </c>
+      <c r="H5" s="9">
+        <v>35</v>
+      </c>
       <c r="I5" s="8"/>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="5" t="s">
         <v>306</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
+      <c r="B6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="6">
+        <v>20</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>11</v>
+      </c>
       <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
+      <c r="F6" s="6">
+        <v>7</v>
+      </c>
+      <c r="G6" s="6">
+        <v>140</v>
+      </c>
+      <c r="H6" s="6">
+        <v>30</v>
+      </c>
       <c r="I6" s="6"/>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="5" t="s">
         <v>306</v>
       </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
+      <c r="B7" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="6">
+        <v>20</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>11</v>
+      </c>
       <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
+      <c r="F7" s="6">
+        <v>15</v>
+      </c>
+      <c r="G7" s="6">
+        <v>200</v>
+      </c>
+      <c r="H7" s="6">
+        <v>80</v>
+      </c>
       <c r="I7" s="6"/>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="5" t="s">
         <v>306</v>
       </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
+      <c r="B8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="6">
+        <v>1</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>11</v>
+      </c>
       <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
+      <c r="F8" s="6">
+        <v>18</v>
+      </c>
+      <c r="G8" s="6">
+        <v>18</v>
+      </c>
+      <c r="H8" s="6">
+        <v>4</v>
+      </c>
       <c r="I8" s="6"/>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="5" t="s">
         <v>306</v>
       </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
+      <c r="B9" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="6">
+        <v>1</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6">
+        <v>12</v>
+      </c>
+      <c r="G9" s="6">
+        <v>12</v>
+      </c>
+      <c r="H9" s="6">
+        <v>5</v>
+      </c>
+      <c r="I9" s="6"/>
+    </row>
+    <row r="10" customFormat="1" spans="1:9">
+      <c r="A10" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="6">
+        <v>1</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6">
+        <v>12</v>
+      </c>
+      <c r="G10" s="6">
+        <v>12</v>
+      </c>
+      <c r="H10" s="6">
+        <v>5</v>
+      </c>
+      <c r="I10" s="6"/>
+    </row>
+    <row r="11" customFormat="1" spans="1:9">
+      <c r="A11" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" s="6">
+        <v>1</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6">
+        <v>14</v>
+      </c>
+      <c r="G11" s="6">
+        <v>14</v>
+      </c>
+      <c r="H11" s="6">
+        <v>8</v>
+      </c>
+      <c r="I11" s="6"/>
+    </row>
+    <row r="12" customFormat="1" spans="1:9">
+      <c r="A12" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" s="6">
+        <v>1</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6">
+        <v>11</v>
+      </c>
+      <c r="G12" s="6">
+        <v>11</v>
+      </c>
+      <c r="H12" s="6">
+        <v>2</v>
+      </c>
+      <c r="I12" s="6"/>
+    </row>
+    <row r="13" customFormat="1" spans="1:9">
+      <c r="A13" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="C13" s="6">
+        <v>1</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6">
+        <v>9</v>
+      </c>
+      <c r="G13" s="6">
+        <v>9</v>
+      </c>
+      <c r="H13" s="6">
+        <v>4</v>
+      </c>
+      <c r="I13" s="6"/>
+    </row>
+    <row r="14" customFormat="1" spans="1:9">
+      <c r="A14" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C14" s="6">
+        <v>1</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6">
+        <v>10</v>
+      </c>
+      <c r="G14" s="6">
+        <v>10</v>
+      </c>
+      <c r="H14" s="6">
+        <v>4</v>
+      </c>
+      <c r="I14" s="6"/>
+    </row>
+    <row r="15" customFormat="1" spans="1:9">
+      <c r="A15" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="6">
+        <v>1</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6">
+        <v>10</v>
+      </c>
+      <c r="G15" s="6">
+        <v>10</v>
+      </c>
+      <c r="H15" s="6">
+        <v>3</v>
+      </c>
+      <c r="I15" s="6"/>
+    </row>
+    <row r="16" customFormat="1" spans="1:9">
+      <c r="A16" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C16" s="6">
+        <v>1</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6">
+        <v>38</v>
+      </c>
+      <c r="G16" s="6">
+        <v>38</v>
+      </c>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+    </row>
+    <row r="17" customFormat="1" spans="1:9">
+      <c r="A17" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C17" s="6">
+        <v>1</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6">
+        <v>20</v>
+      </c>
+      <c r="G17" s="6">
+        <v>20</v>
+      </c>
+      <c r="H17" s="6">
+        <v>10</v>
+      </c>
+      <c r="I17" s="6"/>
+    </row>
+    <row r="18" customFormat="1" spans="1:9">
+      <c r="A18" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="6">
+        <v>1</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6">
+        <v>10</v>
+      </c>
+      <c r="G18" s="6">
+        <v>10</v>
+      </c>
+      <c r="H18" s="6">
+        <v>5</v>
+      </c>
+      <c r="I18" s="6"/>
+    </row>
+    <row r="19" customFormat="1" spans="1:9">
+      <c r="A19" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" s="6">
+        <v>1</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6">
+        <v>32</v>
+      </c>
+      <c r="G19" s="6">
+        <v>32</v>
+      </c>
+      <c r="H19" s="6">
+        <v>4</v>
+      </c>
+      <c r="I19" s="6"/>
+    </row>
+    <row r="20" customFormat="1" spans="1:9">
+      <c r="A20" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="C20" s="6">
+        <v>1</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6">
+        <v>43</v>
+      </c>
+      <c r="G20" s="6">
+        <v>43</v>
+      </c>
+      <c r="H20" s="6">
+        <v>8</v>
+      </c>
+      <c r="I20" s="6"/>
+    </row>
+    <row r="21" customFormat="1" spans="1:9">
+      <c r="A21" s="10" t="s">
+        <v>306</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="C21" s="8">
+        <v>1</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8">
+        <v>10</v>
+      </c>
+      <c r="G21" s="8">
+        <v>10</v>
+      </c>
+      <c r="H21" s="8">
+        <v>5</v>
+      </c>
+      <c r="I21" s="8"/>
+    </row>
+    <row r="22" customFormat="1" spans="1:9">
+      <c r="A22" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C22" s="6">
+        <v>1</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6">
+        <v>40</v>
+      </c>
+      <c r="G22" s="6">
+        <v>40</v>
+      </c>
+      <c r="H22" s="6">
+        <v>20</v>
+      </c>
+      <c r="I22" s="6"/>
+    </row>
+    <row r="23" customFormat="1" spans="1:9">
+      <c r="A23" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="C23" s="6">
+        <v>1</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6">
+        <v>35</v>
+      </c>
+      <c r="G23" s="6">
+        <v>35</v>
+      </c>
+      <c r="H23" s="6">
+        <v>5</v>
+      </c>
+      <c r="I23" s="6"/>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" s="6">
+        <v>1</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6">
+        <v>60</v>
+      </c>
+      <c r="G24" s="6">
+        <v>60</v>
+      </c>
+      <c r="H24" s="6">
+        <v>6</v>
+      </c>
+      <c r="I24" s="6"/>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="6">
+        <v>1</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6">
+        <v>18</v>
+      </c>
+      <c r="G25" s="6">
+        <v>18</v>
+      </c>
+      <c r="H25" s="6">
+        <v>4</v>
+      </c>
+      <c r="I25" s="6"/>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C26" s="6">
+        <v>1.4</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6">
+        <v>15</v>
+      </c>
+      <c r="G26" s="6">
+        <v>20</v>
+      </c>
+      <c r="H26" s="6">
+        <v>8</v>
+      </c>
+      <c r="I26" s="6"/>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="C27" s="6">
+        <v>35</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6">
+        <v>39</v>
+      </c>
+      <c r="G27" s="6">
+        <v>1365</v>
+      </c>
+      <c r="H27" s="6">
+        <v>140</v>
+      </c>
+      <c r="I27" s="6"/>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C28" s="6">
+        <v>40</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6">
+        <v>8.5</v>
+      </c>
+      <c r="G28" s="6">
+        <v>340</v>
+      </c>
+      <c r="H28" s="6">
+        <v>180</v>
+      </c>
+      <c r="I28" s="6"/>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C29" s="6">
+        <v>4</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F29" s="6">
+        <v>275</v>
+      </c>
+      <c r="G29" s="6">
+        <v>1100</v>
+      </c>
+      <c r="H29" s="6">
+        <v>100</v>
+      </c>
+      <c r="I29" s="6"/>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="10" t="s">
+        <v>308</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="C30" s="8">
+        <v>2</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F30" s="8">
+        <v>275</v>
+      </c>
+      <c r="G30" s="8">
+        <v>550</v>
+      </c>
+      <c r="H30" s="8">
+        <v>150</v>
+      </c>
+      <c r="I30" s="8"/>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6">
+        <v>590</v>
+      </c>
+      <c r="H31" s="6">
+        <v>150</v>
+      </c>
+      <c r="I31" s="6"/>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C32" s="6">
+        <v>10</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6">
+        <v>51</v>
+      </c>
+      <c r="G32" s="6">
+        <v>510</v>
+      </c>
+      <c r="H32" s="6">
+        <v>50</v>
+      </c>
+      <c r="I32" s="6"/>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C33" s="6">
+        <v>1.67</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6">
+        <v>60</v>
+      </c>
+      <c r="G33" s="6">
+        <v>100</v>
+      </c>
+      <c r="H33" s="6">
+        <v>10</v>
+      </c>
+      <c r="I33" s="6"/>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C34" s="6">
+        <v>4.37</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6">
+        <v>16</v>
+      </c>
+      <c r="G34" s="6">
+        <v>70</v>
+      </c>
+      <c r="H34" s="6">
+        <v>12</v>
+      </c>
+      <c r="I34" s="6"/>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C35" s="6">
+        <v>3.33</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6">
+        <v>9</v>
+      </c>
+      <c r="G35" s="6">
+        <v>30</v>
+      </c>
+      <c r="H35" s="6">
+        <v>6</v>
+      </c>
+      <c r="I35" s="6"/>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C36" s="6">
+        <v>1.33</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6">
+        <v>45</v>
+      </c>
+      <c r="G36" s="6">
+        <v>60</v>
+      </c>
+      <c r="H36" s="6">
+        <v>32</v>
+      </c>
+      <c r="I36" s="6"/>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C37" s="6">
+        <v>2.66</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6">
+        <v>60</v>
+      </c>
+      <c r="G37" s="6">
+        <v>160</v>
+      </c>
+      <c r="H37" s="6">
+        <v>10</v>
+      </c>
+      <c r="I37" s="6"/>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C38" s="6">
+        <v>1.53</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6">
+        <v>13</v>
+      </c>
+      <c r="G38" s="6">
+        <v>20</v>
+      </c>
+      <c r="H38" s="6">
+        <v>6</v>
+      </c>
+      <c r="I38" s="6"/>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="C39" s="6">
+        <v>0.88</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6">
+        <v>45</v>
+      </c>
+      <c r="G39" s="6">
+        <v>40</v>
+      </c>
+      <c r="H39" s="6"/>
+      <c r="I39" s="6"/>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C40" s="6">
+        <v>2</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6">
+        <v>15</v>
+      </c>
+      <c r="G40" s="6">
+        <v>30</v>
+      </c>
+      <c r="H40" s="6">
+        <v>18</v>
+      </c>
+      <c r="I40" s="6"/>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C41" s="6">
+        <v>1.53</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E41" s="6"/>
+      <c r="F41" s="6">
+        <v>65</v>
+      </c>
+      <c r="G41" s="6">
+        <v>100</v>
+      </c>
+      <c r="H41" s="6"/>
+      <c r="I41" s="6"/>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C42" s="6">
+        <v>2.58</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E42" s="6"/>
+      <c r="F42" s="6">
+        <v>8</v>
+      </c>
+      <c r="G42" s="6">
+        <v>20</v>
+      </c>
+      <c r="H42" s="6">
+        <v>6</v>
+      </c>
+      <c r="I42" s="6"/>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" s="10" t="s">
+        <v>309</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C43" s="8">
+        <v>2.5</v>
+      </c>
+      <c r="D43" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8">
+        <v>8</v>
+      </c>
+      <c r="G43" s="8">
+        <v>20</v>
+      </c>
+      <c r="H43" s="8">
+        <v>8</v>
+      </c>
+      <c r="I43" s="8"/>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="C44" s="6">
+        <v>15</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E44" s="6"/>
+      <c r="F44" s="6">
+        <v>52</v>
+      </c>
+      <c r="G44" s="6">
+        <v>780</v>
+      </c>
+      <c r="H44" s="6">
+        <v>145</v>
+      </c>
+      <c r="I44" s="6"/>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C45" s="6"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="6"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="6">
+        <v>420</v>
+      </c>
+      <c r="H45" s="6">
+        <v>105</v>
+      </c>
+      <c r="I45" s="6"/>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C46" s="6">
+        <v>20</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E46" s="6"/>
+      <c r="F46" s="6">
+        <v>6.5</v>
+      </c>
+      <c r="G46" s="6">
+        <v>130</v>
+      </c>
+      <c r="H46" s="6">
+        <v>50</v>
+      </c>
+      <c r="I46" s="6"/>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C47" s="6">
+        <v>5</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F47" s="6">
+        <v>1145</v>
+      </c>
+      <c r="G47" s="6">
+        <v>5725</v>
+      </c>
+      <c r="H47" s="6">
+        <v>690</v>
+      </c>
+      <c r="I47" s="6"/>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C48" s="6">
+        <v>5</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E48" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F48" s="6">
+        <v>595</v>
+      </c>
+      <c r="G48" s="6">
+        <v>2975</v>
+      </c>
+      <c r="H48" s="6"/>
+      <c r="I48" s="6"/>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C49" s="6">
+        <v>10</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E49" s="6"/>
+      <c r="F49" s="6">
+        <v>70</v>
+      </c>
+      <c r="G49" s="6">
+        <v>700</v>
+      </c>
+      <c r="H49" s="6">
+        <v>275</v>
+      </c>
+      <c r="I49" s="6"/>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C50" s="6"/>
+      <c r="D50" s="6"/>
+      <c r="E50" s="6"/>
+      <c r="F50" s="6"/>
+      <c r="G50" s="6">
+        <v>45</v>
+      </c>
+      <c r="H50" s="6"/>
+      <c r="I50" s="6"/>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="A51" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="B51" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C51" s="13">
+        <v>2.5</v>
+      </c>
+      <c r="D51" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E51" s="13"/>
+      <c r="F51" s="13">
+        <v>8</v>
+      </c>
+      <c r="G51" s="13">
+        <v>20</v>
+      </c>
+      <c r="H51" s="13">
+        <v>2</v>
+      </c>
+      <c r="I51" s="13"/>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="A52" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="B52" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C52" s="13">
+        <v>1.76</v>
+      </c>
+      <c r="D52" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E52" s="13"/>
+      <c r="F52" s="13">
+        <v>13</v>
+      </c>
+      <c r="G52" s="13">
+        <v>23</v>
+      </c>
+      <c r="H52" s="13">
+        <v>1</v>
+      </c>
+      <c r="I52" s="13"/>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="B53" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C53" s="13">
+        <v>2.56</v>
+      </c>
+      <c r="D53" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E53" s="13"/>
+      <c r="F53" s="13">
+        <v>9</v>
+      </c>
+      <c r="G53" s="13">
+        <v>23</v>
+      </c>
+      <c r="H53" s="13">
+        <v>4</v>
+      </c>
+      <c r="I53" s="13"/>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="A54" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="B54" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C54" s="13">
+        <v>1</v>
+      </c>
+      <c r="D54" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E54" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F54" s="13">
+        <v>600</v>
+      </c>
+      <c r="G54" s="13">
+        <v>600</v>
+      </c>
+      <c r="H54" s="13">
+        <v>60</v>
+      </c>
+      <c r="I54" s="13"/>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="A55" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="B55" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C55" s="13">
+        <v>8</v>
+      </c>
+      <c r="D55" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E55" s="13"/>
+      <c r="F55" s="13">
+        <v>14.5</v>
+      </c>
+      <c r="G55" s="13">
+        <v>116</v>
+      </c>
+      <c r="H55" s="13"/>
+      <c r="I55" s="13"/>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="A56" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="B56" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C56" s="13">
+        <v>8</v>
+      </c>
+      <c r="D56" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E56" s="13"/>
+      <c r="F56" s="13">
+        <v>90</v>
+      </c>
+      <c r="G56" s="13">
+        <v>720</v>
+      </c>
+      <c r="H56" s="13"/>
+      <c r="I56" s="13"/>
+    </row>
+    <row r="57" spans="1:9">
+      <c r="A57" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="B57" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C57" s="13">
+        <v>8</v>
+      </c>
+      <c r="D57" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E57" s="13"/>
+      <c r="F57" s="13">
+        <v>14</v>
+      </c>
+      <c r="G57" s="13">
+        <v>112</v>
+      </c>
+      <c r="H57" s="13">
+        <v>48</v>
+      </c>
+      <c r="I57" s="13"/>
+    </row>
+    <row r="58" spans="1:9">
+      <c r="A58" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="B58" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C58" s="13">
+        <v>8</v>
+      </c>
+      <c r="D58" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E58" s="13"/>
+      <c r="F58" s="13">
+        <v>16</v>
+      </c>
+      <c r="G58" s="13">
+        <v>128</v>
+      </c>
+      <c r="H58" s="13"/>
+      <c r="I58" s="13"/>
+    </row>
+    <row r="59" spans="1:9">
+      <c r="A59" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="B59" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C59" s="13">
+        <v>2</v>
+      </c>
+      <c r="D59" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E59" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="F59" s="13">
+        <v>275</v>
+      </c>
+      <c r="G59" s="13">
+        <v>550</v>
+      </c>
+      <c r="H59" s="13"/>
+      <c r="I59" s="13"/>
+    </row>
+    <row r="60" spans="1:9">
+      <c r="A60" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="B60" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="C60" s="13">
+        <v>15</v>
+      </c>
+      <c r="D60" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E60" s="13"/>
+      <c r="F60" s="13">
+        <v>52</v>
+      </c>
+      <c r="G60" s="13">
+        <v>780</v>
+      </c>
+      <c r="H60" s="13"/>
+      <c r="I60" s="13"/>
+    </row>
+    <row r="61" spans="1:9">
+      <c r="A61" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="B61" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C61" s="13">
+        <v>20</v>
+      </c>
+      <c r="D61" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E61" s="13"/>
+      <c r="F61" s="13">
+        <v>12</v>
+      </c>
+      <c r="G61" s="13">
+        <v>240</v>
+      </c>
+      <c r="H61" s="13"/>
+      <c r="I61" s="13"/>
+    </row>
+    <row r="62" spans="1:9">
+      <c r="A62" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="B62" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C62" s="13">
+        <v>20</v>
+      </c>
+      <c r="D62" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E62" s="13"/>
+      <c r="F62" s="13">
+        <v>7</v>
+      </c>
+      <c r="G62" s="13">
+        <v>140</v>
+      </c>
+      <c r="H62" s="13">
+        <v>20</v>
+      </c>
+      <c r="I62" s="13"/>
+    </row>
+    <row r="63" spans="1:9">
+      <c r="A63" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="B63" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C63" s="13">
+        <v>20</v>
+      </c>
+      <c r="D63" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E63" s="13"/>
+      <c r="F63" s="13">
+        <v>12</v>
+      </c>
+      <c r="G63" s="13">
+        <v>240</v>
+      </c>
+      <c r="H63" s="13">
+        <v>100</v>
+      </c>
+      <c r="I63" s="13"/>
+    </row>
+    <row r="64" spans="1:9">
+      <c r="A64" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="B64" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C64" s="13">
+        <v>3</v>
+      </c>
+      <c r="D64" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E64" s="13"/>
+      <c r="F64" s="13">
+        <v>64</v>
+      </c>
+      <c r="G64" s="13">
+        <v>192</v>
+      </c>
+      <c r="H64" s="13">
+        <v>42</v>
+      </c>
+      <c r="I64" s="13"/>
+    </row>
+    <row r="65" spans="1:9">
+      <c r="A65" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="B65" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C65" s="13">
+        <v>10</v>
+      </c>
+      <c r="D65" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E65" s="13"/>
+      <c r="F65" s="13">
+        <v>14.5</v>
+      </c>
+      <c r="G65" s="13">
+        <v>145</v>
+      </c>
+      <c r="H65" s="13"/>
+      <c r="I65" s="13"/>
+    </row>
+    <row r="66" spans="1:9">
+      <c r="A66" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="B66" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C66" s="13">
+        <v>2</v>
+      </c>
+      <c r="D66" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E66" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F66" s="13">
+        <v>600</v>
+      </c>
+      <c r="G66" s="13">
+        <v>1200</v>
+      </c>
+      <c r="H66" s="13">
+        <v>120</v>
+      </c>
+      <c r="I66" s="13"/>
+    </row>
+    <row r="67" spans="1:9">
+      <c r="A67" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="B67" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C67" s="13">
+        <v>1</v>
+      </c>
+      <c r="D67" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E67" s="13" t="s">
+        <v>314</v>
+      </c>
+      <c r="F67" s="13">
+        <v>2430</v>
+      </c>
+      <c r="G67" s="13">
+        <v>2430</v>
+      </c>
+      <c r="H67" s="13">
+        <v>90</v>
+      </c>
+      <c r="I67" s="13"/>
+    </row>
+    <row r="68" spans="1:9">
+      <c r="A68" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="B68" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C68" s="13">
+        <v>10</v>
+      </c>
+      <c r="D68" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E68" s="13"/>
+      <c r="F68" s="13">
+        <v>15</v>
+      </c>
+      <c r="G68" s="13">
+        <v>150</v>
+      </c>
+      <c r="H68" s="13"/>
+      <c r="I68" s="13"/>
+    </row>
+    <row r="69" spans="1:9">
+      <c r="A69" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="B69" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C69" s="13">
+        <v>50</v>
+      </c>
+      <c r="D69" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E69" s="13"/>
+      <c r="F69" s="13">
+        <v>16</v>
+      </c>
+      <c r="G69" s="13">
+        <v>800</v>
+      </c>
+      <c r="H69" s="13"/>
+      <c r="I69" s="13"/>
+    </row>
+    <row r="70" spans="1:9">
+      <c r="A70" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="B70" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="C70" s="13">
+        <v>10</v>
+      </c>
+      <c r="D70" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E70" s="13"/>
+      <c r="F70" s="13">
+        <v>76</v>
+      </c>
+      <c r="G70" s="13">
+        <v>760</v>
+      </c>
+      <c r="H70" s="13">
+        <v>380</v>
+      </c>
+      <c r="I70" s="13"/>
+    </row>
+    <row r="71" spans="1:9">
+      <c r="A71" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="B71" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C71" s="13">
+        <v>5</v>
+      </c>
+      <c r="D71" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E71" s="13"/>
+      <c r="F71" s="13">
+        <v>16</v>
+      </c>
+      <c r="G71" s="13">
+        <v>80</v>
+      </c>
+      <c r="H71" s="13">
+        <v>35</v>
+      </c>
+      <c r="I71" s="13"/>
+    </row>
+    <row r="72" spans="1:9">
+      <c r="A72" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="B72" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C72" s="13">
+        <v>5</v>
+      </c>
+      <c r="D72" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E72" s="13"/>
+      <c r="F72" s="13">
+        <v>23</v>
+      </c>
+      <c r="G72" s="13">
+        <v>115</v>
+      </c>
+      <c r="H72" s="13"/>
+      <c r="I72" s="13"/>
+    </row>
+    <row r="73" spans="1:9">
+      <c r="A73" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="B73" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="C73" s="13">
+        <v>5</v>
+      </c>
+      <c r="D73" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E73" s="13"/>
+      <c r="F73" s="13">
+        <v>15</v>
+      </c>
+      <c r="G73" s="13">
+        <v>115</v>
+      </c>
+      <c r="H73" s="13"/>
+      <c r="I73" s="13"/>
+    </row>
+    <row r="74" spans="1:9">
+      <c r="A74" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="B74" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C74" s="13">
+        <v>10</v>
+      </c>
+      <c r="D74" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E74" s="13"/>
+      <c r="F74" s="13">
+        <v>20</v>
+      </c>
+      <c r="G74" s="13">
+        <v>200</v>
+      </c>
+      <c r="H74" s="13">
+        <v>30</v>
+      </c>
+      <c r="I74" s="13"/>
+    </row>
+    <row r="75" spans="1:9">
+      <c r="A75" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="B75" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="C75" s="13">
+        <v>5</v>
+      </c>
+      <c r="D75" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E75" s="13"/>
+      <c r="F75" s="13">
+        <v>58</v>
+      </c>
+      <c r="G75" s="13">
+        <v>290</v>
+      </c>
+      <c r="H75" s="13">
+        <v>20</v>
+      </c>
+      <c r="I75" s="13"/>
+    </row>
+    <row r="76" spans="1:9">
+      <c r="A76" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="B76" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C76" s="13">
+        <v>5</v>
+      </c>
+      <c r="D76" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E76" s="13"/>
+      <c r="F76" s="13">
+        <v>7.5</v>
+      </c>
+      <c r="G76" s="13">
+        <v>37.5</v>
+      </c>
+      <c r="H76" s="13"/>
+      <c r="I76" s="13"/>
+    </row>
+    <row r="77" spans="1:9">
+      <c r="A77" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="B77" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C77" s="13">
+        <v>5</v>
+      </c>
+      <c r="D77" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E77" s="13"/>
+      <c r="F77" s="13">
+        <v>51</v>
+      </c>
+      <c r="G77" s="13">
+        <v>255</v>
+      </c>
+      <c r="H77" s="13">
+        <v>155</v>
+      </c>
+      <c r="I77" s="13"/>
+    </row>
+    <row r="78" spans="1:9">
+      <c r="A78" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="B78" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C78" s="13">
+        <v>5</v>
+      </c>
+      <c r="D78" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E78" s="13"/>
+      <c r="F78" s="13">
+        <v>16</v>
+      </c>
+      <c r="G78" s="13">
+        <v>80</v>
+      </c>
+      <c r="H78" s="13">
+        <v>10</v>
+      </c>
+      <c r="I78" s="13"/>
+    </row>
+    <row r="79" spans="1:9">
+      <c r="A79" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="B79" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C79" s="13">
+        <v>5</v>
+      </c>
+      <c r="D79" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E79" s="13"/>
+      <c r="F79" s="13">
+        <v>6</v>
+      </c>
+      <c r="G79" s="13">
+        <v>30</v>
+      </c>
+      <c r="H79" s="13">
+        <v>1</v>
+      </c>
+      <c r="I79" s="13"/>
+    </row>
+    <row r="80" spans="1:9">
+      <c r="A80" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="B80" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C80" s="13">
+        <v>5</v>
+      </c>
+      <c r="D80" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E80" s="13"/>
+      <c r="F80" s="13">
+        <v>10</v>
+      </c>
+      <c r="G80" s="13">
+        <v>50</v>
+      </c>
+      <c r="H80" s="13">
+        <v>10</v>
+      </c>
+      <c r="I80" s="13"/>
+    </row>
+    <row r="81" spans="1:9">
+      <c r="A81" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="B81" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="C81" s="13">
+        <v>5</v>
+      </c>
+      <c r="D81" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E81" s="13"/>
+      <c r="F81" s="13">
+        <v>35</v>
+      </c>
+      <c r="G81" s="13">
+        <v>175</v>
+      </c>
+      <c r="H81" s="13">
+        <v>15</v>
+      </c>
+      <c r="I81" s="13"/>
+    </row>
+    <row r="82" spans="1:9">
+      <c r="A82" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="B82" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C82" s="13">
+        <v>5</v>
+      </c>
+      <c r="D82" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E82" s="13"/>
+      <c r="F82" s="13">
+        <v>8</v>
+      </c>
+      <c r="G82" s="13">
+        <v>40</v>
+      </c>
+      <c r="H82" s="13">
+        <v>15</v>
+      </c>
+      <c r="I82" s="13"/>
+    </row>
+    <row r="83" spans="1:9">
+      <c r="A83" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="B83" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="C83" s="13">
+        <v>50</v>
+      </c>
+      <c r="D83" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E83" s="13"/>
+      <c r="F83" s="13">
+        <v>52</v>
+      </c>
+      <c r="G83" s="13">
+        <v>2600</v>
+      </c>
+      <c r="H83" s="13">
+        <v>350</v>
+      </c>
+      <c r="I83" s="13"/>
+    </row>
+    <row r="84" spans="1:9">
+      <c r="A84" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="B84" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C84" s="13">
+        <v>20</v>
+      </c>
+      <c r="D84" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E84" s="13"/>
+      <c r="F84" s="13">
+        <v>16</v>
+      </c>
+      <c r="G84" s="13">
+        <v>320</v>
+      </c>
+      <c r="H84" s="13">
+        <v>60</v>
+      </c>
+      <c r="I84" s="13"/>
+    </row>
+    <row r="85" spans="1:9">
+      <c r="A85" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="B85" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C85" s="13">
+        <v>50</v>
+      </c>
+      <c r="D85" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E85" s="13"/>
+      <c r="F85" s="13">
+        <v>11</v>
+      </c>
+      <c r="G85" s="13">
+        <v>550</v>
+      </c>
+      <c r="H85" s="13">
+        <v>50</v>
+      </c>
+      <c r="I85" s="13"/>
+    </row>
+    <row r="86" spans="1:9">
+      <c r="A86" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="B86" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C86" s="13">
+        <v>7</v>
+      </c>
+      <c r="D86" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E86" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="F86" s="13">
+        <v>650</v>
+      </c>
+      <c r="G86" s="13">
+        <v>4550</v>
+      </c>
+      <c r="H86" s="13">
+        <v>840</v>
+      </c>
+      <c r="I86" s="13"/>
+    </row>
+    <row r="87" spans="1:9">
+      <c r="A87" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="B87" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C87" s="13">
+        <v>4</v>
+      </c>
+      <c r="D87" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E87" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="F87" s="13">
+        <v>570</v>
+      </c>
+      <c r="G87" s="13">
+        <v>2280</v>
+      </c>
+      <c r="H87" s="13">
+        <v>220</v>
+      </c>
+      <c r="I87" s="13"/>
+    </row>
+    <row r="88" spans="1:9">
+      <c r="A88" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="B88" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C88" s="13">
+        <v>1</v>
+      </c>
+      <c r="D88" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E88" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F88" s="13">
+        <v>630</v>
+      </c>
+      <c r="G88" s="13">
+        <v>630</v>
+      </c>
+      <c r="H88" s="13">
+        <v>90</v>
+      </c>
+      <c r="I88" s="13"/>
+    </row>
+    <row r="89" spans="1:9">
+      <c r="A89" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="B89" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="C89" s="13">
+        <v>1</v>
+      </c>
+      <c r="D89" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E89" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="F89" s="13">
+        <v>1900</v>
+      </c>
+      <c r="G89" s="13">
+        <v>1900</v>
+      </c>
+      <c r="H89" s="13">
+        <v>150</v>
+      </c>
+      <c r="I89" s="13"/>
+    </row>
+    <row r="90" spans="1:9">
+      <c r="A90" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="B90" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C90" s="13">
+        <v>10</v>
+      </c>
+      <c r="D90" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E90" s="13"/>
+      <c r="F90" s="13">
+        <v>22</v>
+      </c>
+      <c r="G90" s="13">
+        <v>220</v>
+      </c>
+      <c r="H90" s="13">
+        <v>15</v>
+      </c>
+      <c r="I90" s="13"/>
+    </row>
+    <row r="91" spans="1:9">
+      <c r="A91" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="B91" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C91" s="13">
+        <v>1</v>
+      </c>
+      <c r="D91" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E91" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="F91" s="13">
+        <v>560</v>
+      </c>
+      <c r="G91" s="13">
+        <v>560</v>
+      </c>
+      <c r="H91" s="13">
+        <v>160</v>
+      </c>
+      <c r="I91" s="13"/>
+    </row>
+    <row r="92" spans="1:9">
+      <c r="A92" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="B92" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C92" s="13">
+        <v>1</v>
+      </c>
+      <c r="D92" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E92" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="F92" s="13">
+        <v>580</v>
+      </c>
+      <c r="G92" s="13">
+        <v>580</v>
+      </c>
+      <c r="H92" s="13">
+        <v>65</v>
+      </c>
+      <c r="I92" s="13"/>
+    </row>
+    <row r="93" spans="1:9">
+      <c r="A93" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="B93" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C93" s="13">
+        <v>23</v>
+      </c>
+      <c r="D93" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E93" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="F93" s="13">
+        <v>560</v>
+      </c>
+      <c r="G93" s="13">
+        <v>12880</v>
+      </c>
+      <c r="H93" s="13">
+        <v>1720</v>
+      </c>
+      <c r="I93" s="13"/>
+    </row>
+    <row r="94" spans="1:9">
+      <c r="A94" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="B94" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C94" s="13">
+        <v>11</v>
+      </c>
+      <c r="D94" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E94" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="F94" s="13">
+        <v>570</v>
+      </c>
+      <c r="G94" s="13">
+        <v>6270</v>
+      </c>
+      <c r="H94" s="13">
+        <v>480</v>
+      </c>
+      <c r="I94" s="13"/>
+    </row>
+    <row r="95" spans="1:9">
+      <c r="A95" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="B95" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C95" s="13"/>
+      <c r="D95" s="13"/>
+      <c r="E95" s="13"/>
+      <c r="F95" s="13"/>
+      <c r="G95" s="13">
+        <v>365</v>
+      </c>
+      <c r="H95" s="13">
+        <v>90</v>
+      </c>
+      <c r="I95" s="13"/>
+    </row>
+    <row r="96" spans="1:9">
+      <c r="A96" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="B96" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C96" s="13">
+        <v>10</v>
+      </c>
+      <c r="D96" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E96" s="13"/>
+      <c r="F96" s="13">
+        <v>15</v>
+      </c>
+      <c r="G96" s="13">
+        <v>150</v>
+      </c>
+      <c r="H96" s="13">
+        <v>20</v>
+      </c>
+      <c r="I96" s="13"/>
+    </row>
+    <row r="97" spans="1:9">
+      <c r="A97" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="B97" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C97" s="13">
+        <v>1</v>
+      </c>
+      <c r="D97" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E97" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="F97" s="13">
+        <v>560</v>
+      </c>
+      <c r="G97" s="13">
+        <v>560</v>
+      </c>
+      <c r="H97" s="13">
+        <v>240</v>
+      </c>
+      <c r="I97" s="13"/>
+    </row>
+    <row r="98" spans="1:9">
+      <c r="A98" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="B98" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C98" s="13">
+        <v>1</v>
+      </c>
+      <c r="D98" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E98" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="F98" s="13">
+        <v>570</v>
+      </c>
+      <c r="G98" s="13">
+        <v>570</v>
+      </c>
+      <c r="H98" s="13">
+        <v>55</v>
+      </c>
+      <c r="I98" s="13"/>
+    </row>
+    <row r="99" spans="1:9">
+      <c r="A99" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="B99" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C99" s="13">
+        <v>10</v>
+      </c>
+      <c r="D99" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E99" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="F99" s="13">
+        <v>675</v>
+      </c>
+      <c r="G99" s="13">
+        <v>6750</v>
+      </c>
+      <c r="H99" s="13">
+        <v>1400</v>
+      </c>
+      <c r="I99" s="13"/>
+    </row>
+    <row r="100" spans="1:9">
+      <c r="A100" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="B100" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C100" s="13">
+        <v>2</v>
+      </c>
+      <c r="D100" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E100" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="F100" s="13">
+        <v>560</v>
+      </c>
+      <c r="G100" s="13">
+        <v>1120</v>
+      </c>
+      <c r="H100" s="13">
+        <v>480</v>
+      </c>
+      <c r="I100" s="13"/>
+    </row>
+    <row r="101" spans="1:9">
+      <c r="A101" s="10" t="s">
+        <v>319</v>
+      </c>
+      <c r="B101" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="C101" s="14">
+        <v>1</v>
+      </c>
+      <c r="D101" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E101" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="F101" s="14">
+        <v>560</v>
+      </c>
+      <c r="G101" s="14">
+        <v>560</v>
+      </c>
+      <c r="H101" s="14">
+        <v>160</v>
+      </c>
+      <c r="I101" s="14"/>
+    </row>
+    <row r="102" spans="1:9">
+      <c r="A102" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="B102" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C102" s="13"/>
+      <c r="D102" s="13"/>
+      <c r="E102" s="13"/>
+      <c r="F102" s="13"/>
+      <c r="G102" s="13">
+        <v>375</v>
+      </c>
+      <c r="H102" s="13">
+        <v>90</v>
+      </c>
+      <c r="I102" s="13"/>
+    </row>
+    <row r="103" spans="1:9">
+      <c r="A103" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="B103" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="C103" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="D103" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E103" s="13"/>
+      <c r="F103" s="13">
+        <v>52</v>
+      </c>
+      <c r="G103" s="13">
+        <v>26</v>
+      </c>
+      <c r="H103" s="13">
+        <v>3</v>
+      </c>
+      <c r="I103" s="13"/>
+    </row>
+    <row r="104" spans="1:9">
+      <c r="A104" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="B104" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C104" s="13">
+        <v>1</v>
+      </c>
+      <c r="D104" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E104" s="13"/>
+      <c r="F104" s="13">
+        <v>16</v>
+      </c>
+      <c r="G104" s="13">
+        <v>16</v>
+      </c>
+      <c r="H104" s="13">
+        <v>1</v>
+      </c>
+      <c r="I104" s="13"/>
+    </row>
+    <row r="105" spans="1:9">
+      <c r="A105" s="10" t="s">
+        <v>320</v>
+      </c>
+      <c r="B105" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C105" s="14">
+        <v>1</v>
+      </c>
+      <c r="D105" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E105" s="14"/>
+      <c r="F105" s="14">
+        <v>14</v>
+      </c>
+      <c r="G105" s="14">
+        <v>14</v>
+      </c>
+      <c r="H105" s="14">
+        <v>3</v>
+      </c>
+      <c r="I105" s="14"/>
+    </row>
+    <row r="106" spans="1:9">
+      <c r="A106" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="B106" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C106" s="13">
+        <v>1</v>
+      </c>
+      <c r="D106" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E106" s="13"/>
+      <c r="F106" s="13">
+        <v>9</v>
+      </c>
+      <c r="G106" s="13">
+        <v>9</v>
+      </c>
+      <c r="H106" s="13">
+        <v>2</v>
+      </c>
+      <c r="I106" s="13"/>
+    </row>
+    <row r="107" spans="1:9">
+      <c r="A107" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="B107" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C107" s="13">
+        <v>1</v>
+      </c>
+      <c r="D107" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E107" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="F107" s="13">
+        <v>275</v>
+      </c>
+      <c r="G107" s="13">
+        <v>275</v>
+      </c>
+      <c r="H107" s="13">
+        <v>25</v>
+      </c>
+      <c r="I107" s="13"/>
+    </row>
+    <row r="108" spans="1:9">
+      <c r="A108" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="B108" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C108" s="13">
+        <v>20</v>
+      </c>
+      <c r="D108" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E108" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="F108" s="13">
+        <v>560</v>
+      </c>
+      <c r="G108" s="13">
+        <v>11200</v>
+      </c>
+      <c r="H108" s="13">
+        <v>4740</v>
+      </c>
+      <c r="I108" s="13"/>
+    </row>
+    <row r="109" spans="1:9">
+      <c r="A109" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="B109" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C109" s="13">
+        <v>1</v>
+      </c>
+      <c r="D109" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E109" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="F109" s="13">
+        <v>880</v>
+      </c>
+      <c r="G109" s="13">
+        <v>880</v>
+      </c>
+      <c r="H109" s="13">
+        <v>80</v>
+      </c>
+      <c r="I109" s="13"/>
+    </row>
+    <row r="110" spans="1:9">
+      <c r="A110" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="B110" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="C110" s="13">
+        <v>4</v>
+      </c>
+      <c r="D110" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E110" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="F110" s="13">
+        <v>1900</v>
+      </c>
+      <c r="G110" s="13">
+        <v>7600</v>
+      </c>
+      <c r="H110" s="13">
+        <v>600</v>
+      </c>
+      <c r="I110" s="13"/>
+    </row>
+    <row r="111" spans="1:9">
+      <c r="A111" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="B111" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C111" s="13"/>
+      <c r="D111" s="13"/>
+      <c r="E111" s="13"/>
+      <c r="F111" s="13"/>
+      <c r="G111" s="13">
+        <v>484</v>
+      </c>
+      <c r="H111" s="13">
+        <v>120</v>
+      </c>
+      <c r="I111" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/2016年销售日记账.xlsx
+++ b/2016年销售日记账.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8655" activeTab="8"/>
+    <workbookView windowWidth="20385" windowHeight="8655" firstSheet="2" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="2016.1" sheetId="1" r:id="rId1"/>
@@ -17,13 +17,14 @@
     <sheet name="2016.8" sheetId="8" r:id="rId8"/>
     <sheet name="2016.9" sheetId="9" r:id="rId9"/>
     <sheet name="2016.10" sheetId="10" r:id="rId10"/>
+    <sheet name="2016.11" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361">
   <si>
     <t>2016年销售日记账</t>
   </si>
@@ -1073,6 +1074,39 @@
   </si>
   <si>
     <t>2016.10.28</t>
+  </si>
+  <si>
+    <t>2016.10.29</t>
+  </si>
+  <si>
+    <t>2016.10.30</t>
+  </si>
+  <si>
+    <t>2016.10.31</t>
+  </si>
+  <si>
+    <t>2016.11.1</t>
+  </si>
+  <si>
+    <t>2016.11.2</t>
+  </si>
+  <si>
+    <t>进口小茴香特</t>
+  </si>
+  <si>
+    <t>2016.11.3</t>
+  </si>
+  <si>
+    <t>2016.11.4</t>
+  </si>
+  <si>
+    <t>55kg</t>
+  </si>
+  <si>
+    <t>2016.11.5</t>
+  </si>
+  <si>
+    <t>2016.11.6</t>
   </si>
 </sst>
 </file>
@@ -1080,15 +1114,30 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1109,14 +1158,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -1124,15 +1165,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1146,6 +1189,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -1154,16 +1205,24 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1179,7 +1238,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1189,30 +1255,6 @@
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1230,11 +1272,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1247,7 +1288,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1259,7 +1348,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1271,163 +1468,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1541,22 +1582,31 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1587,8 +1637,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1609,28 +1661,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1639,88 +1680,88 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1729,62 +1770,62 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1818,16 +1859,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3321,7 +3368,7 @@
       <c r="H52" s="8"/>
     </row>
     <row r="53" spans="1:8">
-      <c r="A53" s="11" t="s">
+      <c r="A53" s="15" t="s">
         <v>57</v>
       </c>
       <c r="B53" s="5" t="s">
@@ -3343,7 +3390,7 @@
       <c r="H53" s="6"/>
     </row>
     <row r="54" spans="1:8">
-      <c r="A54" s="12" t="s">
+      <c r="A54" s="16" t="s">
         <v>57</v>
       </c>
       <c r="B54" s="5" t="s">
@@ -3365,7 +3412,7 @@
       <c r="H54" s="6"/>
     </row>
     <row r="55" spans="1:8">
-      <c r="A55" s="11" t="s">
+      <c r="A55" s="15" t="s">
         <v>57</v>
       </c>
       <c r="B55" s="5" t="s">
@@ -3387,7 +3434,7 @@
       <c r="H55" s="6"/>
     </row>
     <row r="56" spans="1:8">
-      <c r="A56" s="11" t="s">
+      <c r="A56" s="15" t="s">
         <v>57</v>
       </c>
       <c r="B56" s="5" t="s">
@@ -3411,7 +3458,7 @@
       <c r="H56" s="6"/>
     </row>
     <row r="57" spans="1:8">
-      <c r="A57" s="11" t="s">
+      <c r="A57" s="15" t="s">
         <v>57</v>
       </c>
       <c r="B57" s="5" t="s">
@@ -3433,7 +3480,7 @@
       <c r="H57" s="6"/>
     </row>
     <row r="58" spans="1:8">
-      <c r="A58" s="11" t="s">
+      <c r="A58" s="15" t="s">
         <v>57</v>
       </c>
       <c r="B58" s="6" t="s">
@@ -3457,7 +3504,7 @@
       <c r="H58" s="6"/>
     </row>
     <row r="59" spans="1:8">
-      <c r="A59" s="11" t="s">
+      <c r="A59" s="15" t="s">
         <v>58</v>
       </c>
       <c r="B59" s="5" t="s">
@@ -3479,7 +3526,7 @@
       <c r="H59" s="6"/>
     </row>
     <row r="60" spans="1:8">
-      <c r="A60" s="11" t="s">
+      <c r="A60" s="15" t="s">
         <v>58</v>
       </c>
       <c r="B60" s="5" t="s">
@@ -3503,7 +3550,7 @@
       <c r="H60" s="6"/>
     </row>
     <row r="61" spans="1:8">
-      <c r="A61" s="11" t="s">
+      <c r="A61" s="15" t="s">
         <v>60</v>
       </c>
       <c r="B61" s="6" t="s">
@@ -3527,7 +3574,7 @@
       <c r="H61" s="6"/>
     </row>
     <row r="62" spans="1:8">
-      <c r="A62" s="11" t="s">
+      <c r="A62" s="15" t="s">
         <v>60</v>
       </c>
       <c r="B62" s="5" t="s">
@@ -3551,7 +3598,7 @@
       <c r="H62" s="6"/>
     </row>
     <row r="63" spans="1:8">
-      <c r="A63" s="11" t="s">
+      <c r="A63" s="15" t="s">
         <v>60</v>
       </c>
       <c r="B63" s="5" t="s">
@@ -3573,7 +3620,7 @@
       <c r="H63" s="6"/>
     </row>
     <row r="64" spans="1:8">
-      <c r="A64" s="11" t="s">
+      <c r="A64" s="15" t="s">
         <v>61</v>
       </c>
       <c r="B64" s="5" t="s">
@@ -3595,7 +3642,7 @@
       <c r="H64" s="6"/>
     </row>
     <row r="65" spans="1:8">
-      <c r="A65" s="11" t="s">
+      <c r="A65" s="15" t="s">
         <v>61</v>
       </c>
       <c r="B65" s="5" t="s">
@@ -3611,7 +3658,7 @@
       <c r="H65" s="6"/>
     </row>
     <row r="66" spans="1:8">
-      <c r="A66" s="11" t="s">
+      <c r="A66" s="15" t="s">
         <v>61</v>
       </c>
       <c r="B66" s="6" t="s">
@@ -3627,7 +3674,7 @@
       <c r="H66" s="6"/>
     </row>
     <row r="67" spans="1:8">
-      <c r="A67" s="11" t="s">
+      <c r="A67" s="15" t="s">
         <v>62</v>
       </c>
       <c r="B67" s="6" t="s">
@@ -3643,7 +3690,7 @@
       <c r="H67" s="6"/>
     </row>
     <row r="68" spans="1:8">
-      <c r="A68" s="11" t="s">
+      <c r="A68" s="15" t="s">
         <v>62</v>
       </c>
       <c r="B68" s="5" t="s">
@@ -3665,7 +3712,7 @@
       <c r="H68" s="6"/>
     </row>
     <row r="69" spans="1:8">
-      <c r="A69" s="11" t="s">
+      <c r="A69" s="15" t="s">
         <v>62</v>
       </c>
       <c r="B69" s="5" t="s">
@@ -3687,7 +3734,7 @@
       <c r="H69" s="6"/>
     </row>
     <row r="70" spans="1:8">
-      <c r="A70" s="11" t="s">
+      <c r="A70" s="15" t="s">
         <v>62</v>
       </c>
       <c r="B70" s="5" t="s">
@@ -3709,7 +3756,7 @@
       <c r="H70" s="6"/>
     </row>
     <row r="71" spans="1:8">
-      <c r="A71" s="11" t="s">
+      <c r="A71" s="15" t="s">
         <v>62</v>
       </c>
       <c r="B71" s="6" t="s">
@@ -3733,7 +3780,7 @@
       <c r="H71" s="6"/>
     </row>
     <row r="72" spans="1:8">
-      <c r="A72" s="11" t="s">
+      <c r="A72" s="15" t="s">
         <v>62</v>
       </c>
       <c r="B72" s="5" t="s">
@@ -3757,7 +3804,7 @@
       <c r="H72" s="6"/>
     </row>
     <row r="73" spans="1:8">
-      <c r="A73" s="11" t="s">
+      <c r="A73" s="15" t="s">
         <v>62</v>
       </c>
       <c r="B73" s="5" t="s">
@@ -3781,7 +3828,7 @@
       </c>
     </row>
     <row r="74" spans="1:8">
-      <c r="A74" s="11" t="s">
+      <c r="A74" s="15" t="s">
         <v>62</v>
       </c>
       <c r="B74" s="5" t="s">
@@ -3803,7 +3850,7 @@
       <c r="H74" s="6"/>
     </row>
     <row r="75" spans="1:8">
-      <c r="A75" s="11" t="s">
+      <c r="A75" s="15" t="s">
         <v>62</v>
       </c>
       <c r="B75" s="5" t="s">
@@ -3825,7 +3872,7 @@
       <c r="H75" s="6"/>
     </row>
     <row r="76" spans="1:8">
-      <c r="A76" s="11" t="s">
+      <c r="A76" s="15" t="s">
         <v>62</v>
       </c>
       <c r="B76" s="5" t="s">
@@ -3847,7 +3894,7 @@
       <c r="H76" s="6"/>
     </row>
     <row r="77" spans="1:8">
-      <c r="A77" s="11" t="s">
+      <c r="A77" s="15" t="s">
         <v>62</v>
       </c>
       <c r="B77" s="5" t="s">
@@ -3873,7 +3920,7 @@
       </c>
     </row>
     <row r="78" spans="1:8">
-      <c r="A78" s="11" t="s">
+      <c r="A78" s="15" t="s">
         <v>62</v>
       </c>
       <c r="B78" s="5" t="s">
@@ -3899,7 +3946,7 @@
       </c>
     </row>
     <row r="79" spans="1:8">
-      <c r="A79" s="11" t="s">
+      <c r="A79" s="15" t="s">
         <v>64</v>
       </c>
       <c r="B79" s="5" t="s">
@@ -3925,7 +3972,7 @@
       </c>
     </row>
     <row r="80" spans="1:8">
-      <c r="A80" s="11" t="s">
+      <c r="A80" s="15" t="s">
         <v>64</v>
       </c>
       <c r="B80" s="5" t="s">
@@ -3943,7 +3990,7 @@
       </c>
     </row>
     <row r="81" spans="1:8">
-      <c r="A81" s="11" t="s">
+      <c r="A81" s="15" t="s">
         <v>64</v>
       </c>
       <c r="B81" s="6" t="s">
@@ -3967,7 +4014,7 @@
       <c r="H81" s="6"/>
     </row>
     <row r="82" spans="1:8">
-      <c r="A82" s="11" t="s">
+      <c r="A82" s="15" t="s">
         <v>64</v>
       </c>
       <c r="B82" s="5" t="s">
@@ -3989,7 +4036,7 @@
       <c r="H82" s="6"/>
     </row>
     <row r="83" spans="1:8">
-      <c r="A83" s="11" t="s">
+      <c r="A83" s="15" t="s">
         <v>64</v>
       </c>
       <c r="B83" s="5" t="s">
@@ -4011,7 +4058,7 @@
       <c r="H83" s="6"/>
     </row>
     <row r="84" spans="1:8">
-      <c r="A84" s="11" t="s">
+      <c r="A84" s="15" t="s">
         <v>64</v>
       </c>
       <c r="B84" s="5" t="s">
@@ -4033,7 +4080,7 @@
       <c r="H84" s="6"/>
     </row>
     <row r="85" spans="1:8">
-      <c r="A85" s="11" t="s">
+      <c r="A85" s="15" t="s">
         <v>64</v>
       </c>
       <c r="B85" s="5" t="s">
@@ -4055,7 +4102,7 @@
       <c r="H85" s="6"/>
     </row>
     <row r="86" spans="1:8">
-      <c r="A86" s="11" t="s">
+      <c r="A86" s="15" t="s">
         <v>66</v>
       </c>
       <c r="B86" s="6" t="s">
@@ -4077,7 +4124,7 @@
       <c r="H86" s="6"/>
     </row>
     <row r="87" spans="1:8">
-      <c r="A87" s="11" t="s">
+      <c r="A87" s="15" t="s">
         <v>66</v>
       </c>
       <c r="B87" s="5" t="s">
@@ -4099,7 +4146,7 @@
       <c r="H87" s="6"/>
     </row>
     <row r="88" spans="1:8">
-      <c r="A88" s="11" t="s">
+      <c r="A88" s="15" t="s">
         <v>66</v>
       </c>
       <c r="B88" s="5" t="s">
@@ -4121,7 +4168,7 @@
       <c r="H88" s="6"/>
     </row>
     <row r="89" spans="1:8">
-      <c r="A89" s="11" t="s">
+      <c r="A89" s="15" t="s">
         <v>67</v>
       </c>
       <c r="B89" s="5" t="s">
@@ -4145,7 +4192,7 @@
       </c>
     </row>
     <row r="90" spans="1:8">
-      <c r="A90" s="11" t="s">
+      <c r="A90" s="15" t="s">
         <v>67</v>
       </c>
       <c r="B90" s="5" t="s">
@@ -4167,7 +4214,7 @@
       <c r="H90" s="6"/>
     </row>
     <row r="91" spans="1:8">
-      <c r="A91" s="11" t="s">
+      <c r="A91" s="15" t="s">
         <v>67</v>
       </c>
       <c r="B91" s="5" t="s">
@@ -4189,7 +4236,7 @@
       <c r="H91" s="6"/>
     </row>
     <row r="92" spans="1:8">
-      <c r="A92" s="11" t="s">
+      <c r="A92" s="15" t="s">
         <v>67</v>
       </c>
       <c r="B92" s="5" t="s">
@@ -4211,7 +4258,7 @@
       <c r="H92" s="6"/>
     </row>
     <row r="93" spans="1:8">
-      <c r="A93" s="11" t="s">
+      <c r="A93" s="15" t="s">
         <v>67</v>
       </c>
       <c r="B93" s="5" t="s">
@@ -4233,7 +4280,7 @@
       <c r="H93" s="6"/>
     </row>
     <row r="94" spans="1:8">
-      <c r="A94" s="11" t="s">
+      <c r="A94" s="15" t="s">
         <v>67</v>
       </c>
       <c r="B94" s="5" t="s">
@@ -4255,7 +4302,7 @@
       <c r="H94" s="6"/>
     </row>
     <row r="95" spans="1:8">
-      <c r="A95" s="11" t="s">
+      <c r="A95" s="15" t="s">
         <v>67</v>
       </c>
       <c r="B95" s="5" t="s">
@@ -4277,7 +4324,7 @@
       <c r="H95" s="6"/>
     </row>
     <row r="96" spans="1:8">
-      <c r="A96" s="11" t="s">
+      <c r="A96" s="15" t="s">
         <v>70</v>
       </c>
       <c r="B96" s="6" t="s">
@@ -4301,7 +4348,7 @@
       <c r="H96" s="6"/>
     </row>
     <row r="97" spans="1:8">
-      <c r="A97" s="11" t="s">
+      <c r="A97" s="15" t="s">
         <v>70</v>
       </c>
       <c r="B97" s="5" t="s">
@@ -4325,7 +4372,7 @@
       <c r="H97" s="6"/>
     </row>
     <row r="98" spans="1:8">
-      <c r="A98" s="11" t="s">
+      <c r="A98" s="15" t="s">
         <v>70</v>
       </c>
       <c r="B98" s="5" t="s">
@@ -4347,7 +4394,7 @@
       <c r="H98" s="6"/>
     </row>
     <row r="99" spans="1:8">
-      <c r="A99" s="11" t="s">
+      <c r="A99" s="15" t="s">
         <v>70</v>
       </c>
       <c r="B99" s="5" t="s">
@@ -4371,7 +4418,7 @@
       </c>
     </row>
     <row r="100" spans="1:8">
-      <c r="A100" s="11" t="s">
+      <c r="A100" s="15" t="s">
         <v>70</v>
       </c>
       <c r="B100" s="5" t="s">
@@ -4395,7 +4442,7 @@
       </c>
     </row>
     <row r="101" spans="1:8">
-      <c r="A101" s="11" t="s">
+      <c r="A101" s="15" t="s">
         <v>70</v>
       </c>
       <c r="B101" s="5" t="s">
@@ -4419,7 +4466,7 @@
       </c>
     </row>
     <row r="102" spans="1:8">
-      <c r="A102" s="11" t="s">
+      <c r="A102" s="15" t="s">
         <v>70</v>
       </c>
       <c r="B102" s="5" t="s">
@@ -4441,7 +4488,7 @@
       <c r="H102" s="6"/>
     </row>
     <row r="103" spans="1:8">
-      <c r="A103" s="11" t="s">
+      <c r="A103" s="15" t="s">
         <v>70</v>
       </c>
       <c r="B103" s="5" t="s">
@@ -4465,7 +4512,7 @@
       </c>
     </row>
     <row r="104" spans="1:8">
-      <c r="A104" s="11" t="s">
+      <c r="A104" s="15" t="s">
         <v>70</v>
       </c>
       <c r="B104" s="5" t="s">
@@ -4489,7 +4536,7 @@
       </c>
     </row>
     <row r="105" spans="1:8">
-      <c r="A105" s="11" t="s">
+      <c r="A105" s="15" t="s">
         <v>70</v>
       </c>
       <c r="B105" s="5" t="s">
@@ -4515,7 +4562,7 @@
       </c>
     </row>
     <row r="106" spans="1:8">
-      <c r="A106" s="11" t="s">
+      <c r="A106" s="15" t="s">
         <v>70</v>
       </c>
       <c r="B106" s="5" t="s">
@@ -4539,7 +4586,7 @@
       </c>
     </row>
     <row r="107" spans="1:8">
-      <c r="A107" s="11" t="s">
+      <c r="A107" s="15" t="s">
         <v>70</v>
       </c>
       <c r="B107" s="5" t="s">
@@ -4563,7 +4610,7 @@
       </c>
     </row>
     <row r="108" spans="1:8">
-      <c r="A108" s="11" t="s">
+      <c r="A108" s="15" t="s">
         <v>70</v>
       </c>
       <c r="B108" s="5" t="s">
@@ -4587,7 +4634,7 @@
       </c>
     </row>
     <row r="109" spans="1:8">
-      <c r="A109" s="11" t="s">
+      <c r="A109" s="15" t="s">
         <v>70</v>
       </c>
       <c r="B109" s="5" t="s">
@@ -4613,7 +4660,7 @@
       </c>
     </row>
     <row r="110" spans="1:8">
-      <c r="A110" s="11" t="s">
+      <c r="A110" s="15" t="s">
         <v>70</v>
       </c>
       <c r="B110" s="5" t="s">
@@ -4637,7 +4684,7 @@
       </c>
     </row>
     <row r="111" spans="1:8">
-      <c r="A111" s="11" t="s">
+      <c r="A111" s="15" t="s">
         <v>70</v>
       </c>
       <c r="B111" s="5" t="s">
@@ -4661,7 +4708,7 @@
       </c>
     </row>
     <row r="112" spans="1:8">
-      <c r="A112" s="11" t="s">
+      <c r="A112" s="15" t="s">
         <v>70</v>
       </c>
       <c r="B112" s="5" t="s">
@@ -4685,7 +4732,7 @@
       </c>
     </row>
     <row r="113" spans="1:8">
-      <c r="A113" s="11" t="s">
+      <c r="A113" s="15" t="s">
         <v>70</v>
       </c>
       <c r="B113" s="5" t="s">
@@ -4709,7 +4756,7 @@
       </c>
     </row>
     <row r="114" spans="1:8">
-      <c r="A114" s="11" t="s">
+      <c r="A114" s="15" t="s">
         <v>70</v>
       </c>
       <c r="B114" s="5" t="s">
@@ -4731,7 +4778,7 @@
       <c r="H114" s="6"/>
     </row>
     <row r="115" spans="1:8">
-      <c r="A115" s="11" t="s">
+      <c r="A115" s="15" t="s">
         <v>70</v>
       </c>
       <c r="B115" s="5" t="s">
@@ -4757,7 +4804,7 @@
       </c>
     </row>
     <row r="116" spans="1:8">
-      <c r="A116" s="11" t="s">
+      <c r="A116" s="15" t="s">
         <v>70</v>
       </c>
       <c r="B116" s="5" t="s">
@@ -4783,7 +4830,7 @@
       </c>
     </row>
     <row r="117" spans="1:8">
-      <c r="A117" s="11" t="s">
+      <c r="A117" s="15" t="s">
         <v>80</v>
       </c>
       <c r="B117" s="5" t="s">
@@ -4807,7 +4854,7 @@
       </c>
     </row>
     <row r="118" spans="1:8">
-      <c r="A118" s="11" t="s">
+      <c r="A118" s="15" t="s">
         <v>82</v>
       </c>
       <c r="B118" s="6" t="s">
@@ -4831,7 +4878,7 @@
       </c>
     </row>
     <row r="119" spans="1:8">
-      <c r="A119" s="11" t="s">
+      <c r="A119" s="15" t="s">
         <v>82</v>
       </c>
       <c r="B119" s="5" t="s">
@@ -4855,7 +4902,7 @@
       </c>
     </row>
     <row r="120" spans="1:8">
-      <c r="A120" s="11" t="s">
+      <c r="A120" s="15" t="s">
         <v>82</v>
       </c>
       <c r="B120" s="5" t="s">
@@ -4877,7 +4924,7 @@
       <c r="H120" s="6"/>
     </row>
     <row r="121" spans="1:8">
-      <c r="A121" s="11" t="s">
+      <c r="A121" s="15" t="s">
         <v>82</v>
       </c>
       <c r="B121" s="5" t="s">
@@ -4899,7 +4946,7 @@
       <c r="H121" s="6"/>
     </row>
     <row r="122" spans="1:8">
-      <c r="A122" s="11" t="s">
+      <c r="A122" s="15" t="s">
         <v>82</v>
       </c>
       <c r="B122" s="5" t="s">
@@ -4921,7 +4968,7 @@
       <c r="H122" s="6"/>
     </row>
     <row r="123" spans="1:8">
-      <c r="A123" s="11" t="s">
+      <c r="A123" s="15" t="s">
         <v>82</v>
       </c>
       <c r="B123" s="6" t="s">
@@ -4943,7 +4990,7 @@
       <c r="H123" s="6"/>
     </row>
     <row r="124" spans="1:8">
-      <c r="A124" s="11" t="s">
+      <c r="A124" s="15" t="s">
         <v>85</v>
       </c>
       <c r="B124" s="5" t="s">
@@ -4967,7 +5014,7 @@
       <c r="H124" s="6"/>
     </row>
     <row r="125" spans="1:8">
-      <c r="A125" s="11" t="s">
+      <c r="A125" s="15" t="s">
         <v>85</v>
       </c>
       <c r="B125" s="6" t="s">
@@ -4991,7 +5038,7 @@
       <c r="H125" s="6"/>
     </row>
     <row r="126" spans="1:8">
-      <c r="A126" s="11" t="s">
+      <c r="A126" s="15" t="s">
         <v>85</v>
       </c>
       <c r="B126" s="5" t="s">
@@ -5015,7 +5062,7 @@
       <c r="H126" s="6"/>
     </row>
     <row r="127" spans="1:8">
-      <c r="A127" s="11" t="s">
+      <c r="A127" s="15" t="s">
         <v>85</v>
       </c>
       <c r="B127" s="5" t="s">
@@ -5039,7 +5086,7 @@
       <c r="H127" s="6"/>
     </row>
     <row r="128" spans="1:8">
-      <c r="A128" s="11" t="s">
+      <c r="A128" s="15" t="s">
         <v>85</v>
       </c>
       <c r="B128" s="5" t="s">
@@ -5063,7 +5110,7 @@
       <c r="H128" s="6"/>
     </row>
     <row r="129" spans="1:8">
-      <c r="A129" s="11" t="s">
+      <c r="A129" s="15" t="s">
         <v>86</v>
       </c>
       <c r="B129" s="6" t="s">
@@ -5079,7 +5126,7 @@
       <c r="H129" s="6"/>
     </row>
     <row r="130" spans="1:8">
-      <c r="A130" s="11" t="s">
+      <c r="A130" s="15" t="s">
         <v>86</v>
       </c>
       <c r="B130" s="5" t="s">
@@ -5103,7 +5150,7 @@
       <c r="H130" s="6"/>
     </row>
     <row r="131" spans="1:8">
-      <c r="A131" s="11" t="s">
+      <c r="A131" s="15" t="s">
         <v>86</v>
       </c>
       <c r="B131" s="5" t="s">
@@ -5129,7 +5176,7 @@
       </c>
     </row>
     <row r="132" spans="1:8">
-      <c r="A132" s="11" t="s">
+      <c r="A132" s="15" t="s">
         <v>86</v>
       </c>
       <c r="B132" s="5" t="s">
@@ -5151,7 +5198,7 @@
       <c r="H132" s="6"/>
     </row>
     <row r="133" spans="1:8">
-      <c r="A133" s="11" t="s">
+      <c r="A133" s="15" t="s">
         <v>86</v>
       </c>
       <c r="B133" s="5" t="s">
@@ -5175,7 +5222,7 @@
       </c>
     </row>
     <row r="134" spans="1:8">
-      <c r="A134" s="11" t="s">
+      <c r="A134" s="15" t="s">
         <v>86</v>
       </c>
       <c r="B134" s="5" t="s">
@@ -5197,7 +5244,7 @@
       <c r="H134" s="6"/>
     </row>
     <row r="135" spans="1:8">
-      <c r="A135" s="11" t="s">
+      <c r="A135" s="15" t="s">
         <v>86</v>
       </c>
       <c r="B135" s="5" t="s">
@@ -5219,7 +5266,7 @@
       <c r="H135" s="6"/>
     </row>
     <row r="136" spans="1:8">
-      <c r="A136" s="11" t="s">
+      <c r="A136" s="15" t="s">
         <v>86</v>
       </c>
       <c r="B136" s="5" t="s">
@@ -5241,7 +5288,7 @@
       <c r="H136" s="6"/>
     </row>
     <row r="137" spans="1:8">
-      <c r="A137" s="11" t="s">
+      <c r="A137" s="15" t="s">
         <v>86</v>
       </c>
       <c r="B137" s="5" t="s">
@@ -5265,7 +5312,7 @@
       </c>
     </row>
     <row r="138" spans="1:8">
-      <c r="A138" s="11" t="s">
+      <c r="A138" s="15" t="s">
         <v>86</v>
       </c>
       <c r="B138" s="5" t="s">
@@ -5287,7 +5334,7 @@
       <c r="H138" s="6"/>
     </row>
     <row r="139" spans="1:8">
-      <c r="A139" s="11" t="s">
+      <c r="A139" s="15" t="s">
         <v>89</v>
       </c>
       <c r="B139" s="5" t="s">
@@ -5309,7 +5356,7 @@
       <c r="H139" s="6"/>
     </row>
     <row r="140" spans="1:8">
-      <c r="A140" s="11" t="s">
+      <c r="A140" s="15" t="s">
         <v>89</v>
       </c>
       <c r="B140" s="6" t="s">
@@ -5333,7 +5380,7 @@
       <c r="H140" s="6"/>
     </row>
     <row r="141" spans="1:8">
-      <c r="A141" s="11" t="s">
+      <c r="A141" s="15" t="s">
         <v>89</v>
       </c>
       <c r="B141" s="5" t="s">
@@ -5357,7 +5404,7 @@
       </c>
     </row>
     <row r="142" spans="1:8">
-      <c r="A142" s="11" t="s">
+      <c r="A142" s="15" t="s">
         <v>89</v>
       </c>
       <c r="B142" s="5" t="s">
@@ -5379,7 +5426,7 @@
       <c r="H142" s="6"/>
     </row>
     <row r="143" spans="1:8">
-      <c r="A143" s="11" t="s">
+      <c r="A143" s="15" t="s">
         <v>89</v>
       </c>
       <c r="B143" s="5" t="s">
@@ -5401,7 +5448,7 @@
       <c r="H143" s="6"/>
     </row>
     <row r="144" spans="1:8">
-      <c r="A144" s="11" t="s">
+      <c r="A144" s="15" t="s">
         <v>89</v>
       </c>
       <c r="B144" s="5" t="s">
@@ -5423,7 +5470,7 @@
       <c r="H144" s="6"/>
     </row>
     <row r="145" spans="1:8">
-      <c r="A145" s="11" t="s">
+      <c r="A145" s="15" t="s">
         <v>89</v>
       </c>
       <c r="B145" s="5" t="s">
@@ -5445,7 +5492,7 @@
       <c r="H145" s="6"/>
     </row>
     <row r="146" spans="1:8">
-      <c r="A146" s="11" t="s">
+      <c r="A146" s="15" t="s">
         <v>89</v>
       </c>
       <c r="B146" s="5" t="s">
@@ -5467,7 +5514,7 @@
       <c r="H146" s="6"/>
     </row>
     <row r="147" spans="1:8">
-      <c r="A147" s="11" t="s">
+      <c r="A147" s="15" t="s">
         <v>89</v>
       </c>
       <c r="B147" s="5" t="s">
@@ -5489,7 +5536,7 @@
       <c r="H147" s="6"/>
     </row>
     <row r="148" spans="1:8">
-      <c r="A148" s="11" t="s">
+      <c r="A148" s="15" t="s">
         <v>89</v>
       </c>
       <c r="B148" s="5" t="s">
@@ -5511,7 +5558,7 @@
       <c r="H148" s="6"/>
     </row>
     <row r="149" spans="1:8">
-      <c r="A149" s="11" t="s">
+      <c r="A149" s="15" t="s">
         <v>89</v>
       </c>
       <c r="B149" s="5" t="s">
@@ -5533,7 +5580,7 @@
       <c r="H149" s="6"/>
     </row>
     <row r="150" spans="1:8">
-      <c r="A150" s="11" t="s">
+      <c r="A150" s="15" t="s">
         <v>89</v>
       </c>
       <c r="B150" s="5" t="s">
@@ -5557,7 +5604,7 @@
       </c>
     </row>
     <row r="151" spans="1:8">
-      <c r="A151" s="11" t="s">
+      <c r="A151" s="15" t="s">
         <v>90</v>
       </c>
       <c r="B151" s="6" t="s">
@@ -5575,7 +5622,7 @@
       </c>
     </row>
     <row r="152" spans="1:8">
-      <c r="A152" s="11" t="s">
+      <c r="A152" s="15" t="s">
         <v>90</v>
       </c>
       <c r="B152" s="5" t="s">
@@ -5597,7 +5644,7 @@
       <c r="H152" s="6"/>
     </row>
     <row r="153" spans="1:8">
-      <c r="A153" s="11" t="s">
+      <c r="A153" s="15" t="s">
         <v>90</v>
       </c>
       <c r="B153" s="6" t="s">
@@ -5621,7 +5668,7 @@
       <c r="H153" s="6"/>
     </row>
     <row r="154" spans="1:8">
-      <c r="A154" s="11" t="s">
+      <c r="A154" s="15" t="s">
         <v>90</v>
       </c>
       <c r="B154" s="5" t="s">
@@ -5643,7 +5690,7 @@
       <c r="H154" s="6"/>
     </row>
     <row r="155" spans="1:8">
-      <c r="A155" s="11" t="s">
+      <c r="A155" s="15" t="s">
         <v>90</v>
       </c>
       <c r="B155" s="8" t="s">
@@ -5665,7 +5712,7 @@
       <c r="H155" s="8"/>
     </row>
     <row r="156" spans="1:8">
-      <c r="A156" s="11" t="s">
+      <c r="A156" s="15" t="s">
         <v>90</v>
       </c>
       <c r="B156" s="5" t="s">
@@ -5687,7 +5734,7 @@
       <c r="H156" s="6"/>
     </row>
     <row r="157" spans="1:8">
-      <c r="A157" s="11" t="s">
+      <c r="A157" s="15" t="s">
         <v>90</v>
       </c>
       <c r="B157" s="5" t="s">
@@ -5709,7 +5756,7 @@
       <c r="H157" s="6"/>
     </row>
     <row r="158" spans="1:8">
-      <c r="A158" s="11" t="s">
+      <c r="A158" s="15" t="s">
         <v>90</v>
       </c>
       <c r="B158" s="5" t="s">
@@ -5731,7 +5778,7 @@
       <c r="H158" s="6"/>
     </row>
     <row r="159" spans="1:8">
-      <c r="A159" s="12" t="s">
+      <c r="A159" s="16" t="s">
         <v>90</v>
       </c>
       <c r="B159" s="10" t="s">
@@ -6720,10 +6767,10 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:I100"/>
+  <dimension ref="A1:I117"/>
   <sheetViews>
-    <sheetView topLeftCell="A81" workbookViewId="0">
-      <selection activeCell="H103" sqref="H103"/>
+    <sheetView topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="B66" sqref="B66:H70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15"/>
@@ -6733,7 +6780,7 @@
     <col min="3" max="9" width="8.88888888888889" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" ht="19" customHeight="1" spans="1:1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -7839,7 +7886,7 @@
       <c r="I45" s="8"/>
     </row>
     <row r="46" spans="1:9">
-      <c r="A46" s="11" t="s">
+      <c r="A46" s="15" t="s">
         <v>334</v>
       </c>
       <c r="B46" s="6" t="s">
@@ -7864,7 +7911,7 @@
       <c r="I46" s="6"/>
     </row>
     <row r="47" spans="1:9">
-      <c r="A47" s="11" t="s">
+      <c r="A47" s="15" t="s">
         <v>336</v>
       </c>
       <c r="B47" s="6" t="s">
@@ -7889,7 +7936,7 @@
       <c r="I47" s="6"/>
     </row>
     <row r="48" spans="1:9">
-      <c r="A48" s="11" t="s">
+      <c r="A48" s="15" t="s">
         <v>336</v>
       </c>
       <c r="B48" s="6" t="s">
@@ -7914,7 +7961,7 @@
       <c r="I48" s="6"/>
     </row>
     <row r="49" spans="1:9">
-      <c r="A49" s="11" t="s">
+      <c r="A49" s="15" t="s">
         <v>336</v>
       </c>
       <c r="B49" s="6" t="s">
@@ -7939,7 +7986,7 @@
       <c r="I49" s="6"/>
     </row>
     <row r="50" spans="1:9">
-      <c r="A50" s="12" t="s">
+      <c r="A50" s="16" t="s">
         <v>336</v>
       </c>
       <c r="B50" s="8" t="s">
@@ -8401,7 +8448,7 @@
       <c r="I67" s="8"/>
     </row>
     <row r="68" spans="1:9">
-      <c r="A68" s="11" t="s">
+      <c r="A68" s="15" t="s">
         <v>341</v>
       </c>
       <c r="B68" s="6" t="s">
@@ -8426,7 +8473,7 @@
       <c r="I68" s="6"/>
     </row>
     <row r="69" spans="1:9">
-      <c r="A69" s="11" t="s">
+      <c r="A69" s="15" t="s">
         <v>341</v>
       </c>
       <c r="B69" s="6" t="s">
@@ -8451,7 +8498,7 @@
       <c r="I69" s="6"/>
     </row>
     <row r="70" spans="1:9">
-      <c r="A70" s="12" t="s">
+      <c r="A70" s="16" t="s">
         <v>341</v>
       </c>
       <c r="B70" s="8" t="s">
@@ -9110,20 +9157,28 @@
     </row>
     <row r="96" spans="1:9">
       <c r="A96" s="5" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C96" s="7"/>
-      <c r="D96" s="6"/>
-      <c r="E96" s="6"/>
-      <c r="F96" s="6"/>
+        <v>79</v>
+      </c>
+      <c r="C96" s="7">
+        <v>1</v>
+      </c>
+      <c r="D96" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E96" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F96" s="6">
+        <v>525</v>
+      </c>
       <c r="G96" s="6">
-        <v>180</v>
+        <v>525</v>
       </c>
       <c r="H96" s="6">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="I96" s="6"/>
     </row>
@@ -9132,23 +9187,17 @@
         <v>349</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="C97" s="7">
-        <v>5</v>
-      </c>
-      <c r="D97" s="6" t="s">
-        <v>22</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="C97" s="7"/>
+      <c r="D97" s="6"/>
       <c r="E97" s="6"/>
-      <c r="F97" s="6">
-        <v>92</v>
-      </c>
+      <c r="F97" s="6"/>
       <c r="G97" s="6">
-        <v>460</v>
+        <v>180</v>
       </c>
       <c r="H97" s="6">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="I97" s="6"/>
     </row>
@@ -9157,7 +9206,7 @@
         <v>349</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>21</v>
+        <v>143</v>
       </c>
       <c r="C98" s="7">
         <v>5</v>
@@ -9167,13 +9216,13 @@
       </c>
       <c r="E98" s="6"/>
       <c r="F98" s="6">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="G98" s="6">
-        <v>440</v>
+        <v>460</v>
       </c>
       <c r="H98" s="6">
-        <v>-5</v>
+        <v>10</v>
       </c>
       <c r="I98" s="6"/>
     </row>
@@ -9182,50 +9231,1278 @@
         <v>349</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="C99" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D99" s="6" t="s">
         <v>22</v>
       </c>
       <c r="E99" s="6"/>
       <c r="F99" s="6">
+        <v>88</v>
+      </c>
+      <c r="G99" s="6">
+        <v>440</v>
+      </c>
+      <c r="H99" s="6">
+        <v>-5</v>
+      </c>
+      <c r="I99" s="6"/>
+    </row>
+    <row r="100" spans="1:9">
+      <c r="A100" s="10" t="s">
+        <v>349</v>
+      </c>
+      <c r="B100" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C100" s="9">
+        <v>3</v>
+      </c>
+      <c r="D100" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E100" s="8"/>
+      <c r="F100" s="8">
         <v>58</v>
       </c>
-      <c r="G99" s="6">
+      <c r="G100" s="8">
         <v>174</v>
       </c>
-      <c r="H99" s="6">
+      <c r="H100" s="8">
         <v>24</v>
       </c>
-      <c r="I99" s="6"/>
-    </row>
-    <row r="100" spans="1:9">
-      <c r="A100" s="5" t="s">
+      <c r="I100" s="8"/>
+    </row>
+    <row r="101" spans="1:9">
+      <c r="A101" s="5" t="s">
         <v>349</v>
       </c>
-      <c r="B100" s="6" t="s">
+      <c r="B101" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="C100" s="7">
+      <c r="C101" s="6">
         <v>5</v>
       </c>
-      <c r="D100" s="6" t="s">
+      <c r="D101" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E100" s="6"/>
-      <c r="F100" s="6">
+      <c r="E101" s="6"/>
+      <c r="F101" s="6">
         <v>35</v>
       </c>
-      <c r="G100" s="6">
+      <c r="G101" s="6">
         <v>175</v>
       </c>
-      <c r="H100" s="6">
+      <c r="H101" s="6">
         <v>100</v>
       </c>
-      <c r="I100" s="6"/>
+      <c r="I101" s="6"/>
+    </row>
+    <row r="102" spans="1:9">
+      <c r="A102" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="B102" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C102" s="6">
+        <v>5</v>
+      </c>
+      <c r="D102" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E102" s="6"/>
+      <c r="F102" s="6">
+        <v>7.5</v>
+      </c>
+      <c r="G102" s="6">
+        <v>37.5</v>
+      </c>
+      <c r="H102" s="6">
+        <v>7</v>
+      </c>
+      <c r="I102" s="6"/>
+    </row>
+    <row r="103" spans="1:9">
+      <c r="A103" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="B103" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C103" s="6">
+        <v>2.8</v>
+      </c>
+      <c r="D103" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E103" s="6"/>
+      <c r="F103" s="6">
+        <v>14</v>
+      </c>
+      <c r="G103" s="6">
+        <v>40</v>
+      </c>
+      <c r="H103" s="6">
+        <v>6</v>
+      </c>
+      <c r="I103" s="6"/>
+    </row>
+    <row r="104" spans="1:9">
+      <c r="A104" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="B104" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C104" s="6">
+        <v>4</v>
+      </c>
+      <c r="D104" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E104" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F104" s="6">
+        <v>315</v>
+      </c>
+      <c r="G104" s="6">
+        <v>1260</v>
+      </c>
+      <c r="H104" s="6">
+        <v>120</v>
+      </c>
+      <c r="I104" s="6"/>
+    </row>
+    <row r="105" spans="1:9">
+      <c r="A105" s="5" t="s">
+        <v>351</v>
+      </c>
+      <c r="B105" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="C105" s="6">
+        <v>20</v>
+      </c>
+      <c r="D105" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E105" s="6"/>
+      <c r="F105" s="6">
+        <v>52</v>
+      </c>
+      <c r="G105" s="6">
+        <v>1040</v>
+      </c>
+      <c r="H105" s="6">
+        <v>140</v>
+      </c>
+      <c r="I105" s="6"/>
+    </row>
+    <row r="106" spans="1:9">
+      <c r="A106" s="5" t="s">
+        <v>351</v>
+      </c>
+      <c r="B106" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C106" s="6">
+        <v>8</v>
+      </c>
+      <c r="D106" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E106" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F106" s="6">
+        <v>275</v>
+      </c>
+      <c r="G106" s="6">
+        <v>2200</v>
+      </c>
+      <c r="H106" s="6">
+        <v>200</v>
+      </c>
+      <c r="I106" s="6"/>
+    </row>
+    <row r="107" spans="1:9">
+      <c r="A107" s="5" t="s">
+        <v>351</v>
+      </c>
+      <c r="B107" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C107" s="6">
+        <v>40</v>
+      </c>
+      <c r="D107" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E107" s="6"/>
+      <c r="F107" s="6">
+        <v>8.5</v>
+      </c>
+      <c r="G107" s="6">
+        <v>340</v>
+      </c>
+      <c r="H107" s="6">
+        <v>140</v>
+      </c>
+      <c r="I107" s="6"/>
+    </row>
+    <row r="108" spans="1:9">
+      <c r="A108" s="5" t="s">
+        <v>351</v>
+      </c>
+      <c r="B108" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="C108" s="6">
+        <v>15</v>
+      </c>
+      <c r="D108" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E108" s="6"/>
+      <c r="F108" s="6">
+        <v>52</v>
+      </c>
+      <c r="G108" s="6">
+        <v>780</v>
+      </c>
+      <c r="H108" s="6">
+        <v>105</v>
+      </c>
+      <c r="I108" s="6"/>
+    </row>
+    <row r="109" spans="1:9">
+      <c r="A109" s="5" t="s">
+        <v>351</v>
+      </c>
+      <c r="B109" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="C109" s="6">
+        <v>15</v>
+      </c>
+      <c r="D109" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E109" s="6"/>
+      <c r="F109" s="6">
+        <v>39</v>
+      </c>
+      <c r="G109" s="6">
+        <v>585</v>
+      </c>
+      <c r="H109" s="6">
+        <v>60</v>
+      </c>
+      <c r="I109" s="6"/>
+    </row>
+    <row r="110" spans="1:9">
+      <c r="A110" s="5" t="s">
+        <v>351</v>
+      </c>
+      <c r="B110" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C110" s="6">
+        <v>1</v>
+      </c>
+      <c r="D110" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E110" s="6" t="s">
+        <v>324</v>
+      </c>
+      <c r="F110" s="6">
+        <v>740</v>
+      </c>
+      <c r="G110" s="6">
+        <v>740</v>
+      </c>
+      <c r="H110" s="6">
+        <v>45</v>
+      </c>
+      <c r="I110" s="6"/>
+    </row>
+    <row r="111" spans="1:9">
+      <c r="A111" s="5" t="s">
+        <v>351</v>
+      </c>
+      <c r="B111" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C111" s="6">
+        <v>5</v>
+      </c>
+      <c r="D111" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E111" s="6"/>
+      <c r="F111" s="6">
+        <v>44</v>
+      </c>
+      <c r="G111" s="6">
+        <v>220</v>
+      </c>
+      <c r="H111" s="6">
+        <v>-5</v>
+      </c>
+      <c r="I111" s="6"/>
+    </row>
+    <row r="112" spans="1:9">
+      <c r="A112" s="5" t="s">
+        <v>351</v>
+      </c>
+      <c r="B112" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C112" s="6">
+        <v>1</v>
+      </c>
+      <c r="D112" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E112" s="6"/>
+      <c r="F112" s="6">
+        <v>54</v>
+      </c>
+      <c r="G112" s="6">
+        <v>54</v>
+      </c>
+      <c r="H112" s="6">
+        <v>4</v>
+      </c>
+      <c r="I112" s="6"/>
+    </row>
+    <row r="113" spans="1:9">
+      <c r="A113" s="10" t="s">
+        <v>351</v>
+      </c>
+      <c r="B113" s="8" t="s">
+        <v>333</v>
+      </c>
+      <c r="C113" s="8">
+        <v>24.6</v>
+      </c>
+      <c r="D113" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E113" s="8"/>
+      <c r="F113" s="8">
+        <v>6.3</v>
+      </c>
+      <c r="G113" s="8">
+        <v>155</v>
+      </c>
+      <c r="H113" s="8">
+        <v>14</v>
+      </c>
+      <c r="I113" s="8"/>
+    </row>
+    <row r="114" spans="1:9">
+      <c r="A114" s="5" t="s">
+        <v>351</v>
+      </c>
+      <c r="B114" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C114" s="6"/>
+      <c r="D114" s="6"/>
+      <c r="E114" s="6"/>
+      <c r="F114" s="6"/>
+      <c r="G114" s="6">
+        <v>370</v>
+      </c>
+      <c r="H114" s="6">
+        <v>70</v>
+      </c>
+      <c r="I114" s="6"/>
+    </row>
+    <row r="115" spans="1:9">
+      <c r="A115" s="5" t="s">
+        <v>352</v>
+      </c>
+      <c r="B115" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C115" s="6">
+        <v>1</v>
+      </c>
+      <c r="D115" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E115" s="6"/>
+      <c r="F115" s="6">
+        <v>55</v>
+      </c>
+      <c r="G115" s="6">
+        <v>55</v>
+      </c>
+      <c r="H115" s="6">
+        <v>5</v>
+      </c>
+      <c r="I115" s="6"/>
+    </row>
+    <row r="116" spans="1:9">
+      <c r="A116" s="5" t="s">
+        <v>352</v>
+      </c>
+      <c r="B116" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C116" s="6">
+        <v>2</v>
+      </c>
+      <c r="D116" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E116" s="6"/>
+      <c r="F116" s="6">
+        <v>62</v>
+      </c>
+      <c r="G116" s="6">
+        <v>124</v>
+      </c>
+      <c r="H116" s="6">
+        <v>14</v>
+      </c>
+      <c r="I116" s="6"/>
+    </row>
+    <row r="117" spans="8:8">
+      <c r="H117" s="1">
+        <f>SUM(H3:H116)</f>
+        <v>12125.9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:I1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:I34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="12.1111111111111" style="1" customWidth="1"/>
+    <col min="3" max="9" width="8.88888888888889" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="21" customHeight="1" spans="1:1">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="6">
+        <v>1</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6">
+        <v>54</v>
+      </c>
+      <c r="G3" s="6">
+        <v>54</v>
+      </c>
+      <c r="H3" s="7">
+        <v>3</v>
+      </c>
+      <c r="I3" s="6"/>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="6">
+        <v>1</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6">
+        <v>16</v>
+      </c>
+      <c r="G4" s="6">
+        <v>16</v>
+      </c>
+      <c r="H4" s="7">
+        <v>2</v>
+      </c>
+      <c r="I4" s="6"/>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8">
+        <v>440</v>
+      </c>
+      <c r="H5" s="9"/>
+      <c r="I5" s="8"/>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="6">
+        <v>1</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" s="6">
+        <v>670</v>
+      </c>
+      <c r="G6" s="6">
+        <v>670</v>
+      </c>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>355</v>
+      </c>
+      <c r="C7" s="6">
+        <v>1</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F7" s="6">
+        <v>310</v>
+      </c>
+      <c r="G7" s="6">
+        <v>310</v>
+      </c>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="10" t="s">
+        <v>356</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" s="8">
+        <v>2</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8">
+        <v>61</v>
+      </c>
+      <c r="G8" s="8">
+        <v>122</v>
+      </c>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>355</v>
+      </c>
+      <c r="C9" s="6">
+        <v>4</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F9" s="6">
+        <v>315</v>
+      </c>
+      <c r="G9" s="6">
+        <v>1260</v>
+      </c>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="6">
+        <v>1</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" s="6">
+        <v>880</v>
+      </c>
+      <c r="G10" s="6">
+        <v>880</v>
+      </c>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C11" s="6">
+        <v>1</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>358</v>
+      </c>
+      <c r="F11" s="6">
+        <v>825</v>
+      </c>
+      <c r="G11" s="6">
+        <v>825</v>
+      </c>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="6">
+        <v>1</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" s="6">
+        <v>960</v>
+      </c>
+      <c r="G12" s="6">
+        <v>960</v>
+      </c>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="10" t="s">
+        <v>357</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="C13" s="8">
+        <v>15</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8">
+        <v>50</v>
+      </c>
+      <c r="G13" s="8">
+        <v>750</v>
+      </c>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="C14" s="6">
+        <v>20</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6">
+        <v>6.5</v>
+      </c>
+      <c r="G14" s="6">
+        <v>130</v>
+      </c>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="6">
+        <v>20</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6">
+        <v>19</v>
+      </c>
+      <c r="G15" s="6">
+        <v>380</v>
+      </c>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="11">
+        <v>22</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11">
+        <v>6</v>
+      </c>
+      <c r="G16" s="11">
+        <v>132</v>
+      </c>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" s="11">
+        <v>1</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11">
+        <v>15</v>
+      </c>
+      <c r="G17" s="11">
+        <v>15</v>
+      </c>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="C18" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11">
+        <v>60</v>
+      </c>
+      <c r="G18" s="11">
+        <v>30</v>
+      </c>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11">
+        <v>429</v>
+      </c>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="5" t="s">
+        <v>359</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>333</v>
+      </c>
+      <c r="C20" s="12">
+        <v>2</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="F20" s="12">
+        <v>315</v>
+      </c>
+      <c r="G20" s="12">
+        <v>630</v>
+      </c>
+      <c r="H20" s="12">
+        <v>140</v>
+      </c>
+      <c r="I20" s="11"/>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="5" t="s">
+        <v>359</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21" s="12">
+        <v>8</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12">
+        <v>14</v>
+      </c>
+      <c r="G21" s="12">
+        <v>112</v>
+      </c>
+      <c r="H21" s="12">
+        <v>48</v>
+      </c>
+      <c r="I21" s="11"/>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="5" t="s">
+        <v>359</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" s="12">
+        <v>8</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12">
+        <v>86</v>
+      </c>
+      <c r="G22" s="12">
+        <v>704</v>
+      </c>
+      <c r="H22" s="12">
+        <v>-32</v>
+      </c>
+      <c r="I22" s="11"/>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="10" t="s">
+        <v>359</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" s="13">
+        <v>8</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13">
+        <v>14.5</v>
+      </c>
+      <c r="G23" s="13">
+        <v>116</v>
+      </c>
+      <c r="H23" s="13">
+        <v>12</v>
+      </c>
+      <c r="I23" s="14"/>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="5" t="s">
+        <v>359</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" s="12">
+        <v>8</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12">
+        <v>16</v>
+      </c>
+      <c r="G24" s="12">
+        <v>128</v>
+      </c>
+      <c r="H24" s="12">
+        <v>22.4</v>
+      </c>
+      <c r="I24" s="11"/>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C25" s="11">
+        <v>6</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11">
+        <v>15</v>
+      </c>
+      <c r="G25" s="11">
+        <v>90</v>
+      </c>
+      <c r="H25" s="11">
+        <v>12</v>
+      </c>
+      <c r="I25" s="11"/>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26" s="11">
+        <v>3</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11">
+        <v>9</v>
+      </c>
+      <c r="G26" s="11">
+        <v>27</v>
+      </c>
+      <c r="H26" s="11"/>
+      <c r="I26" s="11"/>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C27" s="11">
+        <v>1.5</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11">
+        <v>56</v>
+      </c>
+      <c r="G27" s="11">
+        <v>84</v>
+      </c>
+      <c r="H27" s="11">
+        <v>9</v>
+      </c>
+      <c r="I27" s="11"/>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C28" s="11">
+        <v>3</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11">
+        <v>8</v>
+      </c>
+      <c r="G28" s="11">
+        <v>24</v>
+      </c>
+      <c r="H28" s="11">
+        <v>6.6</v>
+      </c>
+      <c r="I28" s="11"/>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="10" t="s">
+        <v>360</v>
+      </c>
+      <c r="B29" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="C29" s="14">
+        <v>1</v>
+      </c>
+      <c r="D29" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14">
+        <v>14</v>
+      </c>
+      <c r="G29" s="14">
+        <v>14</v>
+      </c>
+      <c r="H29" s="14">
+        <v>9</v>
+      </c>
+      <c r="I29" s="14"/>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C30" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11">
+        <v>15</v>
+      </c>
+      <c r="G30" s="11">
+        <v>7.5</v>
+      </c>
+      <c r="H30" s="11">
+        <v>3</v>
+      </c>
+      <c r="I30" s="11"/>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="C31" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11">
+        <v>16</v>
+      </c>
+      <c r="G31" s="11">
+        <v>8</v>
+      </c>
+      <c r="H31" s="11">
+        <v>4</v>
+      </c>
+      <c r="I31" s="11"/>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C32" s="11">
+        <v>0.6</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11">
+        <v>16</v>
+      </c>
+      <c r="G32" s="11">
+        <v>9.6</v>
+      </c>
+      <c r="H32" s="11">
+        <v>4</v>
+      </c>
+      <c r="I32" s="11"/>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C33" s="11">
+        <v>1</v>
+      </c>
+      <c r="D33" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11">
+        <v>16</v>
+      </c>
+      <c r="G33" s="11">
+        <v>16</v>
+      </c>
+      <c r="H33" s="11">
+        <v>3</v>
+      </c>
+      <c r="I33" s="11"/>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="B34" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C34" s="11"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="11">
+        <v>638.7</v>
+      </c>
+      <c r="H34" s="11">
+        <v>160</v>
+      </c>
+      <c r="I34" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -12011,16 +13288,16 @@
       </c>
     </row>
     <row r="70" spans="1:8">
-      <c r="A70" s="18" t="s">
+      <c r="A70" s="20" t="s">
         <v>138</v>
       </c>
-      <c r="B70" s="18" t="s">
+      <c r="B70" s="20" t="s">
         <v>40</v>
       </c>
       <c r="C70" s="3">
         <v>15</v>
       </c>
-      <c r="D70" s="18" t="s">
+      <c r="D70" s="20" t="s">
         <v>11</v>
       </c>
       <c r="E70" s="3"/>
@@ -12547,7 +13824,7 @@
       </c>
     </row>
     <row r="93" spans="1:8">
-      <c r="A93" s="11" t="s">
+      <c r="A93" s="15" t="s">
         <v>145</v>
       </c>
       <c r="B93" s="6" t="s">
@@ -12571,7 +13848,7 @@
       </c>
     </row>
     <row r="94" spans="1:8">
-      <c r="A94" s="11" t="s">
+      <c r="A94" s="15" t="s">
         <v>145</v>
       </c>
       <c r="B94" s="6" t="s">
@@ -12598,13 +13875,13 @@
       <c r="A95" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="B95" s="18" t="s">
+      <c r="B95" s="20" t="s">
         <v>40</v>
       </c>
       <c r="C95" s="3">
         <v>15</v>
       </c>
-      <c r="D95" s="18" t="s">
+      <c r="D95" s="20" t="s">
         <v>11</v>
       </c>
       <c r="E95" s="3"/>
@@ -12743,10 +14020,10 @@
       </c>
     </row>
     <row r="101" spans="4:4">
-      <c r="D101" s="19"/>
+      <c r="D101" s="21"/>
     </row>
     <row r="102" spans="4:4">
-      <c r="D102" s="19"/>
+      <c r="D102" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -12773,7 +14050,7 @@
     <col min="3" max="6" width="9" style="1"/>
     <col min="7" max="7" width="9.22222222222222" style="1"/>
     <col min="8" max="8" width="9" style="1"/>
-    <col min="9" max="9" width="13.1259259259259" style="17" customWidth="1"/>
+    <col min="9" max="9" width="13.1259259259259" style="19" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="21" customHeight="1" spans="1:9">
@@ -17656,7 +18933,7 @@
       <c r="H70" s="6">
         <v>180</v>
       </c>
-      <c r="I70" s="16" t="s">
+      <c r="I70" s="18" t="s">
         <v>200</v>
       </c>
     </row>
@@ -17683,7 +18960,7 @@
       <c r="H71" s="6">
         <v>180</v>
       </c>
-      <c r="I71" s="16" t="s">
+      <c r="I71" s="18" t="s">
         <v>201</v>
       </c>
     </row>
@@ -17710,7 +18987,7 @@
       <c r="H72" s="6">
         <v>20</v>
       </c>
-      <c r="I72" s="16" t="s">
+      <c r="I72" s="18" t="s">
         <v>201</v>
       </c>
     </row>
@@ -18369,7 +19646,7 @@
       <c r="I98" s="8"/>
     </row>
     <row r="99" spans="1:9">
-      <c r="A99" s="11" t="s">
+      <c r="A99" s="15" t="s">
         <v>208</v>
       </c>
       <c r="B99" s="6" t="s">
@@ -18392,7 +19669,7 @@
       <c r="I99" s="6"/>
     </row>
     <row r="100" spans="1:9">
-      <c r="A100" s="11" t="s">
+      <c r="A100" s="15" t="s">
         <v>209</v>
       </c>
       <c r="B100" s="6" t="s">
@@ -18411,7 +19688,7 @@
       <c r="I100" s="6"/>
     </row>
     <row r="101" spans="1:9">
-      <c r="A101" s="11" t="s">
+      <c r="A101" s="15" t="s">
         <v>209</v>
       </c>
       <c r="B101" s="6" t="s">
@@ -18438,7 +19715,7 @@
       <c r="I101" s="6"/>
     </row>
     <row r="102" spans="1:9">
-      <c r="A102" s="11" t="s">
+      <c r="A102" s="15" t="s">
         <v>209</v>
       </c>
       <c r="B102" s="6" t="s">
@@ -18461,7 +19738,7 @@
       <c r="I102" s="6"/>
     </row>
     <row r="103" spans="1:9">
-      <c r="A103" s="11" t="s">
+      <c r="A103" s="15" t="s">
         <v>210</v>
       </c>
       <c r="B103" s="6" t="s">
@@ -18480,7 +19757,7 @@
       <c r="I103" s="6"/>
     </row>
     <row r="104" spans="1:9">
-      <c r="A104" s="11" t="s">
+      <c r="A104" s="15" t="s">
         <v>210</v>
       </c>
       <c r="B104" s="6" t="s">
@@ -18499,7 +19776,7 @@
       <c r="I104" s="6"/>
     </row>
     <row r="105" spans="1:9">
-      <c r="A105" s="11" t="s">
+      <c r="A105" s="15" t="s">
         <v>210</v>
       </c>
       <c r="B105" s="6" t="s">
@@ -18526,7 +19803,7 @@
       </c>
     </row>
     <row r="106" spans="1:9">
-      <c r="A106" s="12" t="s">
+      <c r="A106" s="16" t="s">
         <v>210</v>
       </c>
       <c r="B106" s="8" t="s">
@@ -19947,31 +21224,31 @@
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="F2" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="15" t="s">
+      <c r="G2" s="17" t="s">
         <v>7</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="15" t="s">
+      <c r="I2" s="17" t="s">
         <v>146</v>
       </c>
     </row>
@@ -27967,7 +29244,7 @@
   <sheetPr/>
   <dimension ref="A1:I111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A92" workbookViewId="0">
+    <sheetView topLeftCell="A92" workbookViewId="0">
       <selection activeCell="A106" sqref="A106:I111"/>
     </sheetView>
   </sheetViews>
@@ -29196,1526 +30473,1526 @@
       <c r="A51" s="5" t="s">
         <v>313</v>
       </c>
-      <c r="B51" s="13" t="s">
+      <c r="B51" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C51" s="13">
+      <c r="C51" s="6">
         <v>2.5</v>
       </c>
-      <c r="D51" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E51" s="13"/>
-      <c r="F51" s="13">
+      <c r="D51" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E51" s="6"/>
+      <c r="F51" s="6">
         <v>8</v>
       </c>
-      <c r="G51" s="13">
+      <c r="G51" s="6">
         <v>20</v>
       </c>
-      <c r="H51" s="13">
+      <c r="H51" s="6">
         <v>2</v>
       </c>
-      <c r="I51" s="13"/>
+      <c r="I51" s="6"/>
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="5" t="s">
         <v>313</v>
       </c>
-      <c r="B52" s="13" t="s">
+      <c r="B52" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C52" s="13">
+      <c r="C52" s="6">
         <v>1.76</v>
       </c>
-      <c r="D52" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E52" s="13"/>
-      <c r="F52" s="13">
+      <c r="D52" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E52" s="6"/>
+      <c r="F52" s="6">
         <v>13</v>
       </c>
-      <c r="G52" s="13">
+      <c r="G52" s="6">
         <v>23</v>
       </c>
-      <c r="H52" s="13">
+      <c r="H52" s="6">
         <v>1</v>
       </c>
-      <c r="I52" s="13"/>
+      <c r="I52" s="6"/>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="5" t="s">
         <v>313</v>
       </c>
-      <c r="B53" s="13" t="s">
+      <c r="B53" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C53" s="13">
+      <c r="C53" s="6">
         <v>2.56</v>
       </c>
-      <c r="D53" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E53" s="13"/>
-      <c r="F53" s="13">
+      <c r="D53" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E53" s="6"/>
+      <c r="F53" s="6">
         <v>9</v>
       </c>
-      <c r="G53" s="13">
+      <c r="G53" s="6">
         <v>23</v>
       </c>
-      <c r="H53" s="13">
+      <c r="H53" s="6">
         <v>4</v>
       </c>
-      <c r="I53" s="13"/>
+      <c r="I53" s="6"/>
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="5" t="s">
         <v>313</v>
       </c>
-      <c r="B54" s="13" t="s">
+      <c r="B54" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C54" s="13">
+      <c r="C54" s="6">
         <v>1</v>
       </c>
-      <c r="D54" s="13" t="s">
+      <c r="D54" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E54" s="13" t="s">
+      <c r="E54" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F54" s="13">
+      <c r="F54" s="6">
         <v>600</v>
       </c>
-      <c r="G54" s="13">
+      <c r="G54" s="6">
         <v>600</v>
       </c>
-      <c r="H54" s="13">
+      <c r="H54" s="6">
         <v>60</v>
       </c>
-      <c r="I54" s="13"/>
+      <c r="I54" s="6"/>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="5" t="s">
         <v>313</v>
       </c>
-      <c r="B55" s="13" t="s">
+      <c r="B55" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C55" s="13">
+      <c r="C55" s="6">
         <v>8</v>
       </c>
-      <c r="D55" s="13" t="s">
+      <c r="D55" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E55" s="13"/>
-      <c r="F55" s="13">
+      <c r="E55" s="6"/>
+      <c r="F55" s="6">
         <v>14.5</v>
       </c>
-      <c r="G55" s="13">
+      <c r="G55" s="6">
         <v>116</v>
       </c>
-      <c r="H55" s="13"/>
-      <c r="I55" s="13"/>
+      <c r="H55" s="6"/>
+      <c r="I55" s="6"/>
     </row>
     <row r="56" spans="1:9">
       <c r="A56" s="5" t="s">
         <v>313</v>
       </c>
-      <c r="B56" s="13" t="s">
+      <c r="B56" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C56" s="13">
+      <c r="C56" s="6">
         <v>8</v>
       </c>
-      <c r="D56" s="13" t="s">
+      <c r="D56" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E56" s="13"/>
-      <c r="F56" s="13">
+      <c r="E56" s="6"/>
+      <c r="F56" s="6">
         <v>90</v>
       </c>
-      <c r="G56" s="13">
+      <c r="G56" s="6">
         <v>720</v>
       </c>
-      <c r="H56" s="13"/>
-      <c r="I56" s="13"/>
+      <c r="H56" s="6"/>
+      <c r="I56" s="6"/>
     </row>
     <row r="57" spans="1:9">
       <c r="A57" s="5" t="s">
         <v>313</v>
       </c>
-      <c r="B57" s="13" t="s">
+      <c r="B57" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C57" s="13">
+      <c r="C57" s="6">
         <v>8</v>
       </c>
-      <c r="D57" s="13" t="s">
+      <c r="D57" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E57" s="13"/>
-      <c r="F57" s="13">
+      <c r="E57" s="6"/>
+      <c r="F57" s="6">
         <v>14</v>
       </c>
-      <c r="G57" s="13">
+      <c r="G57" s="6">
         <v>112</v>
       </c>
-      <c r="H57" s="13">
+      <c r="H57" s="6">
         <v>48</v>
       </c>
-      <c r="I57" s="13"/>
+      <c r="I57" s="6"/>
     </row>
     <row r="58" spans="1:9">
       <c r="A58" s="5" t="s">
         <v>313</v>
       </c>
-      <c r="B58" s="13" t="s">
+      <c r="B58" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C58" s="13">
+      <c r="C58" s="6">
         <v>8</v>
       </c>
-      <c r="D58" s="13" t="s">
+      <c r="D58" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E58" s="13"/>
-      <c r="F58" s="13">
+      <c r="E58" s="6"/>
+      <c r="F58" s="6">
         <v>16</v>
       </c>
-      <c r="G58" s="13">
+      <c r="G58" s="6">
         <v>128</v>
       </c>
-      <c r="H58" s="13"/>
-      <c r="I58" s="13"/>
+      <c r="H58" s="6"/>
+      <c r="I58" s="6"/>
     </row>
     <row r="59" spans="1:9">
       <c r="A59" s="5" t="s">
         <v>313</v>
       </c>
-      <c r="B59" s="13" t="s">
+      <c r="B59" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C59" s="13">
+      <c r="C59" s="6">
         <v>2</v>
       </c>
-      <c r="D59" s="13" t="s">
+      <c r="D59" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E59" s="13" t="s">
+      <c r="E59" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="F59" s="13">
+      <c r="F59" s="6">
         <v>275</v>
       </c>
-      <c r="G59" s="13">
+      <c r="G59" s="6">
         <v>550</v>
       </c>
-      <c r="H59" s="13"/>
-      <c r="I59" s="13"/>
+      <c r="H59" s="6"/>
+      <c r="I59" s="6"/>
     </row>
     <row r="60" spans="1:9">
       <c r="A60" s="5" t="s">
         <v>313</v>
       </c>
-      <c r="B60" s="13" t="s">
+      <c r="B60" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="C60" s="13">
+      <c r="C60" s="6">
         <v>15</v>
       </c>
-      <c r="D60" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E60" s="13"/>
-      <c r="F60" s="13">
+      <c r="D60" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E60" s="6"/>
+      <c r="F60" s="6">
         <v>52</v>
       </c>
-      <c r="G60" s="13">
+      <c r="G60" s="6">
         <v>780</v>
       </c>
-      <c r="H60" s="13"/>
-      <c r="I60" s="13"/>
+      <c r="H60" s="6"/>
+      <c r="I60" s="6"/>
     </row>
     <row r="61" spans="1:9">
       <c r="A61" s="5" t="s">
         <v>313</v>
       </c>
-      <c r="B61" s="13" t="s">
+      <c r="B61" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C61" s="13">
+      <c r="C61" s="6">
         <v>20</v>
       </c>
-      <c r="D61" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E61" s="13"/>
-      <c r="F61" s="13">
+      <c r="D61" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E61" s="6"/>
+      <c r="F61" s="6">
         <v>12</v>
       </c>
-      <c r="G61" s="13">
+      <c r="G61" s="6">
         <v>240</v>
       </c>
-      <c r="H61" s="13"/>
-      <c r="I61" s="13"/>
+      <c r="H61" s="6"/>
+      <c r="I61" s="6"/>
     </row>
     <row r="62" spans="1:9">
       <c r="A62" s="5" t="s">
         <v>313</v>
       </c>
-      <c r="B62" s="13" t="s">
+      <c r="B62" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C62" s="13">
+      <c r="C62" s="6">
         <v>20</v>
       </c>
-      <c r="D62" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E62" s="13"/>
-      <c r="F62" s="13">
+      <c r="D62" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E62" s="6"/>
+      <c r="F62" s="6">
         <v>7</v>
       </c>
-      <c r="G62" s="13">
+      <c r="G62" s="6">
         <v>140</v>
       </c>
-      <c r="H62" s="13">
+      <c r="H62" s="6">
         <v>20</v>
       </c>
-      <c r="I62" s="13"/>
+      <c r="I62" s="6"/>
     </row>
     <row r="63" spans="1:9">
       <c r="A63" s="5" t="s">
         <v>313</v>
       </c>
-      <c r="B63" s="13" t="s">
+      <c r="B63" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C63" s="13">
+      <c r="C63" s="6">
         <v>20</v>
       </c>
-      <c r="D63" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E63" s="13"/>
-      <c r="F63" s="13">
+      <c r="D63" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E63" s="6"/>
+      <c r="F63" s="6">
         <v>12</v>
       </c>
-      <c r="G63" s="13">
+      <c r="G63" s="6">
         <v>240</v>
       </c>
-      <c r="H63" s="13">
+      <c r="H63" s="6">
         <v>100</v>
       </c>
-      <c r="I63" s="13"/>
+      <c r="I63" s="6"/>
     </row>
     <row r="64" spans="1:9">
       <c r="A64" s="5" t="s">
         <v>313</v>
       </c>
-      <c r="B64" s="13" t="s">
+      <c r="B64" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C64" s="13">
+      <c r="C64" s="6">
         <v>3</v>
       </c>
-      <c r="D64" s="13" t="s">
+      <c r="D64" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E64" s="13"/>
-      <c r="F64" s="13">
+      <c r="E64" s="6"/>
+      <c r="F64" s="6">
         <v>64</v>
       </c>
-      <c r="G64" s="13">
+      <c r="G64" s="6">
         <v>192</v>
       </c>
-      <c r="H64" s="13">
+      <c r="H64" s="6">
         <v>42</v>
       </c>
-      <c r="I64" s="13"/>
+      <c r="I64" s="6"/>
     </row>
     <row r="65" spans="1:9">
       <c r="A65" s="5" t="s">
         <v>313</v>
       </c>
-      <c r="B65" s="13" t="s">
+      <c r="B65" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C65" s="13">
+      <c r="C65" s="6">
         <v>10</v>
       </c>
-      <c r="D65" s="13" t="s">
+      <c r="D65" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E65" s="13"/>
-      <c r="F65" s="13">
+      <c r="E65" s="6"/>
+      <c r="F65" s="6">
         <v>14.5</v>
       </c>
-      <c r="G65" s="13">
+      <c r="G65" s="6">
         <v>145</v>
       </c>
-      <c r="H65" s="13"/>
-      <c r="I65" s="13"/>
+      <c r="H65" s="6"/>
+      <c r="I65" s="6"/>
     </row>
     <row r="66" spans="1:9">
       <c r="A66" s="5" t="s">
         <v>313</v>
       </c>
-      <c r="B66" s="13" t="s">
+      <c r="B66" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C66" s="13">
+      <c r="C66" s="6">
         <v>2</v>
       </c>
-      <c r="D66" s="13" t="s">
+      <c r="D66" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E66" s="13" t="s">
+      <c r="E66" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F66" s="13">
+      <c r="F66" s="6">
         <v>600</v>
       </c>
-      <c r="G66" s="13">
+      <c r="G66" s="6">
         <v>1200</v>
       </c>
-      <c r="H66" s="13">
+      <c r="H66" s="6">
         <v>120</v>
       </c>
-      <c r="I66" s="13"/>
+      <c r="I66" s="6"/>
     </row>
     <row r="67" spans="1:9">
       <c r="A67" s="5" t="s">
         <v>313</v>
       </c>
-      <c r="B67" s="13" t="s">
+      <c r="B67" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C67" s="13">
+      <c r="C67" s="6">
         <v>1</v>
       </c>
-      <c r="D67" s="13" t="s">
+      <c r="D67" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E67" s="13" t="s">
+      <c r="E67" s="6" t="s">
         <v>314</v>
       </c>
-      <c r="F67" s="13">
+      <c r="F67" s="6">
         <v>2430</v>
       </c>
-      <c r="G67" s="13">
+      <c r="G67" s="6">
         <v>2430</v>
       </c>
-      <c r="H67" s="13">
+      <c r="H67" s="6">
         <v>90</v>
       </c>
-      <c r="I67" s="13"/>
+      <c r="I67" s="6"/>
     </row>
     <row r="68" spans="1:9">
       <c r="A68" s="5" t="s">
         <v>313</v>
       </c>
-      <c r="B68" s="13" t="s">
+      <c r="B68" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C68" s="13">
+      <c r="C68" s="6">
         <v>10</v>
       </c>
-      <c r="D68" s="13" t="s">
+      <c r="D68" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E68" s="13"/>
-      <c r="F68" s="13">
+      <c r="E68" s="6"/>
+      <c r="F68" s="6">
         <v>15</v>
       </c>
-      <c r="G68" s="13">
+      <c r="G68" s="6">
         <v>150</v>
       </c>
-      <c r="H68" s="13"/>
-      <c r="I68" s="13"/>
+      <c r="H68" s="6"/>
+      <c r="I68" s="6"/>
     </row>
     <row r="69" spans="1:9">
       <c r="A69" s="5" t="s">
         <v>313</v>
       </c>
-      <c r="B69" s="13" t="s">
+      <c r="B69" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C69" s="13">
+      <c r="C69" s="6">
         <v>50</v>
       </c>
-      <c r="D69" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E69" s="13"/>
-      <c r="F69" s="13">
+      <c r="D69" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E69" s="6"/>
+      <c r="F69" s="6">
         <v>16</v>
       </c>
-      <c r="G69" s="13">
+      <c r="G69" s="6">
         <v>800</v>
       </c>
-      <c r="H69" s="13"/>
-      <c r="I69" s="13"/>
+      <c r="H69" s="6"/>
+      <c r="I69" s="6"/>
     </row>
     <row r="70" spans="1:9">
       <c r="A70" s="5" t="s">
         <v>313</v>
       </c>
-      <c r="B70" s="13" t="s">
+      <c r="B70" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="C70" s="13">
+      <c r="C70" s="6">
         <v>10</v>
       </c>
-      <c r="D70" s="13" t="s">
+      <c r="D70" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E70" s="13"/>
-      <c r="F70" s="13">
+      <c r="E70" s="6"/>
+      <c r="F70" s="6">
         <v>76</v>
       </c>
-      <c r="G70" s="13">
+      <c r="G70" s="6">
         <v>760</v>
       </c>
-      <c r="H70" s="13">
+      <c r="H70" s="6">
         <v>380</v>
       </c>
-      <c r="I70" s="13"/>
+      <c r="I70" s="6"/>
     </row>
     <row r="71" spans="1:9">
       <c r="A71" s="5" t="s">
         <v>313</v>
       </c>
-      <c r="B71" s="13" t="s">
+      <c r="B71" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C71" s="13">
+      <c r="C71" s="6">
         <v>5</v>
       </c>
-      <c r="D71" s="13" t="s">
+      <c r="D71" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E71" s="13"/>
-      <c r="F71" s="13">
+      <c r="E71" s="6"/>
+      <c r="F71" s="6">
         <v>16</v>
       </c>
-      <c r="G71" s="13">
+      <c r="G71" s="6">
         <v>80</v>
       </c>
-      <c r="H71" s="13">
+      <c r="H71" s="6">
         <v>35</v>
       </c>
-      <c r="I71" s="13"/>
+      <c r="I71" s="6"/>
     </row>
     <row r="72" spans="1:9">
       <c r="A72" s="5" t="s">
         <v>313</v>
       </c>
-      <c r="B72" s="13" t="s">
+      <c r="B72" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C72" s="13">
+      <c r="C72" s="6">
         <v>5</v>
       </c>
-      <c r="D72" s="13" t="s">
+      <c r="D72" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E72" s="13"/>
-      <c r="F72" s="13">
+      <c r="E72" s="6"/>
+      <c r="F72" s="6">
         <v>23</v>
       </c>
-      <c r="G72" s="13">
+      <c r="G72" s="6">
         <v>115</v>
       </c>
-      <c r="H72" s="13"/>
-      <c r="I72" s="13"/>
+      <c r="H72" s="6"/>
+      <c r="I72" s="6"/>
     </row>
     <row r="73" spans="1:9">
       <c r="A73" s="5" t="s">
         <v>313</v>
       </c>
-      <c r="B73" s="13" t="s">
+      <c r="B73" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="C73" s="13">
+      <c r="C73" s="6">
         <v>5</v>
       </c>
-      <c r="D73" s="13" t="s">
+      <c r="D73" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E73" s="13"/>
-      <c r="F73" s="13">
+      <c r="E73" s="6"/>
+      <c r="F73" s="6">
         <v>15</v>
       </c>
-      <c r="G73" s="13">
+      <c r="G73" s="6">
         <v>115</v>
       </c>
-      <c r="H73" s="13"/>
-      <c r="I73" s="13"/>
+      <c r="H73" s="6"/>
+      <c r="I73" s="6"/>
     </row>
     <row r="74" spans="1:9">
       <c r="A74" s="5" t="s">
         <v>313</v>
       </c>
-      <c r="B74" s="13" t="s">
+      <c r="B74" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C74" s="13">
+      <c r="C74" s="6">
         <v>10</v>
       </c>
-      <c r="D74" s="13" t="s">
+      <c r="D74" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E74" s="13"/>
-      <c r="F74" s="13">
+      <c r="E74" s="6"/>
+      <c r="F74" s="6">
         <v>20</v>
       </c>
-      <c r="G74" s="13">
+      <c r="G74" s="6">
         <v>200</v>
       </c>
-      <c r="H74" s="13">
+      <c r="H74" s="6">
         <v>30</v>
       </c>
-      <c r="I74" s="13"/>
+      <c r="I74" s="6"/>
     </row>
     <row r="75" spans="1:9">
       <c r="A75" s="5" t="s">
         <v>313</v>
       </c>
-      <c r="B75" s="13" t="s">
+      <c r="B75" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C75" s="13">
+      <c r="C75" s="6">
         <v>5</v>
       </c>
-      <c r="D75" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E75" s="13"/>
-      <c r="F75" s="13">
+      <c r="D75" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E75" s="6"/>
+      <c r="F75" s="6">
         <v>58</v>
       </c>
-      <c r="G75" s="13">
+      <c r="G75" s="6">
         <v>290</v>
       </c>
-      <c r="H75" s="13">
+      <c r="H75" s="6">
         <v>20</v>
       </c>
-      <c r="I75" s="13"/>
+      <c r="I75" s="6"/>
     </row>
     <row r="76" spans="1:9">
       <c r="A76" s="5" t="s">
         <v>313</v>
       </c>
-      <c r="B76" s="13" t="s">
+      <c r="B76" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C76" s="13">
+      <c r="C76" s="6">
         <v>5</v>
       </c>
-      <c r="D76" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E76" s="13"/>
-      <c r="F76" s="13">
+      <c r="D76" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E76" s="6"/>
+      <c r="F76" s="6">
         <v>7.5</v>
       </c>
-      <c r="G76" s="13">
+      <c r="G76" s="6">
         <v>37.5</v>
       </c>
-      <c r="H76" s="13"/>
-      <c r="I76" s="13"/>
+      <c r="H76" s="6"/>
+      <c r="I76" s="6"/>
     </row>
     <row r="77" spans="1:9">
       <c r="A77" s="5" t="s">
         <v>313</v>
       </c>
-      <c r="B77" s="13" t="s">
+      <c r="B77" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="C77" s="13">
+      <c r="C77" s="6">
         <v>5</v>
       </c>
-      <c r="D77" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E77" s="13"/>
-      <c r="F77" s="13">
+      <c r="D77" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E77" s="6"/>
+      <c r="F77" s="6">
         <v>51</v>
       </c>
-      <c r="G77" s="13">
+      <c r="G77" s="6">
         <v>255</v>
       </c>
-      <c r="H77" s="13">
+      <c r="H77" s="6">
         <v>155</v>
       </c>
-      <c r="I77" s="13"/>
+      <c r="I77" s="6"/>
     </row>
     <row r="78" spans="1:9">
       <c r="A78" s="5" t="s">
         <v>313</v>
       </c>
-      <c r="B78" s="13" t="s">
+      <c r="B78" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C78" s="13">
+      <c r="C78" s="6">
         <v>5</v>
       </c>
-      <c r="D78" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E78" s="13"/>
-      <c r="F78" s="13">
+      <c r="D78" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E78" s="6"/>
+      <c r="F78" s="6">
         <v>16</v>
       </c>
-      <c r="G78" s="13">
+      <c r="G78" s="6">
         <v>80</v>
       </c>
-      <c r="H78" s="13">
+      <c r="H78" s="6">
         <v>10</v>
       </c>
-      <c r="I78" s="13"/>
+      <c r="I78" s="6"/>
     </row>
     <row r="79" spans="1:9">
       <c r="A79" s="5" t="s">
         <v>313</v>
       </c>
-      <c r="B79" s="13" t="s">
+      <c r="B79" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C79" s="13">
+      <c r="C79" s="6">
         <v>5</v>
       </c>
-      <c r="D79" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E79" s="13"/>
-      <c r="F79" s="13">
+      <c r="D79" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E79" s="6"/>
+      <c r="F79" s="6">
         <v>6</v>
       </c>
-      <c r="G79" s="13">
+      <c r="G79" s="6">
         <v>30</v>
       </c>
-      <c r="H79" s="13">
+      <c r="H79" s="6">
         <v>1</v>
       </c>
-      <c r="I79" s="13"/>
+      <c r="I79" s="6"/>
     </row>
     <row r="80" spans="1:9">
       <c r="A80" s="5" t="s">
         <v>313</v>
       </c>
-      <c r="B80" s="13" t="s">
+      <c r="B80" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C80" s="13">
+      <c r="C80" s="6">
         <v>5</v>
       </c>
-      <c r="D80" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E80" s="13"/>
-      <c r="F80" s="13">
+      <c r="D80" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E80" s="6"/>
+      <c r="F80" s="6">
         <v>10</v>
       </c>
-      <c r="G80" s="13">
+      <c r="G80" s="6">
         <v>50</v>
       </c>
-      <c r="H80" s="13">
+      <c r="H80" s="6">
         <v>10</v>
       </c>
-      <c r="I80" s="13"/>
+      <c r="I80" s="6"/>
     </row>
     <row r="81" spans="1:9">
       <c r="A81" s="5" t="s">
         <v>313</v>
       </c>
-      <c r="B81" s="13" t="s">
+      <c r="B81" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="C81" s="13">
+      <c r="C81" s="6">
         <v>5</v>
       </c>
-      <c r="D81" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E81" s="13"/>
-      <c r="F81" s="13">
+      <c r="D81" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E81" s="6"/>
+      <c r="F81" s="6">
         <v>35</v>
       </c>
-      <c r="G81" s="13">
+      <c r="G81" s="6">
         <v>175</v>
       </c>
-      <c r="H81" s="13">
+      <c r="H81" s="6">
         <v>15</v>
       </c>
-      <c r="I81" s="13"/>
+      <c r="I81" s="6"/>
     </row>
     <row r="82" spans="1:9">
       <c r="A82" s="5" t="s">
         <v>313</v>
       </c>
-      <c r="B82" s="13" t="s">
+      <c r="B82" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C82" s="13">
+      <c r="C82" s="6">
         <v>5</v>
       </c>
-      <c r="D82" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E82" s="13"/>
-      <c r="F82" s="13">
+      <c r="D82" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E82" s="6"/>
+      <c r="F82" s="6">
         <v>8</v>
       </c>
-      <c r="G82" s="13">
+      <c r="G82" s="6">
         <v>40</v>
       </c>
-      <c r="H82" s="13">
+      <c r="H82" s="6">
         <v>15</v>
       </c>
-      <c r="I82" s="13"/>
+      <c r="I82" s="6"/>
     </row>
     <row r="83" spans="1:9">
       <c r="A83" s="5" t="s">
         <v>315</v>
       </c>
-      <c r="B83" s="13" t="s">
+      <c r="B83" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="C83" s="13">
+      <c r="C83" s="6">
         <v>50</v>
       </c>
-      <c r="D83" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E83" s="13"/>
-      <c r="F83" s="13">
+      <c r="D83" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E83" s="6"/>
+      <c r="F83" s="6">
         <v>52</v>
       </c>
-      <c r="G83" s="13">
+      <c r="G83" s="6">
         <v>2600</v>
       </c>
-      <c r="H83" s="13">
+      <c r="H83" s="6">
         <v>350</v>
       </c>
-      <c r="I83" s="13"/>
+      <c r="I83" s="6"/>
     </row>
     <row r="84" spans="1:9">
       <c r="A84" s="5" t="s">
         <v>315</v>
       </c>
-      <c r="B84" s="13" t="s">
+      <c r="B84" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C84" s="13">
+      <c r="C84" s="6">
         <v>20</v>
       </c>
-      <c r="D84" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E84" s="13"/>
-      <c r="F84" s="13">
+      <c r="D84" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E84" s="6"/>
+      <c r="F84" s="6">
         <v>16</v>
       </c>
-      <c r="G84" s="13">
+      <c r="G84" s="6">
         <v>320</v>
       </c>
-      <c r="H84" s="13">
+      <c r="H84" s="6">
         <v>60</v>
       </c>
-      <c r="I84" s="13"/>
+      <c r="I84" s="6"/>
     </row>
     <row r="85" spans="1:9">
       <c r="A85" s="5" t="s">
         <v>315</v>
       </c>
-      <c r="B85" s="13" t="s">
+      <c r="B85" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C85" s="13">
+      <c r="C85" s="6">
         <v>50</v>
       </c>
-      <c r="D85" s="13" t="s">
+      <c r="D85" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E85" s="13"/>
-      <c r="F85" s="13">
-        <v>11</v>
-      </c>
-      <c r="G85" s="13">
+      <c r="E85" s="6"/>
+      <c r="F85" s="6">
+        <v>11</v>
+      </c>
+      <c r="G85" s="6">
         <v>550</v>
       </c>
-      <c r="H85" s="13">
+      <c r="H85" s="6">
         <v>50</v>
       </c>
-      <c r="I85" s="13"/>
+      <c r="I85" s="6"/>
     </row>
     <row r="86" spans="1:9">
       <c r="A86" s="5" t="s">
         <v>316</v>
       </c>
-      <c r="B86" s="13" t="s">
+      <c r="B86" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C86" s="13">
+      <c r="C86" s="6">
         <v>7</v>
       </c>
-      <c r="D86" s="13" t="s">
+      <c r="D86" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E86" s="13" t="s">
+      <c r="E86" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="F86" s="13">
+      <c r="F86" s="6">
         <v>650</v>
       </c>
-      <c r="G86" s="13">
+      <c r="G86" s="6">
         <v>4550</v>
       </c>
-      <c r="H86" s="13">
+      <c r="H86" s="6">
         <v>840</v>
       </c>
-      <c r="I86" s="13"/>
+      <c r="I86" s="6"/>
     </row>
     <row r="87" spans="1:9">
       <c r="A87" s="5" t="s">
         <v>316</v>
       </c>
-      <c r="B87" s="13" t="s">
+      <c r="B87" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C87" s="13">
+      <c r="C87" s="6">
         <v>4</v>
       </c>
-      <c r="D87" s="13" t="s">
+      <c r="D87" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E87" s="13" t="s">
+      <c r="E87" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="F87" s="13">
+      <c r="F87" s="6">
         <v>570</v>
       </c>
-      <c r="G87" s="13">
+      <c r="G87" s="6">
         <v>2280</v>
       </c>
-      <c r="H87" s="13">
+      <c r="H87" s="6">
         <v>220</v>
       </c>
-      <c r="I87" s="13"/>
+      <c r="I87" s="6"/>
     </row>
     <row r="88" spans="1:9">
       <c r="A88" s="5" t="s">
         <v>316</v>
       </c>
-      <c r="B88" s="13" t="s">
+      <c r="B88" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C88" s="13">
+      <c r="C88" s="6">
         <v>1</v>
       </c>
-      <c r="D88" s="13" t="s">
+      <c r="D88" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E88" s="13" t="s">
+      <c r="E88" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F88" s="13">
+      <c r="F88" s="6">
         <v>630</v>
       </c>
-      <c r="G88" s="13">
+      <c r="G88" s="6">
         <v>630</v>
       </c>
-      <c r="H88" s="13">
+      <c r="H88" s="6">
         <v>90</v>
       </c>
-      <c r="I88" s="13"/>
+      <c r="I88" s="6"/>
     </row>
     <row r="89" spans="1:9">
       <c r="A89" s="5" t="s">
         <v>316</v>
       </c>
-      <c r="B89" s="13" t="s">
+      <c r="B89" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="C89" s="13">
+      <c r="C89" s="6">
         <v>1</v>
       </c>
-      <c r="D89" s="13" t="s">
+      <c r="D89" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E89" s="13" t="s">
+      <c r="E89" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="F89" s="13">
+      <c r="F89" s="6">
         <v>1900</v>
       </c>
-      <c r="G89" s="13">
+      <c r="G89" s="6">
         <v>1900</v>
       </c>
-      <c r="H89" s="13">
+      <c r="H89" s="6">
         <v>150</v>
       </c>
-      <c r="I89" s="13"/>
+      <c r="I89" s="6"/>
     </row>
     <row r="90" spans="1:9">
       <c r="A90" s="5" t="s">
         <v>316</v>
       </c>
-      <c r="B90" s="13" t="s">
+      <c r="B90" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C90" s="13">
+      <c r="C90" s="6">
         <v>10</v>
       </c>
-      <c r="D90" s="13" t="s">
+      <c r="D90" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E90" s="13"/>
-      <c r="F90" s="13">
+      <c r="E90" s="6"/>
+      <c r="F90" s="6">
         <v>22</v>
       </c>
-      <c r="G90" s="13">
+      <c r="G90" s="6">
         <v>220</v>
       </c>
-      <c r="H90" s="13">
+      <c r="H90" s="6">
         <v>15</v>
       </c>
-      <c r="I90" s="13"/>
+      <c r="I90" s="6"/>
     </row>
     <row r="91" spans="1:9">
       <c r="A91" s="5" t="s">
         <v>316</v>
       </c>
-      <c r="B91" s="13" t="s">
+      <c r="B91" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="C91" s="13">
+      <c r="C91" s="6">
         <v>1</v>
       </c>
-      <c r="D91" s="13" t="s">
+      <c r="D91" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E91" s="13" t="s">
+      <c r="E91" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="F91" s="13">
+      <c r="F91" s="6">
         <v>560</v>
       </c>
-      <c r="G91" s="13">
+      <c r="G91" s="6">
         <v>560</v>
       </c>
-      <c r="H91" s="13">
+      <c r="H91" s="6">
         <v>160</v>
       </c>
-      <c r="I91" s="13"/>
+      <c r="I91" s="6"/>
     </row>
     <row r="92" spans="1:9">
       <c r="A92" s="5" t="s">
         <v>316</v>
       </c>
-      <c r="B92" s="13" t="s">
+      <c r="B92" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C92" s="13">
+      <c r="C92" s="6">
         <v>1</v>
       </c>
-      <c r="D92" s="13" t="s">
+      <c r="D92" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E92" s="13" t="s">
+      <c r="E92" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="F92" s="13">
+      <c r="F92" s="6">
         <v>580</v>
       </c>
-      <c r="G92" s="13">
+      <c r="G92" s="6">
         <v>580</v>
       </c>
-      <c r="H92" s="13">
+      <c r="H92" s="6">
         <v>65</v>
       </c>
-      <c r="I92" s="13"/>
+      <c r="I92" s="6"/>
     </row>
     <row r="93" spans="1:9">
       <c r="A93" s="5" t="s">
         <v>317</v>
       </c>
-      <c r="B93" s="13" t="s">
+      <c r="B93" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="C93" s="13">
+      <c r="C93" s="6">
         <v>23</v>
       </c>
-      <c r="D93" s="13" t="s">
+      <c r="D93" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E93" s="13" t="s">
+      <c r="E93" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="F93" s="13">
+      <c r="F93" s="6">
         <v>560</v>
       </c>
-      <c r="G93" s="13">
+      <c r="G93" s="6">
         <v>12880</v>
       </c>
-      <c r="H93" s="13">
+      <c r="H93" s="6">
         <v>1720</v>
       </c>
-      <c r="I93" s="13"/>
+      <c r="I93" s="6"/>
     </row>
     <row r="94" spans="1:9">
       <c r="A94" s="5" t="s">
         <v>317</v>
       </c>
-      <c r="B94" s="13" t="s">
+      <c r="B94" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C94" s="13">
-        <v>11</v>
-      </c>
-      <c r="D94" s="13" t="s">
+      <c r="C94" s="6">
+        <v>11</v>
+      </c>
+      <c r="D94" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E94" s="13" t="s">
+      <c r="E94" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="F94" s="13">
+      <c r="F94" s="6">
         <v>570</v>
       </c>
-      <c r="G94" s="13">
+      <c r="G94" s="6">
         <v>6270</v>
       </c>
-      <c r="H94" s="13">
+      <c r="H94" s="6">
         <v>480</v>
       </c>
-      <c r="I94" s="13"/>
+      <c r="I94" s="6"/>
     </row>
     <row r="95" spans="1:9">
       <c r="A95" s="5" t="s">
         <v>317</v>
       </c>
-      <c r="B95" s="13" t="s">
+      <c r="B95" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C95" s="13"/>
-      <c r="D95" s="13"/>
-      <c r="E95" s="13"/>
-      <c r="F95" s="13"/>
-      <c r="G95" s="13">
+      <c r="C95" s="6"/>
+      <c r="D95" s="6"/>
+      <c r="E95" s="6"/>
+      <c r="F95" s="6"/>
+      <c r="G95" s="6">
         <v>365</v>
       </c>
-      <c r="H95" s="13">
+      <c r="H95" s="6">
         <v>90</v>
       </c>
-      <c r="I95" s="13"/>
+      <c r="I95" s="6"/>
     </row>
     <row r="96" spans="1:9">
       <c r="A96" s="5" t="s">
         <v>317</v>
       </c>
-      <c r="B96" s="13" t="s">
+      <c r="B96" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C96" s="13">
+      <c r="C96" s="6">
         <v>10</v>
       </c>
-      <c r="D96" s="13" t="s">
+      <c r="D96" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E96" s="13"/>
-      <c r="F96" s="13">
+      <c r="E96" s="6"/>
+      <c r="F96" s="6">
         <v>15</v>
       </c>
-      <c r="G96" s="13">
+      <c r="G96" s="6">
         <v>150</v>
       </c>
-      <c r="H96" s="13">
+      <c r="H96" s="6">
         <v>20</v>
       </c>
-      <c r="I96" s="13"/>
+      <c r="I96" s="6"/>
     </row>
     <row r="97" spans="1:9">
       <c r="A97" s="5" t="s">
         <v>318</v>
       </c>
-      <c r="B97" s="13" t="s">
+      <c r="B97" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="C97" s="13">
+      <c r="C97" s="6">
         <v>1</v>
       </c>
-      <c r="D97" s="13" t="s">
+      <c r="D97" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E97" s="13" t="s">
+      <c r="E97" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="F97" s="13">
+      <c r="F97" s="6">
         <v>560</v>
       </c>
-      <c r="G97" s="13">
+      <c r="G97" s="6">
         <v>560</v>
       </c>
-      <c r="H97" s="13">
+      <c r="H97" s="6">
         <v>240</v>
       </c>
-      <c r="I97" s="13"/>
+      <c r="I97" s="6"/>
     </row>
     <row r="98" spans="1:9">
       <c r="A98" s="5" t="s">
         <v>318</v>
       </c>
-      <c r="B98" s="13" t="s">
+      <c r="B98" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C98" s="13">
+      <c r="C98" s="6">
         <v>1</v>
       </c>
-      <c r="D98" s="13" t="s">
+      <c r="D98" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E98" s="13" t="s">
+      <c r="E98" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="F98" s="13">
+      <c r="F98" s="6">
         <v>570</v>
       </c>
-      <c r="G98" s="13">
+      <c r="G98" s="6">
         <v>570</v>
       </c>
-      <c r="H98" s="13">
+      <c r="H98" s="6">
         <v>55</v>
       </c>
-      <c r="I98" s="13"/>
+      <c r="I98" s="6"/>
     </row>
     <row r="99" spans="1:9">
       <c r="A99" s="5" t="s">
         <v>319</v>
       </c>
-      <c r="B99" s="13" t="s">
+      <c r="B99" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C99" s="13">
+      <c r="C99" s="6">
         <v>10</v>
       </c>
-      <c r="D99" s="13" t="s">
+      <c r="D99" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E99" s="13" t="s">
+      <c r="E99" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="F99" s="13">
+      <c r="F99" s="6">
         <v>675</v>
       </c>
-      <c r="G99" s="13">
+      <c r="G99" s="6">
         <v>6750</v>
       </c>
-      <c r="H99" s="13">
+      <c r="H99" s="6">
         <v>1400</v>
       </c>
-      <c r="I99" s="13"/>
+      <c r="I99" s="6"/>
     </row>
     <row r="100" spans="1:9">
       <c r="A100" s="5" t="s">
         <v>319</v>
       </c>
-      <c r="B100" s="13" t="s">
+      <c r="B100" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="C100" s="13">
+      <c r="C100" s="6">
         <v>2</v>
       </c>
-      <c r="D100" s="13" t="s">
+      <c r="D100" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E100" s="13" t="s">
+      <c r="E100" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="F100" s="13">
+      <c r="F100" s="6">
         <v>560</v>
       </c>
-      <c r="G100" s="13">
+      <c r="G100" s="6">
         <v>1120</v>
       </c>
-      <c r="H100" s="13">
+      <c r="H100" s="6">
         <v>480</v>
       </c>
-      <c r="I100" s="13"/>
+      <c r="I100" s="6"/>
     </row>
     <row r="101" spans="1:9">
       <c r="A101" s="10" t="s">
         <v>319</v>
       </c>
-      <c r="B101" s="14" t="s">
+      <c r="B101" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="C101" s="14">
+      <c r="C101" s="8">
         <v>1</v>
       </c>
-      <c r="D101" s="14" t="s">
+      <c r="D101" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E101" s="14" t="s">
+      <c r="E101" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="F101" s="14">
+      <c r="F101" s="8">
         <v>560</v>
       </c>
-      <c r="G101" s="14">
+      <c r="G101" s="8">
         <v>560</v>
       </c>
-      <c r="H101" s="14">
+      <c r="H101" s="8">
         <v>160</v>
       </c>
-      <c r="I101" s="14"/>
+      <c r="I101" s="8"/>
     </row>
     <row r="102" spans="1:9">
       <c r="A102" s="5" t="s">
         <v>319</v>
       </c>
-      <c r="B102" s="13" t="s">
+      <c r="B102" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C102" s="13"/>
-      <c r="D102" s="13"/>
-      <c r="E102" s="13"/>
-      <c r="F102" s="13"/>
-      <c r="G102" s="13">
+      <c r="C102" s="6"/>
+      <c r="D102" s="6"/>
+      <c r="E102" s="6"/>
+      <c r="F102" s="6"/>
+      <c r="G102" s="6">
         <v>375</v>
       </c>
-      <c r="H102" s="13">
+      <c r="H102" s="6">
         <v>90</v>
       </c>
-      <c r="I102" s="13"/>
+      <c r="I102" s="6"/>
     </row>
     <row r="103" spans="1:9">
       <c r="A103" s="5" t="s">
         <v>320</v>
       </c>
-      <c r="B103" s="13" t="s">
+      <c r="B103" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="C103" s="13">
+      <c r="C103" s="6">
         <v>0.5</v>
       </c>
-      <c r="D103" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E103" s="13"/>
-      <c r="F103" s="13">
+      <c r="D103" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E103" s="6"/>
+      <c r="F103" s="6">
         <v>52</v>
       </c>
-      <c r="G103" s="13">
+      <c r="G103" s="6">
         <v>26</v>
       </c>
-      <c r="H103" s="13">
+      <c r="H103" s="6">
         <v>3</v>
       </c>
-      <c r="I103" s="13"/>
+      <c r="I103" s="6"/>
     </row>
     <row r="104" spans="1:9">
       <c r="A104" s="5" t="s">
         <v>320</v>
       </c>
-      <c r="B104" s="13" t="s">
+      <c r="B104" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C104" s="13">
+      <c r="C104" s="6">
         <v>1</v>
       </c>
-      <c r="D104" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E104" s="13"/>
-      <c r="F104" s="13">
+      <c r="D104" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E104" s="6"/>
+      <c r="F104" s="6">
         <v>16</v>
       </c>
-      <c r="G104" s="13">
+      <c r="G104" s="6">
         <v>16</v>
       </c>
-      <c r="H104" s="13">
+      <c r="H104" s="6">
         <v>1</v>
       </c>
-      <c r="I104" s="13"/>
+      <c r="I104" s="6"/>
     </row>
     <row r="105" spans="1:9">
       <c r="A105" s="10" t="s">
         <v>320</v>
       </c>
-      <c r="B105" s="14" t="s">
+      <c r="B105" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C105" s="14">
+      <c r="C105" s="8">
         <v>1</v>
       </c>
-      <c r="D105" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="E105" s="14"/>
-      <c r="F105" s="14">
+      <c r="D105" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E105" s="8"/>
+      <c r="F105" s="8">
         <v>14</v>
       </c>
-      <c r="G105" s="14">
+      <c r="G105" s="8">
         <v>14</v>
       </c>
-      <c r="H105" s="14">
+      <c r="H105" s="8">
         <v>3</v>
       </c>
-      <c r="I105" s="14"/>
+      <c r="I105" s="8"/>
     </row>
     <row r="106" spans="1:9">
       <c r="A106" s="5" t="s">
         <v>320</v>
       </c>
-      <c r="B106" s="13" t="s">
+      <c r="B106" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C106" s="13">
+      <c r="C106" s="6">
         <v>1</v>
       </c>
-      <c r="D106" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E106" s="13"/>
-      <c r="F106" s="13">
+      <c r="D106" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E106" s="6"/>
+      <c r="F106" s="6">
         <v>9</v>
       </c>
-      <c r="G106" s="13">
+      <c r="G106" s="6">
         <v>9</v>
       </c>
-      <c r="H106" s="13">
+      <c r="H106" s="6">
         <v>2</v>
       </c>
-      <c r="I106" s="13"/>
+      <c r="I106" s="6"/>
     </row>
     <row r="107" spans="1:9">
       <c r="A107" s="5" t="s">
         <v>320</v>
       </c>
-      <c r="B107" s="13" t="s">
+      <c r="B107" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C107" s="13">
+      <c r="C107" s="6">
         <v>1</v>
       </c>
-      <c r="D107" s="13" t="s">
+      <c r="D107" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E107" s="13" t="s">
+      <c r="E107" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="F107" s="13">
+      <c r="F107" s="6">
         <v>275</v>
       </c>
-      <c r="G107" s="13">
+      <c r="G107" s="6">
         <v>275</v>
       </c>
-      <c r="H107" s="13">
+      <c r="H107" s="6">
         <v>25</v>
       </c>
-      <c r="I107" s="13"/>
+      <c r="I107" s="6"/>
     </row>
     <row r="108" spans="1:9">
       <c r="A108" s="5" t="s">
         <v>321</v>
       </c>
-      <c r="B108" s="13" t="s">
+      <c r="B108" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="C108" s="13">
+      <c r="C108" s="6">
         <v>20</v>
       </c>
-      <c r="D108" s="13" t="s">
+      <c r="D108" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E108" s="13" t="s">
+      <c r="E108" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="F108" s="13">
+      <c r="F108" s="6">
         <v>560</v>
       </c>
-      <c r="G108" s="13">
+      <c r="G108" s="6">
         <v>11200</v>
       </c>
-      <c r="H108" s="13">
+      <c r="H108" s="6">
         <v>4740</v>
       </c>
-      <c r="I108" s="13"/>
+      <c r="I108" s="6"/>
     </row>
     <row r="109" spans="1:9">
       <c r="A109" s="5" t="s">
         <v>321</v>
       </c>
-      <c r="B109" s="13" t="s">
+      <c r="B109" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C109" s="13">
+      <c r="C109" s="6">
         <v>1</v>
       </c>
-      <c r="D109" s="13" t="s">
+      <c r="D109" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E109" s="13" t="s">
+      <c r="E109" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="F109" s="13">
+      <c r="F109" s="6">
         <v>880</v>
       </c>
-      <c r="G109" s="13">
+      <c r="G109" s="6">
         <v>880</v>
       </c>
-      <c r="H109" s="13">
+      <c r="H109" s="6">
         <v>80</v>
       </c>
-      <c r="I109" s="13"/>
+      <c r="I109" s="6"/>
     </row>
     <row r="110" spans="1:9">
       <c r="A110" s="5" t="s">
         <v>322</v>
       </c>
-      <c r="B110" s="13" t="s">
+      <c r="B110" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="C110" s="13">
+      <c r="C110" s="6">
         <v>4</v>
       </c>
-      <c r="D110" s="13" t="s">
+      <c r="D110" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E110" s="13" t="s">
+      <c r="E110" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="F110" s="13">
+      <c r="F110" s="6">
         <v>1900</v>
       </c>
-      <c r="G110" s="13">
+      <c r="G110" s="6">
         <v>7600</v>
       </c>
-      <c r="H110" s="13">
+      <c r="H110" s="6">
         <v>600</v>
       </c>
-      <c r="I110" s="13"/>
+      <c r="I110" s="6"/>
     </row>
     <row r="111" spans="1:9">
       <c r="A111" s="5" t="s">
         <v>322</v>
       </c>
-      <c r="B111" s="13" t="s">
+      <c r="B111" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C111" s="13"/>
-      <c r="D111" s="13"/>
-      <c r="E111" s="13"/>
-      <c r="F111" s="13"/>
-      <c r="G111" s="13">
+      <c r="C111" s="6"/>
+      <c r="D111" s="6"/>
+      <c r="E111" s="6"/>
+      <c r="F111" s="6"/>
+      <c r="G111" s="6">
         <v>484</v>
       </c>
-      <c r="H111" s="13">
+      <c r="H111" s="6">
         <v>120</v>
       </c>
-      <c r="I111" s="13"/>
+      <c r="I111" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/2016年销售日记账.xlsx
+++ b/2016年销售日记账.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403">
   <si>
     <t>2016年销售日记账</t>
   </si>
@@ -1203,6 +1203,36 @@
   </si>
   <si>
     <t>2016.11.20</t>
+  </si>
+  <si>
+    <t>2016.11.21</t>
+  </si>
+  <si>
+    <t>2016.11.22</t>
+  </si>
+  <si>
+    <t>2016.11.23</t>
+  </si>
+  <si>
+    <t>2016.11.24</t>
+  </si>
+  <si>
+    <t>2016.11.25</t>
+  </si>
+  <si>
+    <t>中草叩</t>
+  </si>
+  <si>
+    <t>2016.11.27</t>
+  </si>
+  <si>
+    <t>2016.11.28</t>
+  </si>
+  <si>
+    <t>2016.11.29</t>
+  </si>
+  <si>
+    <t>2016.11.30</t>
   </si>
 </sst>
 </file>
@@ -1210,10 +1240,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -1238,9 +1268,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1254,16 +1299,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1275,27 +1321,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1323,34 +1352,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1368,8 +1373,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1384,7 +1414,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1396,49 +1462,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1456,7 +1504,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1474,97 +1588,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1674,6 +1704,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1685,17 +1733,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1718,17 +1755,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1765,9 +1793,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1776,88 +1806,88 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1866,62 +1896,62 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1955,10 +1985,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3556,7 +3589,7 @@
       </c>
     </row>
     <row r="53" spans="1:8">
-      <c r="A53" s="13" t="s">
+      <c r="A53" s="14" t="s">
         <v>57</v>
       </c>
       <c r="B53" s="5" t="s">
@@ -3580,7 +3613,7 @@
       </c>
     </row>
     <row r="54" spans="1:8">
-      <c r="A54" s="14" t="s">
+      <c r="A54" s="15" t="s">
         <v>57</v>
       </c>
       <c r="B54" s="5" t="s">
@@ -3604,7 +3637,7 @@
       </c>
     </row>
     <row r="55" spans="1:8">
-      <c r="A55" s="13" t="s">
+      <c r="A55" s="14" t="s">
         <v>57</v>
       </c>
       <c r="B55" s="5" t="s">
@@ -3628,7 +3661,7 @@
       </c>
     </row>
     <row r="56" spans="1:8">
-      <c r="A56" s="13" t="s">
+      <c r="A56" s="14" t="s">
         <v>57</v>
       </c>
       <c r="B56" s="5" t="s">
@@ -3654,7 +3687,7 @@
       </c>
     </row>
     <row r="57" spans="1:8">
-      <c r="A57" s="13" t="s">
+      <c r="A57" s="14" t="s">
         <v>57</v>
       </c>
       <c r="B57" s="5" t="s">
@@ -3678,7 +3711,7 @@
       </c>
     </row>
     <row r="58" spans="1:8">
-      <c r="A58" s="13" t="s">
+      <c r="A58" s="14" t="s">
         <v>57</v>
       </c>
       <c r="B58" s="6" t="s">
@@ -3704,7 +3737,7 @@
       </c>
     </row>
     <row r="59" spans="1:8">
-      <c r="A59" s="13" t="s">
+      <c r="A59" s="14" t="s">
         <v>58</v>
       </c>
       <c r="B59" s="5" t="s">
@@ -3728,7 +3761,7 @@
       </c>
     </row>
     <row r="60" spans="1:8">
-      <c r="A60" s="13" t="s">
+      <c r="A60" s="14" t="s">
         <v>58</v>
       </c>
       <c r="B60" s="5" t="s">
@@ -3754,7 +3787,7 @@
       </c>
     </row>
     <row r="61" spans="1:8">
-      <c r="A61" s="13" t="s">
+      <c r="A61" s="14" t="s">
         <v>60</v>
       </c>
       <c r="B61" s="6" t="s">
@@ -3780,7 +3813,7 @@
       </c>
     </row>
     <row r="62" spans="1:8">
-      <c r="A62" s="13" t="s">
+      <c r="A62" s="14" t="s">
         <v>60</v>
       </c>
       <c r="B62" s="5" t="s">
@@ -3806,7 +3839,7 @@
       </c>
     </row>
     <row r="63" spans="1:8">
-      <c r="A63" s="13" t="s">
+      <c r="A63" s="14" t="s">
         <v>60</v>
       </c>
       <c r="B63" s="5" t="s">
@@ -3830,7 +3863,7 @@
       </c>
     </row>
     <row r="64" spans="1:8">
-      <c r="A64" s="13" t="s">
+      <c r="A64" s="14" t="s">
         <v>61</v>
       </c>
       <c r="B64" s="5" t="s">
@@ -3854,7 +3887,7 @@
       </c>
     </row>
     <row r="65" spans="1:8">
-      <c r="A65" s="13" t="s">
+      <c r="A65" s="14" t="s">
         <v>61</v>
       </c>
       <c r="B65" s="5" t="s">
@@ -3872,7 +3905,7 @@
       </c>
     </row>
     <row r="66" spans="1:8">
-      <c r="A66" s="13" t="s">
+      <c r="A66" s="14" t="s">
         <v>61</v>
       </c>
       <c r="B66" s="6" t="s">
@@ -3890,7 +3923,7 @@
       </c>
     </row>
     <row r="67" spans="1:8">
-      <c r="A67" s="13" t="s">
+      <c r="A67" s="14" t="s">
         <v>62</v>
       </c>
       <c r="B67" s="6" t="s">
@@ -3908,7 +3941,7 @@
       </c>
     </row>
     <row r="68" spans="1:8">
-      <c r="A68" s="13" t="s">
+      <c r="A68" s="14" t="s">
         <v>62</v>
       </c>
       <c r="B68" s="5" t="s">
@@ -3932,7 +3965,7 @@
       </c>
     </row>
     <row r="69" spans="1:8">
-      <c r="A69" s="13" t="s">
+      <c r="A69" s="14" t="s">
         <v>62</v>
       </c>
       <c r="B69" s="5" t="s">
@@ -3956,7 +3989,7 @@
       </c>
     </row>
     <row r="70" spans="1:8">
-      <c r="A70" s="13" t="s">
+      <c r="A70" s="14" t="s">
         <v>62</v>
       </c>
       <c r="B70" s="5" t="s">
@@ -3980,7 +4013,7 @@
       </c>
     </row>
     <row r="71" spans="1:8">
-      <c r="A71" s="13" t="s">
+      <c r="A71" s="14" t="s">
         <v>62</v>
       </c>
       <c r="B71" s="6" t="s">
@@ -4006,7 +4039,7 @@
       </c>
     </row>
     <row r="72" spans="1:8">
-      <c r="A72" s="13" t="s">
+      <c r="A72" s="14" t="s">
         <v>62</v>
       </c>
       <c r="B72" s="5" t="s">
@@ -4032,7 +4065,7 @@
       </c>
     </row>
     <row r="73" spans="1:8">
-      <c r="A73" s="13" t="s">
+      <c r="A73" s="14" t="s">
         <v>62</v>
       </c>
       <c r="B73" s="5" t="s">
@@ -4056,7 +4089,7 @@
       </c>
     </row>
     <row r="74" spans="1:8">
-      <c r="A74" s="13" t="s">
+      <c r="A74" s="14" t="s">
         <v>62</v>
       </c>
       <c r="B74" s="5" t="s">
@@ -4080,7 +4113,7 @@
       </c>
     </row>
     <row r="75" spans="1:8">
-      <c r="A75" s="13" t="s">
+      <c r="A75" s="14" t="s">
         <v>62</v>
       </c>
       <c r="B75" s="5" t="s">
@@ -4104,7 +4137,7 @@
       </c>
     </row>
     <row r="76" spans="1:8">
-      <c r="A76" s="13" t="s">
+      <c r="A76" s="14" t="s">
         <v>62</v>
       </c>
       <c r="B76" s="5" t="s">
@@ -4128,7 +4161,7 @@
       </c>
     </row>
     <row r="77" spans="1:8">
-      <c r="A77" s="13" t="s">
+      <c r="A77" s="14" t="s">
         <v>62</v>
       </c>
       <c r="B77" s="5" t="s">
@@ -4154,7 +4187,7 @@
       </c>
     </row>
     <row r="78" spans="1:8">
-      <c r="A78" s="13" t="s">
+      <c r="A78" s="14" t="s">
         <v>62</v>
       </c>
       <c r="B78" s="5" t="s">
@@ -4180,7 +4213,7 @@
       </c>
     </row>
     <row r="79" spans="1:8">
-      <c r="A79" s="13" t="s">
+      <c r="A79" s="14" t="s">
         <v>64</v>
       </c>
       <c r="B79" s="5" t="s">
@@ -4206,7 +4239,7 @@
       </c>
     </row>
     <row r="80" spans="1:8">
-      <c r="A80" s="13" t="s">
+      <c r="A80" s="14" t="s">
         <v>64</v>
       </c>
       <c r="B80" s="5" t="s">
@@ -4224,7 +4257,7 @@
       </c>
     </row>
     <row r="81" spans="1:8">
-      <c r="A81" s="13" t="s">
+      <c r="A81" s="14" t="s">
         <v>64</v>
       </c>
       <c r="B81" s="6" t="s">
@@ -4250,7 +4283,7 @@
       </c>
     </row>
     <row r="82" spans="1:8">
-      <c r="A82" s="13" t="s">
+      <c r="A82" s="14" t="s">
         <v>64</v>
       </c>
       <c r="B82" s="5" t="s">
@@ -4274,7 +4307,7 @@
       </c>
     </row>
     <row r="83" spans="1:8">
-      <c r="A83" s="13" t="s">
+      <c r="A83" s="14" t="s">
         <v>64</v>
       </c>
       <c r="B83" s="5" t="s">
@@ -4298,7 +4331,7 @@
       </c>
     </row>
     <row r="84" spans="1:8">
-      <c r="A84" s="13" t="s">
+      <c r="A84" s="14" t="s">
         <v>64</v>
       </c>
       <c r="B84" s="5" t="s">
@@ -4322,7 +4355,7 @@
       </c>
     </row>
     <row r="85" spans="1:8">
-      <c r="A85" s="13" t="s">
+      <c r="A85" s="14" t="s">
         <v>64</v>
       </c>
       <c r="B85" s="5" t="s">
@@ -4346,7 +4379,7 @@
       </c>
     </row>
     <row r="86" spans="1:8">
-      <c r="A86" s="13" t="s">
+      <c r="A86" s="14" t="s">
         <v>66</v>
       </c>
       <c r="B86" s="6" t="s">
@@ -4370,7 +4403,7 @@
       </c>
     </row>
     <row r="87" spans="1:8">
-      <c r="A87" s="13" t="s">
+      <c r="A87" s="14" t="s">
         <v>66</v>
       </c>
       <c r="B87" s="5" t="s">
@@ -4394,7 +4427,7 @@
       </c>
     </row>
     <row r="88" spans="1:8">
-      <c r="A88" s="13" t="s">
+      <c r="A88" s="14" t="s">
         <v>66</v>
       </c>
       <c r="B88" s="5" t="s">
@@ -4418,7 +4451,7 @@
       </c>
     </row>
     <row r="89" spans="1:8">
-      <c r="A89" s="13" t="s">
+      <c r="A89" s="14" t="s">
         <v>67</v>
       </c>
       <c r="B89" s="5" t="s">
@@ -4442,7 +4475,7 @@
       </c>
     </row>
     <row r="90" spans="1:8">
-      <c r="A90" s="13" t="s">
+      <c r="A90" s="14" t="s">
         <v>67</v>
       </c>
       <c r="B90" s="5" t="s">
@@ -4466,7 +4499,7 @@
       </c>
     </row>
     <row r="91" spans="1:8">
-      <c r="A91" s="13" t="s">
+      <c r="A91" s="14" t="s">
         <v>67</v>
       </c>
       <c r="B91" s="5" t="s">
@@ -4490,7 +4523,7 @@
       </c>
     </row>
     <row r="92" spans="1:8">
-      <c r="A92" s="13" t="s">
+      <c r="A92" s="14" t="s">
         <v>67</v>
       </c>
       <c r="B92" s="5" t="s">
@@ -4514,7 +4547,7 @@
       </c>
     </row>
     <row r="93" spans="1:8">
-      <c r="A93" s="13" t="s">
+      <c r="A93" s="14" t="s">
         <v>67</v>
       </c>
       <c r="B93" s="5" t="s">
@@ -4538,7 +4571,7 @@
       </c>
     </row>
     <row r="94" spans="1:8">
-      <c r="A94" s="13" t="s">
+      <c r="A94" s="14" t="s">
         <v>67</v>
       </c>
       <c r="B94" s="5" t="s">
@@ -4562,7 +4595,7 @@
       </c>
     </row>
     <row r="95" spans="1:8">
-      <c r="A95" s="13" t="s">
+      <c r="A95" s="14" t="s">
         <v>67</v>
       </c>
       <c r="B95" s="5" t="s">
@@ -4586,7 +4619,7 @@
       </c>
     </row>
     <row r="96" spans="1:8">
-      <c r="A96" s="13" t="s">
+      <c r="A96" s="14" t="s">
         <v>70</v>
       </c>
       <c r="B96" s="6" t="s">
@@ -4612,7 +4645,7 @@
       </c>
     </row>
     <row r="97" spans="1:8">
-      <c r="A97" s="13" t="s">
+      <c r="A97" s="14" t="s">
         <v>70</v>
       </c>
       <c r="B97" s="5" t="s">
@@ -4638,7 +4671,7 @@
       </c>
     </row>
     <row r="98" spans="1:8">
-      <c r="A98" s="13" t="s">
+      <c r="A98" s="14" t="s">
         <v>70</v>
       </c>
       <c r="B98" s="5" t="s">
@@ -4662,7 +4695,7 @@
       </c>
     </row>
     <row r="99" spans="1:8">
-      <c r="A99" s="13" t="s">
+      <c r="A99" s="14" t="s">
         <v>70</v>
       </c>
       <c r="B99" s="5" t="s">
@@ -4686,7 +4719,7 @@
       </c>
     </row>
     <row r="100" spans="1:8">
-      <c r="A100" s="13" t="s">
+      <c r="A100" s="14" t="s">
         <v>70</v>
       </c>
       <c r="B100" s="5" t="s">
@@ -4710,7 +4743,7 @@
       </c>
     </row>
     <row r="101" spans="1:8">
-      <c r="A101" s="13" t="s">
+      <c r="A101" s="14" t="s">
         <v>70</v>
       </c>
       <c r="B101" s="5" t="s">
@@ -4734,7 +4767,7 @@
       </c>
     </row>
     <row r="102" spans="1:8">
-      <c r="A102" s="13" t="s">
+      <c r="A102" s="14" t="s">
         <v>70</v>
       </c>
       <c r="B102" s="5" t="s">
@@ -4758,7 +4791,7 @@
       </c>
     </row>
     <row r="103" spans="1:8">
-      <c r="A103" s="13" t="s">
+      <c r="A103" s="14" t="s">
         <v>70</v>
       </c>
       <c r="B103" s="5" t="s">
@@ -4782,7 +4815,7 @@
       </c>
     </row>
     <row r="104" spans="1:8">
-      <c r="A104" s="13" t="s">
+      <c r="A104" s="14" t="s">
         <v>70</v>
       </c>
       <c r="B104" s="5" t="s">
@@ -4806,7 +4839,7 @@
       </c>
     </row>
     <row r="105" spans="1:8">
-      <c r="A105" s="13" t="s">
+      <c r="A105" s="14" t="s">
         <v>70</v>
       </c>
       <c r="B105" s="5" t="s">
@@ -4832,7 +4865,7 @@
       </c>
     </row>
     <row r="106" spans="1:8">
-      <c r="A106" s="13" t="s">
+      <c r="A106" s="14" t="s">
         <v>70</v>
       </c>
       <c r="B106" s="5" t="s">
@@ -4856,7 +4889,7 @@
       </c>
     </row>
     <row r="107" spans="1:8">
-      <c r="A107" s="13" t="s">
+      <c r="A107" s="14" t="s">
         <v>70</v>
       </c>
       <c r="B107" s="5" t="s">
@@ -4880,7 +4913,7 @@
       </c>
     </row>
     <row r="108" spans="1:8">
-      <c r="A108" s="13" t="s">
+      <c r="A108" s="14" t="s">
         <v>70</v>
       </c>
       <c r="B108" s="5" t="s">
@@ -4904,7 +4937,7 @@
       </c>
     </row>
     <row r="109" spans="1:8">
-      <c r="A109" s="13" t="s">
+      <c r="A109" s="14" t="s">
         <v>70</v>
       </c>
       <c r="B109" s="5" t="s">
@@ -4930,7 +4963,7 @@
       </c>
     </row>
     <row r="110" spans="1:8">
-      <c r="A110" s="13" t="s">
+      <c r="A110" s="14" t="s">
         <v>70</v>
       </c>
       <c r="B110" s="5" t="s">
@@ -4954,7 +4987,7 @@
       </c>
     </row>
     <row r="111" spans="1:8">
-      <c r="A111" s="13" t="s">
+      <c r="A111" s="14" t="s">
         <v>70</v>
       </c>
       <c r="B111" s="5" t="s">
@@ -4978,7 +5011,7 @@
       </c>
     </row>
     <row r="112" spans="1:8">
-      <c r="A112" s="13" t="s">
+      <c r="A112" s="14" t="s">
         <v>70</v>
       </c>
       <c r="B112" s="5" t="s">
@@ -5002,7 +5035,7 @@
       </c>
     </row>
     <row r="113" spans="1:8">
-      <c r="A113" s="13" t="s">
+      <c r="A113" s="14" t="s">
         <v>70</v>
       </c>
       <c r="B113" s="5" t="s">
@@ -5026,7 +5059,7 @@
       </c>
     </row>
     <row r="114" spans="1:8">
-      <c r="A114" s="13" t="s">
+      <c r="A114" s="14" t="s">
         <v>70</v>
       </c>
       <c r="B114" s="5" t="s">
@@ -5050,7 +5083,7 @@
       </c>
     </row>
     <row r="115" spans="1:8">
-      <c r="A115" s="13" t="s">
+      <c r="A115" s="14" t="s">
         <v>70</v>
       </c>
       <c r="B115" s="5" t="s">
@@ -5076,7 +5109,7 @@
       </c>
     </row>
     <row r="116" spans="1:8">
-      <c r="A116" s="13" t="s">
+      <c r="A116" s="14" t="s">
         <v>70</v>
       </c>
       <c r="B116" s="5" t="s">
@@ -5102,7 +5135,7 @@
       </c>
     </row>
     <row r="117" spans="1:8">
-      <c r="A117" s="13" t="s">
+      <c r="A117" s="14" t="s">
         <v>80</v>
       </c>
       <c r="B117" s="5" t="s">
@@ -5126,7 +5159,7 @@
       </c>
     </row>
     <row r="118" spans="1:8">
-      <c r="A118" s="13" t="s">
+      <c r="A118" s="14" t="s">
         <v>82</v>
       </c>
       <c r="B118" s="6" t="s">
@@ -5150,7 +5183,7 @@
       </c>
     </row>
     <row r="119" spans="1:8">
-      <c r="A119" s="13" t="s">
+      <c r="A119" s="14" t="s">
         <v>82</v>
       </c>
       <c r="B119" s="5" t="s">
@@ -5174,7 +5207,7 @@
       </c>
     </row>
     <row r="120" spans="1:8">
-      <c r="A120" s="13" t="s">
+      <c r="A120" s="14" t="s">
         <v>82</v>
       </c>
       <c r="B120" s="5" t="s">
@@ -5198,7 +5231,7 @@
       </c>
     </row>
     <row r="121" spans="1:8">
-      <c r="A121" s="13" t="s">
+      <c r="A121" s="14" t="s">
         <v>82</v>
       </c>
       <c r="B121" s="5" t="s">
@@ -5222,7 +5255,7 @@
       </c>
     </row>
     <row r="122" spans="1:8">
-      <c r="A122" s="13" t="s">
+      <c r="A122" s="14" t="s">
         <v>82</v>
       </c>
       <c r="B122" s="5" t="s">
@@ -5246,7 +5279,7 @@
       </c>
     </row>
     <row r="123" spans="1:8">
-      <c r="A123" s="13" t="s">
+      <c r="A123" s="14" t="s">
         <v>82</v>
       </c>
       <c r="B123" s="6" t="s">
@@ -5270,7 +5303,7 @@
       </c>
     </row>
     <row r="124" spans="1:8">
-      <c r="A124" s="13" t="s">
+      <c r="A124" s="14" t="s">
         <v>85</v>
       </c>
       <c r="B124" s="5" t="s">
@@ -5296,7 +5329,7 @@
       </c>
     </row>
     <row r="125" spans="1:8">
-      <c r="A125" s="13" t="s">
+      <c r="A125" s="14" t="s">
         <v>85</v>
       </c>
       <c r="B125" s="6" t="s">
@@ -5322,7 +5355,7 @@
       </c>
     </row>
     <row r="126" spans="1:8">
-      <c r="A126" s="13" t="s">
+      <c r="A126" s="14" t="s">
         <v>85</v>
       </c>
       <c r="B126" s="5" t="s">
@@ -5348,7 +5381,7 @@
       </c>
     </row>
     <row r="127" spans="1:8">
-      <c r="A127" s="13" t="s">
+      <c r="A127" s="14" t="s">
         <v>85</v>
       </c>
       <c r="B127" s="5" t="s">
@@ -5374,7 +5407,7 @@
       </c>
     </row>
     <row r="128" spans="1:8">
-      <c r="A128" s="13" t="s">
+      <c r="A128" s="14" t="s">
         <v>85</v>
       </c>
       <c r="B128" s="5" t="s">
@@ -5400,7 +5433,7 @@
       </c>
     </row>
     <row r="129" spans="1:8">
-      <c r="A129" s="13" t="s">
+      <c r="A129" s="14" t="s">
         <v>86</v>
       </c>
       <c r="B129" s="6" t="s">
@@ -5418,7 +5451,7 @@
       </c>
     </row>
     <row r="130" spans="1:8">
-      <c r="A130" s="13" t="s">
+      <c r="A130" s="14" t="s">
         <v>86</v>
       </c>
       <c r="B130" s="5" t="s">
@@ -5444,7 +5477,7 @@
       </c>
     </row>
     <row r="131" spans="1:8">
-      <c r="A131" s="13" t="s">
+      <c r="A131" s="14" t="s">
         <v>86</v>
       </c>
       <c r="B131" s="5" t="s">
@@ -5470,7 +5503,7 @@
       </c>
     </row>
     <row r="132" spans="1:8">
-      <c r="A132" s="13" t="s">
+      <c r="A132" s="14" t="s">
         <v>86</v>
       </c>
       <c r="B132" s="5" t="s">
@@ -5494,7 +5527,7 @@
       </c>
     </row>
     <row r="133" spans="1:8">
-      <c r="A133" s="13" t="s">
+      <c r="A133" s="14" t="s">
         <v>86</v>
       </c>
       <c r="B133" s="5" t="s">
@@ -5518,7 +5551,7 @@
       </c>
     </row>
     <row r="134" spans="1:8">
-      <c r="A134" s="13" t="s">
+      <c r="A134" s="14" t="s">
         <v>86</v>
       </c>
       <c r="B134" s="5" t="s">
@@ -5542,7 +5575,7 @@
       </c>
     </row>
     <row r="135" spans="1:8">
-      <c r="A135" s="13" t="s">
+      <c r="A135" s="14" t="s">
         <v>86</v>
       </c>
       <c r="B135" s="5" t="s">
@@ -5566,7 +5599,7 @@
       </c>
     </row>
     <row r="136" spans="1:8">
-      <c r="A136" s="13" t="s">
+      <c r="A136" s="14" t="s">
         <v>86</v>
       </c>
       <c r="B136" s="5" t="s">
@@ -5590,7 +5623,7 @@
       </c>
     </row>
     <row r="137" spans="1:8">
-      <c r="A137" s="13" t="s">
+      <c r="A137" s="14" t="s">
         <v>86</v>
       </c>
       <c r="B137" s="5" t="s">
@@ -5614,7 +5647,7 @@
       </c>
     </row>
     <row r="138" spans="1:8">
-      <c r="A138" s="13" t="s">
+      <c r="A138" s="14" t="s">
         <v>86</v>
       </c>
       <c r="B138" s="5" t="s">
@@ -5638,7 +5671,7 @@
       </c>
     </row>
     <row r="139" spans="1:8">
-      <c r="A139" s="13" t="s">
+      <c r="A139" s="14" t="s">
         <v>89</v>
       </c>
       <c r="B139" s="5" t="s">
@@ -5662,7 +5695,7 @@
       </c>
     </row>
     <row r="140" spans="1:8">
-      <c r="A140" s="13" t="s">
+      <c r="A140" s="14" t="s">
         <v>89</v>
       </c>
       <c r="B140" s="6" t="s">
@@ -5688,7 +5721,7 @@
       </c>
     </row>
     <row r="141" spans="1:8">
-      <c r="A141" s="13" t="s">
+      <c r="A141" s="14" t="s">
         <v>89</v>
       </c>
       <c r="B141" s="5" t="s">
@@ -5712,7 +5745,7 @@
       </c>
     </row>
     <row r="142" spans="1:8">
-      <c r="A142" s="13" t="s">
+      <c r="A142" s="14" t="s">
         <v>89</v>
       </c>
       <c r="B142" s="5" t="s">
@@ -5736,7 +5769,7 @@
       </c>
     </row>
     <row r="143" spans="1:8">
-      <c r="A143" s="13" t="s">
+      <c r="A143" s="14" t="s">
         <v>89</v>
       </c>
       <c r="B143" s="5" t="s">
@@ -5760,7 +5793,7 @@
       </c>
     </row>
     <row r="144" spans="1:8">
-      <c r="A144" s="13" t="s">
+      <c r="A144" s="14" t="s">
         <v>89</v>
       </c>
       <c r="B144" s="5" t="s">
@@ -5784,7 +5817,7 @@
       </c>
     </row>
     <row r="145" spans="1:8">
-      <c r="A145" s="13" t="s">
+      <c r="A145" s="14" t="s">
         <v>89</v>
       </c>
       <c r="B145" s="5" t="s">
@@ -5808,7 +5841,7 @@
       </c>
     </row>
     <row r="146" spans="1:8">
-      <c r="A146" s="13" t="s">
+      <c r="A146" s="14" t="s">
         <v>89</v>
       </c>
       <c r="B146" s="5" t="s">
@@ -5832,7 +5865,7 @@
       </c>
     </row>
     <row r="147" spans="1:8">
-      <c r="A147" s="13" t="s">
+      <c r="A147" s="14" t="s">
         <v>89</v>
       </c>
       <c r="B147" s="5" t="s">
@@ -5856,7 +5889,7 @@
       </c>
     </row>
     <row r="148" spans="1:8">
-      <c r="A148" s="13" t="s">
+      <c r="A148" s="14" t="s">
         <v>89</v>
       </c>
       <c r="B148" s="5" t="s">
@@ -5880,7 +5913,7 @@
       </c>
     </row>
     <row r="149" spans="1:8">
-      <c r="A149" s="13" t="s">
+      <c r="A149" s="14" t="s">
         <v>89</v>
       </c>
       <c r="B149" s="5" t="s">
@@ -5904,7 +5937,7 @@
       </c>
     </row>
     <row r="150" spans="1:8">
-      <c r="A150" s="13" t="s">
+      <c r="A150" s="14" t="s">
         <v>89</v>
       </c>
       <c r="B150" s="5" t="s">
@@ -5928,7 +5961,7 @@
       </c>
     </row>
     <row r="151" spans="1:8">
-      <c r="A151" s="13" t="s">
+      <c r="A151" s="14" t="s">
         <v>90</v>
       </c>
       <c r="B151" s="6" t="s">
@@ -5946,7 +5979,7 @@
       </c>
     </row>
     <row r="152" spans="1:8">
-      <c r="A152" s="13" t="s">
+      <c r="A152" s="14" t="s">
         <v>90</v>
       </c>
       <c r="B152" s="5" t="s">
@@ -5970,7 +6003,7 @@
       </c>
     </row>
     <row r="153" spans="1:8">
-      <c r="A153" s="13" t="s">
+      <c r="A153" s="14" t="s">
         <v>90</v>
       </c>
       <c r="B153" s="6" t="s">
@@ -5996,7 +6029,7 @@
       </c>
     </row>
     <row r="154" spans="1:8">
-      <c r="A154" s="13" t="s">
+      <c r="A154" s="14" t="s">
         <v>90</v>
       </c>
       <c r="B154" s="5" t="s">
@@ -6020,7 +6053,7 @@
       </c>
     </row>
     <row r="155" spans="1:8">
-      <c r="A155" s="13" t="s">
+      <c r="A155" s="14" t="s">
         <v>90</v>
       </c>
       <c r="B155" s="8" t="s">
@@ -6044,7 +6077,7 @@
       </c>
     </row>
     <row r="156" spans="1:8">
-      <c r="A156" s="13" t="s">
+      <c r="A156" s="14" t="s">
         <v>90</v>
       </c>
       <c r="B156" s="5" t="s">
@@ -6068,7 +6101,7 @@
       </c>
     </row>
     <row r="157" spans="1:8">
-      <c r="A157" s="13" t="s">
+      <c r="A157" s="14" t="s">
         <v>90</v>
       </c>
       <c r="B157" s="5" t="s">
@@ -6092,7 +6125,7 @@
       </c>
     </row>
     <row r="158" spans="1:8">
-      <c r="A158" s="13" t="s">
+      <c r="A158" s="14" t="s">
         <v>90</v>
       </c>
       <c r="B158" s="5" t="s">
@@ -6116,7 +6149,7 @@
       </c>
     </row>
     <row r="159" spans="1:8">
-      <c r="A159" s="14" t="s">
+      <c r="A159" s="15" t="s">
         <v>90</v>
       </c>
       <c r="B159" s="10" t="s">
@@ -7169,8 +7202,8 @@
   <sheetPr/>
   <dimension ref="A1:I117"/>
   <sheetViews>
-    <sheetView topLeftCell="A93" workbookViewId="0">
-      <selection activeCell="H117" sqref="G117:H117"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="P25" sqref="P25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15"/>
@@ -7711,7 +7744,9 @@
       <c r="G22" s="6">
         <v>140</v>
       </c>
-      <c r="H22" s="6"/>
+      <c r="H22" s="6">
+        <v>90</v>
+      </c>
       <c r="I22" s="6"/>
     </row>
     <row r="23" spans="1:9">
@@ -8288,7 +8323,7 @@
       <c r="I45" s="8"/>
     </row>
     <row r="46" spans="1:9">
-      <c r="A46" s="13" t="s">
+      <c r="A46" s="14" t="s">
         <v>347</v>
       </c>
       <c r="B46" s="6" t="s">
@@ -8313,7 +8348,7 @@
       <c r="I46" s="6"/>
     </row>
     <row r="47" spans="1:9">
-      <c r="A47" s="13" t="s">
+      <c r="A47" s="14" t="s">
         <v>349</v>
       </c>
       <c r="B47" s="6" t="s">
@@ -8338,7 +8373,7 @@
       <c r="I47" s="6"/>
     </row>
     <row r="48" spans="1:9">
-      <c r="A48" s="13" t="s">
+      <c r="A48" s="14" t="s">
         <v>349</v>
       </c>
       <c r="B48" s="6" t="s">
@@ -8363,7 +8398,7 @@
       <c r="I48" s="6"/>
     </row>
     <row r="49" spans="1:9">
-      <c r="A49" s="13" t="s">
+      <c r="A49" s="14" t="s">
         <v>349</v>
       </c>
       <c r="B49" s="6" t="s">
@@ -8388,7 +8423,7 @@
       <c r="I49" s="6"/>
     </row>
     <row r="50" spans="1:9">
-      <c r="A50" s="14" t="s">
+      <c r="A50" s="15" t="s">
         <v>349</v>
       </c>
       <c r="B50" s="8" t="s">
@@ -8850,7 +8885,7 @@
       <c r="I67" s="8"/>
     </row>
     <row r="68" spans="1:9">
-      <c r="A68" s="13" t="s">
+      <c r="A68" s="14" t="s">
         <v>354</v>
       </c>
       <c r="B68" s="6" t="s">
@@ -8875,7 +8910,7 @@
       <c r="I68" s="6"/>
     </row>
     <row r="69" spans="1:9">
-      <c r="A69" s="13" t="s">
+      <c r="A69" s="14" t="s">
         <v>354</v>
       </c>
       <c r="B69" s="6" t="s">
@@ -8900,7 +8935,7 @@
       <c r="I69" s="6"/>
     </row>
     <row r="70" spans="1:9">
-      <c r="A70" s="14" t="s">
+      <c r="A70" s="15" t="s">
         <v>354</v>
       </c>
       <c r="B70" s="8" t="s">
@@ -10085,7 +10120,7 @@
       </c>
       <c r="H117" s="1">
         <f>SUM(H3:H116)</f>
-        <v>12125.9</v>
+        <v>12215.9</v>
       </c>
     </row>
   </sheetData>
@@ -10100,10 +10135,10 @@
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:I115"/>
+  <dimension ref="A1:I143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="A96" sqref="A96:I115"/>
+    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
+      <selection activeCell="C146" sqref="C146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15"/>
@@ -10371,7 +10406,9 @@
       <c r="G11" s="6">
         <v>825</v>
       </c>
-      <c r="H11" s="6"/>
+      <c r="H11" s="6">
+        <v>175</v>
+      </c>
       <c r="I11" s="6"/>
     </row>
     <row r="12" spans="1:9">
@@ -10446,7 +10483,9 @@
       <c r="G14" s="6">
         <v>130</v>
       </c>
-      <c r="H14" s="6"/>
+      <c r="H14" s="6">
+        <v>30</v>
+      </c>
       <c r="I14" s="6"/>
     </row>
     <row r="15" spans="1:9">
@@ -10519,7 +10558,9 @@
       <c r="G17" s="6">
         <v>15</v>
       </c>
-      <c r="H17" s="6"/>
+      <c r="H17" s="6">
+        <v>2</v>
+      </c>
       <c r="I17" s="6"/>
     </row>
     <row r="18" spans="1:9">
@@ -10542,7 +10583,9 @@
       <c r="G18" s="6">
         <v>30</v>
       </c>
-      <c r="H18" s="6"/>
+      <c r="H18" s="6">
+        <v>7</v>
+      </c>
       <c r="I18" s="6"/>
     </row>
     <row r="19" spans="1:9">
@@ -10736,7 +10779,9 @@
       <c r="G26" s="6">
         <v>27</v>
       </c>
-      <c r="H26" s="6"/>
+      <c r="H26" s="6">
+        <v>7</v>
+      </c>
       <c r="I26" s="6"/>
     </row>
     <row r="27" spans="1:9">
@@ -11059,7 +11104,9 @@
       <c r="G39" s="6">
         <v>264.5</v>
       </c>
-      <c r="H39" s="6"/>
+      <c r="H39" s="6">
+        <v>32.2</v>
+      </c>
       <c r="I39" s="6"/>
     </row>
     <row r="40" spans="1:9">
@@ -11082,7 +11129,9 @@
       <c r="G40" s="6">
         <v>130</v>
       </c>
-      <c r="H40" s="6"/>
+      <c r="H40" s="6">
+        <v>30</v>
+      </c>
       <c r="I40" s="6"/>
     </row>
     <row r="41" spans="1:9">
@@ -11319,7 +11368,9 @@
       <c r="G49" s="6">
         <v>735</v>
       </c>
-      <c r="H49" s="6"/>
+      <c r="H49" s="6">
+        <v>40</v>
+      </c>
       <c r="I49" s="6"/>
     </row>
     <row r="50" spans="1:9">
@@ -11421,7 +11472,9 @@
       <c r="G53" s="6">
         <v>435</v>
       </c>
-      <c r="H53" s="6"/>
+      <c r="H53" s="6">
+        <v>39</v>
+      </c>
       <c r="I53" s="6"/>
     </row>
     <row r="54" spans="1:9">
@@ -11444,7 +11497,9 @@
       <c r="G54" s="6">
         <v>105</v>
       </c>
-      <c r="H54" s="6"/>
+      <c r="H54" s="6">
+        <v>51</v>
+      </c>
       <c r="I54" s="6"/>
     </row>
     <row r="55" spans="1:9">
@@ -11494,7 +11549,9 @@
       <c r="G56" s="6">
         <v>420</v>
       </c>
-      <c r="H56" s="6"/>
+      <c r="H56" s="6">
+        <v>-25</v>
+      </c>
       <c r="I56" s="6"/>
     </row>
     <row r="57" spans="1:9">
@@ -11517,7 +11574,9 @@
       <c r="G57" s="6">
         <v>77.5</v>
       </c>
-      <c r="H57" s="6"/>
+      <c r="H57" s="6">
+        <v>17</v>
+      </c>
       <c r="I57" s="6"/>
     </row>
     <row r="58" spans="1:9">
@@ -11540,7 +11599,9 @@
       <c r="G58" s="6">
         <v>252</v>
       </c>
-      <c r="H58" s="6"/>
+      <c r="H58" s="6">
+        <v>6</v>
+      </c>
       <c r="I58" s="6"/>
     </row>
     <row r="59" spans="1:9">
@@ -11563,7 +11624,9 @@
       <c r="G59" s="6">
         <v>56</v>
       </c>
-      <c r="H59" s="6"/>
+      <c r="H59" s="6">
+        <v>14</v>
+      </c>
       <c r="I59" s="6"/>
     </row>
     <row r="60" spans="1:9">
@@ -11586,7 +11649,9 @@
       <c r="G60" s="8">
         <v>51</v>
       </c>
-      <c r="H60" s="8"/>
+      <c r="H60" s="8">
+        <v>3</v>
+      </c>
       <c r="I60" s="8"/>
     </row>
     <row r="61" spans="1:9">
@@ -11609,7 +11674,9 @@
       <c r="G61" s="6">
         <v>65</v>
       </c>
-      <c r="H61" s="6"/>
+      <c r="H61" s="6">
+        <v>20</v>
+      </c>
       <c r="I61" s="6"/>
     </row>
     <row r="62" spans="1:9">
@@ -11659,7 +11726,9 @@
       <c r="G63" s="6">
         <v>300</v>
       </c>
-      <c r="H63" s="6"/>
+      <c r="H63" s="6">
+        <v>40</v>
+      </c>
       <c r="I63" s="6"/>
     </row>
     <row r="64" spans="1:9">
@@ -11763,7 +11832,9 @@
       <c r="G67" s="8">
         <v>2850</v>
       </c>
-      <c r="H67" s="8"/>
+      <c r="H67" s="8">
+        <v>360</v>
+      </c>
       <c r="I67" s="8"/>
     </row>
     <row r="68" spans="1:9">
@@ -11915,7 +11986,9 @@
       <c r="G73" s="6">
         <v>140</v>
       </c>
-      <c r="H73" s="6"/>
+      <c r="H73" s="6">
+        <v>12</v>
+      </c>
       <c r="I73" s="6"/>
     </row>
     <row r="74" spans="1:9">
@@ -12007,7 +12080,9 @@
       <c r="G77" s="6">
         <v>56</v>
       </c>
-      <c r="H77" s="6"/>
+      <c r="H77" s="6">
+        <v>10</v>
+      </c>
       <c r="I77" s="6"/>
     </row>
     <row r="78" spans="1:9">
@@ -12230,7 +12305,9 @@
       <c r="G86" s="6">
         <v>30</v>
       </c>
-      <c r="H86" s="6"/>
+      <c r="H86" s="6">
+        <v>7</v>
+      </c>
       <c r="I86" s="6"/>
     </row>
     <row r="87" spans="1:9">
@@ -12253,7 +12330,9 @@
       <c r="G87" s="6">
         <v>72</v>
       </c>
-      <c r="H87" s="6"/>
+      <c r="H87" s="6">
+        <v>2</v>
+      </c>
       <c r="I87" s="6"/>
     </row>
     <row r="88" spans="1:9">
@@ -12326,7 +12405,9 @@
       <c r="G90" s="8">
         <v>40</v>
       </c>
-      <c r="H90" s="8"/>
+      <c r="H90" s="8">
+        <v>10</v>
+      </c>
       <c r="I90" s="8"/>
     </row>
     <row r="91" spans="1:9">
@@ -12401,7 +12482,9 @@
       <c r="G93" s="6">
         <v>1950</v>
       </c>
-      <c r="H93" s="6"/>
+      <c r="H93" s="6">
+        <v>390</v>
+      </c>
       <c r="I93" s="6"/>
     </row>
     <row r="94" spans="1:9">
@@ -12426,7 +12509,9 @@
       <c r="G94" s="6">
         <v>1710</v>
       </c>
-      <c r="H94" s="6"/>
+      <c r="H94" s="6">
+        <v>180</v>
+      </c>
       <c r="I94" s="6"/>
     </row>
     <row r="95" spans="1:9">
@@ -12451,7 +12536,9 @@
       <c r="G95" s="8">
         <v>3700</v>
       </c>
-      <c r="H95" s="8"/>
+      <c r="H95" s="8">
+        <v>200</v>
+      </c>
       <c r="I95" s="8"/>
     </row>
     <row r="96" spans="1:9">
@@ -12476,485 +12563,1183 @@
       <c r="G96" s="6">
         <v>1450</v>
       </c>
-      <c r="H96" s="6"/>
+      <c r="H96" s="6">
+        <v>160</v>
+      </c>
       <c r="I96" s="6"/>
     </row>
     <row r="97" spans="1:9">
       <c r="A97" s="5" t="s">
         <v>390</v>
       </c>
-      <c r="B97" s="11" t="s">
+      <c r="B97" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="C97" s="11">
+      <c r="C97" s="6">
         <v>2</v>
       </c>
-      <c r="D97" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E97" s="11"/>
-      <c r="F97" s="11">
+      <c r="D97" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E97" s="6"/>
+      <c r="F97" s="6">
         <v>52</v>
       </c>
-      <c r="G97" s="11">
+      <c r="G97" s="6">
         <v>104</v>
       </c>
-      <c r="H97" s="11"/>
-      <c r="I97" s="11"/>
+      <c r="H97" s="6">
+        <v>14</v>
+      </c>
+      <c r="I97" s="6"/>
     </row>
     <row r="98" spans="1:9">
       <c r="A98" s="5" t="s">
         <v>391</v>
       </c>
-      <c r="B98" s="11" t="s">
+      <c r="B98" s="6" t="s">
         <v>333</v>
       </c>
-      <c r="C98" s="11">
+      <c r="C98" s="6">
         <v>5</v>
       </c>
-      <c r="D98" s="11" t="s">
+      <c r="D98" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E98" s="11" t="s">
+      <c r="E98" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="F98" s="11">
+      <c r="F98" s="6">
         <v>675</v>
       </c>
-      <c r="G98" s="11">
+      <c r="G98" s="6">
         <v>3375</v>
       </c>
-      <c r="H98" s="11"/>
-      <c r="I98" s="11"/>
+      <c r="H98" s="6">
+        <v>665</v>
+      </c>
+      <c r="I98" s="6"/>
     </row>
     <row r="99" spans="1:9">
       <c r="A99" s="5" t="s">
         <v>391</v>
       </c>
-      <c r="B99" s="11" t="s">
+      <c r="B99" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C99" s="11">
+      <c r="C99" s="6">
         <v>1</v>
       </c>
-      <c r="D99" s="11" t="s">
+      <c r="D99" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E99" s="11" t="s">
+      <c r="E99" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="F99" s="11">
+      <c r="F99" s="6">
         <v>725</v>
       </c>
-      <c r="G99" s="11">
+      <c r="G99" s="6">
         <v>725</v>
       </c>
-      <c r="H99" s="11"/>
-      <c r="I99" s="11"/>
+      <c r="H99" s="6">
+        <v>80</v>
+      </c>
+      <c r="I99" s="6"/>
     </row>
     <row r="100" spans="1:9">
       <c r="A100" s="5" t="s">
         <v>391</v>
       </c>
-      <c r="B100" s="11" t="s">
+      <c r="B100" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="C100" s="11">
+      <c r="C100" s="6">
         <v>4</v>
       </c>
-      <c r="D100" s="11" t="s">
+      <c r="D100" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E100" s="11" t="s">
+      <c r="E100" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="F100" s="11">
+      <c r="F100" s="6">
         <v>1850</v>
       </c>
-      <c r="G100" s="11">
+      <c r="G100" s="6">
         <v>7400</v>
       </c>
-      <c r="H100" s="11"/>
-      <c r="I100" s="11"/>
+      <c r="H100" s="6">
+        <v>400</v>
+      </c>
+      <c r="I100" s="6"/>
     </row>
     <row r="101" spans="1:9">
       <c r="A101" s="5" t="s">
         <v>391</v>
       </c>
-      <c r="B101" s="11" t="s">
+      <c r="B101" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C101" s="11">
+      <c r="C101" s="6">
         <v>3</v>
       </c>
-      <c r="D101" s="11" t="s">
+      <c r="D101" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E101" s="11" t="s">
+      <c r="E101" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="F101" s="11">
+      <c r="F101" s="6">
         <v>1200</v>
       </c>
-      <c r="G101" s="11">
+      <c r="G101" s="6">
         <v>3600</v>
       </c>
-      <c r="H101" s="11"/>
-      <c r="I101" s="11"/>
+      <c r="H101" s="6">
+        <v>570</v>
+      </c>
+      <c r="I101" s="6"/>
     </row>
     <row r="102" spans="1:9">
       <c r="A102" s="5" t="s">
         <v>392</v>
       </c>
-      <c r="B102" s="11" t="s">
+      <c r="B102" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="C102" s="11">
+      <c r="C102" s="6">
         <v>10</v>
       </c>
-      <c r="D102" s="11" t="s">
+      <c r="D102" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E102" s="11" t="s">
+      <c r="E102" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="F102" s="11">
+      <c r="F102" s="6">
         <v>560</v>
       </c>
-      <c r="G102" s="11">
+      <c r="G102" s="6">
         <v>5600</v>
       </c>
-      <c r="H102" s="11">
+      <c r="H102" s="6">
         <v>750</v>
       </c>
-      <c r="I102" s="11"/>
+      <c r="I102" s="6"/>
     </row>
     <row r="103" spans="1:9">
       <c r="A103" s="5" t="s">
         <v>392</v>
       </c>
-      <c r="B103" s="11" t="s">
+      <c r="B103" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C103" s="11">
+      <c r="C103" s="6">
         <v>1</v>
       </c>
-      <c r="D103" s="11" t="s">
+      <c r="D103" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E103" s="11" t="s">
+      <c r="E103" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="F103" s="11">
+      <c r="F103" s="6">
         <v>570</v>
       </c>
-      <c r="G103" s="11">
+      <c r="G103" s="6">
         <v>570</v>
       </c>
-      <c r="H103" s="11">
+      <c r="H103" s="6">
         <v>50</v>
       </c>
-      <c r="I103" s="11"/>
+      <c r="I103" s="6"/>
     </row>
     <row r="104" spans="1:9">
       <c r="A104" s="5" t="s">
         <v>392</v>
       </c>
-      <c r="B104" s="12" t="s">
+      <c r="B104" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="C104" s="12">
+      <c r="C104" s="6">
         <v>15</v>
       </c>
-      <c r="D104" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E104" s="12"/>
-      <c r="F104" s="12">
+      <c r="D104" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E104" s="6"/>
+      <c r="F104" s="6">
         <v>50</v>
       </c>
-      <c r="G104" s="12">
+      <c r="G104" s="6">
         <v>750</v>
       </c>
-      <c r="H104" s="12">
+      <c r="H104" s="6">
         <v>75</v>
       </c>
-      <c r="I104" s="11"/>
+      <c r="I104" s="6"/>
     </row>
     <row r="105" spans="1:9">
       <c r="A105" s="5" t="s">
         <v>392</v>
       </c>
-      <c r="B105" s="12" t="s">
+      <c r="B105" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C105" s="12">
+      <c r="C105" s="6">
         <v>20</v>
       </c>
-      <c r="D105" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E105" s="12"/>
-      <c r="F105" s="12">
+      <c r="D105" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E105" s="6"/>
+      <c r="F105" s="6">
         <v>11.5</v>
       </c>
-      <c r="G105" s="12">
+      <c r="G105" s="6">
         <v>230</v>
       </c>
-      <c r="H105" s="12"/>
-      <c r="I105" s="11"/>
+      <c r="H105" s="6">
+        <v>28</v>
+      </c>
+      <c r="I105" s="6"/>
     </row>
     <row r="106" spans="1:9">
       <c r="A106" s="5" t="s">
         <v>392</v>
       </c>
-      <c r="B106" s="12" t="s">
+      <c r="B106" s="6" t="s">
         <v>375</v>
       </c>
-      <c r="C106" s="12">
+      <c r="C106" s="6">
         <v>20</v>
       </c>
-      <c r="D106" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E106" s="12"/>
-      <c r="F106" s="12">
+      <c r="D106" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E106" s="6"/>
+      <c r="F106" s="6">
         <v>6.5</v>
       </c>
-      <c r="G106" s="12">
+      <c r="G106" s="6">
         <v>130</v>
       </c>
-      <c r="H106" s="12"/>
-      <c r="I106" s="11"/>
+      <c r="H106" s="6">
+        <v>30</v>
+      </c>
+      <c r="I106" s="6"/>
     </row>
     <row r="107" spans="1:9">
       <c r="A107" s="5" t="s">
         <v>392</v>
       </c>
-      <c r="B107" s="12" t="s">
+      <c r="B107" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C107" s="12">
+      <c r="C107" s="6">
         <v>20</v>
       </c>
-      <c r="D107" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E107" s="12"/>
-      <c r="F107" s="12">
+      <c r="D107" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E107" s="6"/>
+      <c r="F107" s="6">
         <v>19</v>
       </c>
-      <c r="G107" s="12">
+      <c r="G107" s="6">
         <v>380</v>
       </c>
-      <c r="H107" s="12">
+      <c r="H107" s="6">
         <v>20</v>
       </c>
-      <c r="I107" s="11"/>
+      <c r="I107" s="6"/>
     </row>
     <row r="108" spans="1:9">
       <c r="A108" s="5" t="s">
         <v>392</v>
       </c>
-      <c r="B108" s="12" t="s">
+      <c r="B108" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C108" s="12">
+      <c r="C108" s="6">
         <v>2</v>
       </c>
-      <c r="D108" s="12" t="s">
+      <c r="D108" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E108" s="12" t="s">
+      <c r="E108" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="F108" s="12">
+      <c r="F108" s="6">
         <v>275</v>
       </c>
-      <c r="G108" s="12">
+      <c r="G108" s="6">
         <v>550</v>
       </c>
-      <c r="H108" s="12">
+      <c r="H108" s="6">
         <v>50</v>
       </c>
-      <c r="I108" s="11"/>
+      <c r="I108" s="6"/>
     </row>
     <row r="109" spans="1:9">
       <c r="A109" s="5" t="s">
         <v>392</v>
       </c>
-      <c r="B109" s="11" t="s">
+      <c r="B109" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="C109" s="11">
+      <c r="C109" s="6">
         <v>1</v>
       </c>
-      <c r="D109" s="11" t="s">
+      <c r="D109" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E109" s="11" t="s">
+      <c r="E109" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="F109" s="11">
+      <c r="F109" s="6">
         <v>525</v>
       </c>
-      <c r="G109" s="11">
+      <c r="G109" s="6">
         <v>525</v>
       </c>
-      <c r="H109" s="11"/>
-      <c r="I109" s="11"/>
+      <c r="H109" s="6">
+        <v>25</v>
+      </c>
+      <c r="I109" s="6"/>
     </row>
     <row r="110" spans="1:9">
       <c r="A110" s="5" t="s">
         <v>392</v>
       </c>
-      <c r="B110" s="12" t="s">
+      <c r="B110" s="6" t="s">
         <v>375</v>
       </c>
-      <c r="C110" s="12">
+      <c r="C110" s="6">
         <v>2</v>
       </c>
-      <c r="D110" s="12" t="s">
+      <c r="D110" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E110" s="12" t="s">
+      <c r="E110" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="F110" s="12">
+      <c r="F110" s="6">
         <v>315</v>
       </c>
-      <c r="G110" s="12">
+      <c r="G110" s="6">
         <v>630</v>
       </c>
-      <c r="H110" s="12">
+      <c r="H110" s="6">
         <v>140</v>
       </c>
-      <c r="I110" s="11"/>
+      <c r="I110" s="6"/>
     </row>
     <row r="111" spans="1:9">
-      <c r="A111" s="5" t="s">
+      <c r="A111" s="10" t="s">
         <v>392</v>
       </c>
-      <c r="B111" s="12" t="s">
+      <c r="B111" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="C111" s="12">
+      <c r="C111" s="8">
         <v>8</v>
       </c>
-      <c r="D111" s="12" t="s">
+      <c r="D111" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="E111" s="12"/>
-      <c r="F111" s="12">
+      <c r="E111" s="8"/>
+      <c r="F111" s="8">
         <v>14</v>
       </c>
-      <c r="G111" s="12">
+      <c r="G111" s="8">
         <v>112</v>
       </c>
-      <c r="H111" s="12">
+      <c r="H111" s="8">
         <v>48</v>
       </c>
-      <c r="I111" s="11"/>
+      <c r="I111" s="8"/>
     </row>
     <row r="112" spans="1:9">
       <c r="A112" s="5" t="s">
         <v>392</v>
       </c>
-      <c r="B112" s="12" t="s">
+      <c r="B112" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C112" s="12">
+      <c r="C112" s="6">
         <v>8</v>
       </c>
-      <c r="D112" s="12" t="s">
+      <c r="D112" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E112" s="12"/>
-      <c r="F112" s="12">
+      <c r="E112" s="6"/>
+      <c r="F112" s="6">
         <v>86</v>
       </c>
-      <c r="G112" s="12">
+      <c r="G112" s="6">
         <v>704</v>
       </c>
-      <c r="H112" s="12">
+      <c r="H112" s="6">
         <v>-32</v>
       </c>
-      <c r="I112" s="11"/>
+      <c r="I112" s="6"/>
     </row>
     <row r="113" spans="1:9">
       <c r="A113" s="5" t="s">
         <v>392</v>
       </c>
-      <c r="B113" s="12" t="s">
+      <c r="B113" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C113" s="12">
+      <c r="C113" s="6">
         <v>8</v>
       </c>
-      <c r="D113" s="12" t="s">
+      <c r="D113" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E113" s="12"/>
-      <c r="F113" s="12">
+      <c r="E113" s="6"/>
+      <c r="F113" s="6">
         <v>14.5</v>
       </c>
-      <c r="G113" s="12">
+      <c r="G113" s="6">
         <v>116</v>
       </c>
-      <c r="H113" s="12">
+      <c r="H113" s="6">
         <v>12</v>
       </c>
-      <c r="I113" s="11"/>
+      <c r="I113" s="6"/>
     </row>
     <row r="114" spans="1:9">
       <c r="A114" s="5" t="s">
         <v>392</v>
       </c>
-      <c r="B114" s="12" t="s">
+      <c r="B114" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C114" s="12">
+      <c r="C114" s="6">
         <v>8</v>
       </c>
-      <c r="D114" s="12" t="s">
+      <c r="D114" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E114" s="12"/>
-      <c r="F114" s="12">
+      <c r="E114" s="6"/>
+      <c r="F114" s="6">
         <v>16</v>
       </c>
-      <c r="G114" s="12">
+      <c r="G114" s="6">
         <v>128</v>
       </c>
-      <c r="H114" s="12">
+      <c r="H114" s="6">
         <v>22.4</v>
       </c>
-      <c r="I114" s="11"/>
+      <c r="I114" s="6"/>
     </row>
     <row r="115" spans="1:9">
       <c r="A115" s="5" t="s">
         <v>392</v>
       </c>
-      <c r="B115" s="11" t="s">
+      <c r="B115" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="C115" s="11">
+      <c r="C115" s="6">
         <v>10</v>
       </c>
-      <c r="D115" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E115" s="11"/>
-      <c r="F115" s="11">
+      <c r="D115" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E115" s="6"/>
+      <c r="F115" s="6">
         <v>6.5</v>
       </c>
-      <c r="G115" s="11">
+      <c r="G115" s="6">
         <v>65</v>
       </c>
-      <c r="H115" s="11">
+      <c r="H115" s="6">
         <v>25</v>
       </c>
-      <c r="I115" s="11"/>
+      <c r="I115" s="6"/>
+    </row>
+    <row r="116" spans="1:9">
+      <c r="A116" s="5" t="s">
+        <v>393</v>
+      </c>
+      <c r="B116" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C116" s="6">
+        <v>1</v>
+      </c>
+      <c r="D116" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E116" s="6"/>
+      <c r="F116" s="6">
+        <v>54</v>
+      </c>
+      <c r="G116" s="6">
+        <v>54</v>
+      </c>
+      <c r="H116" s="6">
+        <v>3</v>
+      </c>
+      <c r="I116" s="6"/>
+    </row>
+    <row r="117" spans="1:9">
+      <c r="A117" s="10" t="s">
+        <v>394</v>
+      </c>
+      <c r="B117" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="C117" s="8">
+        <v>20</v>
+      </c>
+      <c r="D117" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E117" s="8"/>
+      <c r="F117" s="8">
+        <v>52</v>
+      </c>
+      <c r="G117" s="8">
+        <v>1040</v>
+      </c>
+      <c r="H117" s="8">
+        <v>100</v>
+      </c>
+      <c r="I117" s="8"/>
+    </row>
+    <row r="118" spans="1:9">
+      <c r="A118" s="5" t="s">
+        <v>394</v>
+      </c>
+      <c r="B118" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C118" s="6">
+        <v>1</v>
+      </c>
+      <c r="D118" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E118" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F118" s="6">
+        <v>2800</v>
+      </c>
+      <c r="G118" s="6">
+        <v>2800</v>
+      </c>
+      <c r="H118" s="6">
+        <v>310</v>
+      </c>
+      <c r="I118" s="6"/>
+    </row>
+    <row r="119" spans="1:9">
+      <c r="A119" s="5" t="s">
+        <v>395</v>
+      </c>
+      <c r="B119" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C119" s="6">
+        <v>5</v>
+      </c>
+      <c r="D119" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E119" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F119" s="6">
+        <v>560</v>
+      </c>
+      <c r="G119" s="6">
+        <v>2800</v>
+      </c>
+      <c r="H119" s="6">
+        <v>1200</v>
+      </c>
+      <c r="I119" s="6"/>
+    </row>
+    <row r="120" spans="1:9">
+      <c r="A120" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="B120" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="C120" s="6">
+        <v>15</v>
+      </c>
+      <c r="D120" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E120" s="6"/>
+      <c r="F120" s="6">
+        <v>50</v>
+      </c>
+      <c r="G120" s="6">
+        <v>750</v>
+      </c>
+      <c r="H120" s="6">
+        <v>75</v>
+      </c>
+      <c r="I120" s="6"/>
+    </row>
+    <row r="121" spans="1:9">
+      <c r="A121" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="B121" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C121" s="6">
+        <v>20</v>
+      </c>
+      <c r="D121" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E121" s="6"/>
+      <c r="F121" s="6">
+        <v>11.5</v>
+      </c>
+      <c r="G121" s="6">
+        <v>230</v>
+      </c>
+      <c r="H121" s="6">
+        <v>28</v>
+      </c>
+      <c r="I121" s="6"/>
+    </row>
+    <row r="122" spans="1:9">
+      <c r="A122" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="B122" s="6" t="s">
+        <v>375</v>
+      </c>
+      <c r="C122" s="6">
+        <v>20</v>
+      </c>
+      <c r="D122" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E122" s="6"/>
+      <c r="F122" s="6">
+        <v>6.5</v>
+      </c>
+      <c r="G122" s="6">
+        <v>130</v>
+      </c>
+      <c r="H122" s="6">
+        <v>30</v>
+      </c>
+      <c r="I122" s="6"/>
+    </row>
+    <row r="123" spans="1:9">
+      <c r="A123" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="B123" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C123" s="6">
+        <v>20</v>
+      </c>
+      <c r="D123" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E123" s="6"/>
+      <c r="F123" s="6">
+        <v>19</v>
+      </c>
+      <c r="G123" s="6">
+        <v>380</v>
+      </c>
+      <c r="H123" s="6">
+        <v>20</v>
+      </c>
+      <c r="I123" s="6"/>
+    </row>
+    <row r="124" spans="1:9">
+      <c r="A124" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="B124" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C124" s="6">
+        <v>2</v>
+      </c>
+      <c r="D124" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E124" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F124" s="6">
+        <v>275</v>
+      </c>
+      <c r="G124" s="6">
+        <v>550</v>
+      </c>
+      <c r="H124" s="6">
+        <v>50</v>
+      </c>
+      <c r="I124" s="6"/>
+    </row>
+    <row r="125" spans="1:9">
+      <c r="A125" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="B125" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="C125" s="6">
+        <v>30</v>
+      </c>
+      <c r="D125" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E125" s="6"/>
+      <c r="F125" s="6">
+        <v>11</v>
+      </c>
+      <c r="G125" s="6">
+        <v>330</v>
+      </c>
+      <c r="H125" s="6">
+        <v>87</v>
+      </c>
+      <c r="I125" s="6"/>
+    </row>
+    <row r="126" spans="1:9">
+      <c r="A126" s="10" t="s">
+        <v>397</v>
+      </c>
+      <c r="B126" s="8" t="s">
+        <v>398</v>
+      </c>
+      <c r="C126" s="8">
+        <v>30</v>
+      </c>
+      <c r="D126" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E126" s="8"/>
+      <c r="F126" s="8">
+        <v>19</v>
+      </c>
+      <c r="G126" s="8">
+        <v>570</v>
+      </c>
+      <c r="H126" s="8">
+        <v>270</v>
+      </c>
+      <c r="I126" s="8"/>
+    </row>
+    <row r="127" spans="1:9">
+      <c r="A127" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="B127" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C127" s="6">
+        <v>5</v>
+      </c>
+      <c r="D127" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E127" s="6"/>
+      <c r="F127" s="6">
+        <v>84</v>
+      </c>
+      <c r="G127" s="6">
+        <v>420</v>
+      </c>
+      <c r="H127" s="6">
+        <v>-25</v>
+      </c>
+      <c r="I127" s="6"/>
+    </row>
+    <row r="128" spans="1:9">
+      <c r="A128" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="B128" s="6" t="s">
+        <v>377</v>
+      </c>
+      <c r="C128" s="6">
+        <v>1</v>
+      </c>
+      <c r="D128" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E128" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F128" s="6">
+        <v>310</v>
+      </c>
+      <c r="G128" s="6">
+        <v>310</v>
+      </c>
+      <c r="H128" s="6">
+        <v>34</v>
+      </c>
+      <c r="I128" s="6"/>
+    </row>
+    <row r="129" spans="1:9">
+      <c r="A129" s="5" t="s">
+        <v>399</v>
+      </c>
+      <c r="B129" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C129" s="6">
+        <v>6</v>
+      </c>
+      <c r="D129" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E129" s="6" t="s">
+        <v>379</v>
+      </c>
+      <c r="F129" s="6">
+        <v>720</v>
+      </c>
+      <c r="G129" s="6">
+        <v>4320</v>
+      </c>
+      <c r="H129" s="6">
+        <v>130</v>
+      </c>
+      <c r="I129" s="6"/>
+    </row>
+    <row r="130" spans="1:9">
+      <c r="A130" s="5" t="s">
+        <v>399</v>
+      </c>
+      <c r="B130" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C130" s="6"/>
+      <c r="D130" s="6"/>
+      <c r="E130" s="6"/>
+      <c r="F130" s="6"/>
+      <c r="G130" s="6"/>
+      <c r="H130" s="6">
+        <v>560</v>
+      </c>
+      <c r="I130" s="6"/>
+    </row>
+    <row r="131" spans="1:9">
+      <c r="A131" s="5" t="s">
+        <v>400</v>
+      </c>
+      <c r="B131" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C131" s="6"/>
+      <c r="D131" s="6"/>
+      <c r="E131" s="6"/>
+      <c r="F131" s="6"/>
+      <c r="G131" s="6">
+        <v>615</v>
+      </c>
+      <c r="H131" s="6"/>
+      <c r="I131" s="6"/>
+    </row>
+    <row r="132" spans="1:9">
+      <c r="A132" s="5" t="s">
+        <v>400</v>
+      </c>
+      <c r="B132" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="C132" s="6">
+        <v>10</v>
+      </c>
+      <c r="D132" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E132" s="6"/>
+      <c r="F132" s="6">
+        <v>43</v>
+      </c>
+      <c r="G132" s="6">
+        <v>430</v>
+      </c>
+      <c r="H132" s="6">
+        <v>10</v>
+      </c>
+      <c r="I132" s="6"/>
+    </row>
+    <row r="133" spans="1:9">
+      <c r="A133" s="5" t="s">
+        <v>401</v>
+      </c>
+      <c r="B133" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C133" s="6"/>
+      <c r="D133" s="6"/>
+      <c r="E133" s="6"/>
+      <c r="F133" s="6"/>
+      <c r="G133" s="6">
+        <v>673</v>
+      </c>
+      <c r="H133" s="6"/>
+      <c r="I133" s="6"/>
+    </row>
+    <row r="134" spans="1:9">
+      <c r="A134" s="5" t="s">
+        <v>401</v>
+      </c>
+      <c r="B134" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C134" s="6"/>
+      <c r="D134" s="6"/>
+      <c r="E134" s="6"/>
+      <c r="F134" s="6"/>
+      <c r="G134" s="6">
+        <v>493</v>
+      </c>
+      <c r="H134" s="6"/>
+      <c r="I134" s="6"/>
+    </row>
+    <row r="135" spans="1:9">
+      <c r="A135" s="5" t="s">
+        <v>401</v>
+      </c>
+      <c r="B135" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="C135" s="11">
+        <v>15</v>
+      </c>
+      <c r="D135" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E135" s="11"/>
+      <c r="F135" s="11">
+        <v>50</v>
+      </c>
+      <c r="G135" s="11">
+        <v>750</v>
+      </c>
+      <c r="H135" s="11">
+        <v>75</v>
+      </c>
+      <c r="I135" s="11"/>
+    </row>
+    <row r="136" spans="1:9">
+      <c r="A136" s="5" t="s">
+        <v>401</v>
+      </c>
+      <c r="B136" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C136" s="11">
+        <v>20</v>
+      </c>
+      <c r="D136" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E136" s="11"/>
+      <c r="F136" s="11">
+        <v>11.5</v>
+      </c>
+      <c r="G136" s="11">
+        <v>230</v>
+      </c>
+      <c r="H136" s="11">
+        <v>28</v>
+      </c>
+      <c r="I136" s="11"/>
+    </row>
+    <row r="137" spans="1:9">
+      <c r="A137" s="5" t="s">
+        <v>401</v>
+      </c>
+      <c r="B137" s="11" t="s">
+        <v>375</v>
+      </c>
+      <c r="C137" s="11">
+        <v>20</v>
+      </c>
+      <c r="D137" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E137" s="11"/>
+      <c r="F137" s="11">
+        <v>6.5</v>
+      </c>
+      <c r="G137" s="11">
+        <v>130</v>
+      </c>
+      <c r="H137" s="11">
+        <v>30</v>
+      </c>
+      <c r="I137" s="11"/>
+    </row>
+    <row r="138" spans="1:9">
+      <c r="A138" s="10" t="s">
+        <v>401</v>
+      </c>
+      <c r="B138" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C138" s="12">
+        <v>20</v>
+      </c>
+      <c r="D138" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E138" s="12"/>
+      <c r="F138" s="12">
+        <v>19</v>
+      </c>
+      <c r="G138" s="12">
+        <v>380</v>
+      </c>
+      <c r="H138" s="12">
+        <v>20</v>
+      </c>
+      <c r="I138" s="12"/>
+    </row>
+    <row r="139" spans="1:9">
+      <c r="A139" s="5" t="s">
+        <v>401</v>
+      </c>
+      <c r="B139" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C139" s="11">
+        <v>2</v>
+      </c>
+      <c r="D139" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E139" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="F139" s="11">
+        <v>275</v>
+      </c>
+      <c r="G139" s="11">
+        <v>550</v>
+      </c>
+      <c r="H139" s="11">
+        <v>50</v>
+      </c>
+      <c r="I139" s="11"/>
+    </row>
+    <row r="140" spans="1:9">
+      <c r="A140" s="5" t="s">
+        <v>402</v>
+      </c>
+      <c r="B140" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C140" s="13">
+        <v>3</v>
+      </c>
+      <c r="D140" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E140" s="13" t="s">
+        <v>379</v>
+      </c>
+      <c r="F140" s="13">
+        <v>740</v>
+      </c>
+      <c r="G140" s="13">
+        <v>2220</v>
+      </c>
+      <c r="H140" s="13">
+        <v>135</v>
+      </c>
+      <c r="I140" s="13"/>
+    </row>
+    <row r="141" spans="1:9">
+      <c r="A141" s="5" t="s">
+        <v>402</v>
+      </c>
+      <c r="B141" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="C141" s="13">
+        <v>10</v>
+      </c>
+      <c r="D141" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E141" s="13"/>
+      <c r="F141" s="13">
+        <v>37</v>
+      </c>
+      <c r="G141" s="13">
+        <v>370</v>
+      </c>
+      <c r="H141" s="13">
+        <v>20</v>
+      </c>
+      <c r="I141" s="13"/>
+    </row>
+    <row r="142" spans="1:9">
+      <c r="A142" s="5" t="s">
+        <v>402</v>
+      </c>
+      <c r="B142" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C142" s="13">
+        <v>5</v>
+      </c>
+      <c r="D142" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E142" s="13"/>
+      <c r="F142" s="13">
+        <v>12</v>
+      </c>
+      <c r="G142" s="13">
+        <v>60</v>
+      </c>
+      <c r="H142" s="13"/>
+      <c r="I142" s="13"/>
+    </row>
+    <row r="143" spans="1:9">
+      <c r="A143" s="5" t="s">
+        <v>402</v>
+      </c>
+      <c r="B143" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C143" s="13">
+        <v>1</v>
+      </c>
+      <c r="D143" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E143" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="F143" s="13">
+        <v>570</v>
+      </c>
+      <c r="G143" s="13">
+        <v>570</v>
+      </c>
+      <c r="H143" s="13"/>
+      <c r="I143" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -15740,16 +16525,16 @@
       </c>
     </row>
     <row r="70" spans="1:8">
-      <c r="A70" s="18" t="s">
+      <c r="A70" s="19" t="s">
         <v>138</v>
       </c>
-      <c r="B70" s="18" t="s">
+      <c r="B70" s="19" t="s">
         <v>40</v>
       </c>
       <c r="C70" s="3">
         <v>15</v>
       </c>
-      <c r="D70" s="18" t="s">
+      <c r="D70" s="19" t="s">
         <v>11</v>
       </c>
       <c r="E70" s="3"/>
@@ -16276,7 +17061,7 @@
       </c>
     </row>
     <row r="93" spans="1:8">
-      <c r="A93" s="13" t="s">
+      <c r="A93" s="14" t="s">
         <v>145</v>
       </c>
       <c r="B93" s="6" t="s">
@@ -16300,7 +17085,7 @@
       </c>
     </row>
     <row r="94" spans="1:8">
-      <c r="A94" s="13" t="s">
+      <c r="A94" s="14" t="s">
         <v>145</v>
       </c>
       <c r="B94" s="6" t="s">
@@ -16327,13 +17112,13 @@
       <c r="A95" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="B95" s="18" t="s">
+      <c r="B95" s="19" t="s">
         <v>40</v>
       </c>
       <c r="C95" s="3">
         <v>15</v>
       </c>
-      <c r="D95" s="18" t="s">
+      <c r="D95" s="19" t="s">
         <v>11</v>
       </c>
       <c r="E95" s="3"/>
@@ -16472,7 +17257,7 @@
       </c>
     </row>
     <row r="101" spans="4:8">
-      <c r="D101" s="19"/>
+      <c r="D101" s="20"/>
       <c r="G101" s="1">
         <f>SUM(G3:G100)</f>
         <v>42035.5</v>
@@ -16483,7 +17268,7 @@
       </c>
     </row>
     <row r="102" spans="4:4">
-      <c r="D102" s="19"/>
+      <c r="D102" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -16510,7 +17295,7 @@
     <col min="3" max="6" width="9" style="1"/>
     <col min="7" max="7" width="9.22222222222222" style="1"/>
     <col min="8" max="8" width="9" style="1"/>
-    <col min="9" max="9" width="13.1259259259259" style="17" customWidth="1"/>
+    <col min="9" max="9" width="13.1259259259259" style="18" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="21" customHeight="1" spans="1:9">
@@ -21393,7 +22178,7 @@
       <c r="H70" s="6">
         <v>180</v>
       </c>
-      <c r="I70" s="16" t="s">
+      <c r="I70" s="17" t="s">
         <v>200</v>
       </c>
     </row>
@@ -21420,7 +22205,7 @@
       <c r="H71" s="6">
         <v>180</v>
       </c>
-      <c r="I71" s="16" t="s">
+      <c r="I71" s="17" t="s">
         <v>201</v>
       </c>
     </row>
@@ -21447,7 +22232,7 @@
       <c r="H72" s="6">
         <v>20</v>
       </c>
-      <c r="I72" s="16" t="s">
+      <c r="I72" s="17" t="s">
         <v>201</v>
       </c>
     </row>
@@ -22106,7 +22891,7 @@
       <c r="I98" s="8"/>
     </row>
     <row r="99" spans="1:9">
-      <c r="A99" s="13" t="s">
+      <c r="A99" s="14" t="s">
         <v>208</v>
       </c>
       <c r="B99" s="6" t="s">
@@ -22129,7 +22914,7 @@
       <c r="I99" s="6"/>
     </row>
     <row r="100" spans="1:9">
-      <c r="A100" s="13" t="s">
+      <c r="A100" s="14" t="s">
         <v>209</v>
       </c>
       <c r="B100" s="6" t="s">
@@ -22148,7 +22933,7 @@
       <c r="I100" s="6"/>
     </row>
     <row r="101" spans="1:9">
-      <c r="A101" s="13" t="s">
+      <c r="A101" s="14" t="s">
         <v>209</v>
       </c>
       <c r="B101" s="6" t="s">
@@ -22175,7 +22960,7 @@
       <c r="I101" s="6"/>
     </row>
     <row r="102" spans="1:9">
-      <c r="A102" s="13" t="s">
+      <c r="A102" s="14" t="s">
         <v>209</v>
       </c>
       <c r="B102" s="6" t="s">
@@ -22198,7 +22983,7 @@
       <c r="I102" s="6"/>
     </row>
     <row r="103" spans="1:9">
-      <c r="A103" s="13" t="s">
+      <c r="A103" s="14" t="s">
         <v>210</v>
       </c>
       <c r="B103" s="6" t="s">
@@ -22217,7 +23002,7 @@
       <c r="I103" s="6"/>
     </row>
     <row r="104" spans="1:9">
-      <c r="A104" s="13" t="s">
+      <c r="A104" s="14" t="s">
         <v>210</v>
       </c>
       <c r="B104" s="6" t="s">
@@ -22236,7 +23021,7 @@
       <c r="I104" s="6"/>
     </row>
     <row r="105" spans="1:9">
-      <c r="A105" s="13" t="s">
+      <c r="A105" s="14" t="s">
         <v>210</v>
       </c>
       <c r="B105" s="6" t="s">
@@ -22263,7 +23048,7 @@
       </c>
     </row>
     <row r="106" spans="1:9">
-      <c r="A106" s="14" t="s">
+      <c r="A106" s="15" t="s">
         <v>210</v>
       </c>
       <c r="B106" s="8" t="s">
@@ -23684,31 +24469,31 @@
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="F2" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="15" t="s">
+      <c r="G2" s="16" t="s">
         <v>7</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="15" t="s">
+      <c r="I2" s="16" t="s">
         <v>146</v>
       </c>
     </row>
@@ -32549,7 +33334,7 @@
       <c r="I34" s="8"/>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="13" t="s">
+      <c r="A35" s="14" t="s">
         <v>309</v>
       </c>
       <c r="B35" s="6" t="s">
@@ -32574,7 +33359,7 @@
       <c r="I35" s="6"/>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="13" t="s">
+      <c r="A36" s="14" t="s">
         <v>309</v>
       </c>
       <c r="B36" s="6" t="s">
@@ -32599,7 +33384,7 @@
       <c r="I36" s="6"/>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="13" t="s">
+      <c r="A37" s="14" t="s">
         <v>309</v>
       </c>
       <c r="B37" s="6" t="s">
@@ -32624,7 +33409,7 @@
       <c r="I37" s="6"/>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="13" t="s">
+      <c r="A38" s="14" t="s">
         <v>309</v>
       </c>
       <c r="B38" s="6" t="s">
@@ -32649,7 +33434,7 @@
       <c r="I38" s="6"/>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="13" t="s">
+      <c r="A39" s="14" t="s">
         <v>309</v>
       </c>
       <c r="B39" s="6" t="s">
@@ -32674,7 +33459,7 @@
       <c r="I39" s="6"/>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="13" t="s">
+      <c r="A40" s="14" t="s">
         <v>309</v>
       </c>
       <c r="B40" s="6" t="s">
@@ -32699,7 +33484,7 @@
       <c r="I40" s="6"/>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="13" t="s">
+      <c r="A41" s="14" t="s">
         <v>309</v>
       </c>
       <c r="B41" s="6" t="s">
@@ -32724,7 +33509,7 @@
       <c r="I41" s="6"/>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="13" t="s">
+      <c r="A42" s="14" t="s">
         <v>309</v>
       </c>
       <c r="B42" s="6" t="s">
@@ -32749,7 +33534,7 @@
       <c r="I42" s="6"/>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="14" t="s">
+      <c r="A43" s="15" t="s">
         <v>309</v>
       </c>
       <c r="B43" s="6" t="s">
@@ -32774,7 +33559,7 @@
       <c r="I43" s="6"/>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="13" t="s">
+      <c r="A44" s="14" t="s">
         <v>311</v>
       </c>
       <c r="B44" s="6" t="s">
@@ -32799,7 +33584,7 @@
       <c r="I44" s="6"/>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="13" t="s">
+      <c r="A45" s="14" t="s">
         <v>312</v>
       </c>
       <c r="B45" s="6" t="s">
@@ -32818,7 +33603,7 @@
       <c r="I45" s="6"/>
     </row>
     <row r="46" spans="1:9">
-      <c r="A46" s="13" t="s">
+      <c r="A46" s="14" t="s">
         <v>312</v>
       </c>
       <c r="B46" s="6" t="s">
@@ -32843,7 +33628,7 @@
       <c r="I46" s="6"/>
     </row>
     <row r="47" spans="1:9">
-      <c r="A47" s="13" t="s">
+      <c r="A47" s="14" t="s">
         <v>312</v>
       </c>
       <c r="B47" s="6" t="s">
@@ -32870,7 +33655,7 @@
       <c r="I47" s="6"/>
     </row>
     <row r="48" spans="1:9">
-      <c r="A48" s="13" t="s">
+      <c r="A48" s="14" t="s">
         <v>312</v>
       </c>
       <c r="B48" s="6" t="s">
@@ -32897,7 +33682,7 @@
       <c r="I48" s="6"/>
     </row>
     <row r="49" spans="1:9">
-      <c r="A49" s="13" t="s">
+      <c r="A49" s="14" t="s">
         <v>312</v>
       </c>
       <c r="B49" s="6" t="s">
@@ -32922,7 +33707,7 @@
       <c r="I49" s="6"/>
     </row>
     <row r="50" spans="1:9">
-      <c r="A50" s="13" t="s">
+      <c r="A50" s="14" t="s">
         <v>313</v>
       </c>
       <c r="B50" s="6" t="s">
@@ -32941,7 +33726,7 @@
       <c r="I50" s="6"/>
     </row>
     <row r="51" spans="1:9">
-      <c r="A51" s="13" t="s">
+      <c r="A51" s="14" t="s">
         <v>313</v>
       </c>
       <c r="B51" s="6" t="s">
@@ -32966,7 +33751,7 @@
       <c r="I51" s="6"/>
     </row>
     <row r="52" spans="1:9">
-      <c r="A52" s="13" t="s">
+      <c r="A52" s="14" t="s">
         <v>313</v>
       </c>
       <c r="B52" s="6" t="s">
@@ -32991,7 +33776,7 @@
       <c r="I52" s="6"/>
     </row>
     <row r="53" spans="1:9">
-      <c r="A53" s="13" t="s">
+      <c r="A53" s="14" t="s">
         <v>313</v>
       </c>
       <c r="B53" s="6" t="s">
@@ -33016,7 +33801,7 @@
       <c r="I53" s="6"/>
     </row>
     <row r="54" spans="1:9">
-      <c r="A54" s="13" t="s">
+      <c r="A54" s="14" t="s">
         <v>313</v>
       </c>
       <c r="B54" s="6" t="s">
@@ -33043,7 +33828,7 @@
       <c r="I54" s="6"/>
     </row>
     <row r="55" spans="1:9">
-      <c r="A55" s="13" t="s">
+      <c r="A55" s="14" t="s">
         <v>313</v>
       </c>
       <c r="B55" s="6" t="s">
@@ -33068,7 +33853,7 @@
       <c r="I55" s="6"/>
     </row>
     <row r="56" spans="1:9">
-      <c r="A56" s="13" t="s">
+      <c r="A56" s="14" t="s">
         <v>313</v>
       </c>
       <c r="B56" s="6" t="s">
@@ -33093,7 +33878,7 @@
       <c r="I56" s="6"/>
     </row>
     <row r="57" spans="1:9">
-      <c r="A57" s="13" t="s">
+      <c r="A57" s="14" t="s">
         <v>313</v>
       </c>
       <c r="B57" s="6" t="s">
@@ -33118,7 +33903,7 @@
       <c r="I57" s="6"/>
     </row>
     <row r="58" spans="1:9">
-      <c r="A58" s="13" t="s">
+      <c r="A58" s="14" t="s">
         <v>313</v>
       </c>
       <c r="B58" s="6" t="s">
@@ -33143,7 +33928,7 @@
       <c r="I58" s="6"/>
     </row>
     <row r="59" spans="1:9">
-      <c r="A59" s="13" t="s">
+      <c r="A59" s="14" t="s">
         <v>313</v>
       </c>
       <c r="B59" s="6" t="s">
@@ -33170,7 +33955,7 @@
       <c r="I59" s="6"/>
     </row>
     <row r="60" spans="1:9">
-      <c r="A60" s="13" t="s">
+      <c r="A60" s="14" t="s">
         <v>313</v>
       </c>
       <c r="B60" s="6" t="s">
@@ -33195,7 +33980,7 @@
       <c r="I60" s="6"/>
     </row>
     <row r="61" spans="1:9">
-      <c r="A61" s="13" t="s">
+      <c r="A61" s="14" t="s">
         <v>313</v>
       </c>
       <c r="B61" s="6" t="s">
@@ -33220,7 +34005,7 @@
       <c r="I61" s="6"/>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="13" t="s">
+      <c r="A62" s="14" t="s">
         <v>313</v>
       </c>
       <c r="B62" s="6" t="s">
@@ -33245,7 +34030,7 @@
       <c r="I62" s="6"/>
     </row>
     <row r="63" spans="1:9">
-      <c r="A63" s="13" t="s">
+      <c r="A63" s="14" t="s">
         <v>313</v>
       </c>
       <c r="B63" s="6" t="s">
@@ -33270,7 +34055,7 @@
       <c r="I63" s="6"/>
     </row>
     <row r="64" spans="1:9">
-      <c r="A64" s="13" t="s">
+      <c r="A64" s="14" t="s">
         <v>313</v>
       </c>
       <c r="B64" s="6" t="s">
@@ -33295,7 +34080,7 @@
       <c r="I64" s="6"/>
     </row>
     <row r="65" spans="1:9">
-      <c r="A65" s="13" t="s">
+      <c r="A65" s="14" t="s">
         <v>313</v>
       </c>
       <c r="B65" s="6" t="s">
@@ -33320,7 +34105,7 @@
       <c r="I65" s="6"/>
     </row>
     <row r="66" spans="1:9">
-      <c r="A66" s="13" t="s">
+      <c r="A66" s="14" t="s">
         <v>313</v>
       </c>
       <c r="B66" s="6" t="s">
@@ -33347,7 +34132,7 @@
       <c r="I66" s="6"/>
     </row>
     <row r="67" spans="1:9">
-      <c r="A67" s="13" t="s">
+      <c r="A67" s="14" t="s">
         <v>313</v>
       </c>
       <c r="B67" s="6" t="s">
@@ -33374,7 +34159,7 @@
       <c r="I67" s="6"/>
     </row>
     <row r="68" spans="1:9">
-      <c r="A68" s="13" t="s">
+      <c r="A68" s="14" t="s">
         <v>313</v>
       </c>
       <c r="B68" s="6" t="s">
@@ -33399,7 +34184,7 @@
       <c r="I68" s="6"/>
     </row>
     <row r="69" spans="1:9">
-      <c r="A69" s="13" t="s">
+      <c r="A69" s="14" t="s">
         <v>313</v>
       </c>
       <c r="B69" s="6" t="s">
@@ -33424,7 +34209,7 @@
       <c r="I69" s="6"/>
     </row>
     <row r="70" spans="1:9">
-      <c r="A70" s="13" t="s">
+      <c r="A70" s="14" t="s">
         <v>313</v>
       </c>
       <c r="B70" s="6" t="s">
@@ -33449,7 +34234,7 @@
       <c r="I70" s="6"/>
     </row>
     <row r="71" spans="1:9">
-      <c r="A71" s="13" t="s">
+      <c r="A71" s="14" t="s">
         <v>313</v>
       </c>
       <c r="B71" s="6" t="s">
@@ -33474,7 +34259,7 @@
       <c r="I71" s="6"/>
     </row>
     <row r="72" spans="1:9">
-      <c r="A72" s="13" t="s">
+      <c r="A72" s="14" t="s">
         <v>313</v>
       </c>
       <c r="B72" s="6" t="s">
@@ -33499,7 +34284,7 @@
       <c r="I72" s="6"/>
     </row>
     <row r="73" spans="1:9">
-      <c r="A73" s="13" t="s">
+      <c r="A73" s="14" t="s">
         <v>313</v>
       </c>
       <c r="B73" s="6" t="s">
@@ -33524,7 +34309,7 @@
       <c r="I73" s="6"/>
     </row>
     <row r="74" spans="1:9">
-      <c r="A74" s="13" t="s">
+      <c r="A74" s="14" t="s">
         <v>313</v>
       </c>
       <c r="B74" s="6" t="s">
@@ -33549,7 +34334,7 @@
       <c r="I74" s="6"/>
     </row>
     <row r="75" spans="1:9">
-      <c r="A75" s="13" t="s">
+      <c r="A75" s="14" t="s">
         <v>313</v>
       </c>
       <c r="B75" s="6" t="s">
@@ -33574,7 +34359,7 @@
       <c r="I75" s="6"/>
     </row>
     <row r="76" spans="1:9">
-      <c r="A76" s="13" t="s">
+      <c r="A76" s="14" t="s">
         <v>313</v>
       </c>
       <c r="B76" s="6" t="s">
@@ -33597,7 +34382,7 @@
       <c r="I76" s="6"/>
     </row>
     <row r="77" spans="1:9">
-      <c r="A77" s="13" t="s">
+      <c r="A77" s="14" t="s">
         <v>313</v>
       </c>
       <c r="B77" s="6" t="s">
@@ -33622,7 +34407,7 @@
       <c r="I77" s="6"/>
     </row>
     <row r="78" spans="1:9">
-      <c r="A78" s="13" t="s">
+      <c r="A78" s="14" t="s">
         <v>313</v>
       </c>
       <c r="B78" s="6" t="s">
@@ -33647,7 +34432,7 @@
       <c r="I78" s="6"/>
     </row>
     <row r="79" spans="1:9">
-      <c r="A79" s="13" t="s">
+      <c r="A79" s="14" t="s">
         <v>313</v>
       </c>
       <c r="B79" s="6" t="s">
@@ -33672,7 +34457,7 @@
       <c r="I79" s="6"/>
     </row>
     <row r="80" spans="1:9">
-      <c r="A80" s="13" t="s">
+      <c r="A80" s="14" t="s">
         <v>313</v>
       </c>
       <c r="B80" s="6" t="s">
@@ -33697,7 +34482,7 @@
       <c r="I80" s="6"/>
     </row>
     <row r="81" spans="1:9">
-      <c r="A81" s="13" t="s">
+      <c r="A81" s="14" t="s">
         <v>313</v>
       </c>
       <c r="B81" s="6" t="s">
@@ -33722,7 +34507,7 @@
       <c r="I81" s="6"/>
     </row>
     <row r="82" spans="1:9">
-      <c r="A82" s="13" t="s">
+      <c r="A82" s="14" t="s">
         <v>313</v>
       </c>
       <c r="B82" s="6" t="s">
@@ -33747,7 +34532,7 @@
       <c r="I82" s="6"/>
     </row>
     <row r="83" spans="1:9">
-      <c r="A83" s="13" t="s">
+      <c r="A83" s="14" t="s">
         <v>315</v>
       </c>
       <c r="B83" s="6" t="s">
@@ -33772,7 +34557,7 @@
       <c r="I83" s="6"/>
     </row>
     <row r="84" spans="1:9">
-      <c r="A84" s="13" t="s">
+      <c r="A84" s="14" t="s">
         <v>315</v>
       </c>
       <c r="B84" s="6" t="s">
@@ -33797,7 +34582,7 @@
       <c r="I84" s="6"/>
     </row>
     <row r="85" spans="1:9">
-      <c r="A85" s="13" t="s">
+      <c r="A85" s="14" t="s">
         <v>315</v>
       </c>
       <c r="B85" s="6" t="s">
@@ -33822,7 +34607,7 @@
       <c r="I85" s="6"/>
     </row>
     <row r="86" spans="1:9">
-      <c r="A86" s="13" t="s">
+      <c r="A86" s="14" t="s">
         <v>316</v>
       </c>
       <c r="B86" s="6" t="s">
@@ -33849,7 +34634,7 @@
       <c r="I86" s="6"/>
     </row>
     <row r="87" spans="1:9">
-      <c r="A87" s="13" t="s">
+      <c r="A87" s="14" t="s">
         <v>316</v>
       </c>
       <c r="B87" s="6" t="s">
@@ -33876,7 +34661,7 @@
       <c r="I87" s="6"/>
     </row>
     <row r="88" spans="1:9">
-      <c r="A88" s="13" t="s">
+      <c r="A88" s="14" t="s">
         <v>316</v>
       </c>
       <c r="B88" s="6" t="s">
@@ -33903,7 +34688,7 @@
       <c r="I88" s="6"/>
     </row>
     <row r="89" spans="1:9">
-      <c r="A89" s="13" t="s">
+      <c r="A89" s="14" t="s">
         <v>316</v>
       </c>
       <c r="B89" s="6" t="s">
@@ -33930,7 +34715,7 @@
       <c r="I89" s="6"/>
     </row>
     <row r="90" spans="1:9">
-      <c r="A90" s="13" t="s">
+      <c r="A90" s="14" t="s">
         <v>316</v>
       </c>
       <c r="B90" s="6" t="s">
@@ -33955,7 +34740,7 @@
       <c r="I90" s="6"/>
     </row>
     <row r="91" spans="1:9">
-      <c r="A91" s="13" t="s">
+      <c r="A91" s="14" t="s">
         <v>316</v>
       </c>
       <c r="B91" s="6" t="s">
@@ -33982,7 +34767,7 @@
       <c r="I91" s="6"/>
     </row>
     <row r="92" spans="1:9">
-      <c r="A92" s="13" t="s">
+      <c r="A92" s="14" t="s">
         <v>316</v>
       </c>
       <c r="B92" s="6" t="s">
@@ -34009,7 +34794,7 @@
       <c r="I92" s="6"/>
     </row>
     <row r="93" spans="1:9">
-      <c r="A93" s="13" t="s">
+      <c r="A93" s="14" t="s">
         <v>317</v>
       </c>
       <c r="B93" s="6" t="s">
@@ -34036,7 +34821,7 @@
       <c r="I93" s="6"/>
     </row>
     <row r="94" spans="1:9">
-      <c r="A94" s="13" t="s">
+      <c r="A94" s="14" t="s">
         <v>317</v>
       </c>
       <c r="B94" s="6" t="s">
@@ -34063,7 +34848,7 @@
       <c r="I94" s="6"/>
     </row>
     <row r="95" spans="1:9">
-      <c r="A95" s="13" t="s">
+      <c r="A95" s="14" t="s">
         <v>317</v>
       </c>
       <c r="B95" s="6" t="s">
@@ -34082,7 +34867,7 @@
       <c r="I95" s="6"/>
     </row>
     <row r="96" spans="1:9">
-      <c r="A96" s="13" t="s">
+      <c r="A96" s="14" t="s">
         <v>317</v>
       </c>
       <c r="B96" s="6" t="s">
@@ -34107,7 +34892,7 @@
       <c r="I96" s="6"/>
     </row>
     <row r="97" spans="1:9">
-      <c r="A97" s="13" t="s">
+      <c r="A97" s="14" t="s">
         <v>318</v>
       </c>
       <c r="B97" s="6" t="s">
@@ -34134,7 +34919,7 @@
       <c r="I97" s="6"/>
     </row>
     <row r="98" spans="1:9">
-      <c r="A98" s="13" t="s">
+      <c r="A98" s="14" t="s">
         <v>318</v>
       </c>
       <c r="B98" s="6" t="s">
@@ -34161,7 +34946,7 @@
       <c r="I98" s="6"/>
     </row>
     <row r="99" spans="1:9">
-      <c r="A99" s="13" t="s">
+      <c r="A99" s="14" t="s">
         <v>319</v>
       </c>
       <c r="B99" s="6" t="s">
@@ -34188,7 +34973,7 @@
       <c r="I99" s="6"/>
     </row>
     <row r="100" spans="1:9">
-      <c r="A100" s="13" t="s">
+      <c r="A100" s="14" t="s">
         <v>319</v>
       </c>
       <c r="B100" s="6" t="s">
@@ -34215,7 +35000,7 @@
       <c r="I100" s="6"/>
     </row>
     <row r="101" spans="1:9">
-      <c r="A101" s="14" t="s">
+      <c r="A101" s="15" t="s">
         <v>319</v>
       </c>
       <c r="B101" s="6" t="s">
@@ -34242,7 +35027,7 @@
       <c r="I101" s="6"/>
     </row>
     <row r="102" spans="1:9">
-      <c r="A102" s="13" t="s">
+      <c r="A102" s="14" t="s">
         <v>319</v>
       </c>
       <c r="B102" s="6" t="s">
@@ -34261,7 +35046,7 @@
       <c r="I102" s="6"/>
     </row>
     <row r="103" spans="1:9">
-      <c r="A103" s="13" t="s">
+      <c r="A103" s="14" t="s">
         <v>320</v>
       </c>
       <c r="B103" s="6" t="s">
@@ -34286,7 +35071,7 @@
       <c r="I103" s="6"/>
     </row>
     <row r="104" spans="1:9">
-      <c r="A104" s="13" t="s">
+      <c r="A104" s="14" t="s">
         <v>320</v>
       </c>
       <c r="B104" s="6" t="s">
@@ -34311,7 +35096,7 @@
       <c r="I104" s="6"/>
     </row>
     <row r="105" spans="1:9">
-      <c r="A105" s="14" t="s">
+      <c r="A105" s="15" t="s">
         <v>320</v>
       </c>
       <c r="B105" s="6" t="s">
@@ -34336,7 +35121,7 @@
       <c r="I105" s="6"/>
     </row>
     <row r="106" spans="1:9">
-      <c r="A106" s="13" t="s">
+      <c r="A106" s="14" t="s">
         <v>320</v>
       </c>
       <c r="B106" s="6" t="s">
@@ -34361,7 +35146,7 @@
       <c r="I106" s="6"/>
     </row>
     <row r="107" spans="1:9">
-      <c r="A107" s="13" t="s">
+      <c r="A107" s="14" t="s">
         <v>320</v>
       </c>
       <c r="B107" s="6" t="s">
@@ -34388,7 +35173,7 @@
       <c r="I107" s="6"/>
     </row>
     <row r="108" spans="1:9">
-      <c r="A108" s="13" t="s">
+      <c r="A108" s="14" t="s">
         <v>321</v>
       </c>
       <c r="B108" s="6" t="s">
@@ -34415,7 +35200,7 @@
       <c r="I108" s="6"/>
     </row>
     <row r="109" spans="1:9">
-      <c r="A109" s="13" t="s">
+      <c r="A109" s="14" t="s">
         <v>321</v>
       </c>
       <c r="B109" s="6" t="s">
@@ -34442,7 +35227,7 @@
       <c r="I109" s="6"/>
     </row>
     <row r="110" spans="1:9">
-      <c r="A110" s="13" t="s">
+      <c r="A110" s="14" t="s">
         <v>322</v>
       </c>
       <c r="B110" s="6" t="s">
@@ -34469,7 +35254,7 @@
       <c r="I110" s="6"/>
     </row>
     <row r="111" spans="1:9">
-      <c r="A111" s="13" t="s">
+      <c r="A111" s="14" t="s">
         <v>322</v>
       </c>
       <c r="B111" s="6" t="s">
@@ -34488,7 +35273,7 @@
       <c r="I111" s="6"/>
     </row>
     <row r="112" spans="1:9">
-      <c r="A112" s="13" t="s">
+      <c r="A112" s="14" t="s">
         <v>323</v>
       </c>
       <c r="B112" s="6" t="s">
@@ -34515,7 +35300,7 @@
       <c r="I112" s="6"/>
     </row>
     <row r="113" spans="1:9">
-      <c r="A113" s="13" t="s">
+      <c r="A113" s="14" t="s">
         <v>323</v>
       </c>
       <c r="B113" s="6" t="s">
@@ -34540,7 +35325,7 @@
       <c r="I113" s="6"/>
     </row>
     <row r="114" spans="1:9">
-      <c r="A114" s="13" t="s">
+      <c r="A114" s="14" t="s">
         <v>323</v>
       </c>
       <c r="B114" s="6" t="s">
@@ -34565,7 +35350,7 @@
       <c r="I114" s="6"/>
     </row>
     <row r="115" spans="1:9">
-      <c r="A115" s="13" t="s">
+      <c r="A115" s="14" t="s">
         <v>323</v>
       </c>
       <c r="B115" s="6" t="s">
@@ -34590,7 +35375,7 @@
       <c r="I115" s="6"/>
     </row>
     <row r="116" spans="1:9">
-      <c r="A116" s="13" t="s">
+      <c r="A116" s="14" t="s">
         <v>323</v>
       </c>
       <c r="B116" s="6" t="s">
@@ -34615,7 +35400,7 @@
       <c r="I116" s="6"/>
     </row>
     <row r="117" spans="1:9">
-      <c r="A117" s="13" t="s">
+      <c r="A117" s="14" t="s">
         <v>323</v>
       </c>
       <c r="B117" s="6" t="s">
@@ -34640,7 +35425,7 @@
       <c r="I117" s="6"/>
     </row>
     <row r="118" spans="1:9">
-      <c r="A118" s="13" t="s">
+      <c r="A118" s="14" t="s">
         <v>323</v>
       </c>
       <c r="B118" s="6" t="s">
@@ -34665,7 +35450,7 @@
       <c r="I118" s="6"/>
     </row>
     <row r="119" spans="1:9">
-      <c r="A119" s="13" t="s">
+      <c r="A119" s="14" t="s">
         <v>323</v>
       </c>
       <c r="B119" s="6" t="s">
@@ -34692,7 +35477,7 @@
       <c r="I119" s="6"/>
     </row>
     <row r="120" spans="1:9">
-      <c r="A120" s="13" t="s">
+      <c r="A120" s="14" t="s">
         <v>323</v>
       </c>
       <c r="B120" s="6" t="s">
@@ -34717,7 +35502,7 @@
       <c r="I120" s="6"/>
     </row>
     <row r="121" spans="1:9">
-      <c r="A121" s="13" t="s">
+      <c r="A121" s="14" t="s">
         <v>323</v>
       </c>
       <c r="B121" s="6" t="s">
@@ -34742,7 +35527,7 @@
       <c r="I121" s="6"/>
     </row>
     <row r="122" spans="1:9">
-      <c r="A122" s="13" t="s">
+      <c r="A122" s="14" t="s">
         <v>323</v>
       </c>
       <c r="B122" s="6" t="s">
@@ -34767,7 +35552,7 @@
       <c r="I122" s="6"/>
     </row>
     <row r="123" spans="1:9">
-      <c r="A123" s="13" t="s">
+      <c r="A123" s="14" t="s">
         <v>324</v>
       </c>
       <c r="B123" s="6" t="s">
@@ -34792,7 +35577,7 @@
       <c r="I123" s="6"/>
     </row>
     <row r="124" spans="1:9">
-      <c r="A124" s="13" t="s">
+      <c r="A124" s="14" t="s">
         <v>324</v>
       </c>
       <c r="B124" s="6" t="s">
@@ -34817,7 +35602,7 @@
       <c r="I124" s="6"/>
     </row>
     <row r="125" spans="1:9">
-      <c r="A125" s="13" t="s">
+      <c r="A125" s="14" t="s">
         <v>324</v>
       </c>
       <c r="B125" s="6" t="s">
@@ -34844,7 +35629,7 @@
       <c r="I125" s="6"/>
     </row>
     <row r="126" spans="1:9">
-      <c r="A126" s="13" t="s">
+      <c r="A126" s="14" t="s">
         <v>324</v>
       </c>
       <c r="B126" s="6" t="s">
@@ -34871,7 +35656,7 @@
       <c r="I126" s="6"/>
     </row>
     <row r="127" spans="1:9">
-      <c r="A127" s="13" t="s">
+      <c r="A127" s="14" t="s">
         <v>325</v>
       </c>
       <c r="B127" s="6" t="s">
@@ -34896,7 +35681,7 @@
       <c r="I127" s="6"/>
     </row>
     <row r="128" spans="1:9">
-      <c r="A128" s="13" t="s">
+      <c r="A128" s="14" t="s">
         <v>325</v>
       </c>
       <c r="B128" s="6" t="s">
@@ -34921,7 +35706,7 @@
       <c r="I128" s="6"/>
     </row>
     <row r="129" spans="1:9">
-      <c r="A129" s="13" t="s">
+      <c r="A129" s="14" t="s">
         <v>325</v>
       </c>
       <c r="B129" s="6" t="s">
@@ -34946,7 +35731,7 @@
       <c r="I129" s="6"/>
     </row>
     <row r="130" spans="1:9">
-      <c r="A130" s="13" t="s">
+      <c r="A130" s="14" t="s">
         <v>325</v>
       </c>
       <c r="B130" s="6" t="s">
@@ -34971,7 +35756,7 @@
       <c r="I130" s="6"/>
     </row>
     <row r="131" spans="1:9">
-      <c r="A131" s="13" t="s">
+      <c r="A131" s="14" t="s">
         <v>325</v>
       </c>
       <c r="B131" s="6" t="s">
@@ -34996,7 +35781,7 @@
       <c r="I131" s="6"/>
     </row>
     <row r="132" spans="1:9">
-      <c r="A132" s="13" t="s">
+      <c r="A132" s="14" t="s">
         <v>325</v>
       </c>
       <c r="B132" s="6" t="s">
@@ -35021,7 +35806,7 @@
       <c r="I132" s="6"/>
     </row>
     <row r="133" spans="1:9">
-      <c r="A133" s="13" t="s">
+      <c r="A133" s="14" t="s">
         <v>325</v>
       </c>
       <c r="B133" s="6" t="s">
@@ -35046,7 +35831,7 @@
       <c r="I133" s="6"/>
     </row>
     <row r="134" spans="1:9">
-      <c r="A134" s="13" t="s">
+      <c r="A134" s="14" t="s">
         <v>325</v>
       </c>
       <c r="B134" s="6" t="s">
@@ -35071,7 +35856,7 @@
       <c r="I134" s="6"/>
     </row>
     <row r="135" spans="1:9">
-      <c r="A135" s="13" t="s">
+      <c r="A135" s="14" t="s">
         <v>325</v>
       </c>
       <c r="B135" s="6" t="s">
@@ -35098,7 +35883,7 @@
       <c r="I135" s="6"/>
     </row>
     <row r="136" spans="1:9">
-      <c r="A136" s="13" t="s">
+      <c r="A136" s="14" t="s">
         <v>326</v>
       </c>
       <c r="B136" s="6" t="s">
@@ -35125,7 +35910,7 @@
       <c r="I136" s="6"/>
     </row>
     <row r="137" spans="1:9">
-      <c r="A137" s="13" t="s">
+      <c r="A137" s="14" t="s">
         <v>326</v>
       </c>
       <c r="B137" s="6" t="s">
@@ -35152,7 +35937,7 @@
       <c r="I137" s="6"/>
     </row>
     <row r="138" spans="1:9">
-      <c r="A138" s="13" t="s">
+      <c r="A138" s="14" t="s">
         <v>326</v>
       </c>
       <c r="B138" s="6" t="s">
@@ -35179,7 +35964,7 @@
       <c r="I138" s="6"/>
     </row>
     <row r="139" spans="1:9">
-      <c r="A139" s="13" t="s">
+      <c r="A139" s="14" t="s">
         <v>326</v>
       </c>
       <c r="B139" s="6" t="s">
@@ -35206,7 +35991,7 @@
       <c r="I139" s="6"/>
     </row>
     <row r="140" spans="1:9">
-      <c r="A140" s="13" t="s">
+      <c r="A140" s="14" t="s">
         <v>326</v>
       </c>
       <c r="B140" s="6" t="s">
@@ -35233,7 +36018,7 @@
       <c r="I140" s="6"/>
     </row>
     <row r="141" spans="1:9">
-      <c r="A141" s="13" t="s">
+      <c r="A141" s="14" t="s">
         <v>326</v>
       </c>
       <c r="B141" s="6" t="s">
@@ -35252,7 +36037,7 @@
       <c r="I141" s="6"/>
     </row>
     <row r="142" spans="1:9">
-      <c r="A142" s="13" t="s">
+      <c r="A142" s="14" t="s">
         <v>327</v>
       </c>
       <c r="B142" s="6" t="s">
@@ -35277,7 +36062,7 @@
       <c r="I142" s="6"/>
     </row>
     <row r="143" spans="1:9">
-      <c r="A143" s="13" t="s">
+      <c r="A143" s="14" t="s">
         <v>327</v>
       </c>
       <c r="B143" s="6" t="s">
@@ -35302,7 +36087,7 @@
       <c r="I143" s="6"/>
     </row>
     <row r="144" spans="1:9">
-      <c r="A144" s="13" t="s">
+      <c r="A144" s="14" t="s">
         <v>328</v>
       </c>
       <c r="B144" s="6" t="s">
@@ -35327,7 +36112,7 @@
       <c r="I144" s="6"/>
     </row>
     <row r="145" spans="1:9">
-      <c r="A145" s="13" t="s">
+      <c r="A145" s="14" t="s">
         <v>328</v>
       </c>
       <c r="B145" s="6" t="s">
@@ -35352,7 +36137,7 @@
       <c r="I145" s="6"/>
     </row>
     <row r="146" spans="1:9">
-      <c r="A146" s="13" t="s">
+      <c r="A146" s="14" t="s">
         <v>328</v>
       </c>
       <c r="B146" s="6" t="s">
@@ -35379,7 +36164,7 @@
       <c r="I146" s="6"/>
     </row>
     <row r="147" spans="1:9">
-      <c r="A147" s="13" t="s">
+      <c r="A147" s="14" t="s">
         <v>328</v>
       </c>
       <c r="B147" s="6" t="s">
@@ -35406,7 +36191,7 @@
       <c r="I147" s="6"/>
     </row>
     <row r="148" spans="1:9">
-      <c r="A148" s="13" t="s">
+      <c r="A148" s="14" t="s">
         <v>328</v>
       </c>
       <c r="B148" s="6" t="s">
@@ -35433,7 +36218,7 @@
       <c r="I148" s="6"/>
     </row>
     <row r="149" spans="1:9">
-      <c r="A149" s="13" t="s">
+      <c r="A149" s="14" t="s">
         <v>328</v>
       </c>
       <c r="B149" s="6" t="s">
@@ -35460,7 +36245,7 @@
       <c r="I149" s="6"/>
     </row>
     <row r="150" spans="1:9">
-      <c r="A150" s="13" t="s">
+      <c r="A150" s="14" t="s">
         <v>328</v>
       </c>
       <c r="B150" s="6" t="s">
@@ -35487,7 +36272,7 @@
       <c r="I150" s="6"/>
     </row>
     <row r="151" spans="1:9">
-      <c r="A151" s="13" t="s">
+      <c r="A151" s="14" t="s">
         <v>329</v>
       </c>
       <c r="B151" s="6" t="s">
@@ -35514,7 +36299,7 @@
       <c r="I151" s="6"/>
     </row>
     <row r="152" spans="1:9">
-      <c r="A152" s="13" t="s">
+      <c r="A152" s="14" t="s">
         <v>329</v>
       </c>
       <c r="B152" s="6" t="s">
@@ -35539,7 +36324,7 @@
       <c r="I152" s="6"/>
     </row>
     <row r="153" spans="1:9">
-      <c r="A153" s="13" t="s">
+      <c r="A153" s="14" t="s">
         <v>329</v>
       </c>
       <c r="B153" s="6" t="s">
@@ -35564,7 +36349,7 @@
       <c r="I153" s="6"/>
     </row>
     <row r="154" spans="1:9">
-      <c r="A154" s="13" t="s">
+      <c r="A154" s="14" t="s">
         <v>329</v>
       </c>
       <c r="B154" s="6" t="s">
@@ -35589,7 +36374,7 @@
       <c r="I154" s="6"/>
     </row>
     <row r="155" spans="1:9">
-      <c r="A155" s="13" t="s">
+      <c r="A155" s="14" t="s">
         <v>329</v>
       </c>
       <c r="B155" s="6" t="s">
@@ -35614,7 +36399,7 @@
       <c r="I155" s="6"/>
     </row>
     <row r="156" spans="1:9">
-      <c r="A156" s="13" t="s">
+      <c r="A156" s="14" t="s">
         <v>329</v>
       </c>
       <c r="B156" s="6" t="s">
@@ -35639,7 +36424,7 @@
       <c r="I156" s="6"/>
     </row>
     <row r="157" spans="1:9">
-      <c r="A157" s="13" t="s">
+      <c r="A157" s="14" t="s">
         <v>330</v>
       </c>
       <c r="B157" s="6" t="s">
@@ -35664,7 +36449,7 @@
       <c r="I157" s="6"/>
     </row>
     <row r="158" spans="1:9">
-      <c r="A158" s="13" t="s">
+      <c r="A158" s="14" t="s">
         <v>330</v>
       </c>
       <c r="B158" s="6" t="s">
@@ -35689,7 +36474,7 @@
       <c r="I158" s="6"/>
     </row>
     <row r="159" spans="1:9">
-      <c r="A159" s="13" t="s">
+      <c r="A159" s="14" t="s">
         <v>331</v>
       </c>
       <c r="B159" s="6" t="s">
@@ -35716,7 +36501,7 @@
       <c r="I159" s="6"/>
     </row>
     <row r="160" spans="1:9">
-      <c r="A160" s="13" t="s">
+      <c r="A160" s="14" t="s">
         <v>331</v>
       </c>
       <c r="B160" s="6" t="s">
@@ -35741,7 +36526,7 @@
       <c r="I160" s="6"/>
     </row>
     <row r="161" spans="1:9">
-      <c r="A161" s="13" t="s">
+      <c r="A161" s="14" t="s">
         <v>331</v>
       </c>
       <c r="B161" s="6" t="s">
@@ -35766,7 +36551,7 @@
       <c r="I161" s="6"/>
     </row>
     <row r="162" spans="1:9">
-      <c r="A162" s="13" t="s">
+      <c r="A162" s="14" t="s">
         <v>331</v>
       </c>
       <c r="B162" s="6" t="s">
@@ -35791,7 +36576,7 @@
       <c r="I162" s="6"/>
     </row>
     <row r="163" spans="1:9">
-      <c r="A163" s="13" t="s">
+      <c r="A163" s="14" t="s">
         <v>331</v>
       </c>
       <c r="B163" s="6" t="s">
@@ -35816,7 +36601,7 @@
       <c r="I163" s="6"/>
     </row>
     <row r="164" spans="1:9">
-      <c r="A164" s="13" t="s">
+      <c r="A164" s="14" t="s">
         <v>331</v>
       </c>
       <c r="B164" s="6" t="s">
@@ -35841,7 +36626,7 @@
       <c r="I164" s="6"/>
     </row>
     <row r="165" spans="1:9">
-      <c r="A165" s="13" t="s">
+      <c r="A165" s="14" t="s">
         <v>331</v>
       </c>
       <c r="B165" s="6" t="s">
@@ -35866,7 +36651,7 @@
       <c r="I165" s="6"/>
     </row>
     <row r="166" spans="1:9">
-      <c r="A166" s="13" t="s">
+      <c r="A166" s="14" t="s">
         <v>332</v>
       </c>
       <c r="B166" s="6" t="s">
@@ -35893,7 +36678,7 @@
       <c r="I166" s="6"/>
     </row>
     <row r="167" spans="1:9">
-      <c r="A167" s="13" t="s">
+      <c r="A167" s="14" t="s">
         <v>332</v>
       </c>
       <c r="B167" s="6" t="s">
@@ -35920,7 +36705,7 @@
       <c r="I167" s="6"/>
     </row>
     <row r="168" spans="1:9">
-      <c r="A168" s="13" t="s">
+      <c r="A168" s="14" t="s">
         <v>332</v>
       </c>
       <c r="B168" s="6" t="s">
@@ -35945,7 +36730,7 @@
       <c r="I168" s="6"/>
     </row>
     <row r="169" spans="1:9">
-      <c r="A169" s="13" t="s">
+      <c r="A169" s="14" t="s">
         <v>332</v>
       </c>
       <c r="B169" s="6" t="s">
@@ -35970,7 +36755,7 @@
       <c r="I169" s="6"/>
     </row>
     <row r="170" spans="1:9">
-      <c r="A170" s="13" t="s">
+      <c r="A170" s="14" t="s">
         <v>332</v>
       </c>
       <c r="B170" s="6" t="s">
@@ -35995,7 +36780,7 @@
       <c r="I170" s="6"/>
     </row>
     <row r="171" spans="1:9">
-      <c r="A171" s="13" t="s">
+      <c r="A171" s="14" t="s">
         <v>332</v>
       </c>
       <c r="B171" s="6" t="s">
@@ -36020,7 +36805,7 @@
       <c r="I171" s="6"/>
     </row>
     <row r="172" spans="1:9">
-      <c r="A172" s="13" t="s">
+      <c r="A172" s="14" t="s">
         <v>332</v>
       </c>
       <c r="B172" s="6" t="s">
@@ -36047,7 +36832,7 @@
       <c r="I172" s="6"/>
     </row>
     <row r="173" spans="1:9">
-      <c r="A173" s="13" t="s">
+      <c r="A173" s="14" t="s">
         <v>332</v>
       </c>
       <c r="B173" s="6" t="s">
@@ -36074,7 +36859,7 @@
       <c r="I173" s="6"/>
     </row>
     <row r="174" spans="1:9">
-      <c r="A174" s="13" t="s">
+      <c r="A174" s="14" t="s">
         <v>334</v>
       </c>
       <c r="B174" s="6" t="s">
@@ -36099,7 +36884,7 @@
       <c r="I174" s="6"/>
     </row>
     <row r="175" spans="1:9">
-      <c r="A175" s="13" t="s">
+      <c r="A175" s="14" t="s">
         <v>335</v>
       </c>
       <c r="B175" s="6" t="s">
@@ -36126,7 +36911,7 @@
       <c r="I175" s="6"/>
     </row>
     <row r="176" spans="1:9">
-      <c r="A176" s="13" t="s">
+      <c r="A176" s="14" t="s">
         <v>335</v>
       </c>
       <c r="B176" s="6" t="s">
